--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,105 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Austria 2. Liga</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>Leoben</t>
+  </si>
+  <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>Sturm Graz II</t>
+  </si>
+  <si>
+    <t>Floridsdorfer AC</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['8', '11']</t>
+  </si>
+  <si>
+    <t>['7', '69', '83']</t>
+  </si>
+  <si>
+    <t>['23', '25', '58']</t>
+  </si>
+  <si>
+    <t>['19', '50', '77']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['14', '37']</t>
+  </si>
+  <si>
+    <t>['2', '51', '62', '90+1']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +354,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +851,1534 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6675912</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45135.53125</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>2.2</v>
+      </c>
+      <c r="U2">
+        <v>2.5</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>1.25</v>
+      </c>
+      <c r="X2">
+        <v>3.75</v>
+      </c>
+      <c r="Y2">
+        <v>2.2</v>
+      </c>
+      <c r="Z2">
+        <v>1.62</v>
+      </c>
+      <c r="AA2">
+        <v>4.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.17</v>
+      </c>
+      <c r="AC2">
+        <v>1.7</v>
+      </c>
+      <c r="AD2">
+        <v>4.33</v>
+      </c>
+      <c r="AE2">
+        <v>4</v>
+      </c>
+      <c r="AF2">
+        <v>1.02</v>
+      </c>
+      <c r="AG2">
+        <v>13</v>
+      </c>
+      <c r="AH2">
+        <v>1.16</v>
+      </c>
+      <c r="AI2">
+        <v>4.75</v>
+      </c>
+      <c r="AJ2">
+        <v>1.48</v>
+      </c>
+      <c r="AK2">
+        <v>2.6</v>
+      </c>
+      <c r="AL2">
+        <v>1.5</v>
+      </c>
+      <c r="AM2">
+        <v>2.5</v>
+      </c>
+      <c r="AN2">
+        <v>1.15</v>
+      </c>
+      <c r="AO2">
+        <v>1.17</v>
+      </c>
+      <c r="AP2">
+        <v>2.2</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.41</v>
+      </c>
+      <c r="AY2">
+        <v>7.5</v>
+      </c>
+      <c r="AZ2">
+        <v>3.89</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>1.28</v>
+      </c>
+      <c r="BC2">
+        <v>1.53</v>
+      </c>
+      <c r="BD2">
+        <v>1.85</v>
+      </c>
+      <c r="BE2">
+        <v>2.3</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>7</v>
+      </c>
+      <c r="BH2">
+        <v>9</v>
+      </c>
+      <c r="BI2">
+        <v>3</v>
+      </c>
+      <c r="BJ2">
+        <v>9</v>
+      </c>
+      <c r="BK2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6675913</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45135.53125</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>3.4</v>
+      </c>
+      <c r="U3">
+        <v>2.25</v>
+      </c>
+      <c r="V3">
+        <v>2.75</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>3.25</v>
+      </c>
+      <c r="Y3">
+        <v>2.63</v>
+      </c>
+      <c r="Z3">
+        <v>1.44</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>1.11</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>3.6</v>
+      </c>
+      <c r="AE3">
+        <v>2.2</v>
+      </c>
+      <c r="AF3">
+        <v>1.04</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>1.22</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>1.67</v>
+      </c>
+      <c r="AK3">
+        <v>2.15</v>
+      </c>
+      <c r="AL3">
+        <v>1.62</v>
+      </c>
+      <c r="AM3">
+        <v>2.2</v>
+      </c>
+      <c r="AN3">
+        <v>1.63</v>
+      </c>
+      <c r="AO3">
+        <v>1.22</v>
+      </c>
+      <c r="AP3">
+        <v>1.4</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>2.4</v>
+      </c>
+      <c r="AY3">
+        <v>5.75</v>
+      </c>
+      <c r="AZ3">
+        <v>1.76</v>
+      </c>
+      <c r="BA3">
+        <v>1.3</v>
+      </c>
+      <c r="BB3">
+        <v>1.57</v>
+      </c>
+      <c r="BC3">
+        <v>1.93</v>
+      </c>
+      <c r="BD3">
+        <v>2.43</v>
+      </c>
+      <c r="BE3">
+        <v>3.2</v>
+      </c>
+      <c r="BF3">
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <v>7</v>
+      </c>
+      <c r="BH3">
+        <v>5</v>
+      </c>
+      <c r="BI3">
+        <v>3</v>
+      </c>
+      <c r="BJ3">
+        <v>10</v>
+      </c>
+      <c r="BK3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6675914</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45135.53125</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>13</v>
+      </c>
+      <c r="T4">
+        <v>2.38</v>
+      </c>
+      <c r="U4">
+        <v>2.3</v>
+      </c>
+      <c r="V4">
+        <v>3.75</v>
+      </c>
+      <c r="W4">
+        <v>1.3</v>
+      </c>
+      <c r="X4">
+        <v>3.4</v>
+      </c>
+      <c r="Y4">
+        <v>2.5</v>
+      </c>
+      <c r="Z4">
+        <v>1.5</v>
+      </c>
+      <c r="AA4">
+        <v>5.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.13</v>
+      </c>
+      <c r="AC4">
+        <v>1.85</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>3.75</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>11</v>
+      </c>
+      <c r="AH4">
+        <v>1.18</v>
+      </c>
+      <c r="AI4">
+        <v>4.5</v>
+      </c>
+      <c r="AJ4">
+        <v>1.62</v>
+      </c>
+      <c r="AK4">
+        <v>2.25</v>
+      </c>
+      <c r="AL4">
+        <v>1.62</v>
+      </c>
+      <c r="AM4">
+        <v>2.2</v>
+      </c>
+      <c r="AN4">
+        <v>1.16</v>
+      </c>
+      <c r="AO4">
+        <v>1.17</v>
+      </c>
+      <c r="AP4">
+        <v>2.15</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.42</v>
+      </c>
+      <c r="AY4">
+        <v>7.2</v>
+      </c>
+      <c r="AZ4">
+        <v>3.89</v>
+      </c>
+      <c r="BA4">
+        <v>1.31</v>
+      </c>
+      <c r="BB4">
+        <v>1.59</v>
+      </c>
+      <c r="BC4">
+        <v>1.95</v>
+      </c>
+      <c r="BD4">
+        <v>2.46</v>
+      </c>
+      <c r="BE4">
+        <v>3.3</v>
+      </c>
+      <c r="BF4">
+        <v>8</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>10</v>
+      </c>
+      <c r="BK4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6675915</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45135.53125</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>2.1</v>
+      </c>
+      <c r="U5">
+        <v>2.38</v>
+      </c>
+      <c r="V5">
+        <v>4.75</v>
+      </c>
+      <c r="W5">
+        <v>1.29</v>
+      </c>
+      <c r="X5">
+        <v>3.5</v>
+      </c>
+      <c r="Y5">
+        <v>2.25</v>
+      </c>
+      <c r="Z5">
+        <v>1.57</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>1.14</v>
+      </c>
+      <c r="AC5">
+        <v>1.62</v>
+      </c>
+      <c r="AD5">
+        <v>4.33</v>
+      </c>
+      <c r="AE5">
+        <v>4.75</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>11</v>
+      </c>
+      <c r="AH5">
+        <v>1.16</v>
+      </c>
+      <c r="AI5">
+        <v>4.75</v>
+      </c>
+      <c r="AJ5">
+        <v>1.67</v>
+      </c>
+      <c r="AK5">
+        <v>2.15</v>
+      </c>
+      <c r="AL5">
+        <v>1.73</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>1.12</v>
+      </c>
+      <c r="AO5">
+        <v>1.16</v>
+      </c>
+      <c r="AP5">
+        <v>2.35</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.37</v>
+      </c>
+      <c r="AY5">
+        <v>7.9</v>
+      </c>
+      <c r="AZ5">
+        <v>4.1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>1.31</v>
+      </c>
+      <c r="BC5">
+        <v>2.1</v>
+      </c>
+      <c r="BD5">
+        <v>1.91</v>
+      </c>
+      <c r="BE5">
+        <v>2.37</v>
+      </c>
+      <c r="BF5">
+        <v>5</v>
+      </c>
+      <c r="BG5">
+        <v>3</v>
+      </c>
+      <c r="BH5">
+        <v>7</v>
+      </c>
+      <c r="BI5">
+        <v>3</v>
+      </c>
+      <c r="BJ5">
+        <v>12</v>
+      </c>
+      <c r="BK5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6675918</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45135.53125</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>2.6</v>
+      </c>
+      <c r="U6">
+        <v>2.2</v>
+      </c>
+      <c r="V6">
+        <v>3.75</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.25</v>
+      </c>
+      <c r="Y6">
+        <v>2.5</v>
+      </c>
+      <c r="Z6">
+        <v>1.5</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>1.11</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>3.75</v>
+      </c>
+      <c r="AE6">
+        <v>3.4</v>
+      </c>
+      <c r="AF6">
+        <v>1.04</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>1.2</v>
+      </c>
+      <c r="AI6">
+        <v>4.2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.8</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>1.67</v>
+      </c>
+      <c r="AM6">
+        <v>2.1</v>
+      </c>
+      <c r="AN6">
+        <v>1.42</v>
+      </c>
+      <c r="AO6">
+        <v>1.22</v>
+      </c>
+      <c r="AP6">
+        <v>1.6</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.71</v>
+      </c>
+      <c r="AY6">
+        <v>6</v>
+      </c>
+      <c r="AZ6">
+        <v>2.45</v>
+      </c>
+      <c r="BA6">
+        <v>1.19</v>
+      </c>
+      <c r="BB6">
+        <v>1.4</v>
+      </c>
+      <c r="BC6">
+        <v>2.2</v>
+      </c>
+      <c r="BD6">
+        <v>2.14</v>
+      </c>
+      <c r="BE6">
+        <v>2.7</v>
+      </c>
+      <c r="BF6">
+        <v>9</v>
+      </c>
+      <c r="BG6">
+        <v>7</v>
+      </c>
+      <c r="BH6">
+        <v>8</v>
+      </c>
+      <c r="BI6">
+        <v>5</v>
+      </c>
+      <c r="BJ6">
+        <v>17</v>
+      </c>
+      <c r="BK6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6675920</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45135.53125</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>2.25</v>
+      </c>
+      <c r="V7">
+        <v>3.25</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>3.25</v>
+      </c>
+      <c r="Y7">
+        <v>2.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>5.5</v>
+      </c>
+      <c r="AB7">
+        <v>1.13</v>
+      </c>
+      <c r="AC7">
+        <v>2.25</v>
+      </c>
+      <c r="AD7">
+        <v>3.75</v>
+      </c>
+      <c r="AE7">
+        <v>2.9</v>
+      </c>
+      <c r="AF7">
+        <v>1.04</v>
+      </c>
+      <c r="AG7">
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <v>1.22</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>1.7</v>
+      </c>
+      <c r="AK7">
+        <v>2.1</v>
+      </c>
+      <c r="AL7">
+        <v>1.62</v>
+      </c>
+      <c r="AM7">
+        <v>2.2</v>
+      </c>
+      <c r="AN7">
+        <v>1.3</v>
+      </c>
+      <c r="AO7">
+        <v>1.22</v>
+      </c>
+      <c r="AP7">
+        <v>1.8</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.54</v>
+      </c>
+      <c r="AY7">
+        <v>6</v>
+      </c>
+      <c r="AZ7">
+        <v>2.9</v>
+      </c>
+      <c r="BA7">
+        <v>1.27</v>
+      </c>
+      <c r="BB7">
+        <v>1.5</v>
+      </c>
+      <c r="BC7">
+        <v>2.38</v>
+      </c>
+      <c r="BD7">
+        <v>2.26</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BF7">
+        <v>6</v>
+      </c>
+      <c r="BG7">
+        <v>5</v>
+      </c>
+      <c r="BH7">
+        <v>5</v>
+      </c>
+      <c r="BI7">
+        <v>5</v>
+      </c>
+      <c r="BJ7">
+        <v>11</v>
+      </c>
+      <c r="BK7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6675916</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45137.22916666666</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>4.33</v>
+      </c>
+      <c r="U8">
+        <v>2.38</v>
+      </c>
+      <c r="V8">
+        <v>2.2</v>
+      </c>
+      <c r="W8">
+        <v>1.33</v>
+      </c>
+      <c r="X8">
+        <v>3.25</v>
+      </c>
+      <c r="Y8">
+        <v>2.5</v>
+      </c>
+      <c r="Z8">
+        <v>1.5</v>
+      </c>
+      <c r="AA8">
+        <v>5.5</v>
+      </c>
+      <c r="AB8">
+        <v>1.13</v>
+      </c>
+      <c r="AC8">
+        <v>4.33</v>
+      </c>
+      <c r="AD8">
+        <v>4.2</v>
+      </c>
+      <c r="AE8">
+        <v>1.7</v>
+      </c>
+      <c r="AF8">
+        <v>1.04</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>1.22</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <v>1.6</v>
+      </c>
+      <c r="AK8">
+        <v>2.3</v>
+      </c>
+      <c r="AL8">
+        <v>1.67</v>
+      </c>
+      <c r="AM8">
+        <v>2.1</v>
+      </c>
+      <c r="AN8">
+        <v>2.05</v>
+      </c>
+      <c r="AO8">
+        <v>1.2</v>
+      </c>
+      <c r="AP8">
+        <v>1.2</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>2.7</v>
+      </c>
+      <c r="AY8">
+        <v>6</v>
+      </c>
+      <c r="AZ8">
+        <v>1.66</v>
+      </c>
+      <c r="BA8">
+        <v>1.23</v>
+      </c>
+      <c r="BB8">
+        <v>1.42</v>
+      </c>
+      <c r="BC8">
+        <v>2.38</v>
+      </c>
+      <c r="BD8">
+        <v>2.14</v>
+      </c>
+      <c r="BE8">
+        <v>2.75</v>
+      </c>
+      <c r="BF8">
+        <v>3</v>
+      </c>
+      <c r="BG8">
+        <v>8</v>
+      </c>
+      <c r="BH8">
+        <v>3</v>
+      </c>
+      <c r="BI8">
+        <v>5</v>
+      </c>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+      <c r="BK8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6675919</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45137.22916666666</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <v>3.6</v>
+      </c>
+      <c r="U9">
+        <v>2.1</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>2.75</v>
+      </c>
+      <c r="Y9">
+        <v>2.75</v>
+      </c>
+      <c r="Z9">
+        <v>1.4</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>1.08</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>3.6</v>
+      </c>
+      <c r="AE9">
+        <v>2.25</v>
+      </c>
+      <c r="AF9">
+        <v>1.06</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
+        <v>1.28</v>
+      </c>
+      <c r="AI9">
+        <v>3.5</v>
+      </c>
+      <c r="AJ9">
+        <v>1.95</v>
+      </c>
+      <c r="AK9">
+        <v>1.85</v>
+      </c>
+      <c r="AL9">
+        <v>1.8</v>
+      </c>
+      <c r="AM9">
+        <v>1.91</v>
+      </c>
+      <c r="AN9">
+        <v>1.6</v>
+      </c>
+      <c r="AO9">
+        <v>1.25</v>
+      </c>
+      <c r="AP9">
+        <v>1.38</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>2.11</v>
+      </c>
+      <c r="AY9">
+        <v>8.6</v>
+      </c>
+      <c r="AZ9">
+        <v>1.94</v>
+      </c>
+      <c r="BA9">
+        <v>1.29</v>
+      </c>
+      <c r="BB9">
+        <v>1.51</v>
+      </c>
+      <c r="BC9">
+        <v>1.85</v>
+      </c>
+      <c r="BD9">
+        <v>2.37</v>
+      </c>
+      <c r="BE9">
+        <v>3.1</v>
+      </c>
+      <c r="BF9">
+        <v>4</v>
+      </c>
+      <c r="BG9">
+        <v>3</v>
+      </c>
+      <c r="BH9">
+        <v>3</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>7</v>
+      </c>
+      <c r="BK9">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,30 +235,30 @@
     <t>Floridsdorfer AC</t>
   </si>
   <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
     <t>Dornbirn</t>
   </si>
   <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
     <t>Amstetten</t>
   </si>
   <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -283,6 +283,18 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['39', '90+3']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['24', '32']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -293,6 +305,18 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['10', '68', '78', '89']</t>
+  </si>
+  <si>
+    <t>['35', '85']</t>
   </si>
 </sst>
 </file>
@@ -654,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +898,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -898,7 +922,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1065,7 +1089,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1447,7 +1471,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1638,7 +1662,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1662,7 +1686,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1829,7 +1853,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2020,7 +2044,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2044,7 +2068,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2211,7 +2235,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2235,7 +2259,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2377,6 +2401,961 @@
       </c>
       <c r="BK9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6675928</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45142.54861111111</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>2.25</v>
+      </c>
+      <c r="V10">
+        <v>3.75</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>2.4</v>
+      </c>
+      <c r="Z10">
+        <v>1.51</v>
+      </c>
+      <c r="AA10">
+        <v>5.45</v>
+      </c>
+      <c r="AB10">
+        <v>1.12</v>
+      </c>
+      <c r="AC10">
+        <v>1.91</v>
+      </c>
+      <c r="AD10">
+        <v>3.75</v>
+      </c>
+      <c r="AE10">
+        <v>3.75</v>
+      </c>
+      <c r="AF10">
+        <v>1.04</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>1.2</v>
+      </c>
+      <c r="AI10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ10">
+        <v>1.73</v>
+      </c>
+      <c r="AK10">
+        <v>2.08</v>
+      </c>
+      <c r="AL10">
+        <v>1.67</v>
+      </c>
+      <c r="AM10">
+        <v>2.1</v>
+      </c>
+      <c r="AN10">
+        <v>1.15</v>
+      </c>
+      <c r="AO10">
+        <v>1.18</v>
+      </c>
+      <c r="AP10">
+        <v>2.15</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.51</v>
+      </c>
+      <c r="AY10">
+        <v>6.7</v>
+      </c>
+      <c r="AZ10">
+        <v>3.48</v>
+      </c>
+      <c r="BA10">
+        <v>1.51</v>
+      </c>
+      <c r="BB10">
+        <v>1.85</v>
+      </c>
+      <c r="BC10">
+        <v>2.33</v>
+      </c>
+      <c r="BD10">
+        <v>3.2</v>
+      </c>
+      <c r="BE10">
+        <v>5.3</v>
+      </c>
+      <c r="BF10">
+        <v>6</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>3</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6675926</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45142.54861111111</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>2.38</v>
+      </c>
+      <c r="V11">
+        <v>2.25</v>
+      </c>
+      <c r="W11">
+        <v>1.27</v>
+      </c>
+      <c r="X11">
+        <v>3.45</v>
+      </c>
+      <c r="Y11">
+        <v>2.29</v>
+      </c>
+      <c r="Z11">
+        <v>1.56</v>
+      </c>
+      <c r="AA11">
+        <v>4.95</v>
+      </c>
+      <c r="AB11">
+        <v>1.14</v>
+      </c>
+      <c r="AC11">
+        <v>4.2</v>
+      </c>
+      <c r="AD11">
+        <v>4.2</v>
+      </c>
+      <c r="AE11">
+        <v>1.73</v>
+      </c>
+      <c r="AF11">
+        <v>1.03</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>1.17</v>
+      </c>
+      <c r="AI11">
+        <v>4.75</v>
+      </c>
+      <c r="AJ11">
+        <v>1.57</v>
+      </c>
+      <c r="AK11">
+        <v>2.35</v>
+      </c>
+      <c r="AL11">
+        <v>1.62</v>
+      </c>
+      <c r="AM11">
+        <v>2.2</v>
+      </c>
+      <c r="AN11">
+        <v>2.05</v>
+      </c>
+      <c r="AO11">
+        <v>1.18</v>
+      </c>
+      <c r="AP11">
+        <v>1.22</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>3.08</v>
+      </c>
+      <c r="AY11">
+        <v>9.5</v>
+      </c>
+      <c r="AZ11">
+        <v>1.48</v>
+      </c>
+      <c r="BA11">
+        <v>1.19</v>
+      </c>
+      <c r="BB11">
+        <v>1.38</v>
+      </c>
+      <c r="BC11">
+        <v>2.38</v>
+      </c>
+      <c r="BD11">
+        <v>2.15</v>
+      </c>
+      <c r="BE11">
+        <v>2.78</v>
+      </c>
+      <c r="BF11">
+        <v>3</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
+        <v>2</v>
+      </c>
+      <c r="BI11">
+        <v>6</v>
+      </c>
+      <c r="BJ11">
+        <v>5</v>
+      </c>
+      <c r="BK11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6675922</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45142.54861111111</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2.2</v>
+      </c>
+      <c r="V12">
+        <v>2.4</v>
+      </c>
+      <c r="W12">
+        <v>1.35</v>
+      </c>
+      <c r="X12">
+        <v>2.95</v>
+      </c>
+      <c r="Y12">
+        <v>2.6</v>
+      </c>
+      <c r="Z12">
+        <v>1.44</v>
+      </c>
+      <c r="AA12">
+        <v>6.4</v>
+      </c>
+      <c r="AB12">
+        <v>1.09</v>
+      </c>
+      <c r="AC12">
+        <v>3.8</v>
+      </c>
+      <c r="AD12">
+        <v>3.75</v>
+      </c>
+      <c r="AE12">
+        <v>1.91</v>
+      </c>
+      <c r="AF12">
+        <v>1.05</v>
+      </c>
+      <c r="AG12">
+        <v>9</v>
+      </c>
+      <c r="AH12">
+        <v>1.25</v>
+      </c>
+      <c r="AI12">
+        <v>3.75</v>
+      </c>
+      <c r="AJ12">
+        <v>1.85</v>
+      </c>
+      <c r="AK12">
+        <v>1.95</v>
+      </c>
+      <c r="AL12">
+        <v>1.73</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1.8</v>
+      </c>
+      <c r="AO12">
+        <v>1.22</v>
+      </c>
+      <c r="AP12">
+        <v>1.3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>2.4</v>
+      </c>
+      <c r="AY12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ12">
+        <v>1.74</v>
+      </c>
+      <c r="BA12">
+        <v>1.22</v>
+      </c>
+      <c r="BB12">
+        <v>1.42</v>
+      </c>
+      <c r="BC12">
+        <v>1.79</v>
+      </c>
+      <c r="BD12">
+        <v>2.22</v>
+      </c>
+      <c r="BE12">
+        <v>2.93</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>2</v>
+      </c>
+      <c r="BJ12">
+        <v>8</v>
+      </c>
+      <c r="BK12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6675921</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45142.54861111111</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
+        <v>2.3</v>
+      </c>
+      <c r="V13">
+        <v>3.25</v>
+      </c>
+      <c r="W13">
+        <v>1.3</v>
+      </c>
+      <c r="X13">
+        <v>3.25</v>
+      </c>
+      <c r="Y13">
+        <v>2.39</v>
+      </c>
+      <c r="Z13">
+        <v>1.52</v>
+      </c>
+      <c r="AA13">
+        <v>5.45</v>
+      </c>
+      <c r="AB13">
+        <v>1.12</v>
+      </c>
+      <c r="AC13">
+        <v>2.25</v>
+      </c>
+      <c r="AD13">
+        <v>3.75</v>
+      </c>
+      <c r="AE13">
+        <v>2.88</v>
+      </c>
+      <c r="AF13">
+        <v>1.03</v>
+      </c>
+      <c r="AG13">
+        <v>11</v>
+      </c>
+      <c r="AH13">
+        <v>1.2</v>
+      </c>
+      <c r="AI13">
+        <v>4.33</v>
+      </c>
+      <c r="AJ13">
+        <v>1.65</v>
+      </c>
+      <c r="AK13">
+        <v>2.2</v>
+      </c>
+      <c r="AL13">
+        <v>1.57</v>
+      </c>
+      <c r="AM13">
+        <v>2.25</v>
+      </c>
+      <c r="AN13">
+        <v>1.35</v>
+      </c>
+      <c r="AO13">
+        <v>1.22</v>
+      </c>
+      <c r="AP13">
+        <v>1.63</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.87</v>
+      </c>
+      <c r="AY13">
+        <v>6.8</v>
+      </c>
+      <c r="AZ13">
+        <v>2.39</v>
+      </c>
+      <c r="BA13">
+        <v>1.25</v>
+      </c>
+      <c r="BB13">
+        <v>1.5</v>
+      </c>
+      <c r="BC13">
+        <v>2.38</v>
+      </c>
+      <c r="BD13">
+        <v>2.25</v>
+      </c>
+      <c r="BE13">
+        <v>2.9</v>
+      </c>
+      <c r="BF13">
+        <v>6</v>
+      </c>
+      <c r="BG13">
+        <v>11</v>
+      </c>
+      <c r="BH13">
+        <v>4</v>
+      </c>
+      <c r="BI13">
+        <v>3</v>
+      </c>
+      <c r="BJ13">
+        <v>10</v>
+      </c>
+      <c r="BK13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6675924</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45142.64583333334</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>2.4</v>
+      </c>
+      <c r="U14">
+        <v>2.25</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>1.32</v>
+      </c>
+      <c r="X14">
+        <v>3.15</v>
+      </c>
+      <c r="Y14">
+        <v>2.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.47</v>
+      </c>
+      <c r="AA14">
+        <v>5.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.1</v>
+      </c>
+      <c r="AC14">
+        <v>1.8</v>
+      </c>
+      <c r="AD14">
+        <v>3.6</v>
+      </c>
+      <c r="AE14">
+        <v>3.9</v>
+      </c>
+      <c r="AF14">
+        <v>1.04</v>
+      </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14">
+        <v>1.22</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>1.73</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>1.67</v>
+      </c>
+      <c r="AM14">
+        <v>2.1</v>
+      </c>
+      <c r="AN14">
+        <v>1.18</v>
+      </c>
+      <c r="AO14">
+        <v>1.2</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.49</v>
+      </c>
+      <c r="AY14">
+        <v>9.5</v>
+      </c>
+      <c r="AZ14">
+        <v>3.04</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>1.4</v>
+      </c>
+      <c r="BC14">
+        <v>2.1</v>
+      </c>
+      <c r="BD14">
+        <v>2.09</v>
+      </c>
+      <c r="BE14">
+        <v>2.65</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>5</v>
+      </c>
+      <c r="BH14">
+        <v>5</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
+      </c>
+      <c r="BJ14">
+        <v>11</v>
+      </c>
+      <c r="BK14">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,21 +241,21 @@
     <t>Dornbirn</t>
   </si>
   <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
     <t>Kapfenberger SV</t>
   </si>
   <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
     <t>Ried</t>
   </si>
   <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
     <t>Horn</t>
   </si>
   <si>
@@ -286,15 +286,21 @@
     <t>['39', '90+3']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['24', '32']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['37', '76']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -310,13 +316,19 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['10', '68', '78', '89']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
-    <t>['10', '68', '78', '89']</t>
-  </si>
-  <si>
     <t>['35', '85']</t>
+  </si>
+  <si>
+    <t>['36', '47']</t>
+  </si>
+  <si>
+    <t>['84', '89']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK14"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +934,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1089,7 +1101,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1280,7 +1292,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1471,7 +1483,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1686,7 +1698,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1853,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2068,7 +2080,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2259,7 +2271,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2641,7 +2653,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2790,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6675922</v>
+        <v>6675921</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2808,109 +2820,109 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <v>5</v>
       </c>
-      <c r="R12">
-        <v>6</v>
-      </c>
       <c r="S12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V12">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="W12">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X12">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="Y12">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="Z12">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AA12">
-        <v>6.4</v>
+        <v>5.45</v>
       </c>
       <c r="AB12">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AC12">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="AD12">
         <v>3.75</v>
       </c>
       <c r="AE12">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="AF12">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AI12">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AJ12">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AK12">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AL12">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AM12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AN12">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="AO12">
         <v>1.22</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -2919,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -2934,46 +2946,46 @@
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="AY12">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AZ12">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="BA12">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB12">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BC12">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="BD12">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="BE12">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="BF12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BH12">
         <v>4</v>
       </c>
       <c r="BI12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK12">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -2981,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6675921</v>
+        <v>6675922</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -2999,109 +3011,109 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V13">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="W13">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X13">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="Y13">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="Z13">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AA13">
-        <v>5.45</v>
+        <v>6.4</v>
       </c>
       <c r="AB13">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AC13">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="AD13">
         <v>3.75</v>
       </c>
       <c r="AE13">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="AF13">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH13">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI13">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AJ13">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AK13">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AL13">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AM13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AN13">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="AO13">
         <v>1.22</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3110,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3125,46 +3137,46 @@
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="AY13">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ13">
-        <v>2.39</v>
+        <v>1.74</v>
       </c>
       <c r="BA13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB13">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC13">
-        <v>2.38</v>
+        <v>1.79</v>
       </c>
       <c r="BD13">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="BE13">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="BF13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BH13">
         <v>4</v>
       </c>
       <c r="BI13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK13">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3214,7 +3226,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3356,6 +3368,388 @@
       </c>
       <c r="BK14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6675930</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45143.625</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>2.4</v>
+      </c>
+      <c r="U15">
+        <v>2.25</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>1.32</v>
+      </c>
+      <c r="X15">
+        <v>3.15</v>
+      </c>
+      <c r="Y15">
+        <v>2.45</v>
+      </c>
+      <c r="Z15">
+        <v>1.49</v>
+      </c>
+      <c r="AA15">
+        <v>5.45</v>
+      </c>
+      <c r="AB15">
+        <v>1.12</v>
+      </c>
+      <c r="AC15">
+        <v>1.91</v>
+      </c>
+      <c r="AD15">
+        <v>3.8</v>
+      </c>
+      <c r="AE15">
+        <v>3.75</v>
+      </c>
+      <c r="AF15">
+        <v>1.02</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>1.22</v>
+      </c>
+      <c r="AI15">
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <v>1.7</v>
+      </c>
+      <c r="AK15">
+        <v>2.1</v>
+      </c>
+      <c r="AL15">
+        <v>1.67</v>
+      </c>
+      <c r="AM15">
+        <v>2.1</v>
+      </c>
+      <c r="AN15">
+        <v>1.22</v>
+      </c>
+      <c r="AO15">
+        <v>1.2</v>
+      </c>
+      <c r="AP15">
+        <v>1.87</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>1.45</v>
+      </c>
+      <c r="AY15">
+        <v>6.5</v>
+      </c>
+      <c r="AZ15">
+        <v>3.35</v>
+      </c>
+      <c r="BA15">
+        <v>1.29</v>
+      </c>
+      <c r="BB15">
+        <v>1.49</v>
+      </c>
+      <c r="BC15">
+        <v>1.87</v>
+      </c>
+      <c r="BD15">
+        <v>2.45</v>
+      </c>
+      <c r="BE15">
+        <v>3.3</v>
+      </c>
+      <c r="BF15">
+        <v>3</v>
+      </c>
+      <c r="BG15">
+        <v>7</v>
+      </c>
+      <c r="BH15">
+        <v>9</v>
+      </c>
+      <c r="BI15">
+        <v>7</v>
+      </c>
+      <c r="BJ15">
+        <v>12</v>
+      </c>
+      <c r="BK15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6675927</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45144.22916666666</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+      <c r="T16">
+        <v>2.4</v>
+      </c>
+      <c r="U16">
+        <v>2.38</v>
+      </c>
+      <c r="V16">
+        <v>3.75</v>
+      </c>
+      <c r="W16">
+        <v>1.29</v>
+      </c>
+      <c r="X16">
+        <v>3.5</v>
+      </c>
+      <c r="Y16">
+        <v>2.25</v>
+      </c>
+      <c r="Z16">
+        <v>1.57</v>
+      </c>
+      <c r="AA16">
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <v>1.14</v>
+      </c>
+      <c r="AC16">
+        <v>1.91</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16">
+        <v>3.5</v>
+      </c>
+      <c r="AF16">
+        <v>1.03</v>
+      </c>
+      <c r="AG16">
+        <v>11</v>
+      </c>
+      <c r="AH16">
+        <v>1.17</v>
+      </c>
+      <c r="AI16">
+        <v>4.75</v>
+      </c>
+      <c r="AJ16">
+        <v>1.6</v>
+      </c>
+      <c r="AK16">
+        <v>2.3</v>
+      </c>
+      <c r="AL16">
+        <v>1.57</v>
+      </c>
+      <c r="AM16">
+        <v>2.25</v>
+      </c>
+      <c r="AN16">
+        <v>1.33</v>
+      </c>
+      <c r="AO16">
+        <v>1.2</v>
+      </c>
+      <c r="AP16">
+        <v>1.68</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1.74</v>
+      </c>
+      <c r="AY16">
+        <v>6.25</v>
+      </c>
+      <c r="AZ16">
+        <v>2.5</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>1.28</v>
+      </c>
+      <c r="BC16">
+        <v>1.54</v>
+      </c>
+      <c r="BD16">
+        <v>1.87</v>
+      </c>
+      <c r="BE16">
+        <v>2.3</v>
+      </c>
+      <c r="BF16">
+        <v>5</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BH16">
+        <v>3</v>
+      </c>
+      <c r="BI16">
+        <v>7</v>
+      </c>
+      <c r="BJ16">
+        <v>8</v>
+      </c>
+      <c r="BK16">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,24 @@
     <t>['37', '76']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['19', '24']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['27', '83']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -329,6 +347,18 @@
   </si>
   <si>
     <t>['84', '89']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['51', '71', '76']</t>
+  </si>
+  <si>
+    <t>['33', '79']</t>
+  </si>
+  <si>
+    <t>['38', '42']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +964,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1024,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1212,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1406,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1698,7 +1728,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2080,7 +2110,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2167,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -2271,7 +2301,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2361,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2549,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2653,7 +2683,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2844,7 +2874,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2931,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>3</v>
@@ -3035,7 +3065,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3226,7 +3256,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3417,7 +3447,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3608,7 +3638,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3695,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -3750,6 +3780,1534 @@
       </c>
       <c r="BK16">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6675932</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45149.54861111111</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>1.28</v>
+      </c>
+      <c r="X17">
+        <v>3.48</v>
+      </c>
+      <c r="Y17">
+        <v>2.31</v>
+      </c>
+      <c r="Z17">
+        <v>1.57</v>
+      </c>
+      <c r="AA17">
+        <v>5.3</v>
+      </c>
+      <c r="AB17">
+        <v>1.14</v>
+      </c>
+      <c r="AC17">
+        <v>1.53</v>
+      </c>
+      <c r="AD17">
+        <v>4.2</v>
+      </c>
+      <c r="AE17">
+        <v>5.75</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>11</v>
+      </c>
+      <c r="AH17">
+        <v>1.15</v>
+      </c>
+      <c r="AI17">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17">
+        <v>1.53</v>
+      </c>
+      <c r="AK17">
+        <v>2.4</v>
+      </c>
+      <c r="AL17">
+        <v>1.67</v>
+      </c>
+      <c r="AM17">
+        <v>2.1</v>
+      </c>
+      <c r="AN17">
+        <v>1.24</v>
+      </c>
+      <c r="AO17">
+        <v>1.22</v>
+      </c>
+      <c r="AP17">
+        <v>2.03</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1.5</v>
+      </c>
+      <c r="AT17">
+        <v>3</v>
+      </c>
+      <c r="AU17">
+        <v>1.62</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1.62</v>
+      </c>
+      <c r="AX17">
+        <v>1.5</v>
+      </c>
+      <c r="AY17">
+        <v>7.5</v>
+      </c>
+      <c r="AZ17">
+        <v>3.3</v>
+      </c>
+      <c r="BA17">
+        <v>1.24</v>
+      </c>
+      <c r="BB17">
+        <v>1.44</v>
+      </c>
+      <c r="BC17">
+        <v>2.38</v>
+      </c>
+      <c r="BD17">
+        <v>2.18</v>
+      </c>
+      <c r="BE17">
+        <v>2.63</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>6</v>
+      </c>
+      <c r="BH17">
+        <v>9</v>
+      </c>
+      <c r="BI17">
+        <v>5</v>
+      </c>
+      <c r="BJ17">
+        <v>9</v>
+      </c>
+      <c r="BK17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6675938</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45149.54861111111</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>8</v>
+      </c>
+      <c r="T18">
+        <v>2.4</v>
+      </c>
+      <c r="U18">
+        <v>2.25</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>1.33</v>
+      </c>
+      <c r="X18">
+        <v>3.15</v>
+      </c>
+      <c r="Y18">
+        <v>2.51</v>
+      </c>
+      <c r="Z18">
+        <v>1.49</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18">
+        <v>1.11</v>
+      </c>
+      <c r="AC18">
+        <v>1.91</v>
+      </c>
+      <c r="AD18">
+        <v>3.6</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>10.5</v>
+      </c>
+      <c r="AH18">
+        <v>1.19</v>
+      </c>
+      <c r="AI18">
+        <v>3.9</v>
+      </c>
+      <c r="AJ18">
+        <v>1.7</v>
+      </c>
+      <c r="AK18">
+        <v>2.1</v>
+      </c>
+      <c r="AL18">
+        <v>1.67</v>
+      </c>
+      <c r="AM18">
+        <v>2.1</v>
+      </c>
+      <c r="AN18">
+        <v>1.29</v>
+      </c>
+      <c r="AO18">
+        <v>1.25</v>
+      </c>
+      <c r="AP18">
+        <v>1.83</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>1.52</v>
+      </c>
+      <c r="AV18">
+        <v>1.69</v>
+      </c>
+      <c r="AW18">
+        <v>3.21</v>
+      </c>
+      <c r="AX18">
+        <v>1.62</v>
+      </c>
+      <c r="AY18">
+        <v>7.5</v>
+      </c>
+      <c r="AZ18">
+        <v>2.88</v>
+      </c>
+      <c r="BA18">
+        <v>1.21</v>
+      </c>
+      <c r="BB18">
+        <v>1.44</v>
+      </c>
+      <c r="BC18">
+        <v>2.25</v>
+      </c>
+      <c r="BD18">
+        <v>2.15</v>
+      </c>
+      <c r="BE18">
+        <v>2.7</v>
+      </c>
+      <c r="BF18">
+        <v>4</v>
+      </c>
+      <c r="BG18">
+        <v>4</v>
+      </c>
+      <c r="BH18">
+        <v>3</v>
+      </c>
+      <c r="BI18">
+        <v>6</v>
+      </c>
+      <c r="BJ18">
+        <v>7</v>
+      </c>
+      <c r="BK18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6675939</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45149.54861111111</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>3.4</v>
+      </c>
+      <c r="U19">
+        <v>2.25</v>
+      </c>
+      <c r="V19">
+        <v>2.75</v>
+      </c>
+      <c r="W19">
+        <v>1.32</v>
+      </c>
+      <c r="X19">
+        <v>3.22</v>
+      </c>
+      <c r="Y19">
+        <v>2.46</v>
+      </c>
+      <c r="Z19">
+        <v>1.51</v>
+      </c>
+      <c r="AA19">
+        <v>5.85</v>
+      </c>
+      <c r="AB19">
+        <v>1.11</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19">
+        <v>3.6</v>
+      </c>
+      <c r="AE19">
+        <v>2.2</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>10.5</v>
+      </c>
+      <c r="AH19">
+        <v>1.19</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>1.67</v>
+      </c>
+      <c r="AK19">
+        <v>2.15</v>
+      </c>
+      <c r="AL19">
+        <v>1.57</v>
+      </c>
+      <c r="AM19">
+        <v>2.25</v>
+      </c>
+      <c r="AN19">
+        <v>1.69</v>
+      </c>
+      <c r="AO19">
+        <v>1.26</v>
+      </c>
+      <c r="AP19">
+        <v>1.36</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1.5</v>
+      </c>
+      <c r="AT19">
+        <v>0.5</v>
+      </c>
+      <c r="AU19">
+        <v>1.61</v>
+      </c>
+      <c r="AV19">
+        <v>0.82</v>
+      </c>
+      <c r="AW19">
+        <v>2.43</v>
+      </c>
+      <c r="AX19">
+        <v>2.53</v>
+      </c>
+      <c r="AY19">
+        <v>7.2</v>
+      </c>
+      <c r="AZ19">
+        <v>1.77</v>
+      </c>
+      <c r="BA19">
+        <v>1.27</v>
+      </c>
+      <c r="BB19">
+        <v>1.51</v>
+      </c>
+      <c r="BC19">
+        <v>2.38</v>
+      </c>
+      <c r="BD19">
+        <v>2.29</v>
+      </c>
+      <c r="BE19">
+        <v>3</v>
+      </c>
+      <c r="BF19">
+        <v>5</v>
+      </c>
+      <c r="BG19">
+        <v>5</v>
+      </c>
+      <c r="BH19">
+        <v>4</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
+        <v>9</v>
+      </c>
+      <c r="BK19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6675934</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45149.64583333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>4.75</v>
+      </c>
+      <c r="U20">
+        <v>2.3</v>
+      </c>
+      <c r="V20">
+        <v>2.1</v>
+      </c>
+      <c r="W20">
+        <v>1.32</v>
+      </c>
+      <c r="X20">
+        <v>3.22</v>
+      </c>
+      <c r="Y20">
+        <v>2.48</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
+        <v>5.9</v>
+      </c>
+      <c r="AB20">
+        <v>1.11</v>
+      </c>
+      <c r="AC20">
+        <v>5.25</v>
+      </c>
+      <c r="AD20">
+        <v>4</v>
+      </c>
+      <c r="AE20">
+        <v>1.62</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>1.19</v>
+      </c>
+      <c r="AI20">
+        <v>3.95</v>
+      </c>
+      <c r="AJ20">
+        <v>1.67</v>
+      </c>
+      <c r="AK20">
+        <v>2.15</v>
+      </c>
+      <c r="AL20">
+        <v>1.73</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20">
+        <v>1.89</v>
+      </c>
+      <c r="AO20">
+        <v>1.24</v>
+      </c>
+      <c r="AP20">
+        <v>1.27</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
+        <v>3</v>
+      </c>
+      <c r="AU20">
+        <v>1.16</v>
+      </c>
+      <c r="AV20">
+        <v>1.51</v>
+      </c>
+      <c r="AW20">
+        <v>2.67</v>
+      </c>
+      <c r="AX20">
+        <v>2.8</v>
+      </c>
+      <c r="AY20">
+        <v>7</v>
+      </c>
+      <c r="AZ20">
+        <v>1.67</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>1.4</v>
+      </c>
+      <c r="BC20">
+        <v>2</v>
+      </c>
+      <c r="BD20">
+        <v>2.09</v>
+      </c>
+      <c r="BE20">
+        <v>2.5</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>6</v>
+      </c>
+      <c r="BH20">
+        <v>4</v>
+      </c>
+      <c r="BI20">
+        <v>4</v>
+      </c>
+      <c r="BJ20">
+        <v>9</v>
+      </c>
+      <c r="BK20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6675933</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45150.39583333334</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>2.3</v>
+      </c>
+      <c r="U21">
+        <v>2.25</v>
+      </c>
+      <c r="V21">
+        <v>4.33</v>
+      </c>
+      <c r="W21">
+        <v>1.33</v>
+      </c>
+      <c r="X21">
+        <v>3.05</v>
+      </c>
+      <c r="Y21">
+        <v>2.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.47</v>
+      </c>
+      <c r="AA21">
+        <v>5.95</v>
+      </c>
+      <c r="AB21">
+        <v>1.1</v>
+      </c>
+      <c r="AC21">
+        <v>1.8</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>10.5</v>
+      </c>
+      <c r="AH21">
+        <v>1.22</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>1.73</v>
+      </c>
+      <c r="AK21">
+        <v>2.08</v>
+      </c>
+      <c r="AL21">
+        <v>1.73</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>1.17</v>
+      </c>
+      <c r="AO21">
+        <v>1.2</v>
+      </c>
+      <c r="AP21">
+        <v>2.05</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>1.5</v>
+      </c>
+      <c r="AU21">
+        <v>1.63</v>
+      </c>
+      <c r="AV21">
+        <v>1.42</v>
+      </c>
+      <c r="AW21">
+        <v>3.05</v>
+      </c>
+      <c r="AX21">
+        <v>1.52</v>
+      </c>
+      <c r="AY21">
+        <v>9.1</v>
+      </c>
+      <c r="AZ21">
+        <v>2.96</v>
+      </c>
+      <c r="BA21">
+        <v>1.28</v>
+      </c>
+      <c r="BB21">
+        <v>1.52</v>
+      </c>
+      <c r="BC21">
+        <v>1.9</v>
+      </c>
+      <c r="BD21">
+        <v>2.48</v>
+      </c>
+      <c r="BE21">
+        <v>3.34</v>
+      </c>
+      <c r="BF21">
+        <v>5</v>
+      </c>
+      <c r="BG21">
+        <v>3</v>
+      </c>
+      <c r="BH21">
+        <v>5</v>
+      </c>
+      <c r="BI21">
+        <v>3</v>
+      </c>
+      <c r="BJ21">
+        <v>10</v>
+      </c>
+      <c r="BK21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6675935</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45150.39583333334</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>13</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2.25</v>
+      </c>
+      <c r="V22">
+        <v>3.75</v>
+      </c>
+      <c r="W22">
+        <v>1.3</v>
+      </c>
+      <c r="X22">
+        <v>3.25</v>
+      </c>
+      <c r="Y22">
+        <v>2.45</v>
+      </c>
+      <c r="Z22">
+        <v>1.49</v>
+      </c>
+      <c r="AA22">
+        <v>5.45</v>
+      </c>
+      <c r="AB22">
+        <v>1.12</v>
+      </c>
+      <c r="AC22">
+        <v>1.95</v>
+      </c>
+      <c r="AD22">
+        <v>3.8</v>
+      </c>
+      <c r="AE22">
+        <v>3.6</v>
+      </c>
+      <c r="AF22">
+        <v>1.02</v>
+      </c>
+      <c r="AG22">
+        <v>10</v>
+      </c>
+      <c r="AH22">
+        <v>1.22</v>
+      </c>
+      <c r="AI22">
+        <v>4</v>
+      </c>
+      <c r="AJ22">
+        <v>1.7</v>
+      </c>
+      <c r="AK22">
+        <v>2.1</v>
+      </c>
+      <c r="AL22">
+        <v>1.62</v>
+      </c>
+      <c r="AM22">
+        <v>2.2</v>
+      </c>
+      <c r="AN22">
+        <v>1.3</v>
+      </c>
+      <c r="AO22">
+        <v>1.2</v>
+      </c>
+      <c r="AP22">
+        <v>1.78</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.5</v>
+      </c>
+      <c r="AT22">
+        <v>1.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.26</v>
+      </c>
+      <c r="AV22">
+        <v>1.21</v>
+      </c>
+      <c r="AW22">
+        <v>2.47</v>
+      </c>
+      <c r="AX22">
+        <v>1.62</v>
+      </c>
+      <c r="AY22">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ22">
+        <v>2.68</v>
+      </c>
+      <c r="BA22">
+        <v>1.3</v>
+      </c>
+      <c r="BB22">
+        <v>1.58</v>
+      </c>
+      <c r="BC22">
+        <v>2.03</v>
+      </c>
+      <c r="BD22">
+        <v>2.65</v>
+      </c>
+      <c r="BE22">
+        <v>3.74</v>
+      </c>
+      <c r="BF22">
+        <v>7</v>
+      </c>
+      <c r="BG22">
+        <v>3</v>
+      </c>
+      <c r="BH22">
+        <v>4</v>
+      </c>
+      <c r="BI22">
+        <v>3</v>
+      </c>
+      <c r="BJ22">
+        <v>11</v>
+      </c>
+      <c r="BK22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6675931</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45151.22916666666</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>9</v>
+      </c>
+      <c r="T23">
+        <v>3.6</v>
+      </c>
+      <c r="U23">
+        <v>2.3</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>1.3</v>
+      </c>
+      <c r="X23">
+        <v>3.25</v>
+      </c>
+      <c r="Y23">
+        <v>2.39</v>
+      </c>
+      <c r="Z23">
+        <v>1.52</v>
+      </c>
+      <c r="AA23">
+        <v>5.45</v>
+      </c>
+      <c r="AB23">
+        <v>1.12</v>
+      </c>
+      <c r="AC23">
+        <v>3.75</v>
+      </c>
+      <c r="AD23">
+        <v>3.5</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
+      </c>
+      <c r="AF23">
+        <v>1.02</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23">
+        <v>1.2</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>1.67</v>
+      </c>
+      <c r="AK23">
+        <v>2.15</v>
+      </c>
+      <c r="AL23">
+        <v>1.57</v>
+      </c>
+      <c r="AM23">
+        <v>2.25</v>
+      </c>
+      <c r="AN23">
+        <v>1.63</v>
+      </c>
+      <c r="AO23">
+        <v>1.22</v>
+      </c>
+      <c r="AP23">
+        <v>1.35</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>0.95</v>
+      </c>
+      <c r="AV23">
+        <v>1.11</v>
+      </c>
+      <c r="AW23">
+        <v>2.06</v>
+      </c>
+      <c r="AX23">
+        <v>2.15</v>
+      </c>
+      <c r="AY23">
+        <v>6</v>
+      </c>
+      <c r="AZ23">
+        <v>2</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>1.32</v>
+      </c>
+      <c r="BC23">
+        <v>2.1</v>
+      </c>
+      <c r="BD23">
+        <v>2.02</v>
+      </c>
+      <c r="BE23">
+        <v>2.54</v>
+      </c>
+      <c r="BF23">
+        <v>9</v>
+      </c>
+      <c r="BG23">
+        <v>11</v>
+      </c>
+      <c r="BH23">
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>8</v>
+      </c>
+      <c r="BJ23">
+        <v>11</v>
+      </c>
+      <c r="BK23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6675936</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45151.22916666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>2.38</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1.33</v>
+      </c>
+      <c r="X24">
+        <v>3.05</v>
+      </c>
+      <c r="Y24">
+        <v>2.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.47</v>
+      </c>
+      <c r="AA24">
+        <v>5.95</v>
+      </c>
+      <c r="AB24">
+        <v>1.1</v>
+      </c>
+      <c r="AC24">
+        <v>1.75</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>4.2</v>
+      </c>
+      <c r="AF24">
+        <v>1.01</v>
+      </c>
+      <c r="AG24">
+        <v>12</v>
+      </c>
+      <c r="AH24">
+        <v>1.17</v>
+      </c>
+      <c r="AI24">
+        <v>4.3</v>
+      </c>
+      <c r="AJ24">
+        <v>1.6</v>
+      </c>
+      <c r="AK24">
+        <v>2.3</v>
+      </c>
+      <c r="AL24">
+        <v>1.62</v>
+      </c>
+      <c r="AM24">
+        <v>2.2</v>
+      </c>
+      <c r="AN24">
+        <v>1.26</v>
+      </c>
+      <c r="AO24">
+        <v>1.26</v>
+      </c>
+      <c r="AP24">
+        <v>1.91</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>3</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>2.33</v>
+      </c>
+      <c r="AV24">
+        <v>0.96</v>
+      </c>
+      <c r="AW24">
+        <v>3.29</v>
+      </c>
+      <c r="AX24">
+        <v>1.62</v>
+      </c>
+      <c r="AY24">
+        <v>7.5</v>
+      </c>
+      <c r="AZ24">
+        <v>2.88</v>
+      </c>
+      <c r="BA24">
+        <v>1.23</v>
+      </c>
+      <c r="BB24">
+        <v>1.43</v>
+      </c>
+      <c r="BC24">
+        <v>2.2</v>
+      </c>
+      <c r="BD24">
+        <v>2.12</v>
+      </c>
+      <c r="BE24">
+        <v>2.63</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>6</v>
+      </c>
+      <c r="BH24">
+        <v>2</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24">
+        <v>7</v>
+      </c>
+      <c r="BK24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,27 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['74', '88']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['23', '30']</t>
+  </si>
+  <si>
+    <t>['45+1', '64', '90+5']</t>
+  </si>
+  <si>
+    <t>['37', '55']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -359,6 +380,9 @@
   </si>
   <si>
     <t>['38', '42']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +988,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1051,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1728,7 +1752,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2009,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2110,7 +2134,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2301,7 +2325,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2388,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -2683,7 +2707,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2770,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -2874,7 +2898,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2964,7 +2988,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3065,7 +3089,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3256,7 +3280,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3343,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3447,7 +3471,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3534,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3638,7 +3662,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3728,7 +3752,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3829,7 +3853,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4402,7 +4426,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4784,7 +4808,7 @@
         <v>81</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -4975,7 +4999,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5307,6 +5331,1343 @@
         <v>7</v>
       </c>
       <c r="BK24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6675948</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45156.54861111111</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>2.3</v>
+      </c>
+      <c r="U25">
+        <v>2.38</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>1.27</v>
+      </c>
+      <c r="X25">
+        <v>3.45</v>
+      </c>
+      <c r="Y25">
+        <v>2.29</v>
+      </c>
+      <c r="Z25">
+        <v>1.56</v>
+      </c>
+      <c r="AA25">
+        <v>4.95</v>
+      </c>
+      <c r="AB25">
+        <v>1.14</v>
+      </c>
+      <c r="AC25">
+        <v>1.8</v>
+      </c>
+      <c r="AD25">
+        <v>3.8</v>
+      </c>
+      <c r="AE25">
+        <v>4.2</v>
+      </c>
+      <c r="AF25">
+        <v>1.02</v>
+      </c>
+      <c r="AG25">
+        <v>10</v>
+      </c>
+      <c r="AH25">
+        <v>1.18</v>
+      </c>
+      <c r="AI25">
+        <v>4.5</v>
+      </c>
+      <c r="AJ25">
+        <v>1.57</v>
+      </c>
+      <c r="AK25">
+        <v>2.35</v>
+      </c>
+      <c r="AL25">
+        <v>1.57</v>
+      </c>
+      <c r="AM25">
+        <v>2.25</v>
+      </c>
+      <c r="AN25">
+        <v>1.17</v>
+      </c>
+      <c r="AO25">
+        <v>1.18</v>
+      </c>
+      <c r="AP25">
+        <v>2.1</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>1.5</v>
+      </c>
+      <c r="AT25">
+        <v>1.5</v>
+      </c>
+      <c r="AU25">
+        <v>1.07</v>
+      </c>
+      <c r="AV25">
+        <v>1.77</v>
+      </c>
+      <c r="AW25">
+        <v>2.84</v>
+      </c>
+      <c r="AX25">
+        <v>1.5</v>
+      </c>
+      <c r="AY25">
+        <v>7.5</v>
+      </c>
+      <c r="AZ25">
+        <v>3.3</v>
+      </c>
+      <c r="BA25">
+        <v>1.29</v>
+      </c>
+      <c r="BB25">
+        <v>1.5</v>
+      </c>
+      <c r="BC25">
+        <v>2.38</v>
+      </c>
+      <c r="BD25">
+        <v>2.26</v>
+      </c>
+      <c r="BE25">
+        <v>2.8</v>
+      </c>
+      <c r="BF25">
+        <v>4</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25">
+        <v>5</v>
+      </c>
+      <c r="BI25">
+        <v>5</v>
+      </c>
+      <c r="BJ25">
+        <v>9</v>
+      </c>
+      <c r="BK25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6675947</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45156.54861111111</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>9</v>
+      </c>
+      <c r="T26">
+        <v>2.88</v>
+      </c>
+      <c r="U26">
+        <v>2.3</v>
+      </c>
+      <c r="V26">
+        <v>3.1</v>
+      </c>
+      <c r="W26">
+        <v>1.29</v>
+      </c>
+      <c r="X26">
+        <v>3.35</v>
+      </c>
+      <c r="Y26">
+        <v>2.39</v>
+      </c>
+      <c r="Z26">
+        <v>1.52</v>
+      </c>
+      <c r="AA26">
+        <v>5.45</v>
+      </c>
+      <c r="AB26">
+        <v>1.12</v>
+      </c>
+      <c r="AC26">
+        <v>2.4</v>
+      </c>
+      <c r="AD26">
+        <v>3.6</v>
+      </c>
+      <c r="AE26">
+        <v>2.7</v>
+      </c>
+      <c r="AF26">
+        <v>1.03</v>
+      </c>
+      <c r="AG26">
+        <v>11</v>
+      </c>
+      <c r="AH26">
+        <v>1.18</v>
+      </c>
+      <c r="AI26">
+        <v>4.5</v>
+      </c>
+      <c r="AJ26">
+        <v>1.62</v>
+      </c>
+      <c r="AK26">
+        <v>2.25</v>
+      </c>
+      <c r="AL26">
+        <v>1.57</v>
+      </c>
+      <c r="AM26">
+        <v>2.25</v>
+      </c>
+      <c r="AN26">
+        <v>1.42</v>
+      </c>
+      <c r="AO26">
+        <v>1.2</v>
+      </c>
+      <c r="AP26">
+        <v>1.63</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0.5</v>
+      </c>
+      <c r="AT26">
+        <v>0.5</v>
+      </c>
+      <c r="AU26">
+        <v>1.66</v>
+      </c>
+      <c r="AV26">
+        <v>1.3</v>
+      </c>
+      <c r="AW26">
+        <v>2.96</v>
+      </c>
+      <c r="AX26">
+        <v>1.76</v>
+      </c>
+      <c r="AY26">
+        <v>6</v>
+      </c>
+      <c r="AZ26">
+        <v>2.45</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>1.38</v>
+      </c>
+      <c r="BC26">
+        <v>2.1</v>
+      </c>
+      <c r="BD26">
+        <v>2.07</v>
+      </c>
+      <c r="BE26">
+        <v>2.6</v>
+      </c>
+      <c r="BF26">
+        <v>3</v>
+      </c>
+      <c r="BG26">
+        <v>7</v>
+      </c>
+      <c r="BH26">
+        <v>6</v>
+      </c>
+      <c r="BI26">
+        <v>7</v>
+      </c>
+      <c r="BJ26">
+        <v>9</v>
+      </c>
+      <c r="BK26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6675942</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45156.54861111111</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>2.88</v>
+      </c>
+      <c r="U27">
+        <v>2.25</v>
+      </c>
+      <c r="V27">
+        <v>3.1</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>3.25</v>
+      </c>
+      <c r="Y27">
+        <v>2.39</v>
+      </c>
+      <c r="Z27">
+        <v>1.52</v>
+      </c>
+      <c r="AA27">
+        <v>5.45</v>
+      </c>
+      <c r="AB27">
+        <v>1.12</v>
+      </c>
+      <c r="AC27">
+        <v>2.45</v>
+      </c>
+      <c r="AD27">
+        <v>3.6</v>
+      </c>
+      <c r="AE27">
+        <v>2.7</v>
+      </c>
+      <c r="AF27">
+        <v>1.02</v>
+      </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+      <c r="AH27">
+        <v>1.18</v>
+      </c>
+      <c r="AI27">
+        <v>4.33</v>
+      </c>
+      <c r="AJ27">
+        <v>1.7</v>
+      </c>
+      <c r="AK27">
+        <v>2.1</v>
+      </c>
+      <c r="AL27">
+        <v>1.62</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>1.5</v>
+      </c>
+      <c r="AO27">
+        <v>1.2</v>
+      </c>
+      <c r="AP27">
+        <v>1.52</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>3</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>1.7</v>
+      </c>
+      <c r="AW27">
+        <v>1.7</v>
+      </c>
+      <c r="AX27">
+        <v>1.88</v>
+      </c>
+      <c r="AY27">
+        <v>7.5</v>
+      </c>
+      <c r="AZ27">
+        <v>2.3</v>
+      </c>
+      <c r="BA27">
+        <v>1.29</v>
+      </c>
+      <c r="BB27">
+        <v>1.47</v>
+      </c>
+      <c r="BC27">
+        <v>1.91</v>
+      </c>
+      <c r="BD27">
+        <v>2.25</v>
+      </c>
+      <c r="BE27">
+        <v>2.8</v>
+      </c>
+      <c r="BF27">
+        <v>8</v>
+      </c>
+      <c r="BG27">
+        <v>5</v>
+      </c>
+      <c r="BH27">
+        <v>4</v>
+      </c>
+      <c r="BI27">
+        <v>7</v>
+      </c>
+      <c r="BJ27">
+        <v>12</v>
+      </c>
+      <c r="BK27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6675946</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45156.54861111111</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>17</v>
+      </c>
+      <c r="T28">
+        <v>2.63</v>
+      </c>
+      <c r="U28">
+        <v>2.1</v>
+      </c>
+      <c r="V28">
+        <v>3.75</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>3.05</v>
+      </c>
+      <c r="Y28">
+        <v>2.55</v>
+      </c>
+      <c r="Z28">
+        <v>1.45</v>
+      </c>
+      <c r="AA28">
+        <v>5.95</v>
+      </c>
+      <c r="AB28">
+        <v>1.1</v>
+      </c>
+      <c r="AC28">
+        <v>2.1</v>
+      </c>
+      <c r="AD28">
+        <v>3.4</v>
+      </c>
+      <c r="AE28">
+        <v>3.5</v>
+      </c>
+      <c r="AF28">
+        <v>1.01</v>
+      </c>
+      <c r="AG28">
+        <v>10</v>
+      </c>
+      <c r="AH28">
+        <v>1.25</v>
+      </c>
+      <c r="AI28">
+        <v>3.75</v>
+      </c>
+      <c r="AJ28">
+        <v>1.95</v>
+      </c>
+      <c r="AK28">
+        <v>1.85</v>
+      </c>
+      <c r="AL28">
+        <v>1.8</v>
+      </c>
+      <c r="AM28">
+        <v>1.91</v>
+      </c>
+      <c r="AN28">
+        <v>1.22</v>
+      </c>
+      <c r="AO28">
+        <v>1.2</v>
+      </c>
+      <c r="AP28">
+        <v>1.83</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>2</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>1.15</v>
+      </c>
+      <c r="AV28">
+        <v>0.98</v>
+      </c>
+      <c r="AW28">
+        <v>2.13</v>
+      </c>
+      <c r="AX28">
+        <v>1.65</v>
+      </c>
+      <c r="AY28">
+        <v>7</v>
+      </c>
+      <c r="AZ28">
+        <v>2.88</v>
+      </c>
+      <c r="BA28">
+        <v>1.38</v>
+      </c>
+      <c r="BB28">
+        <v>1.68</v>
+      </c>
+      <c r="BC28">
+        <v>2.1</v>
+      </c>
+      <c r="BD28">
+        <v>2.63</v>
+      </c>
+      <c r="BE28">
+        <v>3.4</v>
+      </c>
+      <c r="BF28">
+        <v>7</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>13</v>
+      </c>
+      <c r="BI28">
+        <v>5</v>
+      </c>
+      <c r="BJ28">
+        <v>20</v>
+      </c>
+      <c r="BK28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6675940</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45156.54861111111</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>2.25</v>
+      </c>
+      <c r="V29">
+        <v>3.4</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>3.05</v>
+      </c>
+      <c r="Y29">
+        <v>2.55</v>
+      </c>
+      <c r="Z29">
+        <v>1.45</v>
+      </c>
+      <c r="AA29">
+        <v>5.95</v>
+      </c>
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>2.2</v>
+      </c>
+      <c r="AD29">
+        <v>3.7</v>
+      </c>
+      <c r="AE29">
+        <v>3</v>
+      </c>
+      <c r="AF29">
+        <v>1.04</v>
+      </c>
+      <c r="AG29">
+        <v>10</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.7</v>
+      </c>
+      <c r="AK29">
+        <v>2.1</v>
+      </c>
+      <c r="AL29">
+        <v>1.62</v>
+      </c>
+      <c r="AM29">
+        <v>2.2</v>
+      </c>
+      <c r="AN29">
+        <v>1.42</v>
+      </c>
+      <c r="AO29">
+        <v>1.22</v>
+      </c>
+      <c r="AP29">
+        <v>1.6</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>3</v>
+      </c>
+      <c r="AS29">
+        <v>2</v>
+      </c>
+      <c r="AT29">
+        <v>1.5</v>
+      </c>
+      <c r="AU29">
+        <v>1.62</v>
+      </c>
+      <c r="AV29">
+        <v>2.09</v>
+      </c>
+      <c r="AW29">
+        <v>3.71</v>
+      </c>
+      <c r="AX29">
+        <v>1.7</v>
+      </c>
+      <c r="AY29">
+        <v>7</v>
+      </c>
+      <c r="AZ29">
+        <v>2.7</v>
+      </c>
+      <c r="BA29">
+        <v>1.29</v>
+      </c>
+      <c r="BB29">
+        <v>1.5</v>
+      </c>
+      <c r="BC29">
+        <v>2.38</v>
+      </c>
+      <c r="BD29">
+        <v>2.25</v>
+      </c>
+      <c r="BE29">
+        <v>2.8</v>
+      </c>
+      <c r="BF29">
+        <v>5</v>
+      </c>
+      <c r="BG29">
+        <v>5</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>2</v>
+      </c>
+      <c r="BJ29">
+        <v>9</v>
+      </c>
+      <c r="BK29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6675943</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45156.64583333334</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>1.8</v>
+      </c>
+      <c r="U30">
+        <v>2.63</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>1.24</v>
+      </c>
+      <c r="X30">
+        <v>3.7</v>
+      </c>
+      <c r="Y30">
+        <v>2.19</v>
+      </c>
+      <c r="Z30">
+        <v>1.62</v>
+      </c>
+      <c r="AA30">
+        <v>4.7</v>
+      </c>
+      <c r="AB30">
+        <v>1.16</v>
+      </c>
+      <c r="AC30">
+        <v>1.36</v>
+      </c>
+      <c r="AD30">
+        <v>5.5</v>
+      </c>
+      <c r="AE30">
+        <v>7.5</v>
+      </c>
+      <c r="AF30">
+        <v>1.03</v>
+      </c>
+      <c r="AG30">
+        <v>12</v>
+      </c>
+      <c r="AH30">
+        <v>1.11</v>
+      </c>
+      <c r="AI30">
+        <v>5.3</v>
+      </c>
+      <c r="AJ30">
+        <v>1.44</v>
+      </c>
+      <c r="AK30">
+        <v>2.7</v>
+      </c>
+      <c r="AL30">
+        <v>1.73</v>
+      </c>
+      <c r="AM30">
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>1.14</v>
+      </c>
+      <c r="AO30">
+        <v>1.18</v>
+      </c>
+      <c r="AP30">
+        <v>2.53</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+      <c r="AU30">
+        <v>1.5</v>
+      </c>
+      <c r="AV30">
+        <v>1.6</v>
+      </c>
+      <c r="AW30">
+        <v>3.1</v>
+      </c>
+      <c r="AX30">
+        <v>1.38</v>
+      </c>
+      <c r="AY30">
+        <v>8</v>
+      </c>
+      <c r="AZ30">
+        <v>4</v>
+      </c>
+      <c r="BA30">
+        <v>1.23</v>
+      </c>
+      <c r="BB30">
+        <v>1.36</v>
+      </c>
+      <c r="BC30">
+        <v>2.38</v>
+      </c>
+      <c r="BD30">
+        <v>1.95</v>
+      </c>
+      <c r="BE30">
+        <v>2.4</v>
+      </c>
+      <c r="BF30">
+        <v>12</v>
+      </c>
+      <c r="BG30">
+        <v>5</v>
+      </c>
+      <c r="BH30">
+        <v>12</v>
+      </c>
+      <c r="BI30">
+        <v>3</v>
+      </c>
+      <c r="BJ30">
+        <v>24</v>
+      </c>
+      <c r="BK30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6675941</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45157.39583333334</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>3.5</v>
+      </c>
+      <c r="U31">
+        <v>2.2</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
+        <v>1.32</v>
+      </c>
+      <c r="X31">
+        <v>3.22</v>
+      </c>
+      <c r="Y31">
+        <v>2.48</v>
+      </c>
+      <c r="Z31">
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <v>5.9</v>
+      </c>
+      <c r="AB31">
+        <v>1.11</v>
+      </c>
+      <c r="AC31">
+        <v>3.2</v>
+      </c>
+      <c r="AD31">
+        <v>3.5</v>
+      </c>
+      <c r="AE31">
+        <v>2.2</v>
+      </c>
+      <c r="AF31">
+        <v>1.04</v>
+      </c>
+      <c r="AG31">
+        <v>10</v>
+      </c>
+      <c r="AH31">
+        <v>1.19</v>
+      </c>
+      <c r="AI31">
+        <v>3.98</v>
+      </c>
+      <c r="AJ31">
+        <v>1.75</v>
+      </c>
+      <c r="AK31">
+        <v>2.05</v>
+      </c>
+      <c r="AL31">
+        <v>1.67</v>
+      </c>
+      <c r="AM31">
+        <v>2.1</v>
+      </c>
+      <c r="AN31">
+        <v>1.64</v>
+      </c>
+      <c r="AO31">
+        <v>1.28</v>
+      </c>
+      <c r="AP31">
+        <v>1.39</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>1.5</v>
+      </c>
+      <c r="AT31">
+        <v>0.5</v>
+      </c>
+      <c r="AU31">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV31">
+        <v>1.04</v>
+      </c>
+      <c r="AW31">
+        <v>1.98</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>1.91</v>
+      </c>
+      <c r="BD31">
+        <v>2</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>5</v>
+      </c>
+      <c r="BG31">
+        <v>5</v>
+      </c>
+      <c r="BH31">
+        <v>8</v>
+      </c>
+      <c r="BI31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>13</v>
+      </c>
+      <c r="BK31">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['10', '27', '63']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3176,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -6669,6 +6672,197 @@
       </c>
       <c r="BK31">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6675945</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45158.3125</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>2.38</v>
+      </c>
+      <c r="V32">
+        <v>2.05</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>3.4</v>
+      </c>
+      <c r="Y32">
+        <v>2.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <v>5.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.13</v>
+      </c>
+      <c r="AC32">
+        <v>5.5</v>
+      </c>
+      <c r="AD32">
+        <v>4.33</v>
+      </c>
+      <c r="AE32">
+        <v>1.57</v>
+      </c>
+      <c r="AF32">
+        <v>1.03</v>
+      </c>
+      <c r="AG32">
+        <v>11</v>
+      </c>
+      <c r="AH32">
+        <v>1.2</v>
+      </c>
+      <c r="AI32">
+        <v>4.33</v>
+      </c>
+      <c r="AJ32">
+        <v>1.67</v>
+      </c>
+      <c r="AK32">
+        <v>2.15</v>
+      </c>
+      <c r="AL32">
+        <v>1.73</v>
+      </c>
+      <c r="AM32">
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <v>2.45</v>
+      </c>
+      <c r="AO32">
+        <v>1.16</v>
+      </c>
+      <c r="AP32">
+        <v>1.14</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>0.5</v>
+      </c>
+      <c r="AT32">
+        <v>3</v>
+      </c>
+      <c r="AU32">
+        <v>1.13</v>
+      </c>
+      <c r="AV32">
+        <v>1.75</v>
+      </c>
+      <c r="AW32">
+        <v>2.88</v>
+      </c>
+      <c r="AX32">
+        <v>3.75</v>
+      </c>
+      <c r="AY32">
+        <v>7.5</v>
+      </c>
+      <c r="AZ32">
+        <v>1.43</v>
+      </c>
+      <c r="BA32">
+        <v>1.29</v>
+      </c>
+      <c r="BB32">
+        <v>1.51</v>
+      </c>
+      <c r="BC32">
+        <v>2.38</v>
+      </c>
+      <c r="BD32">
+        <v>2.28</v>
+      </c>
+      <c r="BE32">
+        <v>2.88</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>5</v>
+      </c>
+      <c r="BH32">
+        <v>6</v>
+      </c>
+      <c r="BI32">
+        <v>4</v>
+      </c>
+      <c r="BJ32">
+        <v>6</v>
+      </c>
+      <c r="BK32">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['2', '89']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
   </si>
   <si>
     <t>['10', '27', '63']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +997,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1755,7 +1761,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2137,7 +2143,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2328,7 +2334,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2710,7 +2716,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2901,7 +2907,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3092,7 +3098,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3283,7 +3289,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3474,7 +3480,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3665,7 +3671,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3856,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3946,7 +3952,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>1.62</v>
@@ -4429,7 +4435,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4811,7 +4817,7 @@
         <v>81</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5002,7 +5008,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5575,7 +5581,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6721,7 +6727,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -6863,6 +6869,197 @@
       </c>
       <c r="BK32">
         <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6675925</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45160.5625</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+      <c r="T33">
+        <v>3.1</v>
+      </c>
+      <c r="U33">
+        <v>2.38</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.25</v>
+      </c>
+      <c r="X33">
+        <v>3.6</v>
+      </c>
+      <c r="Y33">
+        <v>2.24</v>
+      </c>
+      <c r="Z33">
+        <v>1.59</v>
+      </c>
+      <c r="AA33">
+        <v>4.95</v>
+      </c>
+      <c r="AB33">
+        <v>1.14</v>
+      </c>
+      <c r="AC33">
+        <v>2.88</v>
+      </c>
+      <c r="AD33">
+        <v>3.75</v>
+      </c>
+      <c r="AE33">
+        <v>2.3</v>
+      </c>
+      <c r="AF33">
+        <v>1.02</v>
+      </c>
+      <c r="AG33">
+        <v>12</v>
+      </c>
+      <c r="AH33">
+        <v>1.2</v>
+      </c>
+      <c r="AI33">
+        <v>4.2</v>
+      </c>
+      <c r="AJ33">
+        <v>1.53</v>
+      </c>
+      <c r="AK33">
+        <v>2.4</v>
+      </c>
+      <c r="AL33">
+        <v>1.5</v>
+      </c>
+      <c r="AM33">
+        <v>2.5</v>
+      </c>
+      <c r="AN33">
+        <v>1.66</v>
+      </c>
+      <c r="AO33">
+        <v>1.2</v>
+      </c>
+      <c r="AP33">
+        <v>1.35</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>3</v>
+      </c>
+      <c r="AT33">
+        <v>1.5</v>
+      </c>
+      <c r="AU33">
+        <v>1.71</v>
+      </c>
+      <c r="AV33">
+        <v>1.5</v>
+      </c>
+      <c r="AW33">
+        <v>3.21</v>
+      </c>
+      <c r="AX33">
+        <v>2.1</v>
+      </c>
+      <c r="AY33">
+        <v>5.75</v>
+      </c>
+      <c r="AZ33">
+        <v>2</v>
+      </c>
+      <c r="BA33">
+        <v>1.22</v>
+      </c>
+      <c r="BB33">
+        <v>1.35</v>
+      </c>
+      <c r="BC33">
+        <v>1.68</v>
+      </c>
+      <c r="BD33">
+        <v>2</v>
+      </c>
+      <c r="BE33">
+        <v>2.64</v>
+      </c>
+      <c r="BF33">
+        <v>5</v>
+      </c>
+      <c r="BG33">
+        <v>3</v>
+      </c>
+      <c r="BH33">
+        <v>7</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>12</v>
+      </c>
+      <c r="BK33">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,24 @@
     <t>['2', '89']</t>
   </si>
   <si>
+    <t>['38', '56']</t>
+  </si>
+  <si>
+    <t>['17', '53', '61']</t>
+  </si>
+  <si>
+    <t>['45', '55', '68']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['45', '82', '90+7', '90+10']</t>
+  </si>
+  <si>
+    <t>['47', '61', '84']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -392,6 +410,27 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['10', '54', '66', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['12', '73', '76']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1036,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1084,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1278,7 +1317,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1469,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1761,7 +1800,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1848,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -2143,7 +2182,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2230,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -2334,7 +2373,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2424,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2612,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2716,7 +2755,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2803,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2907,7 +2946,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2994,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3098,7 +3137,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3188,7 +3227,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3289,7 +3328,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3480,7 +3519,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3570,7 +3609,7 @@
         <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3671,7 +3710,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3862,7 +3901,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3949,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4331,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU19">
         <v>1.61</v>
@@ -4435,7 +4474,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4525,7 +4564,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>1.16</v>
@@ -4817,7 +4856,7 @@
         <v>81</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -4907,7 +4946,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.26</v>
@@ -5008,7 +5047,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5095,10 +5134,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>0.95</v>
@@ -5286,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>0</v>
@@ -5477,10 +5516,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -5581,7 +5620,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5862,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6623,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>0.5</v>
@@ -6727,7 +6766,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -6918,7 +6957,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7060,6 +7099,1534 @@
       </c>
       <c r="BK33">
         <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6675949</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45163.54861111111</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>2.1</v>
+      </c>
+      <c r="V34">
+        <v>3.6</v>
+      </c>
+      <c r="W34">
+        <v>1.35</v>
+      </c>
+      <c r="X34">
+        <v>2.95</v>
+      </c>
+      <c r="Y34">
+        <v>2.6</v>
+      </c>
+      <c r="Z34">
+        <v>1.44</v>
+      </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
+      <c r="AB34">
+        <v>1.1</v>
+      </c>
+      <c r="AC34">
+        <v>2.15</v>
+      </c>
+      <c r="AD34">
+        <v>3.6</v>
+      </c>
+      <c r="AE34">
+        <v>3.25</v>
+      </c>
+      <c r="AF34">
+        <v>1.04</v>
+      </c>
+      <c r="AG34">
+        <v>10</v>
+      </c>
+      <c r="AH34">
+        <v>1.25</v>
+      </c>
+      <c r="AI34">
+        <v>3.75</v>
+      </c>
+      <c r="AJ34">
+        <v>1.95</v>
+      </c>
+      <c r="AK34">
+        <v>1.85</v>
+      </c>
+      <c r="AL34">
+        <v>1.8</v>
+      </c>
+      <c r="AM34">
+        <v>1.91</v>
+      </c>
+      <c r="AN34">
+        <v>1.3</v>
+      </c>
+      <c r="AO34">
+        <v>1.22</v>
+      </c>
+      <c r="AP34">
+        <v>1.8</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <v>0.67</v>
+      </c>
+      <c r="AU34">
+        <v>1.36</v>
+      </c>
+      <c r="AV34">
+        <v>1.72</v>
+      </c>
+      <c r="AW34">
+        <v>3.08</v>
+      </c>
+      <c r="AX34">
+        <v>1.67</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>2.8</v>
+      </c>
+      <c r="BA34">
+        <v>1.3</v>
+      </c>
+      <c r="BB34">
+        <v>1.51</v>
+      </c>
+      <c r="BC34">
+        <v>1.86</v>
+      </c>
+      <c r="BD34">
+        <v>2.34</v>
+      </c>
+      <c r="BE34">
+        <v>2.9</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>5</v>
+      </c>
+      <c r="BH34">
+        <v>4</v>
+      </c>
+      <c r="BI34">
+        <v>5</v>
+      </c>
+      <c r="BJ34">
+        <v>9</v>
+      </c>
+      <c r="BK34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6675951</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45163.54861111111</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <v>2.4</v>
+      </c>
+      <c r="U35">
+        <v>2.3</v>
+      </c>
+      <c r="V35">
+        <v>3.75</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>3.25</v>
+      </c>
+      <c r="Y35">
+        <v>2.39</v>
+      </c>
+      <c r="Z35">
+        <v>1.52</v>
+      </c>
+      <c r="AA35">
+        <v>5.45</v>
+      </c>
+      <c r="AB35">
+        <v>1.12</v>
+      </c>
+      <c r="AC35">
+        <v>1.91</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35">
+        <v>3.6</v>
+      </c>
+      <c r="AF35">
+        <v>1.02</v>
+      </c>
+      <c r="AG35">
+        <v>10</v>
+      </c>
+      <c r="AH35">
+        <v>1.2</v>
+      </c>
+      <c r="AI35">
+        <v>4.33</v>
+      </c>
+      <c r="AJ35">
+        <v>1.65</v>
+      </c>
+      <c r="AK35">
+        <v>2.2</v>
+      </c>
+      <c r="AL35">
+        <v>1.62</v>
+      </c>
+      <c r="AM35">
+        <v>2.2</v>
+      </c>
+      <c r="AN35">
+        <v>1.2</v>
+      </c>
+      <c r="AO35">
+        <v>1.2</v>
+      </c>
+      <c r="AP35">
+        <v>1.95</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>1.78</v>
+      </c>
+      <c r="AV35">
+        <v>1.63</v>
+      </c>
+      <c r="AW35">
+        <v>3.41</v>
+      </c>
+      <c r="AX35">
+        <v>1.6</v>
+      </c>
+      <c r="AY35">
+        <v>7</v>
+      </c>
+      <c r="AZ35">
+        <v>3</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>1.43</v>
+      </c>
+      <c r="BC35">
+        <v>2.2</v>
+      </c>
+      <c r="BD35">
+        <v>2.1</v>
+      </c>
+      <c r="BE35">
+        <v>2.6</v>
+      </c>
+      <c r="BF35">
+        <v>2</v>
+      </c>
+      <c r="BG35">
+        <v>7</v>
+      </c>
+      <c r="BH35">
+        <v>5</v>
+      </c>
+      <c r="BI35">
+        <v>4</v>
+      </c>
+      <c r="BJ35">
+        <v>7</v>
+      </c>
+      <c r="BK35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6675954</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45163.54861111111</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>2.3</v>
+      </c>
+      <c r="U36">
+        <v>2.25</v>
+      </c>
+      <c r="V36">
+        <v>4.33</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>3.25</v>
+      </c>
+      <c r="Y36">
+        <v>2.4</v>
+      </c>
+      <c r="Z36">
+        <v>1.51</v>
+      </c>
+      <c r="AA36">
+        <v>5.45</v>
+      </c>
+      <c r="AB36">
+        <v>1.12</v>
+      </c>
+      <c r="AC36">
+        <v>1.8</v>
+      </c>
+      <c r="AD36">
+        <v>3.8</v>
+      </c>
+      <c r="AE36">
+        <v>4.2</v>
+      </c>
+      <c r="AF36">
+        <v>1.04</v>
+      </c>
+      <c r="AG36">
+        <v>10</v>
+      </c>
+      <c r="AH36">
+        <v>1.2</v>
+      </c>
+      <c r="AI36">
+        <v>4.2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.67</v>
+      </c>
+      <c r="AK36">
+        <v>2.15</v>
+      </c>
+      <c r="AL36">
+        <v>1.73</v>
+      </c>
+      <c r="AM36">
+        <v>2</v>
+      </c>
+      <c r="AN36">
+        <v>1.2</v>
+      </c>
+      <c r="AO36">
+        <v>1.2</v>
+      </c>
+      <c r="AP36">
+        <v>1.83</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>3</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>1.34</v>
+      </c>
+      <c r="AV36">
+        <v>1.2</v>
+      </c>
+      <c r="AW36">
+        <v>2.54</v>
+      </c>
+      <c r="AX36">
+        <v>1.53</v>
+      </c>
+      <c r="AY36">
+        <v>8</v>
+      </c>
+      <c r="AZ36">
+        <v>3.1</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>1.33</v>
+      </c>
+      <c r="BC36">
+        <v>1.83</v>
+      </c>
+      <c r="BD36">
+        <v>1.85</v>
+      </c>
+      <c r="BE36">
+        <v>2.25</v>
+      </c>
+      <c r="BF36">
+        <v>6</v>
+      </c>
+      <c r="BG36">
+        <v>3</v>
+      </c>
+      <c r="BH36">
+        <v>4</v>
+      </c>
+      <c r="BI36">
+        <v>2</v>
+      </c>
+      <c r="BJ36">
+        <v>10</v>
+      </c>
+      <c r="BK36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6675955</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45163.54861111111</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>2.4</v>
+      </c>
+      <c r="U37">
+        <v>2.38</v>
+      </c>
+      <c r="V37">
+        <v>3.6</v>
+      </c>
+      <c r="W37">
+        <v>1.3</v>
+      </c>
+      <c r="X37">
+        <v>3.25</v>
+      </c>
+      <c r="Y37">
+        <v>2.39</v>
+      </c>
+      <c r="Z37">
+        <v>1.52</v>
+      </c>
+      <c r="AA37">
+        <v>5.45</v>
+      </c>
+      <c r="AB37">
+        <v>1.12</v>
+      </c>
+      <c r="AC37">
+        <v>1.95</v>
+      </c>
+      <c r="AD37">
+        <v>3.8</v>
+      </c>
+      <c r="AE37">
+        <v>3.6</v>
+      </c>
+      <c r="AF37">
+        <v>1.04</v>
+      </c>
+      <c r="AG37">
+        <v>10</v>
+      </c>
+      <c r="AH37">
+        <v>1.2</v>
+      </c>
+      <c r="AI37">
+        <v>4.33</v>
+      </c>
+      <c r="AJ37">
+        <v>1.6</v>
+      </c>
+      <c r="AK37">
+        <v>2.3</v>
+      </c>
+      <c r="AL37">
+        <v>1.53</v>
+      </c>
+      <c r="AM37">
+        <v>2.38</v>
+      </c>
+      <c r="AN37">
+        <v>1.22</v>
+      </c>
+      <c r="AO37">
+        <v>1.2</v>
+      </c>
+      <c r="AP37">
+        <v>1.85</v>
+      </c>
+      <c r="AQ37">
+        <v>1.5</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>2</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>1.39</v>
+      </c>
+      <c r="AV37">
+        <v>1.47</v>
+      </c>
+      <c r="AW37">
+        <v>2.86</v>
+      </c>
+      <c r="AX37">
+        <v>1.67</v>
+      </c>
+      <c r="AY37">
+        <v>7</v>
+      </c>
+      <c r="AZ37">
+        <v>2.8</v>
+      </c>
+      <c r="BA37">
+        <v>1.36</v>
+      </c>
+      <c r="BB37">
+        <v>1.6</v>
+      </c>
+      <c r="BC37">
+        <v>1.95</v>
+      </c>
+      <c r="BD37">
+        <v>2.5</v>
+      </c>
+      <c r="BE37">
+        <v>3.3</v>
+      </c>
+      <c r="BF37">
+        <v>8</v>
+      </c>
+      <c r="BG37">
+        <v>6</v>
+      </c>
+      <c r="BH37">
+        <v>2</v>
+      </c>
+      <c r="BI37">
+        <v>3</v>
+      </c>
+      <c r="BJ37">
+        <v>10</v>
+      </c>
+      <c r="BK37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6675956</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45163.54861111111</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>9</v>
+      </c>
+      <c r="T38">
+        <v>3.4</v>
+      </c>
+      <c r="U38">
+        <v>2.2</v>
+      </c>
+      <c r="V38">
+        <v>2.75</v>
+      </c>
+      <c r="W38">
+        <v>1.3</v>
+      </c>
+      <c r="X38">
+        <v>3.25</v>
+      </c>
+      <c r="Y38">
+        <v>2.39</v>
+      </c>
+      <c r="Z38">
+        <v>1.52</v>
+      </c>
+      <c r="AA38">
+        <v>5.45</v>
+      </c>
+      <c r="AB38">
+        <v>1.12</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>3.6</v>
+      </c>
+      <c r="AE38">
+        <v>2.25</v>
+      </c>
+      <c r="AF38">
+        <v>1.04</v>
+      </c>
+      <c r="AG38">
+        <v>10</v>
+      </c>
+      <c r="AH38">
+        <v>1.2</v>
+      </c>
+      <c r="AI38">
+        <v>4.33</v>
+      </c>
+      <c r="AJ38">
+        <v>1.73</v>
+      </c>
+      <c r="AK38">
+        <v>2.08</v>
+      </c>
+      <c r="AL38">
+        <v>1.67</v>
+      </c>
+      <c r="AM38">
+        <v>2.1</v>
+      </c>
+      <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AO38">
+        <v>1.2</v>
+      </c>
+      <c r="AP38">
+        <v>1.45</v>
+      </c>
+      <c r="AQ38">
+        <v>1.5</v>
+      </c>
+      <c r="AR38">
+        <v>0.5</v>
+      </c>
+      <c r="AS38">
+        <v>1.33</v>
+      </c>
+      <c r="AT38">
+        <v>0.67</v>
+      </c>
+      <c r="AU38">
+        <v>1.2</v>
+      </c>
+      <c r="AV38">
+        <v>1.03</v>
+      </c>
+      <c r="AW38">
+        <v>2.23</v>
+      </c>
+      <c r="AX38">
+        <v>2.15</v>
+      </c>
+      <c r="AY38">
+        <v>7.5</v>
+      </c>
+      <c r="AZ38">
+        <v>2.05</v>
+      </c>
+      <c r="BA38">
+        <v>1.19</v>
+      </c>
+      <c r="BB38">
+        <v>1.36</v>
+      </c>
+      <c r="BC38">
+        <v>2.1</v>
+      </c>
+      <c r="BD38">
+        <v>1.95</v>
+      </c>
+      <c r="BE38">
+        <v>2.4</v>
+      </c>
+      <c r="BF38">
+        <v>5</v>
+      </c>
+      <c r="BG38">
+        <v>12</v>
+      </c>
+      <c r="BH38">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>10</v>
+      </c>
+      <c r="BJ38">
+        <v>9</v>
+      </c>
+      <c r="BK38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6675958</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45163.64583333334</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>9</v>
+      </c>
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>2.25</v>
+      </c>
+      <c r="V39">
+        <v>3.25</v>
+      </c>
+      <c r="W39">
+        <v>1.28</v>
+      </c>
+      <c r="X39">
+        <v>3.4</v>
+      </c>
+      <c r="Y39">
+        <v>2.34</v>
+      </c>
+      <c r="Z39">
+        <v>1.54</v>
+      </c>
+      <c r="AA39">
+        <v>5.45</v>
+      </c>
+      <c r="AB39">
+        <v>1.12</v>
+      </c>
+      <c r="AC39">
+        <v>2.25</v>
+      </c>
+      <c r="AD39">
+        <v>3.75</v>
+      </c>
+      <c r="AE39">
+        <v>2.88</v>
+      </c>
+      <c r="AF39">
+        <v>1.03</v>
+      </c>
+      <c r="AG39">
+        <v>11</v>
+      </c>
+      <c r="AH39">
+        <v>1.18</v>
+      </c>
+      <c r="AI39">
+        <v>4.5</v>
+      </c>
+      <c r="AJ39">
+        <v>1.8</v>
+      </c>
+      <c r="AK39">
+        <v>2</v>
+      </c>
+      <c r="AL39">
+        <v>1.62</v>
+      </c>
+      <c r="AM39">
+        <v>2.2</v>
+      </c>
+      <c r="AN39">
+        <v>1.38</v>
+      </c>
+      <c r="AO39">
+        <v>1.2</v>
+      </c>
+      <c r="AP39">
+        <v>1.57</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>1.5</v>
+      </c>
+      <c r="AS39">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>2</v>
+      </c>
+      <c r="AU39">
+        <v>1.23</v>
+      </c>
+      <c r="AV39">
+        <v>1.52</v>
+      </c>
+      <c r="AW39">
+        <v>2.75</v>
+      </c>
+      <c r="AX39">
+        <v>1.8</v>
+      </c>
+      <c r="AY39">
+        <v>8.4</v>
+      </c>
+      <c r="AZ39">
+        <v>2.32</v>
+      </c>
+      <c r="BA39">
+        <v>1.29</v>
+      </c>
+      <c r="BB39">
+        <v>1.66</v>
+      </c>
+      <c r="BC39">
+        <v>2.07</v>
+      </c>
+      <c r="BD39">
+        <v>2.65</v>
+      </c>
+      <c r="BE39">
+        <v>3.74</v>
+      </c>
+      <c r="BF39">
+        <v>3</v>
+      </c>
+      <c r="BG39">
+        <v>8</v>
+      </c>
+      <c r="BH39">
+        <v>6</v>
+      </c>
+      <c r="BI39">
+        <v>3</v>
+      </c>
+      <c r="BJ39">
+        <v>9</v>
+      </c>
+      <c r="BK39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6675952</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45165.22916666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>11</v>
+      </c>
+      <c r="T40">
+        <v>4.33</v>
+      </c>
+      <c r="U40">
+        <v>2.3</v>
+      </c>
+      <c r="V40">
+        <v>2.25</v>
+      </c>
+      <c r="W40">
+        <v>1.33</v>
+      </c>
+      <c r="X40">
+        <v>3.25</v>
+      </c>
+      <c r="Y40">
+        <v>2.5</v>
+      </c>
+      <c r="Z40">
+        <v>1.5</v>
+      </c>
+      <c r="AA40">
+        <v>5.5</v>
+      </c>
+      <c r="AB40">
+        <v>1.13</v>
+      </c>
+      <c r="AC40">
+        <v>4.5</v>
+      </c>
+      <c r="AD40">
+        <v>3.8</v>
+      </c>
+      <c r="AE40">
+        <v>1.75</v>
+      </c>
+      <c r="AF40">
+        <v>1.01</v>
+      </c>
+      <c r="AG40">
+        <v>10.5</v>
+      </c>
+      <c r="AH40">
+        <v>1.2</v>
+      </c>
+      <c r="AI40">
+        <v>4.2</v>
+      </c>
+      <c r="AJ40">
+        <v>1.7</v>
+      </c>
+      <c r="AK40">
+        <v>2.1</v>
+      </c>
+      <c r="AL40">
+        <v>1.73</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>1.83</v>
+      </c>
+      <c r="AO40">
+        <v>1.2</v>
+      </c>
+      <c r="AP40">
+        <v>1.28</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <v>2</v>
+      </c>
+      <c r="AU40">
+        <v>1.48</v>
+      </c>
+      <c r="AV40">
+        <v>1.54</v>
+      </c>
+      <c r="AW40">
+        <v>3.02</v>
+      </c>
+      <c r="AX40">
+        <v>2.8</v>
+      </c>
+      <c r="AY40">
+        <v>7</v>
+      </c>
+      <c r="AZ40">
+        <v>1.67</v>
+      </c>
+      <c r="BA40">
+        <v>1.4</v>
+      </c>
+      <c r="BB40">
+        <v>1.67</v>
+      </c>
+      <c r="BC40">
+        <v>2.1</v>
+      </c>
+      <c r="BD40">
+        <v>2.63</v>
+      </c>
+      <c r="BE40">
+        <v>3.4</v>
+      </c>
+      <c r="BF40">
+        <v>9</v>
+      </c>
+      <c r="BG40">
+        <v>7</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>7</v>
+      </c>
+      <c r="BJ40">
+        <v>13</v>
+      </c>
+      <c r="BK40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6675953</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45165.22916666666</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>11</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>2.38</v>
+      </c>
+      <c r="V41">
+        <v>3.6</v>
+      </c>
+      <c r="W41">
+        <v>1.29</v>
+      </c>
+      <c r="X41">
+        <v>3.5</v>
+      </c>
+      <c r="Y41">
+        <v>2.25</v>
+      </c>
+      <c r="Z41">
+        <v>1.57</v>
+      </c>
+      <c r="AA41">
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <v>1.14</v>
+      </c>
+      <c r="AC41">
+        <v>1.95</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AE41">
+        <v>3.3</v>
+      </c>
+      <c r="AF41">
+        <v>1.03</v>
+      </c>
+      <c r="AG41">
+        <v>11</v>
+      </c>
+      <c r="AH41">
+        <v>1.17</v>
+      </c>
+      <c r="AI41">
+        <v>4.75</v>
+      </c>
+      <c r="AJ41">
+        <v>1.57</v>
+      </c>
+      <c r="AK41">
+        <v>2.35</v>
+      </c>
+      <c r="AL41">
+        <v>1.53</v>
+      </c>
+      <c r="AM41">
+        <v>2.38</v>
+      </c>
+      <c r="AN41">
+        <v>1.32</v>
+      </c>
+      <c r="AO41">
+        <v>1.17</v>
+      </c>
+      <c r="AP41">
+        <v>1.8</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>1.5</v>
+      </c>
+      <c r="AS41">
+        <v>0.67</v>
+      </c>
+      <c r="AT41">
+        <v>1.33</v>
+      </c>
+      <c r="AU41">
+        <v>1.32</v>
+      </c>
+      <c r="AV41">
+        <v>1.07</v>
+      </c>
+      <c r="AW41">
+        <v>2.39</v>
+      </c>
+      <c r="AX41">
+        <v>1.55</v>
+      </c>
+      <c r="AY41">
+        <v>7.5</v>
+      </c>
+      <c r="AZ41">
+        <v>3.1</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>1.36</v>
+      </c>
+      <c r="BC41">
+        <v>1.61</v>
+      </c>
+      <c r="BD41">
+        <v>1.96</v>
+      </c>
+      <c r="BE41">
+        <v>2.46</v>
+      </c>
+      <c r="BF41">
+        <v>6</v>
+      </c>
+      <c r="BG41">
+        <v>11</v>
+      </c>
+      <c r="BH41">
+        <v>3</v>
+      </c>
+      <c r="BI41">
+        <v>3</v>
+      </c>
+      <c r="BJ41">
+        <v>9</v>
+      </c>
+      <c r="BK41">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,27 @@
     <t>['47', '61', '84']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['10', '50', '62']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['35', '68']</t>
+  </si>
+  <si>
+    <t>['33', '38', '85']</t>
+  </si>
+  <si>
+    <t>['43', '84']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -370,9 +391,6 @@
     <t>['2', '51', '62', '90+1']</t>
   </si>
   <si>
-    <t>['56']</t>
-  </si>
-  <si>
     <t>['13']</t>
   </si>
   <si>
@@ -431,6 +449,21 @@
   </si>
   <si>
     <t>['12', '73', '76']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1069,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1126,7 +1159,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1314,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1800,7 +1833,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2078,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2182,7 +2215,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2460,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2755,7 +2788,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2946,7 +2979,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3036,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3137,7 +3170,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3224,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>0.67</v>
@@ -3328,7 +3361,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3519,7 +3552,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3606,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT15">
         <v>2</v>
@@ -3710,7 +3743,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3797,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3901,7 +3934,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3991,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>1.62</v>
@@ -4179,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -4373,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>1.61</v>
@@ -4474,7 +4507,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4561,7 +4594,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -4755,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>1.63</v>
@@ -4856,7 +4889,7 @@
         <v>81</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -4943,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>1.33</v>
@@ -5047,7 +5080,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5620,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5707,10 +5740,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU26">
         <v>1.66</v>
@@ -6089,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -6283,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.62</v>
@@ -6474,7 +6507,7 @@
         <v>3</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>1.5</v>
@@ -6766,7 +6799,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -6853,7 +6886,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
         <v>3</v>
@@ -6957,7 +6990,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7047,7 +7080,7 @@
         <v>3</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.71</v>
@@ -7339,7 +7372,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7530,7 +7563,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7617,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -7721,7 +7754,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7912,7 +7945,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8002,7 +8035,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>1.2</v>
@@ -8103,7 +8136,7 @@
         <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8294,7 +8327,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8485,7 +8518,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8627,6 +8660,1534 @@
       </c>
       <c r="BK41">
         <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6675967</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45170.54861111111</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>12</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>2.2</v>
+      </c>
+      <c r="V42">
+        <v>3.1</v>
+      </c>
+      <c r="W42">
+        <v>1.35</v>
+      </c>
+      <c r="X42">
+        <v>2.95</v>
+      </c>
+      <c r="Y42">
+        <v>2.6</v>
+      </c>
+      <c r="Z42">
+        <v>1.44</v>
+      </c>
+      <c r="AA42">
+        <v>5.95</v>
+      </c>
+      <c r="AB42">
+        <v>1.1</v>
+      </c>
+      <c r="AC42">
+        <v>2.55</v>
+      </c>
+      <c r="AD42">
+        <v>3.4</v>
+      </c>
+      <c r="AE42">
+        <v>2.7</v>
+      </c>
+      <c r="AF42">
+        <v>1.05</v>
+      </c>
+      <c r="AG42">
+        <v>9</v>
+      </c>
+      <c r="AH42">
+        <v>1.25</v>
+      </c>
+      <c r="AI42">
+        <v>3.75</v>
+      </c>
+      <c r="AJ42">
+        <v>1.85</v>
+      </c>
+      <c r="AK42">
+        <v>1.95</v>
+      </c>
+      <c r="AL42">
+        <v>1.67</v>
+      </c>
+      <c r="AM42">
+        <v>2.1</v>
+      </c>
+      <c r="AN42">
+        <v>1.35</v>
+      </c>
+      <c r="AO42">
+        <v>1.22</v>
+      </c>
+      <c r="AP42">
+        <v>1.6</v>
+      </c>
+      <c r="AQ42">
+        <v>0.5</v>
+      </c>
+      <c r="AR42">
+        <v>0.5</v>
+      </c>
+      <c r="AS42">
+        <v>1.33</v>
+      </c>
+      <c r="AT42">
+        <v>0.33</v>
+      </c>
+      <c r="AU42">
+        <v>1.23</v>
+      </c>
+      <c r="AV42">
+        <v>1.58</v>
+      </c>
+      <c r="AW42">
+        <v>2.81</v>
+      </c>
+      <c r="AX42">
+        <v>1.77</v>
+      </c>
+      <c r="AY42">
+        <v>9</v>
+      </c>
+      <c r="AZ42">
+        <v>2.33</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>1.35</v>
+      </c>
+      <c r="BC42">
+        <v>2.1</v>
+      </c>
+      <c r="BD42">
+        <v>2.1</v>
+      </c>
+      <c r="BE42">
+        <v>2.67</v>
+      </c>
+      <c r="BF42">
+        <v>4</v>
+      </c>
+      <c r="BG42">
+        <v>4</v>
+      </c>
+      <c r="BH42">
+        <v>3</v>
+      </c>
+      <c r="BI42">
+        <v>5</v>
+      </c>
+      <c r="BJ42">
+        <v>7</v>
+      </c>
+      <c r="BK42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6675963</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45170.54861111111</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>11</v>
+      </c>
+      <c r="S43">
+        <v>12</v>
+      </c>
+      <c r="T43">
+        <v>5.5</v>
+      </c>
+      <c r="U43">
+        <v>2.4</v>
+      </c>
+      <c r="V43">
+        <v>1.95</v>
+      </c>
+      <c r="W43">
+        <v>1.27</v>
+      </c>
+      <c r="X43">
+        <v>3.54</v>
+      </c>
+      <c r="Y43">
+        <v>2.36</v>
+      </c>
+      <c r="Z43">
+        <v>1.6</v>
+      </c>
+      <c r="AA43">
+        <v>5.15</v>
+      </c>
+      <c r="AB43">
+        <v>1.14</v>
+      </c>
+      <c r="AC43">
+        <v>6</v>
+      </c>
+      <c r="AD43">
+        <v>4.75</v>
+      </c>
+      <c r="AE43">
+        <v>1.5</v>
+      </c>
+      <c r="AF43">
+        <v>1.02</v>
+      </c>
+      <c r="AG43">
+        <v>10</v>
+      </c>
+      <c r="AH43">
+        <v>1.17</v>
+      </c>
+      <c r="AI43">
+        <v>4.5</v>
+      </c>
+      <c r="AJ43">
+        <v>1.62</v>
+      </c>
+      <c r="AK43">
+        <v>2.25</v>
+      </c>
+      <c r="AL43">
+        <v>1.83</v>
+      </c>
+      <c r="AM43">
+        <v>1.83</v>
+      </c>
+      <c r="AN43">
+        <v>2.25</v>
+      </c>
+      <c r="AO43">
+        <v>1.22</v>
+      </c>
+      <c r="AP43">
+        <v>1.18</v>
+      </c>
+      <c r="AQ43">
+        <v>0.5</v>
+      </c>
+      <c r="AR43">
+        <v>3</v>
+      </c>
+      <c r="AS43">
+        <v>0.33</v>
+      </c>
+      <c r="AT43">
+        <v>3</v>
+      </c>
+      <c r="AU43">
+        <v>1.36</v>
+      </c>
+      <c r="AV43">
+        <v>1.56</v>
+      </c>
+      <c r="AW43">
+        <v>2.92</v>
+      </c>
+      <c r="AX43">
+        <v>3.3</v>
+      </c>
+      <c r="AY43">
+        <v>7.5</v>
+      </c>
+      <c r="AZ43">
+        <v>1.5</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>1.4</v>
+      </c>
+      <c r="BC43">
+        <v>2.1</v>
+      </c>
+      <c r="BD43">
+        <v>2.08</v>
+      </c>
+      <c r="BE43">
+        <v>2.5</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>4</v>
+      </c>
+      <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>13</v>
+      </c>
+      <c r="BJ43">
+        <v>8</v>
+      </c>
+      <c r="BK43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6675962</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45170.54861111111</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <v>17</v>
+      </c>
+      <c r="T44">
+        <v>2.2</v>
+      </c>
+      <c r="U44">
+        <v>2.38</v>
+      </c>
+      <c r="V44">
+        <v>4.33</v>
+      </c>
+      <c r="W44">
+        <v>1.28</v>
+      </c>
+      <c r="X44">
+        <v>3.4</v>
+      </c>
+      <c r="Y44">
+        <v>2.29</v>
+      </c>
+      <c r="Z44">
+        <v>1.56</v>
+      </c>
+      <c r="AA44">
+        <v>4.95</v>
+      </c>
+      <c r="AB44">
+        <v>1.14</v>
+      </c>
+      <c r="AC44">
+        <v>1.73</v>
+      </c>
+      <c r="AD44">
+        <v>3.8</v>
+      </c>
+      <c r="AE44">
+        <v>5</v>
+      </c>
+      <c r="AF44">
+        <v>1.02</v>
+      </c>
+      <c r="AG44">
+        <v>12</v>
+      </c>
+      <c r="AH44">
+        <v>1.18</v>
+      </c>
+      <c r="AI44">
+        <v>4.5</v>
+      </c>
+      <c r="AJ44">
+        <v>1.57</v>
+      </c>
+      <c r="AK44">
+        <v>2.35</v>
+      </c>
+      <c r="AL44">
+        <v>1.62</v>
+      </c>
+      <c r="AM44">
+        <v>2.2</v>
+      </c>
+      <c r="AN44">
+        <v>1.16</v>
+      </c>
+      <c r="AO44">
+        <v>1.18</v>
+      </c>
+      <c r="AP44">
+        <v>2.1</v>
+      </c>
+      <c r="AQ44">
+        <v>3</v>
+      </c>
+      <c r="AR44">
+        <v>0.5</v>
+      </c>
+      <c r="AS44">
+        <v>2.5</v>
+      </c>
+      <c r="AT44">
+        <v>0.67</v>
+      </c>
+      <c r="AU44">
+        <v>1.46</v>
+      </c>
+      <c r="AV44">
+        <v>1.44</v>
+      </c>
+      <c r="AW44">
+        <v>2.9</v>
+      </c>
+      <c r="AX44">
+        <v>1.54</v>
+      </c>
+      <c r="AY44">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ44">
+        <v>2.83</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>1.25</v>
+      </c>
+      <c r="BC44">
+        <v>1.5</v>
+      </c>
+      <c r="BD44">
+        <v>1.82</v>
+      </c>
+      <c r="BE44">
+        <v>2.28</v>
+      </c>
+      <c r="BF44">
+        <v>8</v>
+      </c>
+      <c r="BG44">
+        <v>5</v>
+      </c>
+      <c r="BH44">
+        <v>13</v>
+      </c>
+      <c r="BI44">
+        <v>3</v>
+      </c>
+      <c r="BJ44">
+        <v>21</v>
+      </c>
+      <c r="BK44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6675960</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45170.54861111111</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>2.38</v>
+      </c>
+      <c r="U45">
+        <v>2.25</v>
+      </c>
+      <c r="V45">
+        <v>4</v>
+      </c>
+      <c r="W45">
+        <v>1.34</v>
+      </c>
+      <c r="X45">
+        <v>3.34</v>
+      </c>
+      <c r="Y45">
+        <v>2.66</v>
+      </c>
+      <c r="Z45">
+        <v>1.49</v>
+      </c>
+      <c r="AA45">
+        <v>5.95</v>
+      </c>
+      <c r="AB45">
+        <v>1.1</v>
+      </c>
+      <c r="AC45">
+        <v>1.83</v>
+      </c>
+      <c r="AD45">
+        <v>3.8</v>
+      </c>
+      <c r="AE45">
+        <v>4.2</v>
+      </c>
+      <c r="AF45">
+        <v>1.04</v>
+      </c>
+      <c r="AG45">
+        <v>10</v>
+      </c>
+      <c r="AH45">
+        <v>1.22</v>
+      </c>
+      <c r="AI45">
+        <v>4</v>
+      </c>
+      <c r="AJ45">
+        <v>1.73</v>
+      </c>
+      <c r="AK45">
+        <v>2.08</v>
+      </c>
+      <c r="AL45">
+        <v>1.67</v>
+      </c>
+      <c r="AM45">
+        <v>2.1</v>
+      </c>
+      <c r="AN45">
+        <v>1.24</v>
+      </c>
+      <c r="AO45">
+        <v>1.23</v>
+      </c>
+      <c r="AP45">
+        <v>1.98</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>1.5</v>
+      </c>
+      <c r="AS45">
+        <v>2.33</v>
+      </c>
+      <c r="AT45">
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <v>1.76</v>
+      </c>
+      <c r="AV45">
+        <v>1.39</v>
+      </c>
+      <c r="AW45">
+        <v>3.15</v>
+      </c>
+      <c r="AX45">
+        <v>1.6</v>
+      </c>
+      <c r="AY45">
+        <v>7</v>
+      </c>
+      <c r="AZ45">
+        <v>3</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>1.4</v>
+      </c>
+      <c r="BC45">
+        <v>2.2</v>
+      </c>
+      <c r="BD45">
+        <v>2.09</v>
+      </c>
+      <c r="BE45">
+        <v>2.5</v>
+      </c>
+      <c r="BF45">
+        <v>7</v>
+      </c>
+      <c r="BG45">
+        <v>3</v>
+      </c>
+      <c r="BH45">
+        <v>2</v>
+      </c>
+      <c r="BI45">
+        <v>2</v>
+      </c>
+      <c r="BJ45">
+        <v>9</v>
+      </c>
+      <c r="BK45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6675966</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45170.64583333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
+        <v>2.2</v>
+      </c>
+      <c r="V46">
+        <v>3.5</v>
+      </c>
+      <c r="W46">
+        <v>1.33</v>
+      </c>
+      <c r="X46">
+        <v>3.15</v>
+      </c>
+      <c r="Y46">
+        <v>2.54</v>
+      </c>
+      <c r="Z46">
+        <v>1.48</v>
+      </c>
+      <c r="AA46">
+        <v>6.1</v>
+      </c>
+      <c r="AB46">
+        <v>1.1</v>
+      </c>
+      <c r="AC46">
+        <v>2.2</v>
+      </c>
+      <c r="AD46">
+        <v>3.4</v>
+      </c>
+      <c r="AE46">
+        <v>3.25</v>
+      </c>
+      <c r="AF46">
+        <v>1.01</v>
+      </c>
+      <c r="AG46">
+        <v>10.5</v>
+      </c>
+      <c r="AH46">
+        <v>1.18</v>
+      </c>
+      <c r="AI46">
+        <v>4.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.85</v>
+      </c>
+      <c r="AK46">
+        <v>1.95</v>
+      </c>
+      <c r="AL46">
+        <v>1.73</v>
+      </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
+      <c r="AN46">
+        <v>1.2</v>
+      </c>
+      <c r="AO46">
+        <v>1.27</v>
+      </c>
+      <c r="AP46">
+        <v>1.83</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>0.67</v>
+      </c>
+      <c r="AS46">
+        <v>3</v>
+      </c>
+      <c r="AT46">
+        <v>0.5</v>
+      </c>
+      <c r="AU46">
+        <v>2.25</v>
+      </c>
+      <c r="AV46">
+        <v>1.65</v>
+      </c>
+      <c r="AW46">
+        <v>3.9</v>
+      </c>
+      <c r="AX46">
+        <v>1.62</v>
+      </c>
+      <c r="AY46">
+        <v>7.5</v>
+      </c>
+      <c r="AZ46">
+        <v>2.88</v>
+      </c>
+      <c r="BA46">
+        <v>1.29</v>
+      </c>
+      <c r="BB46">
+        <v>1.48</v>
+      </c>
+      <c r="BC46">
+        <v>2.38</v>
+      </c>
+      <c r="BD46">
+        <v>2.27</v>
+      </c>
+      <c r="BE46">
+        <v>2.8</v>
+      </c>
+      <c r="BF46">
+        <v>6</v>
+      </c>
+      <c r="BG46">
+        <v>10</v>
+      </c>
+      <c r="BH46">
+        <v>5</v>
+      </c>
+      <c r="BI46">
+        <v>4</v>
+      </c>
+      <c r="BJ46">
+        <v>11</v>
+      </c>
+      <c r="BK46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6675965</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45171.39583333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>2.3</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>3.05</v>
+      </c>
+      <c r="Y47">
+        <v>2.5</v>
+      </c>
+      <c r="Z47">
+        <v>1.47</v>
+      </c>
+      <c r="AA47">
+        <v>5.95</v>
+      </c>
+      <c r="AB47">
+        <v>1.1</v>
+      </c>
+      <c r="AC47">
+        <v>2.55</v>
+      </c>
+      <c r="AD47">
+        <v>3.6</v>
+      </c>
+      <c r="AE47">
+        <v>2.55</v>
+      </c>
+      <c r="AF47">
+        <v>1.04</v>
+      </c>
+      <c r="AG47">
+        <v>10</v>
+      </c>
+      <c r="AH47">
+        <v>1.22</v>
+      </c>
+      <c r="AI47">
+        <v>4</v>
+      </c>
+      <c r="AJ47">
+        <v>1.67</v>
+      </c>
+      <c r="AK47">
+        <v>2.15</v>
+      </c>
+      <c r="AL47">
+        <v>1.53</v>
+      </c>
+      <c r="AM47">
+        <v>2.38</v>
+      </c>
+      <c r="AN47">
+        <v>1.52</v>
+      </c>
+      <c r="AO47">
+        <v>1.22</v>
+      </c>
+      <c r="AP47">
+        <v>1.42</v>
+      </c>
+      <c r="AQ47">
+        <v>1.5</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>2</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>1.52</v>
+      </c>
+      <c r="AV47">
+        <v>1.09</v>
+      </c>
+      <c r="AW47">
+        <v>2.61</v>
+      </c>
+      <c r="AX47">
+        <v>2.15</v>
+      </c>
+      <c r="AY47">
+        <v>7</v>
+      </c>
+      <c r="AZ47">
+        <v>2.05</v>
+      </c>
+      <c r="BA47">
+        <v>1.44</v>
+      </c>
+      <c r="BB47">
+        <v>1.73</v>
+      </c>
+      <c r="BC47">
+        <v>2.2</v>
+      </c>
+      <c r="BD47">
+        <v>2.8</v>
+      </c>
+      <c r="BE47">
+        <v>3.4</v>
+      </c>
+      <c r="BF47">
+        <v>7</v>
+      </c>
+      <c r="BG47">
+        <v>4</v>
+      </c>
+      <c r="BH47">
+        <v>7</v>
+      </c>
+      <c r="BI47">
+        <v>5</v>
+      </c>
+      <c r="BJ47">
+        <v>14</v>
+      </c>
+      <c r="BK47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6675961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45171.39583333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>2.6</v>
+      </c>
+      <c r="U48">
+        <v>2.25</v>
+      </c>
+      <c r="V48">
+        <v>3.6</v>
+      </c>
+      <c r="W48">
+        <v>1.35</v>
+      </c>
+      <c r="X48">
+        <v>3.04</v>
+      </c>
+      <c r="Y48">
+        <v>2.6</v>
+      </c>
+      <c r="Z48">
+        <v>1.46</v>
+      </c>
+      <c r="AA48">
+        <v>6.35</v>
+      </c>
+      <c r="AB48">
+        <v>1.1</v>
+      </c>
+      <c r="AC48">
+        <v>2.1</v>
+      </c>
+      <c r="AD48">
+        <v>3.6</v>
+      </c>
+      <c r="AE48">
+        <v>3.4</v>
+      </c>
+      <c r="AF48">
+        <v>1.02</v>
+      </c>
+      <c r="AG48">
+        <v>10</v>
+      </c>
+      <c r="AH48">
+        <v>1.25</v>
+      </c>
+      <c r="AI48">
+        <v>3.6</v>
+      </c>
+      <c r="AJ48">
+        <v>1.7</v>
+      </c>
+      <c r="AK48">
+        <v>2.1</v>
+      </c>
+      <c r="AL48">
+        <v>1.62</v>
+      </c>
+      <c r="AM48">
+        <v>2.2</v>
+      </c>
+      <c r="AN48">
+        <v>1.32</v>
+      </c>
+      <c r="AO48">
+        <v>1.27</v>
+      </c>
+      <c r="AP48">
+        <v>1.74</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>1.5</v>
+      </c>
+      <c r="AS48">
+        <v>3</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1.62</v>
+      </c>
+      <c r="AV48">
+        <v>1.17</v>
+      </c>
+      <c r="AW48">
+        <v>2.79</v>
+      </c>
+      <c r="AX48">
+        <v>1.62</v>
+      </c>
+      <c r="AY48">
+        <v>7.5</v>
+      </c>
+      <c r="AZ48">
+        <v>2.88</v>
+      </c>
+      <c r="BA48">
+        <v>1.29</v>
+      </c>
+      <c r="BB48">
+        <v>1.48</v>
+      </c>
+      <c r="BC48">
+        <v>2.38</v>
+      </c>
+      <c r="BD48">
+        <v>2.22</v>
+      </c>
+      <c r="BE48">
+        <v>2.8</v>
+      </c>
+      <c r="BF48">
+        <v>7</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>7</v>
+      </c>
+      <c r="BI48">
+        <v>3</v>
+      </c>
+      <c r="BJ48">
+        <v>14</v>
+      </c>
+      <c r="BK48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6675959</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45172.22916666666</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>3.4</v>
+      </c>
+      <c r="U49">
+        <v>2.25</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.35</v>
+      </c>
+      <c r="X49">
+        <v>2.95</v>
+      </c>
+      <c r="Y49">
+        <v>2.55</v>
+      </c>
+      <c r="Z49">
+        <v>1.46</v>
+      </c>
+      <c r="AA49">
+        <v>5.95</v>
+      </c>
+      <c r="AB49">
+        <v>1.1</v>
+      </c>
+      <c r="AC49">
+        <v>3.1</v>
+      </c>
+      <c r="AD49">
+        <v>3.6</v>
+      </c>
+      <c r="AE49">
+        <v>2.2</v>
+      </c>
+      <c r="AF49">
+        <v>1.05</v>
+      </c>
+      <c r="AG49">
+        <v>9</v>
+      </c>
+      <c r="AH49">
+        <v>1.22</v>
+      </c>
+      <c r="AI49">
+        <v>4</v>
+      </c>
+      <c r="AJ49">
+        <v>1.7</v>
+      </c>
+      <c r="AK49">
+        <v>2.1</v>
+      </c>
+      <c r="AL49">
+        <v>1.62</v>
+      </c>
+      <c r="AM49">
+        <v>2.2</v>
+      </c>
+      <c r="AN49">
+        <v>1.75</v>
+      </c>
+      <c r="AO49">
+        <v>1.22</v>
+      </c>
+      <c r="AP49">
+        <v>1.3</v>
+      </c>
+      <c r="AQ49">
+        <v>0.5</v>
+      </c>
+      <c r="AR49">
+        <v>1.5</v>
+      </c>
+      <c r="AS49">
+        <v>1.33</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>0.89</v>
+      </c>
+      <c r="AV49">
+        <v>1.64</v>
+      </c>
+      <c r="AW49">
+        <v>2.53</v>
+      </c>
+      <c r="AX49">
+        <v>2.28</v>
+      </c>
+      <c r="AY49">
+        <v>6.8</v>
+      </c>
+      <c r="AZ49">
+        <v>1.9</v>
+      </c>
+      <c r="BA49">
+        <v>1.29</v>
+      </c>
+      <c r="BB49">
+        <v>1.51</v>
+      </c>
+      <c r="BC49">
+        <v>1.98</v>
+      </c>
+      <c r="BD49">
+        <v>2.37</v>
+      </c>
+      <c r="BE49">
+        <v>3.1</v>
+      </c>
+      <c r="BF49">
+        <v>4</v>
+      </c>
+      <c r="BG49">
+        <v>5</v>
+      </c>
+      <c r="BH49">
+        <v>6</v>
+      </c>
+      <c r="BI49">
+        <v>1</v>
+      </c>
+      <c r="BJ49">
+        <v>10</v>
+      </c>
+      <c r="BK49">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3542,7 +3542,7 @@
         <v>0.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.26</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.23</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -11714,6 +11714,412 @@
       </c>
       <c r="BK55" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6675977</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45186.22916666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['27', '55']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6675972</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45186.22916666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['13', '73']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>0.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT15" t="n">
         <v>2.25</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT16" t="n">
         <v>0.67</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>1.62</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>2.25</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU22" t="n">
         <v>1.26</v>
@@ -5166,7 +5166,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>0.95</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU28" t="n">
         <v>1.15</v>
@@ -6993,7 +6993,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.13</v>
@@ -7196,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.71</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.5</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>0.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.36</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9632,7 +9632,7 @@
         <v>2.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.76</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.52</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT55" t="n">
         <v>2.25</v>
@@ -12068,7 +12068,7 @@
         <v>2.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.44</v>
@@ -12120,6 +12120,1224 @@
       </c>
       <c r="BK57" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6675978</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45191.54861111111</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['4', '8', '71', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>7</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6675987</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45191.54861111111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['26', '30']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6675983</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45191.54861111111</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['11', '68']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['35', '57', '63']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7</v>
+      </c>
+      <c r="S60" t="n">
+        <v>9</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6675986</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45191.66666666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['43', '77']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['29', '71']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6675980</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45192.39583333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['7', '45', '76']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>7</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6675981</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45192.39583333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>11</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>2.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU19" t="n">
         <v>1.61</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.5</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU38" t="n">
         <v>1.2</v>
@@ -9429,7 +9429,7 @@
         <v>2.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU46" t="n">
         <v>2.25</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>0.75</v>
@@ -13202,10 +13202,10 @@
         <v>6</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T63" t="n">
         <v>2.3</v>
@@ -13338,6 +13338,412 @@
       </c>
       <c r="BK63" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6675988</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6675984</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45193.22916666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['17', '36', '44', '78']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ65"/>
+  <dimension ref="A1:AZ71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +1689,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.6</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.25</v>
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.75</v>
@@ -3899,7 +3899,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR20" t="n">
         <v>1.16</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR25" t="n">
         <v>1.07</v>
@@ -4919,7 +4919,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR26" t="n">
         <v>1.66</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -5426,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5766,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR31" t="n">
         <v>0.9399999999999999</v>
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.5</v>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.25</v>
@@ -7126,10 +7126,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR39" t="n">
         <v>1.23</v>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR40" t="n">
         <v>1.48</v>
@@ -7639,7 +7639,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR42" t="n">
         <v>1.23</v>
@@ -8146,7 +8146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.75</v>
@@ -8826,7 +8826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -8996,10 +8996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.65</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.5</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52" t="n">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR54" t="n">
         <v>1.16</v>
@@ -9849,7 +9849,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -10019,7 +10019,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -10186,7 +10186,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.4</v>
@@ -11577,6 +11577,1026 @@
       </c>
       <c r="AZ65" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6675997</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45198.54861111111</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['5', '26', '90']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6675995</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45198.54861111111</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['20', '22', '59', '77', '83']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6675990</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45198.54861111111</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['41', '76']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['29', '86']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X68" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6675993</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45198.64583333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['15', '86', '89']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X69" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6675998</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45199.39583333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['2', '6']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X70" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6675991</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45199.39583333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X71" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ71"/>
+  <dimension ref="A1:AZ73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.4</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>2.5</v>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.25</v>
@@ -5089,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR35" t="n">
         <v>1.78</v>
@@ -7296,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.4</v>
@@ -7466,7 +7466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.4</v>
@@ -9169,7 +9169,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR51" t="n">
         <v>1.32</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ53" t="n">
         <v>0</v>
@@ -10016,7 +10016,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.4</v>
@@ -12597,6 +12597,346 @@
       </c>
       <c r="AZ71" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6675992</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45200.22916666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['5', '22']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['6', '28', '75']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X72" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6675994</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45200.22916666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['71', '79', '90+1']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['51', '64']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X73" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ73"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>10</v>
       </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>10</v>
       </c>
+      <c r="BA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>8</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>6</v>
       </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>12</v>
       </c>
+      <c r="BA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>10</v>
       </c>
+      <c r="BA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>13</v>
       </c>
+      <c r="BA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>5</v>
       </c>
+      <c r="BA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>7</v>
       </c>
+      <c r="BA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>10</v>
       </c>
+      <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>14</v>
       </c>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>6</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>6</v>
       </c>
+      <c r="BA14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>14</v>
       </c>
+      <c r="BA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>12</v>
       </c>
+      <c r="BA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>11</v>
       </c>
+      <c r="BA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>10</v>
       </c>
+      <c r="BA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>9</v>
       </c>
+      <c r="BA19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>10</v>
       </c>
+      <c r="BA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>6</v>
       </c>
+      <c r="BA21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>6</v>
       </c>
+      <c r="BA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>19</v>
       </c>
+      <c r="BA23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>10</v>
       </c>
+      <c r="BA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>10</v>
       </c>
+      <c r="BA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>14</v>
       </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>12</v>
       </c>
+      <c r="BA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>9</v>
       </c>
+      <c r="BA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>7</v>
       </c>
+      <c r="BA29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>8</v>
       </c>
+      <c r="BA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>10</v>
       </c>
+      <c r="BA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>9</v>
       </c>
+      <c r="BA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>7</v>
       </c>
+      <c r="BA33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>10</v>
       </c>
+      <c r="BA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>11</v>
       </c>
+      <c r="BA35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>5</v>
       </c>
+      <c r="BA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>9</v>
       </c>
+      <c r="BA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>22</v>
       </c>
+      <c r="BA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>11</v>
       </c>
+      <c r="BA39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>14</v>
       </c>
+      <c r="BA40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>14</v>
       </c>
+      <c r="BA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>9</v>
       </c>
+      <c r="BA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>17</v>
       </c>
+      <c r="BA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>8</v>
       </c>
+      <c r="BA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>5</v>
       </c>
+      <c r="BA45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>14</v>
       </c>
+      <c r="BA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>9</v>
       </c>
+      <c r="BA47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>3</v>
       </c>
+      <c r="BA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>6</v>
       </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>7</v>
       </c>
+      <c r="BA50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>7</v>
       </c>
+      <c r="BA51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>3</v>
       </c>
+      <c r="BA52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>12</v>
       </c>
+      <c r="BA53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>12</v>
       </c>
+      <c r="BA54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>10</v>
       </c>
+      <c r="BA55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>9</v>
       </c>
+      <c r="BA56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>6</v>
       </c>
+      <c r="BA57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>16</v>
       </c>
+      <c r="BA58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>10</v>
       </c>
+      <c r="BA59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>8</v>
       </c>
+      <c r="BA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>7</v>
       </c>
+      <c r="BA61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>9</v>
       </c>
+      <c r="BA62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>5</v>
       </c>
+      <c r="BA63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>15</v>
       </c>
+      <c r="BA64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>10</v>
       </c>
+      <c r="BA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>9</v>
       </c>
+      <c r="BA66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>3</v>
       </c>
+      <c r="BA67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>14</v>
       </c>
+      <c r="BA68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>8</v>
       </c>
+      <c r="BA69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>7</v>
       </c>
+      <c r="BA70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>9</v>
       </c>
+      <c r="BA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>9</v>
       </c>
+      <c r="BA72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12937,6 +16425,54 @@
       </c>
       <c r="AZ73" t="n">
         <v>12</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.4</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.61</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.4</v>
@@ -5279,7 +5279,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.26</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR23" t="n">
         <v>0.95</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
         <v>1.07</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.4</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.8</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -7023,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.5</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR31" t="n">
         <v>0.9399999999999999</v>
@@ -7459,7 +7459,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="n">
         <v>1.13</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.75</v>
@@ -7895,7 +7895,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.36</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.8</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.2</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.23</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1.32</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.4</v>
@@ -9854,10 +9854,10 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.36</v>
@@ -10075,7 +10075,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10511,7 +10511,7 @@
         <v>3</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>2.25</v>
@@ -10729,7 +10729,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR47" t="n">
         <v>1.52</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR50" t="n">
         <v>1.65</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
         <v>0</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55" t="n">
         <v>2.4</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12909,7 +12909,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13124,10 +13124,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ58" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>1.25</v>
       </c>
       <c r="AR58" t="n">
         <v>1.46</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13781,7 +13781,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.68</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.6</v>
@@ -14650,10 +14650,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.71</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.4</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.57</v>
@@ -15961,7 +15961,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR71" t="n">
         <v>1.04</v>
@@ -16473,6 +16473,1750 @@
       </c>
       <c r="BP73" t="n">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6676004</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45205.54861111111</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['7', '21', '41', '74']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X74" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6676001</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45205.54861111111</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['71', '88']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6676006</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45205.54861111111</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['41', '45+4']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['17', '79', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X76" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6676005</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45205.54861111111</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X77" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6675999</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45205.64583333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['3', '56']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['90', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X78" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6676007</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45206.39583333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6676002</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.39583333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['11', '90+3']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['2', '61', '80']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6676000</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.22916666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.67</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.8</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.6</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR17" t="n">
         <v>1.62</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR20" t="n">
         <v>1.16</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR21" t="n">
         <v>1.63</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.67</v>
@@ -5715,7 +5715,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR24" t="n">
         <v>2.33</v>
@@ -6151,7 +6151,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR26" t="n">
         <v>1.66</v>
@@ -6369,7 +6369,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.8</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR29" t="n">
         <v>1.62</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR33" t="n">
         <v>1.71</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.2</v>
@@ -8113,7 +8113,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.78</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR40" t="n">
         <v>1.48</v>
@@ -9639,7 +9639,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR42" t="n">
         <v>1.23</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -10290,10 +10290,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR45" t="n">
         <v>1.76</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.8</v>
@@ -10947,7 +10947,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR48" t="n">
         <v>1.62</v>
@@ -11162,10 +11162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR49" t="n">
         <v>0.89</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.6</v>
@@ -11598,10 +11598,10 @@
         <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.32</v>
@@ -11819,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR52" t="n">
         <v>1.24</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR54" t="n">
         <v>1.16</v>
@@ -12473,7 +12473,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.67</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>3</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR62" t="n">
         <v>2</v>
@@ -14217,7 +14217,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR63" t="n">
         <v>1.18</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR66" t="n">
         <v>1.13</v>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ67" t="n">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR68" t="n">
         <v>1.27</v>
@@ -15522,10 +15522,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR69" t="n">
         <v>1.4</v>
@@ -15740,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ70" t="n">
         <v>2</v>
@@ -15958,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.6</v>
@@ -16176,10 +16176,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>1.55</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR73" t="n">
         <v>1.26</v>
@@ -18217,6 +18217,1750 @@
       </c>
       <c r="BP81" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6676012</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45219.54861111111</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['2', '57', '74', '90+1']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>6</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6676014</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45219.54861111111</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6676016</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45219.54861111111</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['1', '4', '39']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6676013</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X85" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6676009</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45220.39583333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6676011</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45220.39583333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['4', '45', '53']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['80', '87']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X87" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6676015</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45220.39583333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['20', '45+4', '51']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X88" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6676008</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45221.22916666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['2', '66']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X89" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.4</v>
@@ -3317,7 +3317,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR17" t="n">
         <v>1.62</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR20" t="n">
         <v>1.16</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.8</v>
@@ -5279,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR22" t="n">
         <v>1.26</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>0.95</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.17</v>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR25" t="n">
         <v>1.07</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.67</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -7023,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR30" t="n">
         <v>1.5</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR31" t="n">
         <v>0.9399999999999999</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.71</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR34" t="n">
         <v>1.36</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.5</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR39" t="n">
         <v>1.23</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR40" t="n">
         <v>1.48</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR41" t="n">
         <v>1.32</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.67</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10293,7 +10293,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.76</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.8</v>
@@ -11383,7 +11383,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.65</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.17</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53" t="n">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12909,7 +12909,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13124,10 +13124,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.46</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.8</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13999,7 +13999,7 @@
         <v>3</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR62" t="n">
         <v>2</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.8</v>
@@ -14650,10 +14650,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR65" t="n">
         <v>1.71</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.67</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR69" t="n">
         <v>1.4</v>
@@ -15743,7 +15743,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR70" t="n">
         <v>1.57</v>
@@ -15961,7 +15961,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.04</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.5</v>
@@ -16612,7 +16612,7 @@
         <v>2.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
         <v>2</v>
@@ -16830,10 +16830,10 @@
         <v>1.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR75" t="n">
         <v>1.75</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.8</v>
@@ -17484,10 +17484,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR78" t="n">
         <v>1.13</v>
@@ -17705,7 +17705,7 @@
         <v>3</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR79" t="n">
         <v>1.88</v>
@@ -17920,10 +17920,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR80" t="n">
         <v>1.11</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.27</v>
@@ -18792,7 +18792,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.67</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19231,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR86" t="n">
         <v>1.3</v>
@@ -19961,6 +19961,1532 @@
       </c>
       <c r="BP89" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6676023</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45226.54861111111</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>7</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['22', '26', '32', '40', '82']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['45', '60']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X90" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6676022</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45226.54861111111</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6676021</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45226.54861111111</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['14', '82']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X92" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6676017</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45226.54861111111</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['67', '72']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6676019</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45226.54861111111</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['22', '25', '33']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['29', '63']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X94" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6676020</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45227.39583333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['43', '85']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X95" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6676026</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45227.39583333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X96" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.5</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.4</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR32" t="n">
         <v>1.13</v>
@@ -9857,7 +9857,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR43" t="n">
         <v>1.36</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.57</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61" t="n">
         <v>1.68</v>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
         <v>0</v>
@@ -16615,7 +16615,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -18356,7 +18356,7 @@
         <v>1.8</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.5</v>
@@ -21487,6 +21487,224 @@
       </c>
       <c r="BP96" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6676024</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45228.27083333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.67</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.67</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR18" t="n">
         <v>1.52</v>
@@ -5061,7 +5061,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR21" t="n">
         <v>1.63</v>
@@ -5715,7 +5715,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR24" t="n">
         <v>2.33</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.83</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.5</v>
@@ -8113,7 +8113,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR35" t="n">
         <v>1.78</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8549,7 +8549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.83</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.67</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>1.52</v>
@@ -10947,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR48" t="n">
         <v>1.62</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.4</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.5</v>
@@ -11598,10 +11598,10 @@
         <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR51" t="n">
         <v>1.32</v>
@@ -11819,7 +11819,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR52" t="n">
         <v>1.24</v>
@@ -12037,7 +12037,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.59</v>
@@ -13345,7 +13345,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.83</v>
@@ -14217,7 +14217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.18</v>
@@ -15089,7 +15089,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR67" t="n">
         <v>1.58</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.29</v>
@@ -15740,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.86</v>
@@ -15958,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -16179,7 +16179,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.55</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR73" t="n">
         <v>1.26</v>
@@ -17269,7 +17269,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR77" t="n">
         <v>1.56</v>
@@ -18359,7 +18359,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR82" t="n">
         <v>1.68</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>2.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.29</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR87" t="n">
         <v>1.11</v>
@@ -19667,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR88" t="n">
         <v>1.41</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.4</v>
@@ -21705,6 +21705,1096 @@
       </c>
       <c r="BP97" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6676032</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45233.59027777778</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X98" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6676033</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45233.6875</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X99" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6676028</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45234.4375</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['5', '10']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>7</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X100" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6676029</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45234.4375</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X101" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6676030</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45234.4375</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['85', '87']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['11', '22']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X102" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.43</v>
@@ -2009,7 +2009,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.57</v>
@@ -6151,7 +6151,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR26" t="n">
         <v>1.66</v>
@@ -6805,7 +6805,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>1.62</v>
@@ -9639,7 +9639,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR42" t="n">
         <v>1.23</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -11165,7 +11165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR49" t="n">
         <v>0.89</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR54" t="n">
         <v>1.16</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR66" t="n">
         <v>1.13</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
         <v>1.27</v>
@@ -18795,7 +18795,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.62</v>
@@ -19664,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.43</v>
@@ -19885,7 +19885,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR89" t="n">
         <v>1.48</v>
@@ -22795,6 +22795,442 @@
       </c>
       <c r="BP102" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6676027</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45235.27083333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6676035</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45235.35416666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['33', '37', '64']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14736,7 +14736,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>6675997</v>
+        <v>6675990</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -14756,173 +14756,173 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
         <v>4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['41', '76']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>['5', '26', '90']</t>
+          <t>['29', '86']</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="R66" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S66" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="T66" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U66" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="V66" t="n">
-        <v>2.48</v>
+        <v>2.39</v>
       </c>
       <c r="W66" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X66" t="n">
-        <v>5.95</v>
+        <v>5.45</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z66" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="AA66" t="n">
         <v>3.75</v>
       </c>
       <c r="AB66" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AC66" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD66" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AF66" t="n">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AH66" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AI66" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ66" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK66" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AL66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR66" t="n">
         <v>1.27</v>
       </c>
-      <c r="AM66" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AU66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV66" t="n">
         <v>7</v>
       </c>
       <c r="AW66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ66" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC66" t="n">
         <v>10</v>
       </c>
       <c r="BD66" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BE66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF66" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="BG66" t="n">
         <v>1.29</v>
       </c>
       <c r="BH66" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI66" t="n">
         <v>1.48</v>
@@ -14931,10 +14931,10 @@
         <v>2.5</v>
       </c>
       <c r="BK66" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="BL66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BM66" t="n">
         <v>2.2</v>
@@ -14954,7 +14954,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>6675995</v>
+        <v>6675997</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -14974,197 +14974,197 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
       </c>
       <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['5', '26', '90']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW67" t="n">
         <v>5</v>
       </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>['20', '22', '59', '77', '83']</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q67" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R67" t="n">
+      <c r="AX67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK67" t="n">
         <v>2.38</v>
       </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U67" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V67" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="W67" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X67" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AG67" t="n">
+      <c r="BL67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN67" t="n">
         <v>1.62</v>
       </c>
-      <c r="AH67" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BO67" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BP67" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="68">
@@ -15172,7 +15172,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>6675990</v>
+        <v>6675995</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -15192,77 +15192,77 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['20', '22', '59', '77', '83']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X68" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA68" t="n">
         <v>4</v>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>['41', '76']</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>['29', '86']</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S68" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U68" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V68" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="W68" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X68" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AB68" t="n">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="AC68" t="n">
         <v>1.03</v>
@@ -15271,118 +15271,118 @@
         <v>11</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF68" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AG68" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AH68" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AI68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI68" t="n">
         <v>1.53</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="BJ68" t="n">
         <v>2.38</v>
       </c>
-      <c r="AK68" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ68" t="n">
+      <c r="BK68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP68" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="69">
@@ -16480,7 +16480,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>6676004</v>
+        <v>6676001</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -16500,89 +16500,89 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['7', '21', '41', '74']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['71', '88']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R74" t="n">
         <v>2.25</v>
       </c>
       <c r="S74" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="T74" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="U74" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="V74" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="W74" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="X74" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z74" t="n">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="AA74" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD74" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF74" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="AG74" t="n">
         <v>1.7</v>
@@ -16591,106 +16591,106 @@
         <v>2.1</v>
       </c>
       <c r="AI74" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK74" t="n">
         <v>1.83</v>
       </c>
-      <c r="AL74" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>2.13</v>
-      </c>
       <c r="BL74" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="BO74" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="BP74" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="75">
@@ -16698,7 +16698,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>6676001</v>
+        <v>6676004</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -16718,89 +16718,89 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7', '21', '41', '74']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['71', '88']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
         <v>2.25</v>
       </c>
       <c r="S75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X75" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA75" t="n">
         <v>3.6</v>
       </c>
-      <c r="T75" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U75" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V75" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X75" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AB75" t="n">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD75" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF75" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="AG75" t="n">
         <v>1.7</v>
@@ -16809,106 +16809,106 @@
         <v>2.1</v>
       </c>
       <c r="AI75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF75" t="n">
         <v>1.62</v>
       </c>
-      <c r="AJ75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO75" t="n">
+      <c r="BG75" t="n">
         <v>1.4</v>
       </c>
-      <c r="AP75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>1.24</v>
-      </c>
       <c r="BH75" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="BI75" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="BJ75" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="BK75" t="n">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="BL75" t="n">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="BM75" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="BN75" t="n">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="BO75" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="76">
@@ -16916,7 +16916,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>6676006</v>
+        <v>6676005</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -16936,62 +16936,62 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['41', '45+4']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>['17', '79', '90+4']</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R76" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S76" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="T76" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U76" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="V76" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="W76" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X76" t="n">
         <v>5.2</v>
@@ -17000,13 +17000,13 @@
         <v>1.13</v>
       </c>
       <c r="Z76" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="AA76" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB76" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC76" t="n">
         <v>1.03</v>
@@ -17027,106 +17027,106 @@
         <v>2.25</v>
       </c>
       <c r="AI76" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK76" t="n">
-        <v>2.3</v>
+        <v>1.32</v>
       </c>
       <c r="AL76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS76" t="n">
         <v>1.22</v>
       </c>
-      <c r="AM76" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AT76" t="n">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="AU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="n">
         <v>4</v>
       </c>
-      <c r="AV76" t="n">
-        <v>6</v>
-      </c>
       <c r="AW76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY76" t="n">
         <v>7</v>
       </c>
       <c r="AZ76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC76" t="n">
         <v>8</v>
       </c>
-      <c r="BA76" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>4</v>
-      </c>
       <c r="BD76" t="n">
-        <v>3.37</v>
+        <v>1.77</v>
       </c>
       <c r="BE76" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="BF76" t="n">
-        <v>1.5</v>
+        <v>2.58</v>
       </c>
       <c r="BG76" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="BH76" t="n">
-        <v>3.92</v>
+        <v>2.75</v>
       </c>
       <c r="BI76" t="n">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="BJ76" t="n">
-        <v>2.65</v>
+        <v>2.06</v>
       </c>
       <c r="BK76" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="BL76" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="BM76" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="BN76" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="BO76" t="n">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="BP76" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="77">
@@ -17134,7 +17134,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>6676005</v>
+        <v>6676006</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -17154,62 +17154,62 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['41', '45+4']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>['17', '79', '90+4']</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="R77" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U77" t="n">
         <v>3.5</v>
       </c>
-      <c r="T77" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U77" t="n">
-        <v>3.2</v>
-      </c>
       <c r="V77" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="W77" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X77" t="n">
         <v>5.2</v>
@@ -17218,13 +17218,13 @@
         <v>1.13</v>
       </c>
       <c r="Z77" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AB77" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC77" t="n">
         <v>1.03</v>
@@ -17245,106 +17245,106 @@
         <v>2.25</v>
       </c>
       <c r="AI77" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AN77" t="n">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="AU77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY77" t="n">
         <v>7</v>
       </c>
       <c r="AZ77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC77" t="n">
         <v>4</v>
       </c>
-      <c r="BA77" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>8</v>
-      </c>
       <c r="BD77" t="n">
-        <v>1.77</v>
+        <v>3.37</v>
       </c>
       <c r="BE77" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="BF77" t="n">
-        <v>2.58</v>
+        <v>1.5</v>
       </c>
       <c r="BG77" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP77" t="n">
         <v>1.4</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BP77" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="78">
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>6676007</v>
+        <v>6676002</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17590,197 +17590,197 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Schwarz-Weiß Bregenz</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['11', '90+3']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2', '61', '80']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="R79" t="n">
         <v>2.3</v>
       </c>
       <c r="S79" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="T79" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V79" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="AA79" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB79" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="AC79" t="n">
         <v>1.02</v>
       </c>
       <c r="AD79" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF79" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="AG79" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AH79" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AI79" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AL79" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AM79" t="n">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="AN79" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AO79" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>3</v>
+        <v>0.86</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.88</v>
+        <v>1.11</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.25</v>
+        <v>2.43</v>
       </c>
       <c r="AU79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW79" t="n">
         <v>5</v>
       </c>
-      <c r="AV79" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW79" t="n">
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ79" t="n">
         <v>9</v>
       </c>
-      <c r="AX79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>7</v>
-      </c>
       <c r="BA79" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BB79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC79" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BD79" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="BE79" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="BF79" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="BG79" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BH79" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BI79" t="n">
-        <v>1.8</v>
+        <v>1.21</v>
       </c>
       <c r="BJ79" t="n">
-        <v>1.99</v>
+        <v>3.74</v>
       </c>
       <c r="BK79" t="n">
-        <v>2.29</v>
+        <v>1.39</v>
       </c>
       <c r="BL79" t="n">
-        <v>1.58</v>
+        <v>2.67</v>
       </c>
       <c r="BM79" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="BN79" t="n">
-        <v>1.3</v>
+        <v>2.09</v>
       </c>
       <c r="BO79" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="BP79" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="80">
@@ -17788,7 +17788,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>6676002</v>
+        <v>6676007</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -17808,197 +17808,197 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['11', '90+3']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['2', '61', '80']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
       </c>
       <c r="S80" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="T80" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V80" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X80" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z80" t="n">
         <v>1.53</v>
       </c>
-      <c r="X80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA80" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB80" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="AC80" t="n">
         <v>1.02</v>
       </c>
       <c r="AD80" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE80" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF80" t="n">
-        <v>4.33</v>
+        <v>4.7</v>
       </c>
       <c r="AG80" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AH80" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AI80" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="AK80" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AL80" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AM80" t="n">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.86</v>
+        <v>3</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.83</v>
+        <v>1.86</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="AU80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW80" t="n">
         <v>9</v>
       </c>
-      <c r="AW80" t="n">
-        <v>5</v>
-      </c>
       <c r="AX80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY80" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ80" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA80" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BB80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC80" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BD80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI80" t="n">
         <v>1.8</v>
       </c>
-      <c r="BE80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI80" t="n">
-        <v>1.21</v>
-      </c>
       <c r="BJ80" t="n">
-        <v>3.74</v>
+        <v>1.99</v>
       </c>
       <c r="BK80" t="n">
-        <v>1.39</v>
+        <v>2.29</v>
       </c>
       <c r="BL80" t="n">
-        <v>2.67</v>
+        <v>1.58</v>
       </c>
       <c r="BM80" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="BN80" t="n">
-        <v>2.09</v>
+        <v>1.3</v>
       </c>
       <c r="BO80" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="BP80" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -18224,7 +18224,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>6676012</v>
+        <v>6676014</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -18244,56 +18244,56 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['2', '57', '74', '90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S82" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="T82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V82" t="n">
         <v>2.5</v>
@@ -18308,13 +18308,13 @@
         <v>1.13</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AA82" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC82" t="n">
         <v>1.04</v>
@@ -18323,88 +18323,88 @@
         <v>10</v>
       </c>
       <c r="AE82" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF82" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI82" t="n">
         <v>1.67</v>
       </c>
-      <c r="AH82" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AJ82" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK82" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AL82" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AM82" t="n">
         <v>2.35</v>
       </c>
       <c r="AN82" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO82" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.43</v>
+        <v>0.29</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>3.17</v>
+        <v>2.68</v>
       </c>
       <c r="AU82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW82" t="n">
         <v>7</v>
       </c>
-      <c r="AV82" t="n">
+      <c r="AX82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB82" t="n">
         <v>4</v>
       </c>
-      <c r="AW82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY82" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ82" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB82" t="n">
-        <v>5</v>
-      </c>
       <c r="BC82" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD82" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BE82" t="n">
-        <v>10.25</v>
+        <v>7.4</v>
       </c>
       <c r="BF82" t="n">
-        <v>3.35</v>
+        <v>3.99</v>
       </c>
       <c r="BG82" t="n">
         <v>0</v>
@@ -18413,28 +18413,28 @@
         <v>0</v>
       </c>
       <c r="BI82" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="BJ82" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="BK82" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="BL82" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="BM82" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="BN82" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="BO82" t="n">
-        <v>2.19</v>
+        <v>2.53</v>
       </c>
       <c r="BP82" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="83">
@@ -18442,7 +18442,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>6676014</v>
+        <v>6676012</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -18462,56 +18462,56 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2', '57', '74', '90+1']</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="R83" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S83" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="T83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U83" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V83" t="n">
         <v>2.5</v>
@@ -18526,13 +18526,13 @@
         <v>1.13</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AA83" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AB83" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC83" t="n">
         <v>1.04</v>
@@ -18541,118 +18541,118 @@
         <v>10</v>
       </c>
       <c r="AE83" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF83" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AH83" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AI83" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ83" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AL83" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AM83" t="n">
         <v>2.35</v>
       </c>
       <c r="AN83" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP83" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP83" t="n">
         <v>1.57</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BE83" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF83" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="BG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI83" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BJ83" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BL83" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="BN83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BO83" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BP83" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="84">
@@ -19314,7 +19314,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>6676011</v>
+        <v>6676015</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -19334,12 +19334,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -19355,116 +19355,116 @@
         <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['4', '45', '53']</t>
+          <t>['20', '45+4', '51']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['80', '87']</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R87" t="n">
         <v>2.2</v>
       </c>
       <c r="S87" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T87" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U87" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V87" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W87" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AA87" t="n">
         <v>3.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AC87" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS87" t="n">
         <v>1.3</v>
       </c>
-      <c r="AF87" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>0.9</v>
-      </c>
       <c r="AT87" t="n">
-        <v>2.01</v>
+        <v>2.71</v>
       </c>
       <c r="AU87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV87" t="n">
         <v>4</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>3</v>
       </c>
       <c r="AW87" t="n">
         <v>4</v>
@@ -19473,58 +19473,58 @@
         <v>4</v>
       </c>
       <c r="AY87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ87" t="n">
         <v>8</v>
       </c>
-      <c r="AZ87" t="n">
-        <v>7</v>
-      </c>
       <c r="BA87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD87" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="BE87" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BF87" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BG87" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="BH87" t="n">
-        <v>4.5</v>
+        <v>2.95</v>
       </c>
       <c r="BI87" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="BJ87" t="n">
-        <v>2.93</v>
+        <v>2.12</v>
       </c>
       <c r="BK87" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BL87" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="BM87" t="n">
-        <v>2.04</v>
+        <v>2.88</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="BO87" t="n">
-        <v>2.57</v>
+        <v>4</v>
       </c>
       <c r="BP87" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="88">
@@ -19532,7 +19532,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>6676015</v>
+        <v>6676011</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -19552,12 +19552,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Schwarz-Weiß Bregenz</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -19573,116 +19573,116 @@
         <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['20', '45+4', '51']</t>
+          <t>['4', '45', '53']</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['80', '87']</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R88" t="n">
         <v>2.2</v>
       </c>
       <c r="S88" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T88" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U88" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V88" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W88" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AA88" t="n">
         <v>3.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AC88" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE88" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AU88" t="n">
         <v>4</v>
       </c>
-      <c r="AG88" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>7</v>
-      </c>
       <c r="AV88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW88" t="n">
         <v>4</v>
@@ -19691,58 +19691,58 @@
         <v>4</v>
       </c>
       <c r="AY88" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA88" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD88" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="BE88" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF88" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BG88" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="BH88" t="n">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="BI88" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="BJ88" t="n">
-        <v>2.12</v>
+        <v>2.93</v>
       </c>
       <c r="BK88" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="BL88" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="BM88" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="BN88" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="BO88" t="n">
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="BP88" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="89">
@@ -19968,7 +19968,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>6676023</v>
+        <v>6676017</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -19988,167 +19988,167 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['22', '26', '32', '40', '82']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>['45', '60']</t>
+          <t>['67', '72']</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="R90" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S90" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="T90" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="U90" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="V90" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="W90" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="X90" t="n">
-        <v>4.95</v>
+        <v>6.4</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="AA90" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB90" t="n">
-        <v>4.2</v>
+        <v>1.83</v>
       </c>
       <c r="AC90" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD90" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF90" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AG90" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="AH90" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="AI90" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AJ90" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AK90" t="n">
-        <v>1.18</v>
+        <v>1.82</v>
       </c>
       <c r="AL90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO90" t="n">
         <v>1.2</v>
       </c>
-      <c r="AM90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>1</v>
-      </c>
       <c r="AP90" t="n">
-        <v>2.14</v>
+        <v>0.86</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AT90" t="n">
         <v>2.99</v>
       </c>
       <c r="AU90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ90" t="n">
         <v>7</v>
       </c>
-      <c r="AV90" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX90" t="n">
+      <c r="BA90" t="n">
         <v>5</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>7</v>
       </c>
       <c r="BB90" t="n">
         <v>5</v>
       </c>
       <c r="BC90" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD90" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="BE90" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF90" t="n">
-        <v>2.58</v>
+        <v>1.71</v>
       </c>
       <c r="BG90" t="n">
         <v>0</v>
@@ -20157,28 +20157,28 @@
         <v>0</v>
       </c>
       <c r="BI90" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BJ90" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BK90" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="BL90" t="n">
-        <v>2.77</v>
+        <v>2.34</v>
       </c>
       <c r="BM90" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="BN90" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="BO90" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="BP90" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="91">
@@ -20186,7 +20186,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>6676022</v>
+        <v>6676019</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -20206,44 +20206,44 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['22', '25', '33']</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['29', '63']</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R91" t="n">
         <v>2.1</v>
@@ -20252,31 +20252,31 @@
         <v>3.4</v>
       </c>
       <c r="T91" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="U91" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="V91" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="X91" t="n">
-        <v>5.45</v>
+        <v>5.95</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z91" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA91" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB91" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC91" t="n">
         <v>1.02</v>
@@ -20285,64 +20285,64 @@
         <v>10</v>
       </c>
       <c r="AE91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL91" t="n">
         <v>1.22</v>
       </c>
-      <c r="AF91" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AM91" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.2</v>
+        <v>1.17</v>
       </c>
       <c r="AO91" t="n">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX91" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY91" t="n">
         <v>8</v>
@@ -20351,52 +20351,52 @@
         <v>10</v>
       </c>
       <c r="BA91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB91" t="n">
         <v>5</v>
       </c>
       <c r="BC91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD91" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="BE91" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BF91" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="BG91" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BH91" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="BI91" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="BJ91" t="n">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="BK91" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BL91" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="BM91" t="n">
-        <v>2.02</v>
+        <v>2.75</v>
       </c>
       <c r="BN91" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="BO91" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="BP91" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -20622,7 +20622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6676017</v>
+        <v>6676022</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -20642,167 +20642,167 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>['67', '72']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R93" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="T93" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="U93" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="V93" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="W93" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X93" t="n">
-        <v>6.4</v>
+        <v>5.45</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="Z93" t="n">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="AA93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="AC93" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD93" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE93" t="n">
         <v>1.22</v>
       </c>
       <c r="AF93" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AG93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH93" t="n">
         <v>1.85</v>
       </c>
-      <c r="AH93" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AI93" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ93" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK93" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="AL93" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AM93" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="AN93" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AO93" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AU93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ93" t="n">
         <v>10</v>
       </c>
-      <c r="AZ93" t="n">
-        <v>7</v>
-      </c>
       <c r="BA93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB93" t="n">
         <v>5</v>
       </c>
       <c r="BC93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="BE93" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF93" t="n">
-        <v>1.71</v>
+        <v>2.49</v>
       </c>
       <c r="BG93" t="n">
         <v>0</v>
@@ -20811,28 +20811,28 @@
         <v>0</v>
       </c>
       <c r="BI93" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BJ93" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="BK93" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="BL93" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="BM93" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="BN93" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="BO93" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="BP93" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="94">
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>6676019</v>
+        <v>6676023</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,197 +20860,197 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
       </c>
       <c r="K94" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>7</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['22', '26', '32', '40', '82']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['45', '60']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X94" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA94" t="n">
         <v>4</v>
       </c>
-      <c r="L94" t="n">
-        <v>3</v>
-      </c>
-      <c r="M94" t="n">
-        <v>2</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>['22', '25', '33']</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>['29', '63']</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R94" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S94" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U94" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="V94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W94" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X94" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AB94" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="AC94" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD94" t="n">
         <v>10</v>
       </c>
       <c r="AE94" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF94" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AH94" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="AI94" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AJ94" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AK94" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AL94" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR94" t="n">
         <v>1.62</v>
       </c>
-      <c r="AN94" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AS94" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="AU94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV94" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AW94" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA94" t="n">
         <v>7</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>1</v>
       </c>
       <c r="BB94" t="n">
         <v>5</v>
       </c>
       <c r="BC94" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD94" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BE94" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="BF94" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="BG94" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BH94" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="BI94" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BJ94" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BK94" t="n">
-        <v>2.07</v>
+        <v>1.39</v>
       </c>
       <c r="BL94" t="n">
-        <v>1.67</v>
+        <v>2.77</v>
       </c>
       <c r="BM94" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="BN94" t="n">
-        <v>1.4</v>
+        <v>2.03</v>
       </c>
       <c r="BO94" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="BP94" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="95">
@@ -22148,7 +22148,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>6676028</v>
+        <v>6676030</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -22168,19 +22168,19 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
@@ -22189,56 +22189,56 @@
         <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['5', '10']</t>
+          <t>['85', '87']</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11', '22']</t>
         </is>
       </c>
       <c r="Q100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X100" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z100" t="n">
         <v>1.8</v>
       </c>
-      <c r="R100" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S100" t="n">
-        <v>7</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U100" t="n">
-        <v>3</v>
-      </c>
-      <c r="V100" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W100" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X100" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AA100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB100" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="AC100" t="n">
         <v>1.02</v>
@@ -22247,118 +22247,118 @@
         <v>10</v>
       </c>
       <c r="AE100" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF100" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AG100" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AH100" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AI100" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AK100" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AL100" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AM100" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="AN100" t="n">
         <v>1</v>
       </c>
       <c r="AO100" t="n">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.9</v>
+        <v>1.12</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV100" t="n">
         <v>4</v>
       </c>
-      <c r="AV100" t="n">
-        <v>3</v>
-      </c>
       <c r="AW100" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY100" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ100" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA100" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BB100" t="n">
         <v>5</v>
       </c>
       <c r="BC100" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD100" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="BE100" t="n">
-        <v>11.25</v>
+        <v>9.4</v>
       </c>
       <c r="BF100" t="n">
-        <v>4.9</v>
+        <v>2.73</v>
       </c>
       <c r="BG100" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH100" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BI100" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BJ100" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="BK100" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BL100" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="BM100" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BN100" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="BO100" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="BP100" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="101">
@@ -22584,7 +22584,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6676030</v>
+        <v>6676028</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -22604,19 +22604,19 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>2</v>
@@ -22625,56 +22625,56 @@
         <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['85', '87']</t>
+          <t>['5', '10']</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>['11', '22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="R102" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S102" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T102" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U102" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V102" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="W102" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X102" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z102" t="n">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="AA102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB102" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="AC102" t="n">
         <v>1.02</v>
@@ -22683,118 +22683,118 @@
         <v>10</v>
       </c>
       <c r="AE102" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF102" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AG102" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AH102" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AI102" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AJ102" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AK102" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AL102" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AM102" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="AN102" t="n">
         <v>1</v>
       </c>
       <c r="AO102" t="n">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="AU102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
         <v>6</v>
       </c>
-      <c r="AV102" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW102" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX102" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ102" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BA102" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BB102" t="n">
         <v>5</v>
       </c>
       <c r="BC102" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD102" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="BE102" t="n">
-        <v>9.4</v>
+        <v>11.25</v>
       </c>
       <c r="BF102" t="n">
-        <v>2.73</v>
+        <v>4.9</v>
       </c>
       <c r="BG102" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH102" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BI102" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BJ102" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="BK102" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BL102" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="BM102" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BN102" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="BO102" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="BP102" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="103">

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.43</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.33</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.29</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.57</v>
@@ -5715,7 +5715,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR24" t="n">
         <v>2.33</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.43</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -7023,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR30" t="n">
         <v>1.5</v>
@@ -7241,7 +7241,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR31" t="n">
         <v>0.9399999999999999</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="n">
         <v>1.13</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.67</v>
@@ -8331,7 +8331,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.43</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.43</v>
@@ -9857,7 +9857,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.36</v>
@@ -10075,7 +10075,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10726,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47" t="n">
         <v>1.52</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.67</v>
@@ -11383,7 +11383,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR50" t="n">
         <v>1.65</v>
@@ -11819,7 +11819,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR52" t="n">
         <v>1.24</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.57</v>
@@ -13345,7 +13345,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.57</v>
@@ -13781,7 +13781,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.68</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.67</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14650,10 +14650,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR65" t="n">
         <v>1.71</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.43</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR71" t="n">
         <v>1.04</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR73" t="n">
         <v>1.26</v>
@@ -16612,7 +16612,7 @@
         <v>1.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.57</v>
@@ -16830,10 +16830,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.49</v>
@@ -17051,7 +17051,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR76" t="n">
         <v>1.56</v>
@@ -17484,7 +17484,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.5</v>
@@ -17705,7 +17705,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR79" t="n">
         <v>1.11</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR81" t="n">
         <v>1.27</v>
@@ -18359,7 +18359,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.55</v>
@@ -18574,7 +18574,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.43</v>
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.43</v>
@@ -20321,7 +20321,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR91" t="n">
         <v>1.52</v>
@@ -20536,7 +20536,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.29</v>
@@ -20975,7 +20975,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR94" t="n">
         <v>1.62</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.67</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.86</v>
@@ -21626,10 +21626,10 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.64</v>
@@ -22065,7 +22065,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR99" t="n">
         <v>1.56</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR100" t="n">
         <v>1.3</v>
@@ -22934,7 +22934,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.33</v>
@@ -23231,6 +23231,1096 @@
       </c>
       <c r="BP104" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6676038</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45240.59027777778</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['50', '85']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6676041</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45240.59027777778</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['27', '67']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X106" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6676042</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45240.59027777778</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['53', '72', '84']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X107" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6676045</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45240.59027777778</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['8', '12', '25', '59', '66']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X108" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6676044</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45240.6875</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="n">
+        <v>5</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['42', '86']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['6', '64', '89']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X109" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.25</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.43</v>
@@ -3317,7 +3317,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR21" t="n">
         <v>1.63</v>
@@ -5279,7 +5279,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR22" t="n">
         <v>1.26</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR23" t="n">
         <v>0.95</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.25</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.86</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.71</v>
@@ -7895,7 +7895,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR34" t="n">
         <v>1.36</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.43</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR41" t="n">
         <v>1.32</v>
@@ -10508,7 +10508,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10947,7 +10947,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR48" t="n">
         <v>1.62</v>
@@ -12252,7 +12252,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.43</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55" t="n">
         <v>2.29</v>
@@ -12909,7 +12909,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13124,10 +13124,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR58" t="n">
         <v>1.46</v>
@@ -13563,7 +13563,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.67</v>
@@ -14217,7 +14217,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR63" t="n">
         <v>1.18</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.33</v>
@@ -16615,7 +16615,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR74" t="n">
         <v>1.75</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.57</v>
@@ -17487,7 +17487,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR78" t="n">
         <v>1.13</v>
@@ -17920,7 +17920,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.86</v>
@@ -18138,7 +18138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.43</v>
@@ -19667,7 +19667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR88" t="n">
         <v>1.11</v>
@@ -20103,7 +20103,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR90" t="n">
         <v>1.3</v>
@@ -20318,7 +20318,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.43</v>
@@ -20757,7 +20757,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR93" t="n">
         <v>1.43</v>
@@ -22280,7 +22280,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.25</v>
@@ -22719,7 +22719,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR102" t="n">
         <v>1.46</v>
@@ -23152,7 +23152,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.43</v>
@@ -24321,6 +24321,660 @@
       </c>
       <c r="BP109" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6676039</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45241.4375</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5</v>
+      </c>
+      <c r="L110" t="n">
+        <v>6</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>6</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['5', '7', '13', '41', '44', '81']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X110" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6676036</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45242.27083333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['28', '42', '48']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6676040</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45242.35416666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.75</v>
@@ -1791,7 +1791,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.57</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.71</v>
@@ -3753,7 +3753,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>1.62</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR18" t="n">
         <v>1.52</v>
@@ -4625,7 +4625,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR19" t="n">
         <v>1.61</v>
@@ -4843,7 +4843,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR20" t="n">
         <v>1.16</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.57</v>
@@ -5933,7 +5933,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
         <v>1.07</v>
@@ -6151,7 +6151,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR26" t="n">
         <v>1.66</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.57</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.43</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.71</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.71</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.25</v>
@@ -8549,7 +8549,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8767,7 +8767,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR38" t="n">
         <v>1.2</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.23</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.48</v>
@@ -9639,7 +9639,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR42" t="n">
         <v>1.23</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.71</v>
@@ -10290,10 +10290,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.76</v>
@@ -10511,7 +10511,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR46" t="n">
         <v>2.25</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.33</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.43</v>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.43</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.25</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.59</v>
@@ -12255,7 +12255,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR54" t="n">
         <v>1.16</v>
@@ -12473,7 +12473,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR64" t="n">
         <v>1.6</v>
@@ -15086,10 +15086,10 @@
         <v>1</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR67" t="n">
         <v>1.13</v>
@@ -15307,7 +15307,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -15522,10 +15522,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR69" t="n">
         <v>1.4</v>
@@ -15740,10 +15740,10 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.57</v>
@@ -15958,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.43</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.43</v>
@@ -17269,7 +17269,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17702,7 +17702,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.71</v>
@@ -17923,7 +17923,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR80" t="n">
         <v>1.88</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.25</v>
@@ -18792,10 +18792,10 @@
         <v>1.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR84" t="n">
         <v>1.62</v>
@@ -19010,10 +19010,10 @@
         <v>2.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19231,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.3</v>
@@ -19449,7 +19449,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR87" t="n">
         <v>1.41</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.57</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.33</v>
@@ -20100,7 +20100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.71</v>
@@ -20539,7 +20539,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR92" t="n">
         <v>1.72</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.71</v>
@@ -21193,7 +21193,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.1</v>
@@ -21411,7 +21411,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.39</v>
@@ -21844,10 +21844,10 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR98" t="n">
         <v>1.61</v>
@@ -22062,7 +22062,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.57</v>
@@ -22498,7 +22498,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.43</v>
@@ -22716,7 +22716,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.57</v>
@@ -23155,7 +23155,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR104" t="n">
         <v>1.87</v>
@@ -24975,6 +24975,1314 @@
       </c>
       <c r="BP112" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6676051</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45254.59027777778</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['11', '62']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X113" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6676053</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45254.59027777778</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['46', '76']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X114" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6676049</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45254.6875</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['45', '87']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['41', '49', '67']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6676052</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45255.4375</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['25', '51']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6676054</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45255.4375</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['7', '62', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6676047</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45255.4375</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4</v>
+      </c>
+      <c r="K118" t="n">
+        <v>4</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>6</v>
+      </c>
+      <c r="N118" t="n">
+        <v>7</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['8', '15', '22', '44', '60', '63']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -3099,7 +3099,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ15" t="n">
         <v>2</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.71</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -6369,7 +6369,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR29" t="n">
         <v>1.62</v>
@@ -8113,7 +8113,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR35" t="n">
         <v>1.78</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.75</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -11165,7 +11165,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR49" t="n">
         <v>0.89</v>
@@ -11601,7 +11601,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR51" t="n">
         <v>1.32</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56" t="n">
         <v>2</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.57</v>
@@ -14871,7 +14871,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR66" t="n">
         <v>1.27</v>
@@ -16179,7 +16179,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR72" t="n">
         <v>1.55</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.25</v>
@@ -17266,7 +17266,7 @@
         <v>0.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.29</v>
@@ -18577,7 +18577,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR83" t="n">
         <v>1.68</v>
@@ -19228,7 +19228,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19885,7 +19885,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR89" t="n">
         <v>1.48</v>
@@ -20754,7 +20754,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.75</v>
@@ -22501,7 +22501,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR101" t="n">
         <v>1.13</v>
@@ -22937,7 +22937,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR103" t="n">
         <v>1.45</v>
@@ -26283,6 +26283,442 @@
       </c>
       <c r="BP118" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6676046</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45256.27083333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['4', '12']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X119" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6676048</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45256.27083333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3</v>
+      </c>
+      <c r="N120" t="n">
+        <v>4</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['11', '71', '86']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.57</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.71</v>
@@ -3535,7 +3535,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.29</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -7023,7 +7023,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR30" t="n">
         <v>1.5</v>
@@ -7241,7 +7241,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR31" t="n">
         <v>0.9399999999999999</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
         <v>2</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.71</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.75</v>
@@ -10075,7 +10075,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR44" t="n">
         <v>1.46</v>
@@ -10729,7 +10729,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR47" t="n">
         <v>1.52</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.57</v>
@@ -11383,7 +11383,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.65</v>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.63</v>
@@ -13345,7 +13345,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.75</v>
@@ -14653,7 +14653,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65" t="n">
         <v>1.71</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.38</v>
@@ -15958,10 +15958,10 @@
         <v>0.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR71" t="n">
         <v>1.04</v>
@@ -16830,7 +16830,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75" t="n">
         <v>2</v>
@@ -17051,7 +17051,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR76" t="n">
         <v>1.56</v>
@@ -17705,7 +17705,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR79" t="n">
         <v>1.11</v>
@@ -18141,7 +18141,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR81" t="n">
         <v>1.27</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.57</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.57</v>
@@ -20321,7 +20321,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR91" t="n">
         <v>1.52</v>
@@ -20975,7 +20975,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR94" t="n">
         <v>1.62</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -22065,7 +22065,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR99" t="n">
         <v>1.56</v>
@@ -22498,7 +22498,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.63</v>
@@ -22716,7 +22716,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.57</v>
@@ -23373,7 +23373,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR105" t="n">
         <v>1.17</v>
@@ -23588,10 +23588,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR106" t="n">
         <v>1.24</v>
@@ -24027,7 +24027,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR108" t="n">
         <v>1.59</v>
@@ -25114,7 +25114,7 @@
         <v>0.43</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.75</v>
@@ -25550,7 +25550,7 @@
         <v>2.29</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115" t="n">
         <v>2.38</v>
@@ -26719,6 +26719,660 @@
       </c>
       <c r="BP120" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6676058</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45261.59027777778</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['6', '36', '56', '74']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X121" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6676061</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45261.59027777778</v>
+      </c>
+      <c r="F122" t="n">
+        <v>16</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['11', '23', '40']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S122" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X122" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6676063</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45261.59027777778</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>6</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['26', '63']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['25', '29', '71', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X123" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -2445,7 +2445,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.61</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.71</v>
@@ -8767,7 +8767,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.2</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.75</v>
@@ -10511,7 +10511,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR46" t="n">
         <v>2.25</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56" t="n">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.6</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.25</v>
@@ -17269,7 +17269,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -19228,7 +19228,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR116" t="n">
         <v>1.33</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.57</v>
@@ -27373,6 +27373,224 @@
       </c>
       <c r="BP123" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6676034</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45266.60416666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5</v>
+      </c>
+      <c r="N124" t="n">
+        <v>5</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['5', '55', '64', '76', '86']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>7</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X124" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>10</v>
@@ -5936,13 +5936,13 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AS25" t="n">
         <v>1.77</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -5951,13 +5951,13 @@
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
         <v>10</v>
@@ -7692,19 +7692,19 @@
         <v>5</v>
       </c>
       <c r="AV33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY33" t="n">
         <v>7</v>
       </c>
-      <c r="AX33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA33" t="n">
         <v>5</v>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -8770,13 +8770,13 @@
         <v>1.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AS38" t="n">
         <v>1.03</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.23</v>
+        <v>2.39</v>
       </c>
       <c r="AU38" t="n">
         <v>5</v>
@@ -9687,10 +9687,10 @@
         <v>2.33</v>
       </c>
       <c r="BG42" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH42" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="BI42" t="n">
         <v>1.35</v>
@@ -9905,10 +9905,10 @@
         <v>1.5</v>
       </c>
       <c r="BG43" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BH43" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BI43" t="n">
         <v>1.4</v>
@@ -10950,13 +10950,13 @@
         <v>0.57</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AS48" t="n">
         <v>1.17</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="AU48" t="n">
         <v>7</v>
@@ -11437,28 +11437,28 @@
         <v>0</v>
       </c>
       <c r="BI50" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BJ50" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BK50" t="n">
         <v>2</v>
       </c>
       <c r="BL50" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BM50" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BN50" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BO50" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BP50" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51">
@@ -12258,13 +12258,13 @@
         <v>1.25</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AS54" t="n">
         <v>1.49</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -13793,19 +13793,19 @@
         <v>3.39</v>
       </c>
       <c r="AU61" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV61" t="n">
         <v>4</v>
       </c>
-      <c r="AV61" t="n">
-        <v>2</v>
-      </c>
       <c r="AW61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ61" t="n">
         <v>7</v>
@@ -14011,22 +14011,22 @@
         <v>3.28</v>
       </c>
       <c r="AU62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV62" t="n">
         <v>4</v>
       </c>
       <c r="AW62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY62" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ62" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA62" t="n">
         <v>7</v>
@@ -14453,16 +14453,16 @@
         <v>3</v>
       </c>
       <c r="AW64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX64" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AY64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA64" t="n">
         <v>3</v>
@@ -14656,13 +14656,13 @@
         <v>0.63</v>
       </c>
       <c r="AR65" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AS65" t="n">
         <v>1.37</v>
       </c>
       <c r="AT65" t="n">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AU65" t="n">
         <v>10</v>
@@ -14874,13 +14874,13 @@
         <v>1.57</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AS66" t="n">
         <v>1.47</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AU66" t="n">
         <v>5</v>
@@ -16618,13 +16618,13 @@
         <v>1.75</v>
       </c>
       <c r="AR74" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AS74" t="n">
         <v>1.27</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="AU74" t="n">
         <v>4</v>
@@ -16839,10 +16839,10 @@
         <v>1.49</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AU75" t="n">
         <v>5</v>
@@ -16884,7 +16884,7 @@
         <v>1.4</v>
       </c>
       <c r="BH75" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BI75" t="n">
         <v>1.68</v>
@@ -17275,10 +17275,10 @@
         <v>1.52</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU77" t="n">
         <v>4</v>
@@ -17926,13 +17926,13 @@
         <v>2</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="AS80" t="n">
         <v>1.37</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="AU80" t="n">
         <v>5</v>
@@ -18144,13 +18144,13 @@
         <v>0.75</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AS81" t="n">
         <v>1.35</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="AU81" t="n">
         <v>3</v>
@@ -19016,13 +19016,13 @@
         <v>2.38</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AS85" t="n">
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>3.09</v>
+        <v>3.13</v>
       </c>
       <c r="AU85" t="n">
         <v>4</v>
@@ -19031,16 +19031,16 @@
         <v>4</v>
       </c>
       <c r="AW85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY85" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA85" t="n">
         <v>5</v>
@@ -19237,10 +19237,10 @@
         <v>1.3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
       <c r="AU86" t="n">
         <v>7</v>
@@ -19452,13 +19452,13 @@
         <v>0.75</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS87" t="n">
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU87" t="n">
         <v>7</v>
@@ -20542,13 +20542,13 @@
         <v>2.38</v>
       </c>
       <c r="AR92" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="AU92" t="n">
         <v>2</v>
@@ -21199,28 +21199,28 @@
         <v>1.1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU95" t="n">
         <v>6</v>
       </c>
       <c r="AV95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX95" t="n">
         <v>4</v>
       </c>
       <c r="AY95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA95" t="n">
         <v>10</v>
@@ -21635,28 +21635,28 @@
         <v>1.64</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT97" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="AU97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW97" t="n">
         <v>7</v>
       </c>
       <c r="AX97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ97" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA97" t="n">
         <v>7</v>
@@ -21865,16 +21865,16 @@
         <v>3</v>
       </c>
       <c r="AW98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ98" t="n">
         <v>9</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>11</v>
       </c>
       <c r="BA98" t="n">
         <v>10</v>
@@ -22068,13 +22068,13 @@
         <v>0.88</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS99" t="n">
         <v>1.14</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="AU99" t="n">
         <v>5</v>
@@ -22086,13 +22086,13 @@
         <v>2</v>
       </c>
       <c r="AX99" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY99" t="n">
         <v>7</v>
       </c>
       <c r="AZ99" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA99" t="n">
         <v>6</v>
@@ -22286,28 +22286,28 @@
         <v>0.25</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS100" t="n">
         <v>1.12</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV100" t="n">
         <v>4</v>
       </c>
       <c r="AW100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX100" t="n">
         <v>5</v>
       </c>
       <c r="AY100" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ100" t="n">
         <v>9</v>
@@ -22940,13 +22940,13 @@
         <v>1.57</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS103" t="n">
         <v>1.43</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="AU103" t="n">
         <v>0</v>
@@ -22955,16 +22955,16 @@
         <v>4</v>
       </c>
       <c r="AW103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX103" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ103" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA103" t="n">
         <v>1</v>
@@ -23158,13 +23158,13 @@
         <v>1.25</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AS104" t="n">
         <v>1.53</v>
       </c>
       <c r="AT104" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="AU104" t="n">
         <v>12</v>
@@ -23376,13 +23376,13 @@
         <v>0.75</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AS105" t="n">
         <v>1.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="AU105" t="n">
         <v>6</v>
@@ -23391,16 +23391,16 @@
         <v>5</v>
       </c>
       <c r="AW105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA105" t="n">
         <v>6</v>
@@ -23609,16 +23609,16 @@
         <v>4</v>
       </c>
       <c r="AW106" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY106" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ106" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA106" t="n">
         <v>5</v>
@@ -23812,31 +23812,31 @@
         <v>0.25</v>
       </c>
       <c r="AR107" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AS107" t="n">
         <v>1.12</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="AU107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA107" t="n">
         <v>2</v>
@@ -24030,10 +24030,10 @@
         <v>0.88</v>
       </c>
       <c r="AR108" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AT108" t="n">
         <v>2.88</v>
@@ -24045,16 +24045,16 @@
         <v>0</v>
       </c>
       <c r="AW108" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX108" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY108" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ108" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA108" t="n">
         <v>7</v>
@@ -24248,31 +24248,31 @@
         <v>2</v>
       </c>
       <c r="AR109" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AS109" t="n">
         <v>1.69</v>
       </c>
       <c r="AT109" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW109" t="n">
         <v>4</v>
       </c>
-      <c r="AV109" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW109" t="n">
-        <v>7</v>
-      </c>
       <c r="AX109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ109" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA109" t="n">
         <v>4</v>
@@ -24684,31 +24684,31 @@
         <v>1.71</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AS111" t="n">
         <v>1.62</v>
       </c>
       <c r="AT111" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="AU111" t="n">
         <v>4</v>
       </c>
       <c r="AV111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX111" t="n">
         <v>5</v>
       </c>
       <c r="AY111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA111" t="n">
         <v>4</v>
@@ -24817,7 +24817,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="Q112" t="n">
@@ -24902,13 +24902,13 @@
         <v>1.75</v>
       </c>
       <c r="AR112" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS112" t="n">
         <v>1.37</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
       <c r="AU112" t="n">
         <v>8</v>
@@ -25123,10 +25123,10 @@
         <v>1.44</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU113" t="n">
         <v>6</v>
@@ -25135,13 +25135,13 @@
         <v>4</v>
       </c>
       <c r="AW113" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX113" t="n">
         <v>3</v>
       </c>
       <c r="AY113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ113" t="n">
         <v>7</v>
@@ -25338,31 +25338,31 @@
         <v>1.25</v>
       </c>
       <c r="AR114" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AS114" t="n">
         <v>1.41</v>
       </c>
       <c r="AT114" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="AU114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV114" t="n">
         <v>3</v>
       </c>
       <c r="AW114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ114" t="n">
         <v>7</v>
-      </c>
-      <c r="AX114" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY114" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ114" t="n">
-        <v>13</v>
       </c>
       <c r="BA114" t="n">
         <v>16</v>
@@ -25559,28 +25559,28 @@
         <v>1.03</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AU115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV115" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW115" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX115" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY115" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA115" t="n">
         <v>7</v>
@@ -25777,28 +25777,28 @@
         <v>1.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT116" t="n">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
       <c r="AU116" t="n">
         <v>5</v>
       </c>
       <c r="AV116" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY116" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA116" t="n">
         <v>3</v>
@@ -25992,28 +25992,28 @@
         <v>2</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS117" t="n">
         <v>1.23</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="AU117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV117" t="n">
         <v>6</v>
       </c>
       <c r="AW117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX117" t="n">
         <v>2</v>
       </c>
       <c r="AY117" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ117" t="n">
         <v>8</v>
@@ -26125,7 +26125,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>['8', '15', '22', '44', '60', '63']</t>
+          <t>['8', '15', '21', '44', '60', '63']</t>
         </is>
       </c>
       <c r="Q118" t="n">
@@ -26213,28 +26213,28 @@
         <v>1.69</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="AU118" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV118" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY118" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ118" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA118" t="n">
         <v>4</v>
@@ -26431,28 +26431,28 @@
         <v>1.35</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="AU119" t="n">
         <v>6</v>
       </c>
       <c r="AV119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ119" t="n">
         <v>6</v>
-      </c>
-      <c r="AX119" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY119" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ119" t="n">
-        <v>4</v>
       </c>
       <c r="BA119" t="n">
         <v>3</v>
@@ -26473,10 +26473,10 @@
         <v>0</v>
       </c>
       <c r="BG119" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BH119" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="BI119" t="n">
         <v>1.51</v>
@@ -26497,10 +26497,10 @@
         <v>1.6</v>
       </c>
       <c r="BO119" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BP119" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="120">
@@ -26864,13 +26864,13 @@
         <v>0.75</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AU121" t="n">
         <v>3</v>
@@ -27085,10 +27085,10 @@
         <v>1.47</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AT122" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="AU122" t="n">
         <v>10</v>
@@ -27300,13 +27300,13 @@
         <v>0.88</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
       <c r="AU123" t="n">
         <v>8</v>
@@ -27518,31 +27518,31 @@
         <v>1.5</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>3.07</v>
+        <v>3.04</v>
       </c>
       <c r="AU124" t="n">
         <v>2</v>
       </c>
       <c r="AV124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW124" t="n">
         <v>3</v>
       </c>
       <c r="AX124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY124" t="n">
         <v>5</v>
       </c>
       <c r="AZ124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA124" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.75</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.63</v>
@@ -4189,7 +4189,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR17" t="n">
         <v>1.62</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR20" t="n">
         <v>1.16</v>
@@ -5497,7 +5497,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR23" t="n">
         <v>0.95</v>
@@ -5933,7 +5933,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR25" t="n">
         <v>1.33</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.63</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR29" t="n">
         <v>1.62</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.75</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR33" t="n">
         <v>1.71</v>
@@ -7895,7 +7895,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR34" t="n">
         <v>1.36</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR39" t="n">
         <v>1.23</v>
@@ -9203,7 +9203,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR40" t="n">
         <v>1.48</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.25</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>1.76</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.57</v>
@@ -11165,7 +11165,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR49" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.25</v>
@@ -12473,7 +12473,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR55" t="n">
         <v>1.52</v>
@@ -12691,7 +12691,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.75</v>
@@ -13127,7 +13127,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR58" t="n">
         <v>1.46</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.88</v>
@@ -13999,7 +13999,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
         <v>2</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.57</v>
@@ -14650,7 +14650,7 @@
         <v>0.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.63</v>
@@ -14871,7 +14871,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR66" t="n">
         <v>1.35</v>
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.25</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.75</v>
@@ -15525,7 +15525,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR69" t="n">
         <v>1.4</v>
@@ -15743,7 +15743,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR70" t="n">
         <v>1.57</v>
@@ -16612,7 +16612,7 @@
         <v>1.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.75</v>
@@ -17266,7 +17266,7 @@
         <v>0.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.5</v>
@@ -17484,10 +17484,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR78" t="n">
         <v>1.13</v>
@@ -17702,7 +17702,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.63</v>
@@ -17923,7 +17923,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR80" t="n">
         <v>2.06</v>
@@ -18574,7 +18574,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.63</v>
@@ -19013,7 +19013,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19231,7 +19231,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR86" t="n">
         <v>1.3</v>
@@ -19885,7 +19885,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR89" t="n">
         <v>1.48</v>
@@ -20100,10 +20100,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR90" t="n">
         <v>1.3</v>
@@ -20536,10 +20536,10 @@
         <v>2.17</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR92" t="n">
         <v>1.66</v>
@@ -20754,7 +20754,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.75</v>
@@ -21190,10 +21190,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR95" t="n">
         <v>1.1</v>
@@ -21411,7 +21411,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR96" t="n">
         <v>1.39</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ97" t="n">
         <v>2</v>
@@ -22937,7 +22937,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR103" t="n">
         <v>1.44</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.75</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.25</v>
@@ -24024,7 +24024,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.88</v>
@@ -24681,7 +24681,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR111" t="n">
         <v>2.1</v>
@@ -25553,7 +25553,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR115" t="n">
         <v>1.03</v>
@@ -25768,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.5</v>
@@ -25989,7 +25989,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR117" t="n">
         <v>1.51</v>
@@ -26207,7 +26207,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26425,7 +26425,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR119" t="n">
         <v>1.35</v>
@@ -26640,7 +26640,7 @@
         <v>1.43</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.63</v>
@@ -27591,6 +27591,1096 @@
       </c>
       <c r="BP124" t="n">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6676055</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45338.59027777778</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['23', '47', '54']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X125" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6676057</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45338.6875</v>
+      </c>
+      <c r="F126" t="n">
+        <v>16</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['67', '89']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U126" t="n">
+        <v>3</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6676059</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45339.4375</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['72', '87']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X127" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6676060</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45339.4375</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['3', '69', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6676064</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45339.4375</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S129" t="n">
+        <v>4</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X129" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>1.52</v>
@@ -4625,7 +4625,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19" t="n">
         <v>1.61</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR21" t="n">
         <v>1.63</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.26</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.88</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR24" t="n">
         <v>2.33</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.11</v>
@@ -6151,7 +6151,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR26" t="n">
         <v>1.66</v>
@@ -6369,7 +6369,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.88</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.63</v>
@@ -7459,7 +7459,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR32" t="n">
         <v>1.13</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR35" t="n">
         <v>1.78</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR36" t="n">
         <v>1.34</v>
@@ -8549,7 +8549,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.36</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.44</v>
@@ -9418,10 +9418,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1.32</v>
@@ -9639,7 +9639,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR42" t="n">
         <v>1.23</v>
@@ -9857,7 +9857,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR43" t="n">
         <v>1.36</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.63</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.25</v>
@@ -10508,10 +10508,10 @@
         <v>0.67</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46" t="n">
         <v>2.25</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.88</v>
@@ -10947,7 +10947,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.75</v>
@@ -11601,7 +11601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR51" t="n">
         <v>1.32</v>
@@ -11819,7 +11819,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR52" t="n">
         <v>1.24</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR53" t="n">
         <v>1.59</v>
@@ -12252,10 +12252,10 @@
         <v>0.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR54" t="n">
         <v>1.27</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ55" t="n">
         <v>2.44</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.11</v>
@@ -12909,7 +12909,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.44</v>
@@ -13124,7 +13124,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.88</v>
@@ -13563,7 +13563,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13778,10 +13778,10 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR61" t="n">
         <v>1.68</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.25</v>
@@ -14217,7 +14217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.18</v>
@@ -14432,10 +14432,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.6</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.75</v>
@@ -15089,7 +15089,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR67" t="n">
         <v>1.13</v>
@@ -15307,7 +15307,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -15740,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
         <v>2.11</v>
@@ -16176,10 +16176,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR72" t="n">
         <v>1.55</v>
@@ -16394,10 +16394,10 @@
         <v>0</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR73" t="n">
         <v>1.26</v>
@@ -16615,7 +16615,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR74" t="n">
         <v>1.68</v>
@@ -16833,7 +16833,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR75" t="n">
         <v>1.49</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.88</v>
@@ -17269,7 +17269,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17920,7 +17920,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ80" t="n">
         <v>2.11</v>
@@ -18138,7 +18138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.75</v>
@@ -18356,10 +18356,10 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82" t="n">
         <v>1.55</v>
@@ -18577,7 +18577,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR83" t="n">
         <v>1.68</v>
@@ -18792,10 +18792,10 @@
         <v>1.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR84" t="n">
         <v>1.62</v>
@@ -19010,7 +19010,7 @@
         <v>2.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.44</v>
@@ -19228,7 +19228,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.25</v>
@@ -19446,10 +19446,10 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR87" t="n">
         <v>1.39</v>
@@ -19667,7 +19667,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR88" t="n">
         <v>1.11</v>
@@ -20318,7 +20318,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.75</v>
@@ -20757,7 +20757,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR93" t="n">
         <v>1.43</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.63</v>
@@ -21629,7 +21629,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR97" t="n">
         <v>1.64</v>
@@ -21844,10 +21844,10 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR98" t="n">
         <v>1.61</v>
@@ -22062,7 +22062,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.88</v>
@@ -22280,10 +22280,10 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR100" t="n">
         <v>1.36</v>
@@ -22501,7 +22501,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR101" t="n">
         <v>1.13</v>
@@ -22719,7 +22719,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR102" t="n">
         <v>1.46</v>
@@ -22934,7 +22934,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.75</v>
@@ -23152,10 +23152,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR104" t="n">
         <v>2.01</v>
@@ -23809,7 +23809,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -24242,10 +24242,10 @@
         <v>1.83</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR109" t="n">
         <v>1.28</v>
@@ -24460,10 +24460,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.88</v>
@@ -24896,10 +24896,10 @@
         <v>1.57</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25117,7 +25117,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.44</v>
@@ -25332,10 +25332,10 @@
         <v>1.43</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR114" t="n">
         <v>1.61</v>
@@ -25771,7 +25771,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.33</v>
@@ -25986,7 +25986,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ117" t="n">
         <v>2.11</v>
@@ -26204,7 +26204,7 @@
         <v>0.67</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.25</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.75</v>
@@ -26643,7 +26643,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR120" t="n">
         <v>1.39</v>
@@ -27512,10 +27512,10 @@
         <v>1.29</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR124" t="n">
         <v>1.37</v>
@@ -28681,6 +28681,1750 @@
       </c>
       <c r="BP129" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6676073</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45345.59027777778</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>SV Stripfing Weiden</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>4</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['4', '25', '54', '90+2']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S130" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U130" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X130" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6676067</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45345.59027777778</v>
+      </c>
+      <c r="F131" t="n">
+        <v>17</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>5</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X131" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6676071</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45345.59027777778</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['48', '86']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X132" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6676070</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45345.6875</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U133" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X133" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6676068</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45346.4375</v>
+      </c>
+      <c r="F134" t="n">
+        <v>17</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U134" t="n">
+        <v>3</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6676065</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45346.4375</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['3', '42', '71']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S135" t="n">
+        <v>7</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6676066</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45346.4375</v>
+      </c>
+      <c r="F136" t="n">
+        <v>17</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>4</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X136" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6676072</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45347.27083333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>5</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['29', '64', '90+4']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['18', '79']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U137" t="n">
+        <v>3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,15 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['6', '76']</t>
+  </si>
+  <si>
+    <t>['66', '87']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -641,9 +650,6 @@
   </si>
   <si>
     <t>['12', '73', '76']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['18']</t>
@@ -821,6 +827,12 @@
   </si>
   <si>
     <t>['27', '87']</t>
+  </si>
+  <si>
+    <t>['23', '51']</t>
+  </si>
+  <si>
+    <t>['40', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1534,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1725,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1.5</v>
@@ -1931,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2140,7 +2152,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2265,7 +2277,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2343,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2549,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2677,7 +2689,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2755,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8">
         <v>1.89</v>
@@ -2964,7 +2976,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3167,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.11</v>
@@ -3295,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3376,7 +3388,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ11">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3501,7 +3513,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3579,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.89</v>
@@ -3788,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3913,7 +3925,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4119,7 +4131,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4325,7 +4337,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4403,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>0.5600000000000001</v>
@@ -4531,7 +4543,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4609,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -4815,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5021,10 +5033,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>1.61</v>
@@ -5149,7 +5161,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5227,10 +5239,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5433,10 +5445,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5561,7 +5573,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5639,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5767,7 +5779,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5845,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -6051,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ24">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>2.33</v>
@@ -6385,7 +6397,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7621,7 +7633,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7827,7 +7839,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7908,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8111,10 +8123,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8239,7 +8251,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8317,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8445,7 +8457,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8523,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ36">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8651,7 +8663,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8729,10 +8741,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8857,7 +8869,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -8938,7 +8950,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>1.36</v>
@@ -9063,7 +9075,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9347,10 +9359,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9475,7 +9487,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9553,10 +9565,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.32</v>
@@ -9759,7 +9771,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9887,7 +9899,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>5.5</v>
@@ -10093,7 +10105,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10171,7 +10183,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
         <v>0.5600000000000001</v>
@@ -10299,7 +10311,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10380,7 +10392,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -10586,7 +10598,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>2.25</v>
@@ -10789,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>1.11</v>
@@ -10998,7 +11010,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11123,7 +11135,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11329,7 +11341,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11535,7 +11547,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11613,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11822,7 +11834,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ52">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12025,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR53">
         <v>1.59</v>
@@ -12153,7 +12165,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12359,7 +12371,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12437,10 +12449,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ55">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12565,7 +12577,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12643,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ56">
         <v>2.2</v>
@@ -12852,7 +12864,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -12977,7 +12989,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13055,10 +13067,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ58">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13183,7 +13195,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13389,7 +13401,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13467,10 +13479,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13595,7 +13607,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13673,7 +13685,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ61">
         <v>1.89</v>
@@ -13882,7 +13894,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14085,10 +14097,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14291,10 +14303,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14625,7 +14637,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14831,7 +14843,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15118,7 +15130,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15243,7 +15255,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15321,10 +15333,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15449,7 +15461,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15861,7 +15873,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15939,7 +15951,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16067,7 +16079,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16145,10 +16157,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ73">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR73">
         <v>1.26</v>
@@ -16273,7 +16285,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16354,7 +16366,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.68</v>
@@ -16479,7 +16491,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16557,7 +16569,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>1.89</v>
@@ -16763,7 +16775,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ76">
         <v>1.11</v>
@@ -16891,7 +16903,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -16972,7 +16984,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17097,7 +17109,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17175,10 +17187,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17303,7 +17315,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17715,7 +17727,7 @@
         <v>117</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18002,7 +18014,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR82">
         <v>1.55</v>
@@ -18333,7 +18345,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18411,7 +18423,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18617,10 +18629,10 @@
         <v>2.4</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ85">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -18823,10 +18835,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19029,10 +19041,10 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR87">
         <v>1.39</v>
@@ -19157,7 +19169,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19238,7 +19250,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19363,7 +19375,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19441,7 +19453,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>1.89</v>
@@ -19569,7 +19581,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19650,7 +19662,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ90">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19775,7 +19787,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19853,7 +19865,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -19981,7 +19993,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20062,7 +20074,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR92">
         <v>1.66</v>
@@ -20187,7 +20199,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20268,7 +20280,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20393,7 +20405,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20471,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ94">
         <v>0.5600000000000001</v>
@@ -20677,10 +20689,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20805,7 +20817,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20883,7 +20895,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96">
         <v>2.2</v>
@@ -21217,7 +21229,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21298,7 +21310,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21501,7 +21513,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ99">
         <v>1.11</v>
@@ -21629,7 +21641,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21710,7 +21722,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ100">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>1.36</v>
@@ -22119,10 +22131,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22325,7 +22337,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>1.89</v>
@@ -22737,7 +22749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -22865,7 +22877,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -22943,7 +22955,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>0.5600000000000001</v>
@@ -23071,7 +23083,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23152,7 +23164,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23483,7 +23495,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23561,7 +23573,7 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
         <v>1.89</v>
@@ -23767,10 +23779,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ110">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -23895,7 +23907,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -23976,7 +23988,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ111">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -24182,7 +24194,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24307,7 +24319,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24385,10 +24397,10 @@
         <v>0.43</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24719,7 +24731,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24800,7 +24812,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR115">
         <v>1.03</v>
@@ -24925,7 +24937,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25006,7 +25018,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ116">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25131,7 +25143,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25209,7 +25221,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ117">
         <v>2.2</v>
@@ -25337,7 +25349,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25415,10 +25427,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25543,7 +25555,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25621,7 +25633,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ119">
         <v>1.89</v>
@@ -25749,7 +25761,7 @@
         <v>138</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>3.25</v>
@@ -25955,7 +25967,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26033,7 +26045,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>0.67</v>
@@ -26239,7 +26251,7 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>0.5600000000000001</v>
@@ -26367,7 +26379,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26573,7 +26585,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26651,10 +26663,10 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -26779,7 +26791,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26985,7 +26997,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27066,7 +27078,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ126">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -27191,7 +27203,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27272,7 +27284,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ127">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27397,7 +27409,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27478,7 +27490,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ128">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27603,7 +27615,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27681,7 +27693,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ129">
         <v>2.2</v>
@@ -27887,7 +27899,7 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28096,7 +28108,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ131">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28302,7 +28314,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR132">
         <v>1.53</v>
@@ -28505,7 +28517,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133">
         <v>1.89</v>
@@ -28633,7 +28645,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28711,10 +28723,10 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -28920,7 +28932,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ135">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29045,7 +29057,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29123,7 +29135,7 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29251,7 +29263,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29329,10 +29341,10 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -30075,7 +30087,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30281,7 +30293,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30487,7 +30499,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30693,7 +30705,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31056,6 +31068,1654 @@
       </c>
       <c r="BP145">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6676090</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45359.59027777778</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s">
+        <v>83</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>86</v>
+      </c>
+      <c r="P146" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q146">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
+        <v>1.28</v>
+      </c>
+      <c r="U146">
+        <v>3.4</v>
+      </c>
+      <c r="V146">
+        <v>2.4</v>
+      </c>
+      <c r="W146">
+        <v>1.55</v>
+      </c>
+      <c r="X146">
+        <v>5.45</v>
+      </c>
+      <c r="Y146">
+        <v>1.12</v>
+      </c>
+      <c r="Z146">
+        <v>2.5</v>
+      </c>
+      <c r="AA146">
+        <v>4</v>
+      </c>
+      <c r="AB146">
+        <v>2.45</v>
+      </c>
+      <c r="AC146">
+        <v>1.02</v>
+      </c>
+      <c r="AD146">
+        <v>12</v>
+      </c>
+      <c r="AE146">
+        <v>1.18</v>
+      </c>
+      <c r="AF146">
+        <v>4.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.62</v>
+      </c>
+      <c r="AH146">
+        <v>2.25</v>
+      </c>
+      <c r="AI146">
+        <v>1.57</v>
+      </c>
+      <c r="AJ146">
+        <v>2.25</v>
+      </c>
+      <c r="AK146">
+        <v>1.36</v>
+      </c>
+      <c r="AL146">
+        <v>1.2</v>
+      </c>
+      <c r="AM146">
+        <v>1.72</v>
+      </c>
+      <c r="AN146">
+        <v>1.63</v>
+      </c>
+      <c r="AO146">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP146">
+        <v>1.44</v>
+      </c>
+      <c r="AQ146">
+        <v>0.8</v>
+      </c>
+      <c r="AR146">
+        <v>1.19</v>
+      </c>
+      <c r="AS146">
+        <v>1.06</v>
+      </c>
+      <c r="AT146">
+        <v>2.25</v>
+      </c>
+      <c r="AU146">
+        <v>3</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>1</v>
+      </c>
+      <c r="AX146">
+        <v>8</v>
+      </c>
+      <c r="AY146">
+        <v>4</v>
+      </c>
+      <c r="AZ146">
+        <v>14</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>2.23</v>
+      </c>
+      <c r="BE146">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF146">
+        <v>1.84</v>
+      </c>
+      <c r="BG146">
+        <v>1.23</v>
+      </c>
+      <c r="BH146">
+        <v>3.56</v>
+      </c>
+      <c r="BI146">
+        <v>1.37</v>
+      </c>
+      <c r="BJ146">
+        <v>2.85</v>
+      </c>
+      <c r="BK146">
+        <v>1.75</v>
+      </c>
+      <c r="BL146">
+        <v>2.04</v>
+      </c>
+      <c r="BM146">
+        <v>2.17</v>
+      </c>
+      <c r="BN146">
+        <v>1.65</v>
+      </c>
+      <c r="BO146">
+        <v>2.85</v>
+      </c>
+      <c r="BP146">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6676084</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45359.59027777778</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>77</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P147" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>2.2</v>
+      </c>
+      <c r="S147">
+        <v>2.5</v>
+      </c>
+      <c r="T147">
+        <v>1.35</v>
+      </c>
+      <c r="U147">
+        <v>3.04</v>
+      </c>
+      <c r="V147">
+        <v>2.65</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>6.45</v>
+      </c>
+      <c r="Y147">
+        <v>1.09</v>
+      </c>
+      <c r="Z147">
+        <v>3.75</v>
+      </c>
+      <c r="AA147">
+        <v>3.6</v>
+      </c>
+      <c r="AB147">
+        <v>1.95</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>9.9</v>
+      </c>
+      <c r="AE147">
+        <v>1.23</v>
+      </c>
+      <c r="AF147">
+        <v>3.56</v>
+      </c>
+      <c r="AG147">
+        <v>1.85</v>
+      </c>
+      <c r="AH147">
+        <v>1.95</v>
+      </c>
+      <c r="AI147">
+        <v>1.8</v>
+      </c>
+      <c r="AJ147">
+        <v>1.91</v>
+      </c>
+      <c r="AK147">
+        <v>1.92</v>
+      </c>
+      <c r="AL147">
+        <v>1.26</v>
+      </c>
+      <c r="AM147">
+        <v>1.23</v>
+      </c>
+      <c r="AN147">
+        <v>1.67</v>
+      </c>
+      <c r="AO147">
+        <v>1.88</v>
+      </c>
+      <c r="AP147">
+        <v>1.8</v>
+      </c>
+      <c r="AQ147">
+        <v>1.67</v>
+      </c>
+      <c r="AR147">
+        <v>1.51</v>
+      </c>
+      <c r="AS147">
+        <v>1.49</v>
+      </c>
+      <c r="AT147">
+        <v>3</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>6</v>
+      </c>
+      <c r="AZ147">
+        <v>10</v>
+      </c>
+      <c r="BA147">
+        <v>3</v>
+      </c>
+      <c r="BB147">
+        <v>12</v>
+      </c>
+      <c r="BC147">
+        <v>15</v>
+      </c>
+      <c r="BD147">
+        <v>2.62</v>
+      </c>
+      <c r="BE147">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF147">
+        <v>1.61</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>1.28</v>
+      </c>
+      <c r="BJ147">
+        <v>3.3</v>
+      </c>
+      <c r="BK147">
+        <v>2</v>
+      </c>
+      <c r="BL147">
+        <v>2.47</v>
+      </c>
+      <c r="BM147">
+        <v>1.83</v>
+      </c>
+      <c r="BN147">
+        <v>1.96</v>
+      </c>
+      <c r="BO147">
+        <v>2.25</v>
+      </c>
+      <c r="BP147">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6676085</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45359.59027777778</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>149</v>
+      </c>
+      <c r="P148" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q148">
+        <v>3.4</v>
+      </c>
+      <c r="R148">
+        <v>2.2</v>
+      </c>
+      <c r="S148">
+        <v>2.75</v>
+      </c>
+      <c r="T148">
+        <v>1.34</v>
+      </c>
+      <c r="U148">
+        <v>3.1</v>
+      </c>
+      <c r="V148">
+        <v>2.57</v>
+      </c>
+      <c r="W148">
+        <v>1.47</v>
+      </c>
+      <c r="X148">
+        <v>6.25</v>
+      </c>
+      <c r="Y148">
+        <v>1.1</v>
+      </c>
+      <c r="Z148">
+        <v>3.1</v>
+      </c>
+      <c r="AA148">
+        <v>3.5</v>
+      </c>
+      <c r="AB148">
+        <v>2.2</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>10.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.21</v>
+      </c>
+      <c r="AF148">
+        <v>3.74</v>
+      </c>
+      <c r="AG148">
+        <v>1.75</v>
+      </c>
+      <c r="AH148">
+        <v>2.05</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.68</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.33</v>
+      </c>
+      <c r="AN148">
+        <v>1.38</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.33</v>
+      </c>
+      <c r="AQ148">
+        <v>1.22</v>
+      </c>
+      <c r="AR148">
+        <v>1.3</v>
+      </c>
+      <c r="AS148">
+        <v>1.59</v>
+      </c>
+      <c r="AT148">
+        <v>2.89</v>
+      </c>
+      <c r="AU148">
+        <v>3</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>12</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>17</v>
+      </c>
+      <c r="BA148">
+        <v>1</v>
+      </c>
+      <c r="BB148">
+        <v>14</v>
+      </c>
+      <c r="BC148">
+        <v>15</v>
+      </c>
+      <c r="BD148">
+        <v>2.78</v>
+      </c>
+      <c r="BE148">
+        <v>7.1</v>
+      </c>
+      <c r="BF148">
+        <v>1.67</v>
+      </c>
+      <c r="BG148">
+        <v>1.21</v>
+      </c>
+      <c r="BH148">
+        <v>3.74</v>
+      </c>
+      <c r="BI148">
+        <v>1.37</v>
+      </c>
+      <c r="BJ148">
+        <v>2.85</v>
+      </c>
+      <c r="BK148">
+        <v>2.38</v>
+      </c>
+      <c r="BL148">
+        <v>2.04</v>
+      </c>
+      <c r="BM148">
+        <v>2.17</v>
+      </c>
+      <c r="BN148">
+        <v>1.65</v>
+      </c>
+      <c r="BO148">
+        <v>2.85</v>
+      </c>
+      <c r="BP148">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6676089</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45359.59027777778</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>191</v>
+      </c>
+      <c r="P149" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q149">
+        <v>2.05</v>
+      </c>
+      <c r="R149">
+        <v>2.25</v>
+      </c>
+      <c r="S149">
+        <v>5.5</v>
+      </c>
+      <c r="T149">
+        <v>1.33</v>
+      </c>
+      <c r="U149">
+        <v>3.14</v>
+      </c>
+      <c r="V149">
+        <v>2.57</v>
+      </c>
+      <c r="W149">
+        <v>1.47</v>
+      </c>
+      <c r="X149">
+        <v>6.15</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.53</v>
+      </c>
+      <c r="AA149">
+        <v>4.2</v>
+      </c>
+      <c r="AB149">
+        <v>5.75</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>10.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.21</v>
+      </c>
+      <c r="AF149">
+        <v>3.74</v>
+      </c>
+      <c r="AG149">
+        <v>1.8</v>
+      </c>
+      <c r="AH149">
+        <v>2</v>
+      </c>
+      <c r="AI149">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149">
+        <v>1.8</v>
+      </c>
+      <c r="AK149">
+        <v>1.09</v>
+      </c>
+      <c r="AL149">
+        <v>1.18</v>
+      </c>
+      <c r="AM149">
+        <v>2.68</v>
+      </c>
+      <c r="AN149">
+        <v>1.33</v>
+      </c>
+      <c r="AO149">
+        <v>1.67</v>
+      </c>
+      <c r="AP149">
+        <v>1.5</v>
+      </c>
+      <c r="AQ149">
+        <v>1.5</v>
+      </c>
+      <c r="AR149">
+        <v>1.54</v>
+      </c>
+      <c r="AS149">
+        <v>1.28</v>
+      </c>
+      <c r="AT149">
+        <v>2.82</v>
+      </c>
+      <c r="AU149">
+        <v>9</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>11</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>20</v>
+      </c>
+      <c r="AZ149">
+        <v>3</v>
+      </c>
+      <c r="BA149">
+        <v>9</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>11</v>
+      </c>
+      <c r="BD149">
+        <v>1.29</v>
+      </c>
+      <c r="BE149">
+        <v>11</v>
+      </c>
+      <c r="BF149">
+        <v>4.2</v>
+      </c>
+      <c r="BG149">
+        <v>1.19</v>
+      </c>
+      <c r="BH149">
+        <v>4.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.29</v>
+      </c>
+      <c r="BJ149">
+        <v>3.3</v>
+      </c>
+      <c r="BK149">
+        <v>2</v>
+      </c>
+      <c r="BL149">
+        <v>2.3</v>
+      </c>
+      <c r="BM149">
+        <v>1.98</v>
+      </c>
+      <c r="BN149">
+        <v>1.81</v>
+      </c>
+      <c r="BO149">
+        <v>2.52</v>
+      </c>
+      <c r="BP149">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6676091</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45359.59027777778</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>85</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>91</v>
+      </c>
+      <c r="P150" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q150">
+        <v>2.5</v>
+      </c>
+      <c r="R150">
+        <v>2.25</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.31</v>
+      </c>
+      <c r="U150">
+        <v>3.28</v>
+      </c>
+      <c r="V150">
+        <v>2.46</v>
+      </c>
+      <c r="W150">
+        <v>1.51</v>
+      </c>
+      <c r="X150">
+        <v>5.8</v>
+      </c>
+      <c r="Y150">
+        <v>1.12</v>
+      </c>
+      <c r="Z150">
+        <v>1.95</v>
+      </c>
+      <c r="AA150">
+        <v>3.8</v>
+      </c>
+      <c r="AB150">
+        <v>3.6</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>10</v>
+      </c>
+      <c r="AE150">
+        <v>1.18</v>
+      </c>
+      <c r="AF150">
+        <v>4.05</v>
+      </c>
+      <c r="AG150">
+        <v>1.75</v>
+      </c>
+      <c r="AH150">
+        <v>2.05</v>
+      </c>
+      <c r="AI150">
+        <v>1.73</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>1.22</v>
+      </c>
+      <c r="AL150">
+        <v>1.24</v>
+      </c>
+      <c r="AM150">
+        <v>2</v>
+      </c>
+      <c r="AN150">
+        <v>1.5</v>
+      </c>
+      <c r="AO150">
+        <v>0.67</v>
+      </c>
+      <c r="AP150">
+        <v>1.33</v>
+      </c>
+      <c r="AQ150">
+        <v>0.9</v>
+      </c>
+      <c r="AR150">
+        <v>1.3</v>
+      </c>
+      <c r="AS150">
+        <v>1.25</v>
+      </c>
+      <c r="AT150">
+        <v>2.55</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
+        <v>10</v>
+      </c>
+      <c r="BA150">
+        <v>10</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>12</v>
+      </c>
+      <c r="BD150">
+        <v>1.38</v>
+      </c>
+      <c r="BE150">
+        <v>7.6</v>
+      </c>
+      <c r="BF150">
+        <v>4.1</v>
+      </c>
+      <c r="BG150">
+        <v>1.19</v>
+      </c>
+      <c r="BH150">
+        <v>4.5</v>
+      </c>
+      <c r="BI150">
+        <v>1.33</v>
+      </c>
+      <c r="BJ150">
+        <v>3.05</v>
+      </c>
+      <c r="BK150">
+        <v>2.1</v>
+      </c>
+      <c r="BL150">
+        <v>2.21</v>
+      </c>
+      <c r="BM150">
+        <v>2.04</v>
+      </c>
+      <c r="BN150">
+        <v>1.76</v>
+      </c>
+      <c r="BO150">
+        <v>2.62</v>
+      </c>
+      <c r="BP150">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6676092</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45359.6875</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>82</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>192</v>
+      </c>
+      <c r="P151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q151">
+        <v>3.25</v>
+      </c>
+      <c r="R151">
+        <v>2.1</v>
+      </c>
+      <c r="S151">
+        <v>3.1</v>
+      </c>
+      <c r="T151">
+        <v>1.36</v>
+      </c>
+      <c r="U151">
+        <v>3</v>
+      </c>
+      <c r="V151">
+        <v>2.62</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>2.7</v>
+      </c>
+      <c r="AA151">
+        <v>3.4</v>
+      </c>
+      <c r="AB151">
+        <v>2.5</v>
+      </c>
+      <c r="AC151">
+        <v>1.05</v>
+      </c>
+      <c r="AD151">
+        <v>8</v>
+      </c>
+      <c r="AE151">
+        <v>1.29</v>
+      </c>
+      <c r="AF151">
+        <v>3.5</v>
+      </c>
+      <c r="AG151">
+        <v>2</v>
+      </c>
+      <c r="AH151">
+        <v>1.8</v>
+      </c>
+      <c r="AI151">
+        <v>1.8</v>
+      </c>
+      <c r="AJ151">
+        <v>1.91</v>
+      </c>
+      <c r="AK151">
+        <v>1.58</v>
+      </c>
+      <c r="AL151">
+        <v>1.24</v>
+      </c>
+      <c r="AM151">
+        <v>1.27</v>
+      </c>
+      <c r="AN151">
+        <v>1.78</v>
+      </c>
+      <c r="AO151">
+        <v>1.33</v>
+      </c>
+      <c r="AP151">
+        <v>1.9</v>
+      </c>
+      <c r="AQ151">
+        <v>1.2</v>
+      </c>
+      <c r="AR151">
+        <v>1.62</v>
+      </c>
+      <c r="AS151">
+        <v>1.6</v>
+      </c>
+      <c r="AT151">
+        <v>3.22</v>
+      </c>
+      <c r="AU151">
+        <v>3</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>7</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>2.04</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>2.04</v>
+      </c>
+      <c r="BG151">
+        <v>1.49</v>
+      </c>
+      <c r="BH151">
+        <v>2.51</v>
+      </c>
+      <c r="BI151">
+        <v>1.88</v>
+      </c>
+      <c r="BJ151">
+        <v>1.92</v>
+      </c>
+      <c r="BK151">
+        <v>2.37</v>
+      </c>
+      <c r="BL151">
+        <v>1.55</v>
+      </c>
+      <c r="BM151">
+        <v>3.28</v>
+      </c>
+      <c r="BN151">
+        <v>1.27</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6676086</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45360.4375</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>75</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>128</v>
+      </c>
+      <c r="P152" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q152">
+        <v>2.3</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>4.5</v>
+      </c>
+      <c r="T152">
+        <v>1.33</v>
+      </c>
+      <c r="U152">
+        <v>3.14</v>
+      </c>
+      <c r="V152">
+        <v>2.54</v>
+      </c>
+      <c r="W152">
+        <v>1.48</v>
+      </c>
+      <c r="X152">
+        <v>6.05</v>
+      </c>
+      <c r="Y152">
+        <v>1.11</v>
+      </c>
+      <c r="Z152">
+        <v>1.75</v>
+      </c>
+      <c r="AA152">
+        <v>3.6</v>
+      </c>
+      <c r="AB152">
+        <v>4.75</v>
+      </c>
+      <c r="AC152">
+        <v>1.03</v>
+      </c>
+      <c r="AD152">
+        <v>10.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.2</v>
+      </c>
+      <c r="AF152">
+        <v>3.84</v>
+      </c>
+      <c r="AG152">
+        <v>1.85</v>
+      </c>
+      <c r="AH152">
+        <v>1.95</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.91</v>
+      </c>
+      <c r="AK152">
+        <v>1.13</v>
+      </c>
+      <c r="AL152">
+        <v>1.21</v>
+      </c>
+      <c r="AM152">
+        <v>2.38</v>
+      </c>
+      <c r="AN152">
+        <v>2</v>
+      </c>
+      <c r="AO152">
+        <v>0.5</v>
+      </c>
+      <c r="AP152">
+        <v>2.1</v>
+      </c>
+      <c r="AQ152">
+        <v>0.44</v>
+      </c>
+      <c r="AR152">
+        <v>1.58</v>
+      </c>
+      <c r="AS152">
+        <v>0.88</v>
+      </c>
+      <c r="AT152">
+        <v>2.46</v>
+      </c>
+      <c r="AU152">
+        <v>2</v>
+      </c>
+      <c r="AV152">
+        <v>0</v>
+      </c>
+      <c r="AW152">
+        <v>3</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>5</v>
+      </c>
+      <c r="AZ152">
+        <v>4</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>1</v>
+      </c>
+      <c r="BC152">
+        <v>6</v>
+      </c>
+      <c r="BD152">
+        <v>1.32</v>
+      </c>
+      <c r="BE152">
+        <v>10.5</v>
+      </c>
+      <c r="BF152">
+        <v>3.96</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>1.32</v>
+      </c>
+      <c r="BJ152">
+        <v>3.1</v>
+      </c>
+      <c r="BK152">
+        <v>1.91</v>
+      </c>
+      <c r="BL152">
+        <v>2.22</v>
+      </c>
+      <c r="BM152">
+        <v>2.04</v>
+      </c>
+      <c r="BN152">
+        <v>1.76</v>
+      </c>
+      <c r="BO152">
+        <v>2.6</v>
+      </c>
+      <c r="BP152">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6676087</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45361.27083333334</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>86</v>
+      </c>
+      <c r="P153" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q153">
+        <v>5.5</v>
+      </c>
+      <c r="R153">
+        <v>2.6</v>
+      </c>
+      <c r="S153">
+        <v>1.83</v>
+      </c>
+      <c r="T153">
+        <v>1.25</v>
+      </c>
+      <c r="U153">
+        <v>3.75</v>
+      </c>
+      <c r="V153">
+        <v>2.2</v>
+      </c>
+      <c r="W153">
+        <v>1.62</v>
+      </c>
+      <c r="X153">
+        <v>4.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.17</v>
+      </c>
+      <c r="Z153">
+        <v>6.4</v>
+      </c>
+      <c r="AA153">
+        <v>4.8</v>
+      </c>
+      <c r="AB153">
+        <v>1.39</v>
+      </c>
+      <c r="AC153">
+        <v>1.01</v>
+      </c>
+      <c r="AD153">
+        <v>12</v>
+      </c>
+      <c r="AE153">
+        <v>1.15</v>
+      </c>
+      <c r="AF153">
+        <v>5</v>
+      </c>
+      <c r="AG153">
+        <v>1.51</v>
+      </c>
+      <c r="AH153">
+        <v>2.29</v>
+      </c>
+      <c r="AI153">
+        <v>1.73</v>
+      </c>
+      <c r="AJ153">
+        <v>2</v>
+      </c>
+      <c r="AK153">
+        <v>2.9</v>
+      </c>
+      <c r="AL153">
+        <v>1.12</v>
+      </c>
+      <c r="AM153">
+        <v>1.06</v>
+      </c>
+      <c r="AN153">
+        <v>0.78</v>
+      </c>
+      <c r="AO153">
+        <v>2.44</v>
+      </c>
+      <c r="AP153">
+        <v>0.7</v>
+      </c>
+      <c r="AQ153">
+        <v>2.5</v>
+      </c>
+      <c r="AR153">
+        <v>1.24</v>
+      </c>
+      <c r="AS153">
+        <v>1.49</v>
+      </c>
+      <c r="AT153">
+        <v>2.73</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>9</v>
+      </c>
+      <c r="AW153">
+        <v>0</v>
+      </c>
+      <c r="AX153">
+        <v>9</v>
+      </c>
+      <c r="AY153">
+        <v>2</v>
+      </c>
+      <c r="AZ153">
+        <v>18</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>7</v>
+      </c>
+      <c r="BD153">
+        <v>4.3</v>
+      </c>
+      <c r="BE153">
+        <v>7.6</v>
+      </c>
+      <c r="BF153">
+        <v>1.36</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>1.31</v>
+      </c>
+      <c r="BJ153">
+        <v>3.1</v>
+      </c>
+      <c r="BK153">
+        <v>1.91</v>
+      </c>
+      <c r="BL153">
+        <v>2.32</v>
+      </c>
+      <c r="BM153">
+        <v>1.92</v>
+      </c>
+      <c r="BN153">
+        <v>1.87</v>
+      </c>
+      <c r="BO153">
+        <v>2.39</v>
+      </c>
+      <c r="BP153">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,18 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['13', '79', '89']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['90+4', '90+6']</t>
+  </si>
+  <si>
+    <t>['19', '57']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -833,6 +845,12 @@
   </si>
   <si>
     <t>['40', '45+1']</t>
+  </si>
+  <si>
+    <t>['22', '90+7', '90+9']</t>
+  </si>
+  <si>
+    <t>['2', '69']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2149,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2277,7 +2295,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2564,7 +2582,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2689,7 +2707,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2770,7 +2788,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ8">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2973,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
         <v>1.2</v>
@@ -3182,7 +3200,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3307,7 +3325,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3513,7 +3531,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3594,7 +3612,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3925,7 +3943,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4003,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4131,7 +4149,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4209,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ15">
         <v>2.2</v>
@@ -4337,7 +4355,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4415,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>0.5600000000000001</v>
@@ -4543,7 +4561,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4624,7 +4642,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -5161,7 +5179,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5239,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>2.5</v>
@@ -5573,7 +5591,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5779,7 +5797,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6397,7 +6415,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6475,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6681,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6887,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ28">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7093,10 +7111,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ29">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR29">
         <v>1.62</v>
@@ -7299,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ30">
         <v>0.5600000000000001</v>
@@ -7508,7 +7526,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>0.9399999999999999</v>
@@ -7633,7 +7651,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7714,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7839,7 +7857,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7917,10 +7935,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ33">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8251,7 +8269,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8457,7 +8475,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8663,7 +8681,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8869,7 +8887,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9075,7 +9093,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9487,7 +9505,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9771,10 +9789,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -9977,10 +9995,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ43">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -10105,7 +10123,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10311,7 +10329,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10389,10 +10407,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -10595,7 +10613,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ46">
         <v>1.2</v>
@@ -10804,7 +10822,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11007,7 +11025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ48">
         <v>0.44</v>
@@ -11135,7 +11153,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11216,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11341,7 +11359,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11419,10 +11437,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11547,7 +11565,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12165,7 +12183,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12246,7 +12264,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR54">
         <v>1.27</v>
@@ -12371,7 +12389,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12577,7 +12595,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12861,7 +12879,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12989,7 +13007,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13195,7 +13213,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13273,10 +13291,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR59">
         <v>1.3</v>
@@ -13401,7 +13419,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13607,7 +13625,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13688,7 +13706,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ61">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -13891,10 +13909,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ62">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14097,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>0.44</v>
@@ -14509,7 +14527,7 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ65">
         <v>0.5600000000000001</v>
@@ -14637,7 +14655,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14718,7 +14736,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ66">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -14843,7 +14861,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14924,7 +14942,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15127,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ68">
         <v>0.9</v>
@@ -15255,7 +15273,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15461,7 +15479,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15539,7 +15557,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ70">
         <v>2.2</v>
@@ -15748,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR71">
         <v>1.04</v>
@@ -15873,7 +15891,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16079,7 +16097,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16285,7 +16303,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16363,7 +16381,7 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16491,7 +16509,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16572,7 +16590,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16778,7 +16796,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -16903,7 +16921,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -16981,7 +16999,7 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ77">
         <v>1.2</v>
@@ -17109,7 +17127,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17187,7 +17205,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1.67</v>
@@ -17315,7 +17333,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17599,7 +17617,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ80">
         <v>2.2</v>
@@ -17808,7 +17826,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18011,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82">
         <v>0.8</v>
@@ -18217,7 +18235,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18345,7 +18363,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18426,7 +18444,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18838,7 +18856,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ86">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19169,7 +19187,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19375,7 +19393,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19456,7 +19474,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19581,7 +19599,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19787,7 +19805,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19868,7 +19886,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR91">
         <v>1.52</v>
@@ -19993,7 +20011,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20071,7 +20089,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ92">
         <v>2.5</v>
@@ -20199,7 +20217,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20277,7 +20295,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20405,7 +20423,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20689,10 +20707,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20817,7 +20835,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21101,10 +21119,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ97">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR97">
         <v>1.64</v>
@@ -21229,7 +21247,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21307,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
         <v>0.9</v>
@@ -21516,7 +21534,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR99">
         <v>1.57</v>
@@ -21641,7 +21659,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22340,7 +22358,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22543,10 +22561,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -22749,10 +22767,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR105">
         <v>1.18</v>
@@ -22877,7 +22895,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23083,7 +23101,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23161,7 +23179,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ107">
         <v>0.8</v>
@@ -23367,10 +23385,10 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23495,7 +23513,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23576,7 +23594,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR109">
         <v>1.28</v>
@@ -23907,7 +23925,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -23985,7 +24003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24319,7 +24337,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24603,10 +24621,10 @@
         <v>1.43</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR114">
         <v>1.61</v>
@@ -24731,7 +24749,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24937,7 +24955,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25143,7 +25161,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25349,7 +25367,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25430,7 +25448,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25555,7 +25573,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25636,7 +25654,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ119">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -25761,7 +25779,7 @@
         <v>138</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>3.25</v>
@@ -25839,7 +25857,7 @@
         <v>1.43</v>
       </c>
       <c r="AP120">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -25967,7 +25985,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26048,7 +26066,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26379,7 +26397,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26460,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26585,7 +26603,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26791,7 +26809,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26869,10 +26887,10 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ125">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -26997,7 +27015,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27075,7 +27093,7 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ126">
         <v>1.67</v>
@@ -27203,7 +27221,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27284,7 +27302,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ127">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27409,7 +27427,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27487,7 +27505,7 @@
         <v>2.38</v>
       </c>
       <c r="AP128">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ128">
         <v>2.5</v>
@@ -27615,7 +27633,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27693,7 +27711,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>2.2</v>
@@ -27902,7 +27920,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28105,7 +28123,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28520,7 +28538,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ133">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28645,7 +28663,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28929,7 +28947,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ135">
         <v>0.44</v>
@@ -29057,7 +29075,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29263,7 +29281,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29547,10 +29565,10 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ138">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29753,10 +29771,10 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -29959,7 +29977,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ140">
         <v>0.5600000000000001</v>
@@ -30087,7 +30105,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30165,7 +30183,7 @@
         <v>1.56</v>
       </c>
       <c r="AP141">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ141">
         <v>1.5</v>
@@ -30293,7 +30311,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30499,7 +30517,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30580,7 +30598,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ143">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR143">
         <v>1.5</v>
@@ -30705,7 +30723,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30786,7 +30804,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -30989,10 +31007,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ145">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR145">
         <v>1.41</v>
@@ -31117,7 +31135,7 @@
         <v>86</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -31323,7 +31341,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31610,7 +31628,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31941,7 +31959,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32019,7 +32037,7 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>0.9</v>
@@ -32716,6 +32734,1242 @@
       </c>
       <c r="BP153">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6676093</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45366.59027777778</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>84</v>
+      </c>
+      <c r="H154" t="s">
+        <v>74</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>182</v>
+      </c>
+      <c r="P154" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q154">
+        <v>3.4</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>3</v>
+      </c>
+      <c r="T154">
+        <v>1.38</v>
+      </c>
+      <c r="U154">
+        <v>2.9</v>
+      </c>
+      <c r="V154">
+        <v>2.74</v>
+      </c>
+      <c r="W154">
+        <v>1.42</v>
+      </c>
+      <c r="X154">
+        <v>6.85</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
+        <v>3.5</v>
+      </c>
+      <c r="AA154">
+        <v>3.25</v>
+      </c>
+      <c r="AB154">
+        <v>2.2</v>
+      </c>
+      <c r="AC154">
+        <v>1.01</v>
+      </c>
+      <c r="AD154">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE154">
+        <v>1.26</v>
+      </c>
+      <c r="AF154">
+        <v>3.34</v>
+      </c>
+      <c r="AG154">
+        <v>2.05</v>
+      </c>
+      <c r="AH154">
+        <v>1.75</v>
+      </c>
+      <c r="AI154">
+        <v>1.83</v>
+      </c>
+      <c r="AJ154">
+        <v>1.83</v>
+      </c>
+      <c r="AK154">
+        <v>1.54</v>
+      </c>
+      <c r="AL154">
+        <v>1.29</v>
+      </c>
+      <c r="AM154">
+        <v>1.42</v>
+      </c>
+      <c r="AN154">
+        <v>1.33</v>
+      </c>
+      <c r="AO154">
+        <v>1.89</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>1.7</v>
+      </c>
+      <c r="AR154">
+        <v>1.36</v>
+      </c>
+      <c r="AS154">
+        <v>1.35</v>
+      </c>
+      <c r="AT154">
+        <v>2.71</v>
+      </c>
+      <c r="AU154">
+        <v>2</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>10</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>8</v>
+      </c>
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>10</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>0</v>
+      </c>
+      <c r="BJ154">
+        <v>0</v>
+      </c>
+      <c r="BK154">
+        <v>0</v>
+      </c>
+      <c r="BL154">
+        <v>0</v>
+      </c>
+      <c r="BM154">
+        <v>0</v>
+      </c>
+      <c r="BN154">
+        <v>0</v>
+      </c>
+      <c r="BO154">
+        <v>0</v>
+      </c>
+      <c r="BP154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6676094</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45366.59027777778</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>83</v>
+      </c>
+      <c r="H155" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>100</v>
+      </c>
+      <c r="P155" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q155">
+        <v>3.6</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>2.88</v>
+      </c>
+      <c r="T155">
+        <v>1.37</v>
+      </c>
+      <c r="U155">
+        <v>3.01</v>
+      </c>
+      <c r="V155">
+        <v>2.87</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>6.9</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>3.2</v>
+      </c>
+      <c r="AA155">
+        <v>1.76</v>
+      </c>
+      <c r="AB155">
+        <v>2.25</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE155">
+        <v>1.26</v>
+      </c>
+      <c r="AF155">
+        <v>3.34</v>
+      </c>
+      <c r="AG155">
+        <v>2.1</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.72</v>
+      </c>
+      <c r="AL155">
+        <v>1.28</v>
+      </c>
+      <c r="AM155">
+        <v>1.3</v>
+      </c>
+      <c r="AN155">
+        <v>0.22</v>
+      </c>
+      <c r="AO155">
+        <v>0.67</v>
+      </c>
+      <c r="AP155">
+        <v>0.2</v>
+      </c>
+      <c r="AQ155">
+        <v>0.9</v>
+      </c>
+      <c r="AR155">
+        <v>1.39</v>
+      </c>
+      <c r="AS155">
+        <v>1.44</v>
+      </c>
+      <c r="AT155">
+        <v>2.83</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>9</v>
+      </c>
+      <c r="AW155">
+        <v>10</v>
+      </c>
+      <c r="AX155">
+        <v>8</v>
+      </c>
+      <c r="AY155">
+        <v>16</v>
+      </c>
+      <c r="AZ155">
+        <v>17</v>
+      </c>
+      <c r="BA155">
+        <v>8</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>13</v>
+      </c>
+      <c r="BD155">
+        <v>2.15</v>
+      </c>
+      <c r="BE155">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF155">
+        <v>1.9</v>
+      </c>
+      <c r="BG155">
+        <v>1.22</v>
+      </c>
+      <c r="BH155">
+        <v>3.64</v>
+      </c>
+      <c r="BI155">
+        <v>1.43</v>
+      </c>
+      <c r="BJ155">
+        <v>2.54</v>
+      </c>
+      <c r="BK155">
+        <v>2.38</v>
+      </c>
+      <c r="BL155">
+        <v>1.94</v>
+      </c>
+      <c r="BM155">
+        <v>2.23</v>
+      </c>
+      <c r="BN155">
+        <v>1.55</v>
+      </c>
+      <c r="BO155">
+        <v>3.04</v>
+      </c>
+      <c r="BP155">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6676096</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45366.59027777778</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>82</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>193</v>
+      </c>
+      <c r="P156" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q156">
+        <v>2.38</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>4</v>
+      </c>
+      <c r="T156">
+        <v>1.27</v>
+      </c>
+      <c r="U156">
+        <v>3.45</v>
+      </c>
+      <c r="V156">
+        <v>2.34</v>
+      </c>
+      <c r="W156">
+        <v>1.54</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.14</v>
+      </c>
+      <c r="Z156">
+        <v>1.91</v>
+      </c>
+      <c r="AA156">
+        <v>3.75</v>
+      </c>
+      <c r="AB156">
+        <v>4</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>12</v>
+      </c>
+      <c r="AE156">
+        <v>1.15</v>
+      </c>
+      <c r="AF156">
+        <v>4.6</v>
+      </c>
+      <c r="AG156">
+        <v>1.7</v>
+      </c>
+      <c r="AH156">
+        <v>2.1</v>
+      </c>
+      <c r="AI156">
+        <v>1.62</v>
+      </c>
+      <c r="AJ156">
+        <v>2.2</v>
+      </c>
+      <c r="AK156">
+        <v>1.2</v>
+      </c>
+      <c r="AL156">
+        <v>1.22</v>
+      </c>
+      <c r="AM156">
+        <v>1.95</v>
+      </c>
+      <c r="AN156">
+        <v>2.22</v>
+      </c>
+      <c r="AO156">
+        <v>1.22</v>
+      </c>
+      <c r="AP156">
+        <v>2.3</v>
+      </c>
+      <c r="AQ156">
+        <v>1.1</v>
+      </c>
+      <c r="AR156">
+        <v>1.7</v>
+      </c>
+      <c r="AS156">
+        <v>1.65</v>
+      </c>
+      <c r="AT156">
+        <v>3.35</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>11</v>
+      </c>
+      <c r="AX156">
+        <v>6</v>
+      </c>
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>6</v>
+      </c>
+      <c r="BB156">
+        <v>1</v>
+      </c>
+      <c r="BC156">
+        <v>7</v>
+      </c>
+      <c r="BD156">
+        <v>1.58</v>
+      </c>
+      <c r="BE156">
+        <v>9.1</v>
+      </c>
+      <c r="BF156">
+        <v>2.82</v>
+      </c>
+      <c r="BG156">
+        <v>1.23</v>
+      </c>
+      <c r="BH156">
+        <v>3.56</v>
+      </c>
+      <c r="BI156">
+        <v>1.44</v>
+      </c>
+      <c r="BJ156">
+        <v>2.5</v>
+      </c>
+      <c r="BK156">
+        <v>1.8</v>
+      </c>
+      <c r="BL156">
+        <v>2.09</v>
+      </c>
+      <c r="BM156">
+        <v>2.28</v>
+      </c>
+      <c r="BN156">
+        <v>1.68</v>
+      </c>
+      <c r="BO156">
+        <v>3.04</v>
+      </c>
+      <c r="BP156">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6676100</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45366.59027777778</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>194</v>
+      </c>
+      <c r="P157" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q157">
+        <v>1.91</v>
+      </c>
+      <c r="R157">
+        <v>2.5</v>
+      </c>
+      <c r="S157">
+        <v>5.5</v>
+      </c>
+      <c r="T157">
+        <v>1.32</v>
+      </c>
+      <c r="U157">
+        <v>3.29</v>
+      </c>
+      <c r="V157">
+        <v>2.46</v>
+      </c>
+      <c r="W157">
+        <v>1.53</v>
+      </c>
+      <c r="X157">
+        <v>5.7</v>
+      </c>
+      <c r="Y157">
+        <v>1.12</v>
+      </c>
+      <c r="Z157">
+        <v>1.45</v>
+      </c>
+      <c r="AA157">
+        <v>4.5</v>
+      </c>
+      <c r="AB157">
+        <v>7</v>
+      </c>
+      <c r="AC157">
+        <v>1.03</v>
+      </c>
+      <c r="AD157">
+        <v>10</v>
+      </c>
+      <c r="AE157">
+        <v>1.18</v>
+      </c>
+      <c r="AF157">
+        <v>4.1</v>
+      </c>
+      <c r="AG157">
+        <v>1.6</v>
+      </c>
+      <c r="AH157">
+        <v>2.3</v>
+      </c>
+      <c r="AI157">
+        <v>1.8</v>
+      </c>
+      <c r="AJ157">
+        <v>1.91</v>
+      </c>
+      <c r="AK157">
+        <v>1.07</v>
+      </c>
+      <c r="AL157">
+        <v>1.17</v>
+      </c>
+      <c r="AM157">
+        <v>2.91</v>
+      </c>
+      <c r="AN157">
+        <v>2.44</v>
+      </c>
+      <c r="AO157">
+        <v>1.11</v>
+      </c>
+      <c r="AP157">
+        <v>2.3</v>
+      </c>
+      <c r="AQ157">
+        <v>1.1</v>
+      </c>
+      <c r="AR157">
+        <v>1.88</v>
+      </c>
+      <c r="AS157">
+        <v>1.22</v>
+      </c>
+      <c r="AT157">
+        <v>3.1</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>15</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>20</v>
+      </c>
+      <c r="AZ157">
+        <v>6</v>
+      </c>
+      <c r="BA157">
+        <v>7</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>0</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>1.3</v>
+      </c>
+      <c r="BJ157">
+        <v>3.08</v>
+      </c>
+      <c r="BK157">
+        <v>2.1</v>
+      </c>
+      <c r="BL157">
+        <v>2.25</v>
+      </c>
+      <c r="BM157">
+        <v>1.92</v>
+      </c>
+      <c r="BN157">
+        <v>1.79</v>
+      </c>
+      <c r="BO157">
+        <v>2.45</v>
+      </c>
+      <c r="BP157">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6676102</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45366.59027777778</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>85</v>
+      </c>
+      <c r="H158" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>195</v>
+      </c>
+      <c r="P158" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q158">
+        <v>2.75</v>
+      </c>
+      <c r="R158">
+        <v>2.25</v>
+      </c>
+      <c r="S158">
+        <v>3.4</v>
+      </c>
+      <c r="T158">
+        <v>1.31</v>
+      </c>
+      <c r="U158">
+        <v>3.28</v>
+      </c>
+      <c r="V158">
+        <v>2.46</v>
+      </c>
+      <c r="W158">
+        <v>1.51</v>
+      </c>
+      <c r="X158">
+        <v>5.75</v>
+      </c>
+      <c r="Y158">
+        <v>1.12</v>
+      </c>
+      <c r="Z158">
+        <v>2.15</v>
+      </c>
+      <c r="AA158">
+        <v>3.75</v>
+      </c>
+      <c r="AB158">
+        <v>3.1</v>
+      </c>
+      <c r="AC158">
+        <v>1.03</v>
+      </c>
+      <c r="AD158">
+        <v>9</v>
+      </c>
+      <c r="AE158">
+        <v>1.18</v>
+      </c>
+      <c r="AF158">
+        <v>4.1</v>
+      </c>
+      <c r="AG158">
+        <v>1.73</v>
+      </c>
+      <c r="AH158">
+        <v>2.08</v>
+      </c>
+      <c r="AI158">
+        <v>1.62</v>
+      </c>
+      <c r="AJ158">
+        <v>2.2</v>
+      </c>
+      <c r="AK158">
+        <v>1.32</v>
+      </c>
+      <c r="AL158">
+        <v>1.26</v>
+      </c>
+      <c r="AM158">
+        <v>1.73</v>
+      </c>
+      <c r="AN158">
+        <v>2</v>
+      </c>
+      <c r="AO158">
+        <v>1</v>
+      </c>
+      <c r="AP158">
+        <v>2.1</v>
+      </c>
+      <c r="AQ158">
+        <v>0.91</v>
+      </c>
+      <c r="AR158">
+        <v>1.36</v>
+      </c>
+      <c r="AS158">
+        <v>1.28</v>
+      </c>
+      <c r="AT158">
+        <v>2.64</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>0</v>
+      </c>
+      <c r="AW158">
+        <v>8</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>4</v>
+      </c>
+      <c r="BA158">
+        <v>12</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>17</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
+        <v>1.32</v>
+      </c>
+      <c r="BH158">
+        <v>3.2</v>
+      </c>
+      <c r="BI158">
+        <v>1.58</v>
+      </c>
+      <c r="BJ158">
+        <v>2.28</v>
+      </c>
+      <c r="BK158">
+        <v>2.02</v>
+      </c>
+      <c r="BL158">
+        <v>1.74</v>
+      </c>
+      <c r="BM158">
+        <v>2.7</v>
+      </c>
+      <c r="BN158">
+        <v>1.43</v>
+      </c>
+      <c r="BO158">
+        <v>3.75</v>
+      </c>
+      <c r="BP158">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6676099</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45366.6875</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>196</v>
+      </c>
+      <c r="P159" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q159">
+        <v>3.6</v>
+      </c>
+      <c r="R159">
+        <v>1.95</v>
+      </c>
+      <c r="S159">
+        <v>3.1</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.6</v>
+      </c>
+      <c r="V159">
+        <v>3.05</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>7.9</v>
+      </c>
+      <c r="Y159">
+        <v>1.05</v>
+      </c>
+      <c r="Z159">
+        <v>3</v>
+      </c>
+      <c r="AA159">
+        <v>3.1</v>
+      </c>
+      <c r="AB159">
+        <v>2.5</v>
+      </c>
+      <c r="AC159">
+        <v>1.03</v>
+      </c>
+      <c r="AD159">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE159">
+        <v>1.36</v>
+      </c>
+      <c r="AF159">
+        <v>2.95</v>
+      </c>
+      <c r="AG159">
+        <v>2.35</v>
+      </c>
+      <c r="AH159">
+        <v>1.57</v>
+      </c>
+      <c r="AI159">
+        <v>2</v>
+      </c>
+      <c r="AJ159">
+        <v>1.73</v>
+      </c>
+      <c r="AK159">
+        <v>1.55</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.4</v>
+      </c>
+      <c r="AN159">
+        <v>1.8</v>
+      </c>
+      <c r="AO159">
+        <v>1.89</v>
+      </c>
+      <c r="AP159">
+        <v>1.91</v>
+      </c>
+      <c r="AQ159">
+        <v>1.7</v>
+      </c>
+      <c r="AR159">
+        <v>1.59</v>
+      </c>
+      <c r="AS159">
+        <v>1.61</v>
+      </c>
+      <c r="AT159">
+        <v>3.2</v>
+      </c>
+      <c r="AU159">
+        <v>6</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>2</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>6</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
+        <v>5</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>1.17</v>
+      </c>
+      <c r="BH159">
+        <v>4.8</v>
+      </c>
+      <c r="BI159">
+        <v>1.32</v>
+      </c>
+      <c r="BJ159">
+        <v>3.2</v>
+      </c>
+      <c r="BK159">
+        <v>1.6</v>
+      </c>
+      <c r="BL159">
+        <v>2.27</v>
+      </c>
+      <c r="BM159">
+        <v>1.98</v>
+      </c>
+      <c r="BN159">
+        <v>1.82</v>
+      </c>
+      <c r="BO159">
+        <v>2.47</v>
+      </c>
+      <c r="BP159">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['19', '57']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -851,6 +857,9 @@
   </si>
   <si>
     <t>['2', '69']</t>
+  </si>
+  <si>
+    <t>['33', '37', '76', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1561,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ2">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1755,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>1.5</v>
@@ -2295,7 +2304,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2707,7 +2716,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3325,7 +3334,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3531,7 +3540,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3943,7 +3952,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4149,7 +4158,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4355,7 +4364,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4436,7 +4445,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4561,7 +4570,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5179,7 +5188,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5466,7 +5475,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5591,7 +5600,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5669,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5797,7 +5806,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6415,7 +6424,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7320,7 +7329,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ30">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7651,7 +7660,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7857,7 +7866,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8269,7 +8278,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8475,7 +8484,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8681,7 +8690,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8887,7 +8896,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9093,7 +9102,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9505,7 +9514,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10123,7 +10132,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10204,7 +10213,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ44">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.46</v>
@@ -10329,7 +10338,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10819,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
         <v>1.1</v>
@@ -11028,7 +11037,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ48">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11153,7 +11162,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11359,7 +11368,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11565,7 +11574,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12183,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12389,7 +12398,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12595,7 +12604,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13007,7 +13016,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13213,7 +13222,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13419,7 +13428,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13625,7 +13634,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14118,7 +14127,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14321,7 +14330,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14530,7 +14539,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR65">
         <v>1.61</v>
@@ -14655,7 +14664,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14861,7 +14870,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15273,7 +15282,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15479,7 +15488,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15891,7 +15900,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16097,7 +16106,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16303,7 +16312,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16509,7 +16518,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16921,7 +16930,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17127,7 +17136,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17333,7 +17342,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17414,7 +17423,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ79">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR79">
         <v>1.11</v>
@@ -18363,7 +18372,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19059,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
         <v>0.9</v>
@@ -19187,7 +19196,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19268,7 +19277,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19393,7 +19402,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19599,7 +19608,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19805,7 +19814,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20011,7 +20020,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20217,7 +20226,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20423,7 +20432,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20504,7 +20513,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ94">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -20835,7 +20844,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21247,7 +21256,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21659,7 +21668,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22152,7 +22161,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22355,7 +22364,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ103">
         <v>1.7</v>
@@ -22895,7 +22904,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -22976,7 +22985,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ106">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR106">
         <v>1.24</v>
@@ -23101,7 +23110,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23513,7 +23522,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23591,7 +23600,7 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ109">
         <v>1.7</v>
@@ -23800,7 +23809,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ110">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -23925,7 +23934,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24337,7 +24346,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24749,7 +24758,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24955,7 +24964,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25161,7 +25170,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25367,7 +25376,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25573,7 +25582,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25779,7 +25788,7 @@
         <v>138</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>3.25</v>
@@ -25985,7 +25994,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26272,7 +26281,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26397,7 +26406,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26603,7 +26612,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26809,7 +26818,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27015,7 +27024,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27221,7 +27230,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27427,7 +27436,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27633,7 +27642,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28663,7 +28672,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28741,7 +28750,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ134">
         <v>0.8</v>
@@ -28950,7 +28959,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ135">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29075,7 +29084,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29281,7 +29290,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29980,7 +29989,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ140">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30105,7 +30114,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30311,7 +30320,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30517,7 +30526,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30723,7 +30732,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31135,7 +31144,7 @@
         <v>86</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -31341,7 +31350,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31625,7 +31634,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ148">
         <v>1.1</v>
@@ -31959,7 +31968,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32452,7 +32461,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ152">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR152">
         <v>1.58</v>
@@ -32882,16 +32891,16 @@
         <v>4</v>
       </c>
       <c r="AW154">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY154">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ154">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA154">
         <v>4</v>
@@ -32989,7 +32998,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33088,16 +33097,16 @@
         <v>9</v>
       </c>
       <c r="AW155">
+        <v>4</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
         <v>10</v>
       </c>
-      <c r="AX155">
-        <v>8</v>
-      </c>
-      <c r="AY155">
-        <v>16</v>
-      </c>
       <c r="AZ155">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA155">
         <v>8</v>
@@ -33195,7 +33204,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33288,19 +33297,19 @@
         <v>3.35</v>
       </c>
       <c r="AU156">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV156">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW156">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY156">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ156">
         <v>10</v>
@@ -33494,19 +33503,19 @@
         <v>3.1</v>
       </c>
       <c r="AU157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW157">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AX157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY157">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ157">
         <v>6</v>
@@ -33700,16 +33709,16 @@
         <v>2.64</v>
       </c>
       <c r="AU158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW158">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY158">
         <v>13</v>
@@ -33813,7 +33822,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -33970,6 +33979,418 @@
       </c>
       <c r="BP159">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6676098</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>81</v>
+      </c>
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>197</v>
+      </c>
+      <c r="P160" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q160">
+        <v>2.3</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>4</v>
+      </c>
+      <c r="T160">
+        <v>1.32</v>
+      </c>
+      <c r="U160">
+        <v>3.22</v>
+      </c>
+      <c r="V160">
+        <v>2.48</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>5.9</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>1.8</v>
+      </c>
+      <c r="AA160">
+        <v>3.8</v>
+      </c>
+      <c r="AB160">
+        <v>4.2</v>
+      </c>
+      <c r="AC160">
+        <v>1.04</v>
+      </c>
+      <c r="AD160">
+        <v>10</v>
+      </c>
+      <c r="AE160">
+        <v>1.19</v>
+      </c>
+      <c r="AF160">
+        <v>3.96</v>
+      </c>
+      <c r="AG160">
+        <v>1.7</v>
+      </c>
+      <c r="AH160">
+        <v>2.1</v>
+      </c>
+      <c r="AI160">
+        <v>1.67</v>
+      </c>
+      <c r="AJ160">
+        <v>2.1</v>
+      </c>
+      <c r="AK160">
+        <v>1.16</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>2.22</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP160">
+        <v>1</v>
+      </c>
+      <c r="AQ160">
+        <v>0.6</v>
+      </c>
+      <c r="AR160">
+        <v>1.27</v>
+      </c>
+      <c r="AS160">
+        <v>1.42</v>
+      </c>
+      <c r="AT160">
+        <v>2.69</v>
+      </c>
+      <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
+      <c r="BA160">
+        <v>1</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>5</v>
+      </c>
+      <c r="BD160">
+        <v>1.46</v>
+      </c>
+      <c r="BE160">
+        <v>9.9</v>
+      </c>
+      <c r="BF160">
+        <v>3.12</v>
+      </c>
+      <c r="BG160">
+        <v>0</v>
+      </c>
+      <c r="BH160">
+        <v>0</v>
+      </c>
+      <c r="BI160">
+        <v>1.3</v>
+      </c>
+      <c r="BJ160">
+        <v>3.35</v>
+      </c>
+      <c r="BK160">
+        <v>1.56</v>
+      </c>
+      <c r="BL160">
+        <v>2.36</v>
+      </c>
+      <c r="BM160">
+        <v>1.92</v>
+      </c>
+      <c r="BN160">
+        <v>1.87</v>
+      </c>
+      <c r="BO160">
+        <v>2.43</v>
+      </c>
+      <c r="BP160">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6676097</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45368.27083333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>4</v>
+      </c>
+      <c r="N161">
+        <v>5</v>
+      </c>
+      <c r="O161" t="s">
+        <v>198</v>
+      </c>
+      <c r="P161" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q161">
+        <v>2.3</v>
+      </c>
+      <c r="R161">
+        <v>2.25</v>
+      </c>
+      <c r="S161">
+        <v>4.33</v>
+      </c>
+      <c r="T161">
+        <v>1.36</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.63</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>6.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>1.8</v>
+      </c>
+      <c r="AA161">
+        <v>3.6</v>
+      </c>
+      <c r="AB161">
+        <v>3.8</v>
+      </c>
+      <c r="AC161">
+        <v>1.04</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.25</v>
+      </c>
+      <c r="AF161">
+        <v>3.75</v>
+      </c>
+      <c r="AG161">
+        <v>1.7</v>
+      </c>
+      <c r="AH161">
+        <v>2.05</v>
+      </c>
+      <c r="AI161">
+        <v>1.73</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+      <c r="AK161">
+        <v>1.22</v>
+      </c>
+      <c r="AL161">
+        <v>1.22</v>
+      </c>
+      <c r="AM161">
+        <v>1.85</v>
+      </c>
+      <c r="AN161">
+        <v>1.33</v>
+      </c>
+      <c r="AO161">
+        <v>0.44</v>
+      </c>
+      <c r="AP161">
+        <v>1.2</v>
+      </c>
+      <c r="AQ161">
+        <v>0.7</v>
+      </c>
+      <c r="AR161">
+        <v>1.26</v>
+      </c>
+      <c r="AS161">
+        <v>0.83</v>
+      </c>
+      <c r="AT161">
+        <v>2.09</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>10</v>
+      </c>
+      <c r="AZ161">
+        <v>8</v>
+      </c>
+      <c r="BA161">
+        <v>3</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>6</v>
+      </c>
+      <c r="BD161">
+        <v>1.62</v>
+      </c>
+      <c r="BE161">
+        <v>8.9</v>
+      </c>
+      <c r="BF161">
+        <v>2.67</v>
+      </c>
+      <c r="BG161">
+        <v>1.26</v>
+      </c>
+      <c r="BH161">
+        <v>3.65</v>
+      </c>
+      <c r="BI161">
+        <v>1.51</v>
+      </c>
+      <c r="BJ161">
+        <v>2.48</v>
+      </c>
+      <c r="BK161">
+        <v>1.86</v>
+      </c>
+      <c r="BL161">
+        <v>1.93</v>
+      </c>
+      <c r="BM161">
+        <v>2.35</v>
+      </c>
+      <c r="BN161">
+        <v>1.57</v>
+      </c>
+      <c r="BO161">
+        <v>3.3</v>
+      </c>
+      <c r="BP161">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -586,10 +586,10 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['6', '76']</t>
+    <t>['66', '87']</t>
   </si>
   <si>
-    <t>['66', '87']</t>
+    <t>['6', '76']</t>
   </si>
   <si>
     <t>['67']</t>
@@ -796,10 +796,10 @@
     <t>['8', '15', '21', '44', '60', '63']</t>
   </si>
   <si>
-    <t>['4', '12']</t>
+    <t>['11', '71', '86']</t>
   </si>
   <si>
-    <t>['11', '71', '86']</t>
+    <t>['4', '12']</t>
   </si>
   <si>
     <t>['6', '36', '56', '74']</t>
@@ -847,10 +847,10 @@
     <t>['27', '87']</t>
   </si>
   <si>
-    <t>['23', '51']</t>
+    <t>['40', '45+1']</t>
   </si>
   <si>
-    <t>['40', '45+1']</t>
+    <t>['23', '51']</t>
   </si>
   <si>
     <t>['22', '90+7', '90+9']</t>
@@ -25540,7 +25540,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>6676046</v>
+        <v>6676048</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25555,190 +25555,190 @@
         <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O119" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="P119" t="s">
         <v>260</v>
       </c>
       <c r="Q119">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>2.75</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
         <v>2.5</v>
       </c>
-      <c r="S119">
+      <c r="W119">
+        <v>1.5</v>
+      </c>
+      <c r="X119">
+        <v>6</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>2.94</v>
+      </c>
+      <c r="AA119">
+        <v>3.56</v>
+      </c>
+      <c r="AB119">
+        <v>2.22</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>11.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.21</v>
+      </c>
+      <c r="AF119">
+        <v>4</v>
+      </c>
+      <c r="AG119">
+        <v>1.68</v>
+      </c>
+      <c r="AH119">
+        <v>2.12</v>
+      </c>
+      <c r="AI119">
+        <v>1.62</v>
+      </c>
+      <c r="AJ119">
         <v>2.2</v>
       </c>
-      <c r="T119">
-        <v>1.29</v>
-      </c>
-      <c r="U119">
-        <v>3.5</v>
-      </c>
-      <c r="V119">
-        <v>2.25</v>
-      </c>
-      <c r="W119">
-        <v>1.57</v>
-      </c>
-      <c r="X119">
-        <v>4.5</v>
-      </c>
-      <c r="Y119">
-        <v>1.17</v>
-      </c>
-      <c r="Z119">
-        <v>4.14</v>
-      </c>
-      <c r="AA119">
-        <v>4.15</v>
-      </c>
-      <c r="AB119">
+      <c r="AK119">
         <v>1.68</v>
       </c>
-      <c r="AC119">
-        <v>1.02</v>
-      </c>
-      <c r="AD119">
-        <v>14.5</v>
-      </c>
-      <c r="AE119">
-        <v>1.15</v>
-      </c>
-      <c r="AF119">
-        <v>4.8</v>
-      </c>
-      <c r="AG119">
+      <c r="AL119">
+        <v>1.27</v>
+      </c>
+      <c r="AM119">
+        <v>1.34</v>
+      </c>
+      <c r="AN119">
+        <v>0.33</v>
+      </c>
+      <c r="AO119">
+        <v>1.43</v>
+      </c>
+      <c r="AP119">
+        <v>0.2</v>
+      </c>
+      <c r="AQ119">
+        <v>1.5</v>
+      </c>
+      <c r="AR119">
+        <v>1.39</v>
+      </c>
+      <c r="AS119">
         <v>1.48</v>
       </c>
-      <c r="AH119">
-        <v>2.47</v>
-      </c>
-      <c r="AI119">
-        <v>1.53</v>
-      </c>
-      <c r="AJ119">
-        <v>2.38</v>
-      </c>
-      <c r="AK119">
-        <v>1.94</v>
-      </c>
-      <c r="AL119">
-        <v>1.22</v>
-      </c>
-      <c r="AM119">
-        <v>1.22</v>
-      </c>
-      <c r="AN119">
-        <v>1</v>
-      </c>
-      <c r="AO119">
-        <v>1.33</v>
-      </c>
-      <c r="AP119">
-        <v>0.7</v>
-      </c>
-      <c r="AQ119">
-        <v>1.7</v>
-      </c>
-      <c r="AR119">
-        <v>1.35</v>
-      </c>
-      <c r="AS119">
-        <v>1.46</v>
-      </c>
       <c r="AT119">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>2</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
         <v>6</v>
       </c>
-      <c r="AV119">
-        <v>4</v>
-      </c>
-      <c r="AW119">
-        <v>3</v>
-      </c>
-      <c r="AX119">
-        <v>2</v>
-      </c>
-      <c r="AY119">
+      <c r="AZ119">
         <v>9</v>
       </c>
-      <c r="AZ119">
-        <v>6</v>
-      </c>
       <c r="BA119">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BB119">
         <v>3</v>
       </c>
       <c r="BC119">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD119">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BE119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BF119">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BG119">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH119">
-        <v>3.68</v>
+        <v>0</v>
       </c>
       <c r="BI119">
+        <v>1.27</v>
+      </c>
+      <c r="BJ119">
+        <v>3.4</v>
+      </c>
+      <c r="BK119">
         <v>1.51</v>
       </c>
-      <c r="BJ119">
-        <v>2.48</v>
-      </c>
-      <c r="BK119">
-        <v>2.38</v>
-      </c>
       <c r="BL119">
+        <v>2.45</v>
+      </c>
+      <c r="BM119">
+        <v>1.84</v>
+      </c>
+      <c r="BN119">
         <v>1.96</v>
       </c>
-      <c r="BM119">
-        <v>2.3</v>
-      </c>
-      <c r="BN119">
+      <c r="BO119">
+        <v>2.26</v>
+      </c>
+      <c r="BP119">
         <v>1.6</v>
-      </c>
-      <c r="BO119">
-        <v>3.1</v>
-      </c>
-      <c r="BP119">
-        <v>1.35</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -25746,7 +25746,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>6676048</v>
+        <v>6676046</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25761,190 +25761,190 @@
         <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H120" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="P120" t="s">
         <v>261</v>
       </c>
       <c r="Q120">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="R120">
+        <v>2.5</v>
+      </c>
+      <c r="S120">
+        <v>2.2</v>
+      </c>
+      <c r="T120">
+        <v>1.29</v>
+      </c>
+      <c r="U120">
+        <v>3.5</v>
+      </c>
+      <c r="V120">
         <v>2.25</v>
       </c>
-      <c r="S120">
-        <v>2.75</v>
-      </c>
-      <c r="T120">
+      <c r="W120">
+        <v>1.57</v>
+      </c>
+      <c r="X120">
+        <v>4.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.17</v>
+      </c>
+      <c r="Z120">
+        <v>4.14</v>
+      </c>
+      <c r="AA120">
+        <v>4.15</v>
+      </c>
+      <c r="AB120">
+        <v>1.68</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>14.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.15</v>
+      </c>
+      <c r="AF120">
+        <v>4.8</v>
+      </c>
+      <c r="AG120">
+        <v>1.48</v>
+      </c>
+      <c r="AH120">
+        <v>2.47</v>
+      </c>
+      <c r="AI120">
+        <v>1.53</v>
+      </c>
+      <c r="AJ120">
+        <v>2.38</v>
+      </c>
+      <c r="AK120">
+        <v>1.94</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.22</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>1.33</v>
       </c>
-      <c r="U120">
-        <v>3.25</v>
-      </c>
-      <c r="V120">
-        <v>2.5</v>
-      </c>
-      <c r="W120">
-        <v>1.5</v>
-      </c>
-      <c r="X120">
+      <c r="AP120">
+        <v>0.7</v>
+      </c>
+      <c r="AQ120">
+        <v>1.7</v>
+      </c>
+      <c r="AR120">
+        <v>1.35</v>
+      </c>
+      <c r="AS120">
+        <v>1.46</v>
+      </c>
+      <c r="AT120">
+        <v>2.81</v>
+      </c>
+      <c r="AU120">
         <v>6</v>
       </c>
-      <c r="Y120">
-        <v>1.11</v>
-      </c>
-      <c r="Z120">
-        <v>2.94</v>
-      </c>
-      <c r="AA120">
-        <v>3.56</v>
-      </c>
-      <c r="AB120">
-        <v>2.22</v>
-      </c>
-      <c r="AC120">
-        <v>1.04</v>
-      </c>
-      <c r="AD120">
-        <v>11.5</v>
-      </c>
-      <c r="AE120">
-        <v>1.21</v>
-      </c>
-      <c r="AF120">
+      <c r="AV120">
         <v>4</v>
       </c>
-      <c r="AG120">
-        <v>1.68</v>
-      </c>
-      <c r="AH120">
-        <v>2.12</v>
-      </c>
-      <c r="AI120">
-        <v>1.62</v>
-      </c>
-      <c r="AJ120">
-        <v>2.2</v>
-      </c>
-      <c r="AK120">
-        <v>1.68</v>
-      </c>
-      <c r="AL120">
-        <v>1.27</v>
-      </c>
-      <c r="AM120">
-        <v>1.34</v>
-      </c>
-      <c r="AN120">
-        <v>0.33</v>
-      </c>
-      <c r="AO120">
-        <v>1.43</v>
-      </c>
-      <c r="AP120">
-        <v>0.2</v>
-      </c>
-      <c r="AQ120">
-        <v>1.5</v>
-      </c>
-      <c r="AR120">
-        <v>1.39</v>
-      </c>
-      <c r="AS120">
-        <v>1.48</v>
-      </c>
-      <c r="AT120">
-        <v>2.87</v>
-      </c>
-      <c r="AU120">
-        <v>4</v>
-      </c>
-      <c r="AV120">
-        <v>5</v>
-      </c>
       <c r="AW120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
         <v>6</v>
       </c>
-      <c r="AZ120">
-        <v>9</v>
-      </c>
       <c r="BA120">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB120">
         <v>3</v>
       </c>
       <c r="BC120">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD120">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="BE120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BF120">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BG120">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BH120">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="BI120">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="BJ120">
-        <v>3.4</v>
+        <v>2.48</v>
       </c>
       <c r="BK120">
-        <v>1.51</v>
+        <v>2.38</v>
       </c>
       <c r="BL120">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="BM120">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="BN120">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="BO120">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="BP120">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -31102,7 +31102,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>6676090</v>
+        <v>6676089</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31117,190 +31117,190 @@
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H146" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N146">
         <v>2</v>
       </c>
       <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
         <v>86</v>
       </c>
-      <c r="P146" t="s">
-        <v>277</v>
-      </c>
       <c r="Q146">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="R146">
+        <v>2.25</v>
+      </c>
+      <c r="S146">
+        <v>5.5</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.14</v>
+      </c>
+      <c r="V146">
+        <v>2.57</v>
+      </c>
+      <c r="W146">
+        <v>1.47</v>
+      </c>
+      <c r="X146">
+        <v>6.15</v>
+      </c>
+      <c r="Y146">
+        <v>1.1</v>
+      </c>
+      <c r="Z146">
+        <v>1.53</v>
+      </c>
+      <c r="AA146">
+        <v>4.2</v>
+      </c>
+      <c r="AB146">
+        <v>5.75</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>10.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.21</v>
+      </c>
+      <c r="AF146">
+        <v>3.74</v>
+      </c>
+      <c r="AG146">
+        <v>1.8</v>
+      </c>
+      <c r="AH146">
+        <v>2</v>
+      </c>
+      <c r="AI146">
+        <v>1.91</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.09</v>
+      </c>
+      <c r="AL146">
+        <v>1.18</v>
+      </c>
+      <c r="AM146">
+        <v>2.68</v>
+      </c>
+      <c r="AN146">
+        <v>1.33</v>
+      </c>
+      <c r="AO146">
+        <v>1.67</v>
+      </c>
+      <c r="AP146">
+        <v>1.5</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.54</v>
+      </c>
+      <c r="AS146">
+        <v>1.28</v>
+      </c>
+      <c r="AT146">
+        <v>2.82</v>
+      </c>
+      <c r="AU146">
+        <v>9</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>11</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>20</v>
+      </c>
+      <c r="AZ146">
+        <v>3</v>
+      </c>
+      <c r="BA146">
+        <v>9</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>11</v>
+      </c>
+      <c r="BD146">
+        <v>1.29</v>
+      </c>
+      <c r="BE146">
+        <v>11</v>
+      </c>
+      <c r="BF146">
+        <v>4.2</v>
+      </c>
+      <c r="BG146">
+        <v>1.19</v>
+      </c>
+      <c r="BH146">
+        <v>4.4</v>
+      </c>
+      <c r="BI146">
+        <v>1.29</v>
+      </c>
+      <c r="BJ146">
+        <v>3.3</v>
+      </c>
+      <c r="BK146">
+        <v>2</v>
+      </c>
+      <c r="BL146">
         <v>2.3</v>
       </c>
-      <c r="S146">
-        <v>3</v>
-      </c>
-      <c r="T146">
-        <v>1.28</v>
-      </c>
-      <c r="U146">
-        <v>3.4</v>
-      </c>
-      <c r="V146">
-        <v>2.4</v>
-      </c>
-      <c r="W146">
-        <v>1.55</v>
-      </c>
-      <c r="X146">
-        <v>5.45</v>
-      </c>
-      <c r="Y146">
-        <v>1.12</v>
-      </c>
-      <c r="Z146">
-        <v>2.5</v>
-      </c>
-      <c r="AA146">
-        <v>4</v>
-      </c>
-      <c r="AB146">
-        <v>2.45</v>
-      </c>
-      <c r="AC146">
-        <v>1.02</v>
-      </c>
-      <c r="AD146">
-        <v>12</v>
-      </c>
-      <c r="AE146">
-        <v>1.18</v>
-      </c>
-      <c r="AF146">
-        <v>4.5</v>
-      </c>
-      <c r="AG146">
-        <v>1.62</v>
-      </c>
-      <c r="AH146">
-        <v>2.25</v>
-      </c>
-      <c r="AI146">
-        <v>1.57</v>
-      </c>
-      <c r="AJ146">
-        <v>2.25</v>
-      </c>
-      <c r="AK146">
-        <v>1.36</v>
-      </c>
-      <c r="AL146">
-        <v>1.2</v>
-      </c>
-      <c r="AM146">
-        <v>1.72</v>
-      </c>
-      <c r="AN146">
-        <v>1.63</v>
-      </c>
-      <c r="AO146">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP146">
-        <v>1.44</v>
-      </c>
-      <c r="AQ146">
-        <v>0.8</v>
-      </c>
-      <c r="AR146">
-        <v>1.19</v>
-      </c>
-      <c r="AS146">
-        <v>1.06</v>
-      </c>
-      <c r="AT146">
-        <v>2.25</v>
-      </c>
-      <c r="AU146">
-        <v>3</v>
-      </c>
-      <c r="AV146">
-        <v>6</v>
-      </c>
-      <c r="AW146">
-        <v>1</v>
-      </c>
-      <c r="AX146">
-        <v>8</v>
-      </c>
-      <c r="AY146">
-        <v>4</v>
-      </c>
-      <c r="AZ146">
-        <v>14</v>
-      </c>
-      <c r="BA146">
-        <v>6</v>
-      </c>
-      <c r="BB146">
-        <v>3</v>
-      </c>
-      <c r="BC146">
-        <v>9</v>
-      </c>
-      <c r="BD146">
-        <v>2.23</v>
-      </c>
-      <c r="BE146">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF146">
-        <v>1.84</v>
-      </c>
-      <c r="BG146">
-        <v>1.23</v>
-      </c>
-      <c r="BH146">
-        <v>3.56</v>
-      </c>
-      <c r="BI146">
-        <v>1.37</v>
-      </c>
-      <c r="BJ146">
-        <v>2.85</v>
-      </c>
-      <c r="BK146">
-        <v>1.75</v>
-      </c>
-      <c r="BL146">
-        <v>2.04</v>
-      </c>
       <c r="BM146">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="BN146">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="BO146">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="BP146">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31347,7 +31347,7 @@
         <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P147" t="s">
         <v>220</v>
@@ -31720,7 +31720,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>6676089</v>
+        <v>6676091</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31735,190 +31735,190 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O149" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="Q149">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R149">
         <v>2.25</v>
       </c>
       <c r="S149">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T149">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U149">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="V149">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="W149">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X149">
-        <v>6.15</v>
+        <v>5.8</v>
       </c>
       <c r="Y149">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z149">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="AA149">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB149">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="AC149">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD149">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE149">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF149">
-        <v>3.74</v>
+        <v>4.05</v>
       </c>
       <c r="AG149">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH149">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AI149">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AJ149">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK149">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="AL149">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AM149">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AP149">
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AR149">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="AS149">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT149">
-        <v>2.82</v>
+        <v>2.55</v>
       </c>
       <c r="AU149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW149">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY149">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ149">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB149">
         <v>2</v>
       </c>
       <c r="BC149">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD149">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BE149">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="BF149">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BG149">
         <v>1.19</v>
       </c>
       <c r="BH149">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BI149">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BJ149">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BK149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL149">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="BM149">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="BN149">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="BO149">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="BP149">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31926,7 +31926,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>6676091</v>
+        <v>6676090</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31941,190 +31941,190 @@
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H150" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150">
         <v>2</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P150" t="s">
         <v>278</v>
       </c>
       <c r="Q150">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R150">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T150">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="U150">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="V150">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="W150">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X150">
-        <v>5.8</v>
+        <v>5.45</v>
       </c>
       <c r="Y150">
         <v>1.12</v>
       </c>
       <c r="Z150">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AA150">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB150">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="AC150">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE150">
         <v>1.18</v>
       </c>
       <c r="AF150">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="AG150">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AH150">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AI150">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AJ150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AK150">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AL150">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM150">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AN150">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO150">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AR150">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AS150">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AT150">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AU150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV150">
         <v>6</v>
       </c>
       <c r="AW150">
+        <v>1</v>
+      </c>
+      <c r="AX150">
+        <v>8</v>
+      </c>
+      <c r="AY150">
         <v>4</v>
       </c>
-      <c r="AX150">
-        <v>4</v>
-      </c>
-      <c r="AY150">
-        <v>10</v>
-      </c>
       <c r="AZ150">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA150">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC150">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD150">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="BE150">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF150">
-        <v>4.1</v>
+        <v>1.84</v>
       </c>
       <c r="BG150">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="BH150">
-        <v>4.5</v>
+        <v>3.56</v>
       </c>
       <c r="BI150">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ150">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="BK150">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BL150">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="BM150">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="BN150">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="BO150">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="BP150">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -34345,13 +34345,13 @@
         <v>8</v>
       </c>
       <c r="BA161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB161">
         <v>3</v>
       </c>
       <c r="BC161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD161">
         <v>1.62</v>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['9', '45+3', '53']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -860,6 +863,9 @@
   </si>
   <si>
     <t>['33', '37', '76', '90+2']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1973,7 +1979,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2179,7 +2185,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2304,7 +2310,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2382,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ6">
         <v>0.9</v>
@@ -2716,7 +2722,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3206,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10">
         <v>1.1</v>
@@ -3334,7 +3340,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3415,7 +3421,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ11">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3540,7 +3546,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3952,7 +3958,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4030,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ14">
         <v>0.9</v>
@@ -4158,7 +4164,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4364,7 +4370,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4570,7 +4576,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4648,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -5188,7 +5194,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5269,7 +5275,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5600,7 +5606,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5681,7 +5687,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5806,7 +5812,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6090,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR24">
         <v>2.33</v>
@@ -6424,7 +6430,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7120,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ29">
         <v>1.7</v>
@@ -7660,7 +7666,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7866,7 +7872,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8150,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8278,7 +8284,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8356,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8484,7 +8490,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8565,7 +8571,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8690,7 +8696,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8896,7 +8902,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9102,7 +9108,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9389,7 +9395,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9514,7 +9520,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9595,7 +9601,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR41">
         <v>1.32</v>
@@ -10132,7 +10138,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10338,7 +10344,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11162,7 +11168,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11368,7 +11374,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11574,7 +11580,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11652,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11861,7 +11867,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12192,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12398,7 +12404,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12476,10 +12482,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ55">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12604,7 +12610,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12888,10 +12894,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13016,7 +13022,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13094,7 +13100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -13222,7 +13228,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13428,7 +13434,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13509,7 +13515,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13634,7 +13640,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14664,7 +14670,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14870,7 +14876,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15154,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ68">
         <v>0.9</v>
@@ -15282,7 +15288,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15360,10 +15366,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ69">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15488,7 +15494,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15900,7 +15906,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16106,7 +16112,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16187,7 +16193,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR73">
         <v>1.26</v>
@@ -16312,7 +16318,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16393,7 +16399,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR74">
         <v>1.68</v>
@@ -16518,7 +16524,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16802,7 +16808,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ76">
         <v>1.1</v>
@@ -16930,7 +16936,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17136,7 +17142,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17342,7 +17348,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18041,7 +18047,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR82">
         <v>1.55</v>
@@ -18244,7 +18250,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18372,7 +18378,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18659,7 +18665,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ85">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19196,7 +19202,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19402,7 +19408,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19480,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
         <v>1.7</v>
@@ -19608,7 +19614,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19814,7 +19820,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19892,7 +19898,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ91">
         <v>0.9</v>
@@ -20020,7 +20026,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20101,7 +20107,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ92">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR92">
         <v>1.66</v>
@@ -20226,7 +20232,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20307,7 +20313,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20432,7 +20438,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20844,7 +20850,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21128,7 +21134,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ97">
         <v>1.7</v>
@@ -21256,7 +21262,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21668,7 +21674,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21749,7 +21755,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR100">
         <v>1.36</v>
@@ -22158,7 +22164,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ102">
         <v>0.7</v>
@@ -22904,7 +22910,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23110,7 +23116,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23191,7 +23197,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ107">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23394,7 +23400,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ108">
         <v>1.1</v>
@@ -23522,7 +23528,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23806,7 +23812,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110">
         <v>0.7</v>
@@ -23934,7 +23940,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24221,7 +24227,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24346,7 +24352,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24424,7 +24430,7 @@
         <v>0.43</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113">
         <v>0.9</v>
@@ -24758,7 +24764,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24839,7 +24845,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR115">
         <v>1.03</v>
@@ -24964,7 +24970,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25170,7 +25176,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25376,7 +25382,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25582,7 +25588,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25788,7 +25794,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25994,7 +26000,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26278,7 +26284,7 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ122">
         <v>0.6</v>
@@ -26406,7 +26412,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26612,7 +26618,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26818,7 +26824,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27024,7 +27030,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27102,7 +27108,7 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ126">
         <v>1.67</v>
@@ -27230,7 +27236,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27436,7 +27442,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27517,7 +27523,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ128">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27642,7 +27648,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27926,7 +27932,7 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ130">
         <v>0.91</v>
@@ -28135,7 +28141,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28672,7 +28678,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28753,7 +28759,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ134">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -29084,7 +29090,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29290,7 +29296,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29780,7 +29786,7 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ139">
         <v>0.91</v>
@@ -30114,7 +30120,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30320,7 +30326,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30526,7 +30532,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30732,7 +30738,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31222,10 +31228,10 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR146">
         <v>1.54</v>
@@ -31350,7 +31356,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31762,7 +31768,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31968,7 +31974,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32049,7 +32055,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR150">
         <v>1.19</v>
@@ -32252,7 +32258,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ151">
         <v>1.2</v>
@@ -32667,7 +32673,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ153">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -32998,7 +33004,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33204,7 +33210,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33282,7 +33288,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ156">
         <v>1.1</v>
@@ -33822,7 +33828,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34028,7 +34034,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34234,7 +34240,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34391,6 +34397,624 @@
       </c>
       <c r="BP161">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6676109</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45380.59027777778</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>199</v>
+      </c>
+      <c r="P162" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q162">
+        <v>2.1</v>
+      </c>
+      <c r="R162">
+        <v>2.3</v>
+      </c>
+      <c r="S162">
+        <v>5</v>
+      </c>
+      <c r="T162">
+        <v>1.33</v>
+      </c>
+      <c r="U162">
+        <v>3.25</v>
+      </c>
+      <c r="V162">
+        <v>2.5</v>
+      </c>
+      <c r="W162">
+        <v>1.5</v>
+      </c>
+      <c r="X162">
+        <v>6</v>
+      </c>
+      <c r="Y162">
+        <v>1.11</v>
+      </c>
+      <c r="Z162">
+        <v>1.6</v>
+      </c>
+      <c r="AA162">
+        <v>4.5</v>
+      </c>
+      <c r="AB162">
+        <v>5</v>
+      </c>
+      <c r="AC162">
+        <v>1.02</v>
+      </c>
+      <c r="AD162">
+        <v>10</v>
+      </c>
+      <c r="AE162">
+        <v>1.22</v>
+      </c>
+      <c r="AF162">
+        <v>4</v>
+      </c>
+      <c r="AG162">
+        <v>1.73</v>
+      </c>
+      <c r="AH162">
+        <v>2.08</v>
+      </c>
+      <c r="AI162">
+        <v>1.83</v>
+      </c>
+      <c r="AJ162">
+        <v>1.83</v>
+      </c>
+      <c r="AK162">
+        <v>1.09</v>
+      </c>
+      <c r="AL162">
+        <v>1.16</v>
+      </c>
+      <c r="AM162">
+        <v>2.5</v>
+      </c>
+      <c r="AN162">
+        <v>1.5</v>
+      </c>
+      <c r="AO162">
+        <v>0.8</v>
+      </c>
+      <c r="AP162">
+        <v>1.64</v>
+      </c>
+      <c r="AQ162">
+        <v>0.73</v>
+      </c>
+      <c r="AR162">
+        <v>1.67</v>
+      </c>
+      <c r="AS162">
+        <v>1.14</v>
+      </c>
+      <c r="AT162">
+        <v>2.81</v>
+      </c>
+      <c r="AU162">
+        <v>7</v>
+      </c>
+      <c r="AV162">
+        <v>7</v>
+      </c>
+      <c r="AW162">
+        <v>2</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>9</v>
+      </c>
+      <c r="AZ162">
+        <v>10</v>
+      </c>
+      <c r="BA162">
+        <v>8</v>
+      </c>
+      <c r="BB162">
+        <v>10</v>
+      </c>
+      <c r="BC162">
+        <v>18</v>
+      </c>
+      <c r="BD162">
+        <v>1.28</v>
+      </c>
+      <c r="BE162">
+        <v>11</v>
+      </c>
+      <c r="BF162">
+        <v>4.3</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>1.33</v>
+      </c>
+      <c r="BJ162">
+        <v>2.93</v>
+      </c>
+      <c r="BK162">
+        <v>2.1</v>
+      </c>
+      <c r="BL162">
+        <v>2.22</v>
+      </c>
+      <c r="BM162">
+        <v>2.02</v>
+      </c>
+      <c r="BN162">
+        <v>1.76</v>
+      </c>
+      <c r="BO162">
+        <v>2.57</v>
+      </c>
+      <c r="BP162">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>6676107</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45380.59027777778</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>86</v>
+      </c>
+      <c r="P163" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q163">
+        <v>2.25</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>5</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.75</v>
+      </c>
+      <c r="V163">
+        <v>2.75</v>
+      </c>
+      <c r="W163">
+        <v>1.4</v>
+      </c>
+      <c r="X163">
+        <v>6.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.1</v>
+      </c>
+      <c r="Z163">
+        <v>1.7</v>
+      </c>
+      <c r="AA163">
+        <v>3.8</v>
+      </c>
+      <c r="AB163">
+        <v>5.25</v>
+      </c>
+      <c r="AC163">
+        <v>1.04</v>
+      </c>
+      <c r="AD163">
+        <v>8.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.28</v>
+      </c>
+      <c r="AF163">
+        <v>3.5</v>
+      </c>
+      <c r="AG163">
+        <v>1.95</v>
+      </c>
+      <c r="AH163">
+        <v>1.85</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.83</v>
+      </c>
+      <c r="AK163">
+        <v>1.09</v>
+      </c>
+      <c r="AL163">
+        <v>1.18</v>
+      </c>
+      <c r="AM163">
+        <v>2.4</v>
+      </c>
+      <c r="AN163">
+        <v>1.9</v>
+      </c>
+      <c r="AO163">
+        <v>1.5</v>
+      </c>
+      <c r="AP163">
+        <v>1.82</v>
+      </c>
+      <c r="AQ163">
+        <v>1.45</v>
+      </c>
+      <c r="AR163">
+        <v>1.57</v>
+      </c>
+      <c r="AS163">
+        <v>1.22</v>
+      </c>
+      <c r="AT163">
+        <v>2.79</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>1</v>
+      </c>
+      <c r="AY163">
+        <v>6</v>
+      </c>
+      <c r="AZ163">
+        <v>4</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>7</v>
+      </c>
+      <c r="BD163">
+        <v>1.37</v>
+      </c>
+      <c r="BE163">
+        <v>9.6</v>
+      </c>
+      <c r="BF163">
+        <v>3.68</v>
+      </c>
+      <c r="BG163">
+        <v>1.28</v>
+      </c>
+      <c r="BH163">
+        <v>3.2</v>
+      </c>
+      <c r="BI163">
+        <v>1.57</v>
+      </c>
+      <c r="BJ163">
+        <v>2.35</v>
+      </c>
+      <c r="BK163">
+        <v>1.96</v>
+      </c>
+      <c r="BL163">
+        <v>1.83</v>
+      </c>
+      <c r="BM163">
+        <v>2.51</v>
+      </c>
+      <c r="BN163">
+        <v>1.5</v>
+      </c>
+      <c r="BO163">
+        <v>3.34</v>
+      </c>
+      <c r="BP163">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6676106</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45380.6875</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>82</v>
+      </c>
+      <c r="H164" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>86</v>
+      </c>
+      <c r="P164" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q164">
+        <v>2.63</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>3.6</v>
+      </c>
+      <c r="T164">
+        <v>1.4</v>
+      </c>
+      <c r="U164">
+        <v>2.75</v>
+      </c>
+      <c r="V164">
+        <v>2.75</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>7</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>2.1</v>
+      </c>
+      <c r="AA164">
+        <v>3.6</v>
+      </c>
+      <c r="AB164">
+        <v>3.3</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>9</v>
+      </c>
+      <c r="AE164">
+        <v>1.28</v>
+      </c>
+      <c r="AF164">
+        <v>3.5</v>
+      </c>
+      <c r="AG164">
+        <v>1.85</v>
+      </c>
+      <c r="AH164">
+        <v>1.95</v>
+      </c>
+      <c r="AI164">
+        <v>1.73</v>
+      </c>
+      <c r="AJ164">
+        <v>2</v>
+      </c>
+      <c r="AK164">
+        <v>1.35</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.68</v>
+      </c>
+      <c r="AN164">
+        <v>2.3</v>
+      </c>
+      <c r="AO164">
+        <v>2.5</v>
+      </c>
+      <c r="AP164">
+        <v>2.09</v>
+      </c>
+      <c r="AQ164">
+        <v>2.55</v>
+      </c>
+      <c r="AR164">
+        <v>1.79</v>
+      </c>
+      <c r="AS164">
+        <v>1.58</v>
+      </c>
+      <c r="AT164">
+        <v>3.37</v>
+      </c>
+      <c r="AU164">
+        <v>2</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>6</v>
+      </c>
+      <c r="AZ164">
+        <v>3</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>6</v>
+      </c>
+      <c r="BC164">
+        <v>11</v>
+      </c>
+      <c r="BD164">
+        <v>1.64</v>
+      </c>
+      <c r="BE164">
+        <v>8.6</v>
+      </c>
+      <c r="BF164">
+        <v>2.64</v>
+      </c>
+      <c r="BG164">
+        <v>1.28</v>
+      </c>
+      <c r="BH164">
+        <v>3.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.57</v>
+      </c>
+      <c r="BJ164">
+        <v>2.34</v>
+      </c>
+      <c r="BK164">
+        <v>1.96</v>
+      </c>
+      <c r="BL164">
+        <v>1.84</v>
+      </c>
+      <c r="BM164">
+        <v>2.5</v>
+      </c>
+      <c r="BN164">
+        <v>1.51</v>
+      </c>
+      <c r="BO164">
+        <v>3.34</v>
+      </c>
+      <c r="BP164">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>['9', '45+3', '53']</t>
+  </si>
+  <si>
+    <t>['8', '51', '75', '82']</t>
+  </si>
+  <si>
+    <t>['19', '44', '78']</t>
   </si>
   <si>
     <t>['14', '37']</t>
@@ -1227,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1976,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4">
         <v>1.45</v>
@@ -2310,7 +2316,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2391,7 +2397,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2722,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3340,7 +3346,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3418,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ11">
         <v>2.55</v>
@@ -3546,7 +3552,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3958,7 +3964,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4164,7 +4170,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4245,7 +4251,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ15">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4370,7 +4376,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4576,7 +4582,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4863,7 +4869,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5194,7 +5200,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5478,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21">
         <v>0.7</v>
@@ -5606,7 +5612,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5812,7 +5818,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6305,7 +6311,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ25">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6430,7 +6436,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7538,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ31">
         <v>0.9</v>
@@ -7666,7 +7672,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7872,7 +7878,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8284,7 +8290,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8490,7 +8496,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8696,7 +8702,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8777,7 +8783,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8902,7 +8908,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9108,7 +9114,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9186,10 +9192,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.23</v>
@@ -9392,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40">
         <v>2.55</v>
@@ -9520,7 +9526,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10138,7 +10144,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10344,7 +10350,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11168,7 +11174,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11374,7 +11380,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11580,7 +11586,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11864,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -12070,10 +12076,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ53">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR53">
         <v>1.59</v>
@@ -12198,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12404,7 +12410,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12610,7 +12616,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12691,7 +12697,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13022,7 +13028,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13228,7 +13234,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13434,7 +13440,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13640,7 +13646,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14670,7 +14676,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14876,7 +14882,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14954,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ67">
         <v>0.91</v>
@@ -15163,7 +15169,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ68">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15288,7 +15294,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15494,7 +15500,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15575,7 +15581,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ70">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.57</v>
@@ -15906,7 +15912,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15984,7 +15990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16112,7 +16118,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16318,7 +16324,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16524,7 +16530,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16936,7 +16942,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17142,7 +17148,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17348,7 +17354,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17426,7 +17432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ79">
         <v>0.6</v>
@@ -17635,7 +17641,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ80">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>2.06</v>
@@ -18378,7 +18384,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18456,7 +18462,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ84">
         <v>0.91</v>
@@ -19077,7 +19083,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
         <v>1.39</v>
@@ -19202,7 +19208,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19408,7 +19414,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19614,7 +19620,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19692,7 +19698,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -19820,7 +19826,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20026,7 +20032,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20232,7 +20238,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20438,7 +20444,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20516,7 +20522,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ94">
         <v>0.6</v>
@@ -20850,7 +20856,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20931,7 +20937,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21262,7 +21268,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21343,7 +21349,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21674,7 +21680,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22910,7 +22916,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23116,7 +23122,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23528,7 +23534,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23940,7 +23946,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24352,7 +24358,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24433,7 +24439,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ113">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24764,7 +24770,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24970,7 +24976,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25048,7 +25054,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ116">
         <v>1.2</v>
@@ -25176,7 +25182,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25257,7 +25263,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ117">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25382,7 +25388,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25460,7 +25466,7 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ118">
         <v>1.1</v>
@@ -25588,7 +25594,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25794,7 +25800,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26000,7 +26006,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26412,7 +26418,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26618,7 +26624,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26824,7 +26830,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27030,7 +27036,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27236,7 +27242,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27314,7 +27320,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ127">
         <v>1.1</v>
@@ -27442,7 +27448,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27648,7 +27654,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27729,7 +27735,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28347,7 +28353,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ132">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR132">
         <v>1.53</v>
@@ -28550,7 +28556,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ133">
         <v>1.7</v>
@@ -28678,7 +28684,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29090,7 +29096,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29296,7 +29302,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30120,7 +30126,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30326,7 +30332,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30407,7 +30413,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30532,7 +30538,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30738,7 +30744,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30816,7 +30822,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ144">
         <v>1.1</v>
@@ -31356,7 +31362,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31434,7 +31440,7 @@
         <v>1.88</v>
       </c>
       <c r="AP147">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ147">
         <v>1.67</v>
@@ -31768,7 +31774,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31849,7 +31855,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR149">
         <v>1.3</v>
@@ -31974,7 +31980,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -33004,7 +33010,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33210,7 +33216,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33828,7 +33834,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34034,7 +34040,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34240,7 +34246,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34446,7 +34452,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35015,6 +35021,418 @@
       </c>
       <c r="BP164">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>6676110</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45381.4375</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s">
+        <v>85</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>200</v>
+      </c>
+      <c r="P165" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q165">
+        <v>3.2</v>
+      </c>
+      <c r="R165">
+        <v>2.2</v>
+      </c>
+      <c r="S165">
+        <v>3</v>
+      </c>
+      <c r="T165">
+        <v>1.36</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>6.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.1</v>
+      </c>
+      <c r="Z165">
+        <v>2.7</v>
+      </c>
+      <c r="AA165">
+        <v>3.6</v>
+      </c>
+      <c r="AB165">
+        <v>2.38</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>9.9</v>
+      </c>
+      <c r="AE165">
+        <v>1.25</v>
+      </c>
+      <c r="AF165">
+        <v>3.75</v>
+      </c>
+      <c r="AG165">
+        <v>1.8</v>
+      </c>
+      <c r="AH165">
+        <v>2</v>
+      </c>
+      <c r="AI165">
+        <v>1.67</v>
+      </c>
+      <c r="AJ165">
+        <v>2.1</v>
+      </c>
+      <c r="AK165">
+        <v>1.57</v>
+      </c>
+      <c r="AL165">
+        <v>1.25</v>
+      </c>
+      <c r="AM165">
+        <v>1.4</v>
+      </c>
+      <c r="AN165">
+        <v>0.6</v>
+      </c>
+      <c r="AO165">
+        <v>0.9</v>
+      </c>
+      <c r="AP165">
+        <v>0.82</v>
+      </c>
+      <c r="AQ165">
+        <v>0.82</v>
+      </c>
+      <c r="AR165">
+        <v>1.35</v>
+      </c>
+      <c r="AS165">
+        <v>1.27</v>
+      </c>
+      <c r="AT165">
+        <v>2.62</v>
+      </c>
+      <c r="AU165">
+        <v>9</v>
+      </c>
+      <c r="AV165">
+        <v>7</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>2</v>
+      </c>
+      <c r="AY165">
+        <v>14</v>
+      </c>
+      <c r="AZ165">
+        <v>9</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>9</v>
+      </c>
+      <c r="BC165">
+        <v>14</v>
+      </c>
+      <c r="BD165">
+        <v>1.93</v>
+      </c>
+      <c r="BE165">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF165">
+        <v>2.11</v>
+      </c>
+      <c r="BG165">
+        <v>1.23</v>
+      </c>
+      <c r="BH165">
+        <v>3.56</v>
+      </c>
+      <c r="BI165">
+        <v>1.48</v>
+      </c>
+      <c r="BJ165">
+        <v>2.56</v>
+      </c>
+      <c r="BK165">
+        <v>1.81</v>
+      </c>
+      <c r="BL165">
+        <v>1.98</v>
+      </c>
+      <c r="BM165">
+        <v>2.26</v>
+      </c>
+      <c r="BN165">
+        <v>1.61</v>
+      </c>
+      <c r="BO165">
+        <v>3.04</v>
+      </c>
+      <c r="BP165">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6676111</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45381.4375</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166" t="s">
+        <v>71</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>201</v>
+      </c>
+      <c r="P166" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q166">
+        <v>2.63</v>
+      </c>
+      <c r="R166">
+        <v>2.25</v>
+      </c>
+      <c r="S166">
+        <v>3.5</v>
+      </c>
+      <c r="T166">
+        <v>1.33</v>
+      </c>
+      <c r="U166">
+        <v>3.25</v>
+      </c>
+      <c r="V166">
+        <v>2.5</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
+      </c>
+      <c r="Y166">
+        <v>1.11</v>
+      </c>
+      <c r="Z166">
+        <v>2.15</v>
+      </c>
+      <c r="AA166">
+        <v>3.75</v>
+      </c>
+      <c r="AB166">
+        <v>3.1</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>10.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.22</v>
+      </c>
+      <c r="AF166">
+        <v>4</v>
+      </c>
+      <c r="AG166">
+        <v>1.73</v>
+      </c>
+      <c r="AH166">
+        <v>2.08</v>
+      </c>
+      <c r="AI166">
+        <v>1.62</v>
+      </c>
+      <c r="AJ166">
+        <v>2.2</v>
+      </c>
+      <c r="AK166">
+        <v>1.36</v>
+      </c>
+      <c r="AL166">
+        <v>1.22</v>
+      </c>
+      <c r="AM166">
+        <v>1.7</v>
+      </c>
+      <c r="AN166">
+        <v>1.8</v>
+      </c>
+      <c r="AO166">
+        <v>2.2</v>
+      </c>
+      <c r="AP166">
+        <v>1.91</v>
+      </c>
+      <c r="AQ166">
+        <v>2</v>
+      </c>
+      <c r="AR166">
+        <v>1.45</v>
+      </c>
+      <c r="AS166">
+        <v>1.23</v>
+      </c>
+      <c r="AT166">
+        <v>2.68</v>
+      </c>
+      <c r="AU166">
+        <v>7</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>2</v>
+      </c>
+      <c r="AX166">
+        <v>5</v>
+      </c>
+      <c r="AY166">
+        <v>9</v>
+      </c>
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
+        <v>3</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>6</v>
+      </c>
+      <c r="BD166">
+        <v>1.87</v>
+      </c>
+      <c r="BE166">
+        <v>8.9</v>
+      </c>
+      <c r="BF166">
+        <v>2.18</v>
+      </c>
+      <c r="BG166">
+        <v>1.2</v>
+      </c>
+      <c r="BH166">
+        <v>3.9</v>
+      </c>
+      <c r="BI166">
+        <v>1.39</v>
+      </c>
+      <c r="BJ166">
+        <v>2.67</v>
+      </c>
+      <c r="BK166">
+        <v>2.25</v>
+      </c>
+      <c r="BL166">
+        <v>2.05</v>
+      </c>
+      <c r="BM166">
+        <v>2.18</v>
+      </c>
+      <c r="BN166">
+        <v>1.66</v>
+      </c>
+      <c r="BO166">
+        <v>2.84</v>
+      </c>
+      <c r="BP166">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,15 @@
     <t>['19', '44', '78']</t>
   </si>
   <si>
+    <t>['13', '43', '45+1']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['5', '36', '85', '89']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -872,6 +881,12 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['7', '56']</t>
+  </si>
+  <si>
+    <t>['33', '58', '78']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ2">
         <v>0.7</v>
@@ -1779,7 +1794,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2316,7 +2331,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2728,7 +2743,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2806,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ8">
         <v>1.7</v>
@@ -3346,7 +3361,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3552,7 +3567,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3630,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
         <v>1.7</v>
@@ -3839,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3964,7 +3979,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4045,7 +4060,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ14">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4170,7 +4185,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4376,7 +4391,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4582,7 +4597,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5072,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -5200,7 +5215,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5612,7 +5627,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5818,7 +5833,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5896,10 +5911,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -6308,7 +6323,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6436,7 +6451,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6723,7 +6738,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7547,7 +7562,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR31">
         <v>0.9399999999999999</v>
@@ -7672,7 +7687,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7878,7 +7893,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8165,7 +8180,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8290,7 +8305,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8371,7 +8386,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8496,7 +8511,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8702,7 +8717,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8780,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>0.82</v>
@@ -8908,7 +8923,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -8986,7 +9001,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -9114,7 +9129,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9526,7 +9541,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9604,7 +9619,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ41">
         <v>1.45</v>
@@ -10144,7 +10159,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10350,7 +10365,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11174,7 +11189,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11380,7 +11395,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11461,7 +11476,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11586,7 +11601,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11667,7 +11682,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -12204,7 +12219,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12282,7 +12297,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
         <v>0.91</v>
@@ -12410,7 +12425,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12616,7 +12631,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12694,7 +12709,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -13028,7 +13043,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13109,7 +13124,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13234,7 +13249,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13440,7 +13455,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13518,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
         <v>1.45</v>
@@ -13646,7 +13661,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14676,7 +14691,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14754,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ66">
         <v>1.7</v>
@@ -14882,7 +14897,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15294,7 +15309,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15500,7 +15515,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15787,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR71">
         <v>1.04</v>
@@ -15912,7 +15927,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15993,7 +16008,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR72">
         <v>1.55</v>
@@ -16118,7 +16133,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16196,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ73">
         <v>0.73</v>
@@ -16324,7 +16339,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16530,7 +16545,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16608,7 +16623,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75">
         <v>1.7</v>
@@ -16942,7 +16957,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17148,7 +17163,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17229,7 +17244,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17354,7 +17369,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17844,10 +17859,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ81">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18259,7 +18274,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18384,7 +18399,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18874,7 +18889,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ86">
         <v>1.1</v>
@@ -19208,7 +19223,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19414,7 +19429,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19620,7 +19635,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19701,7 +19716,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19826,7 +19841,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19907,7 +19922,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ91">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR91">
         <v>1.52</v>
@@ -20032,7 +20047,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20238,7 +20253,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20444,7 +20459,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20856,7 +20871,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20934,7 +20949,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -21268,7 +21283,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21680,7 +21695,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21758,7 +21773,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ100">
         <v>0.73</v>
@@ -21967,7 +21982,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22791,7 +22806,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR105">
         <v>1.18</v>
@@ -22916,7 +22931,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -22994,7 +23009,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ106">
         <v>0.6</v>
@@ -23122,7 +23137,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23534,7 +23549,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23946,7 +23961,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24027,7 +24042,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -24230,7 +24245,7 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ112">
         <v>1.45</v>
@@ -24358,7 +24373,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24770,7 +24785,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24976,7 +24991,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25182,7 +25197,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25388,7 +25403,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25594,7 +25609,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25675,7 +25690,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ119">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25800,7 +25815,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25878,7 +25893,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ120">
         <v>1.7</v>
@@ -26006,7 +26021,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26084,10 +26099,10 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26418,7 +26433,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26624,7 +26639,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26702,7 +26717,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ124">
         <v>1.2</v>
@@ -26830,7 +26845,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27036,7 +27051,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27117,7 +27132,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -27242,7 +27257,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27448,7 +27463,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27654,7 +27669,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28350,7 +28365,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ132">
         <v>0.82</v>
@@ -28684,7 +28699,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29096,7 +29111,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29174,10 +29189,10 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29302,7 +29317,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30126,7 +30141,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30207,7 +30222,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR141">
         <v>1.9</v>
@@ -30332,7 +30347,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30538,7 +30553,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30616,7 +30631,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ143">
         <v>1.7</v>
@@ -30744,7 +30759,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31031,7 +31046,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ145">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR145">
         <v>1.41</v>
@@ -31362,7 +31377,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31443,7 +31458,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ147">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31774,7 +31789,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31980,7 +31995,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32058,7 +32073,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ150">
         <v>0.73</v>
@@ -32676,7 +32691,7 @@
         <v>2.44</v>
       </c>
       <c r="AP153">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ153">
         <v>2.55</v>
@@ -33010,7 +33025,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33091,7 +33106,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ155">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR155">
         <v>1.39</v>
@@ -33216,7 +33231,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33834,7 +33849,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34040,7 +34055,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34246,7 +34261,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34452,7 +34467,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35433,6 +35448,624 @@
       </c>
       <c r="BP166">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6676105</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45382.22916666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>80</v>
+      </c>
+      <c r="H167" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>4</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>5</v>
+      </c>
+      <c r="O167" t="s">
+        <v>202</v>
+      </c>
+      <c r="P167" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q167">
+        <v>3.75</v>
+      </c>
+      <c r="R167">
+        <v>2.2</v>
+      </c>
+      <c r="S167">
+        <v>2.6</v>
+      </c>
+      <c r="T167">
+        <v>1.33</v>
+      </c>
+      <c r="U167">
+        <v>3.25</v>
+      </c>
+      <c r="V167">
+        <v>2.63</v>
+      </c>
+      <c r="W167">
+        <v>1.44</v>
+      </c>
+      <c r="X167">
+        <v>6</v>
+      </c>
+      <c r="Y167">
+        <v>1.11</v>
+      </c>
+      <c r="Z167">
+        <v>2.9</v>
+      </c>
+      <c r="AA167">
+        <v>3.5</v>
+      </c>
+      <c r="AB167">
+        <v>2.1</v>
+      </c>
+      <c r="AC167">
+        <v>1.04</v>
+      </c>
+      <c r="AD167">
+        <v>10.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.21</v>
+      </c>
+      <c r="AF167">
+        <v>3.74</v>
+      </c>
+      <c r="AG167">
+        <v>1.74</v>
+      </c>
+      <c r="AH167">
+        <v>1.9</v>
+      </c>
+      <c r="AI167">
+        <v>1.73</v>
+      </c>
+      <c r="AJ167">
+        <v>2</v>
+      </c>
+      <c r="AK167">
+        <v>1.7</v>
+      </c>
+      <c r="AL167">
+        <v>1.22</v>
+      </c>
+      <c r="AM167">
+        <v>1.35</v>
+      </c>
+      <c r="AN167">
+        <v>1.44</v>
+      </c>
+      <c r="AO167">
+        <v>1.5</v>
+      </c>
+      <c r="AP167">
+        <v>1.6</v>
+      </c>
+      <c r="AQ167">
+        <v>1.36</v>
+      </c>
+      <c r="AR167">
+        <v>1.18</v>
+      </c>
+      <c r="AS167">
+        <v>1.5</v>
+      </c>
+      <c r="AT167">
+        <v>2.68</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>9</v>
+      </c>
+      <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>9</v>
+      </c>
+      <c r="AY167">
+        <v>6</v>
+      </c>
+      <c r="AZ167">
+        <v>18</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>2.53</v>
+      </c>
+      <c r="BE167">
+        <v>9.1</v>
+      </c>
+      <c r="BF167">
+        <v>1.67</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>1.35</v>
+      </c>
+      <c r="BJ167">
+        <v>2.84</v>
+      </c>
+      <c r="BK167">
+        <v>2.1</v>
+      </c>
+      <c r="BL167">
+        <v>2.14</v>
+      </c>
+      <c r="BM167">
+        <v>2.06</v>
+      </c>
+      <c r="BN167">
+        <v>1.73</v>
+      </c>
+      <c r="BO167">
+        <v>2.67</v>
+      </c>
+      <c r="BP167">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6676104</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45382.22916666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>203</v>
+      </c>
+      <c r="P168" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q168">
+        <v>4.33</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>2.3</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>3.25</v>
+      </c>
+      <c r="V168">
+        <v>2.63</v>
+      </c>
+      <c r="W168">
+        <v>1.44</v>
+      </c>
+      <c r="X168">
+        <v>6</v>
+      </c>
+      <c r="Y168">
+        <v>1.11</v>
+      </c>
+      <c r="Z168">
+        <v>4</v>
+      </c>
+      <c r="AA168">
+        <v>3.7</v>
+      </c>
+      <c r="AB168">
+        <v>1.7</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>10.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.25</v>
+      </c>
+      <c r="AF168">
+        <v>3.75</v>
+      </c>
+      <c r="AG168">
+        <v>1.7</v>
+      </c>
+      <c r="AH168">
+        <v>1.97</v>
+      </c>
+      <c r="AI168">
+        <v>1.73</v>
+      </c>
+      <c r="AJ168">
+        <v>2</v>
+      </c>
+      <c r="AK168">
+        <v>1.9</v>
+      </c>
+      <c r="AL168">
+        <v>1.2</v>
+      </c>
+      <c r="AM168">
+        <v>1.2</v>
+      </c>
+      <c r="AN168">
+        <v>0.7</v>
+      </c>
+      <c r="AO168">
+        <v>0.9</v>
+      </c>
+      <c r="AP168">
+        <v>0.64</v>
+      </c>
+      <c r="AQ168">
+        <v>1.09</v>
+      </c>
+      <c r="AR168">
+        <v>1.17</v>
+      </c>
+      <c r="AS168">
+        <v>1.49</v>
+      </c>
+      <c r="AT168">
+        <v>2.66</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>7</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>7</v>
+      </c>
+      <c r="BD168">
+        <v>2.84</v>
+      </c>
+      <c r="BE168">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF168">
+        <v>1.55</v>
+      </c>
+      <c r="BG168">
+        <v>1.2</v>
+      </c>
+      <c r="BH168">
+        <v>3.9</v>
+      </c>
+      <c r="BI168">
+        <v>1.39</v>
+      </c>
+      <c r="BJ168">
+        <v>2.67</v>
+      </c>
+      <c r="BK168">
+        <v>2</v>
+      </c>
+      <c r="BL168">
+        <v>2.05</v>
+      </c>
+      <c r="BM168">
+        <v>2.17</v>
+      </c>
+      <c r="BN168">
+        <v>1.67</v>
+      </c>
+      <c r="BO168">
+        <v>2.79</v>
+      </c>
+      <c r="BP168">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6676103</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45382.3125</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s">
+        <v>77</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>204</v>
+      </c>
+      <c r="P169" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q169">
+        <v>2.88</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>3.25</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.63</v>
+      </c>
+      <c r="W169">
+        <v>1.44</v>
+      </c>
+      <c r="X169">
+        <v>6.5</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>2.4</v>
+      </c>
+      <c r="AA169">
+        <v>3.4</v>
+      </c>
+      <c r="AB169">
+        <v>2.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.05</v>
+      </c>
+      <c r="AD169">
+        <v>9</v>
+      </c>
+      <c r="AE169">
+        <v>1.22</v>
+      </c>
+      <c r="AF169">
+        <v>4</v>
+      </c>
+      <c r="AG169">
+        <v>1.75</v>
+      </c>
+      <c r="AH169">
+        <v>1.9</v>
+      </c>
+      <c r="AI169">
+        <v>1.73</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>1.44</v>
+      </c>
+      <c r="AL169">
+        <v>1.3</v>
+      </c>
+      <c r="AM169">
+        <v>1.5</v>
+      </c>
+      <c r="AN169">
+        <v>1.3</v>
+      </c>
+      <c r="AO169">
+        <v>1.67</v>
+      </c>
+      <c r="AP169">
+        <v>1.45</v>
+      </c>
+      <c r="AQ169">
+        <v>1.5</v>
+      </c>
+      <c r="AR169">
+        <v>1.51</v>
+      </c>
+      <c r="AS169">
+        <v>1.5</v>
+      </c>
+      <c r="AT169">
+        <v>3.01</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>12</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>8</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>9</v>
+      </c>
+      <c r="BD169">
+        <v>1.84</v>
+      </c>
+      <c r="BE169">
+        <v>9.1</v>
+      </c>
+      <c r="BF169">
+        <v>2.21</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>1.27</v>
+      </c>
+      <c r="BJ169">
+        <v>3.28</v>
+      </c>
+      <c r="BK169">
+        <v>1.55</v>
+      </c>
+      <c r="BL169">
+        <v>2.4</v>
+      </c>
+      <c r="BM169">
+        <v>1.89</v>
+      </c>
+      <c r="BN169">
+        <v>1.91</v>
+      </c>
+      <c r="BO169">
+        <v>2.36</v>
+      </c>
+      <c r="BP169">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,21 @@
     <t>['5', '36', '85', '89']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['6', '19', '26', '31', '38', '62', '68']</t>
+  </si>
+  <si>
+    <t>['48', '55']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['68', '89', '90']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -790,9 +805,6 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['37']</t>
-  </si>
-  <si>
     <t>['6', '64', '89']</t>
   </si>
   <si>
@@ -887,6 +899,24 @@
   </si>
   <si>
     <t>['33', '58', '78']</t>
+  </si>
+  <si>
+    <t>['11', '73']</t>
+  </si>
+  <si>
+    <t>['54', '88', '89']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['18', '31', '86']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['16', '45+2', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1618,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ2">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1791,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ3">
         <v>1.36</v>
@@ -2203,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ5">
         <v>0.73</v>
@@ -2331,7 +2361,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2743,7 +2773,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2824,7 +2854,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3030,7 +3060,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3236,7 +3266,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3361,7 +3391,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3567,7 +3597,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3645,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3851,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3979,7 +4009,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4185,7 +4215,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4263,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4391,7 +4421,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4469,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ16">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4597,7 +4627,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4678,7 +4708,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ17">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -5087,10 +5117,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR19">
         <v>1.61</v>
@@ -5215,7 +5245,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5293,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20">
         <v>2.55</v>
@@ -5502,7 +5532,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ21">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5627,7 +5657,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5705,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22">
         <v>1.45</v>
@@ -5833,7 +5863,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6451,7 +6481,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6529,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ26">
         <v>0.91</v>
@@ -6735,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -6944,7 +6974,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7150,7 +7180,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ29">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR29">
         <v>1.62</v>
@@ -7353,10 +7383,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7687,7 +7717,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7765,10 +7795,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ32">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7893,7 +7923,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7971,10 +8001,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ33">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8305,7 +8335,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8511,7 +8541,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8717,7 +8747,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8795,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
         <v>0.82</v>
@@ -8923,7 +8953,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9004,7 +9034,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>1.36</v>
@@ -9129,7 +9159,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9541,7 +9571,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9825,7 +9855,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42">
         <v>0.91</v>
@@ -10031,10 +10061,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ43">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -10159,7 +10189,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10240,7 +10270,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR44">
         <v>1.46</v>
@@ -10365,7 +10395,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10446,7 +10476,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -10649,10 +10679,10 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR46">
         <v>2.25</v>
@@ -10855,10 +10885,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11061,10 +11091,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ48">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11189,7 +11219,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11267,10 +11297,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ49">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11395,7 +11425,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11601,7 +11631,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12219,7 +12249,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12425,7 +12455,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12631,7 +12661,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13043,7 +13073,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13249,7 +13279,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13327,10 +13357,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.3</v>
@@ -13455,7 +13485,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13533,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ60">
         <v>1.45</v>
@@ -13661,7 +13691,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13742,7 +13772,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ61">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -13945,10 +13975,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ62">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14151,10 +14181,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ63">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14357,10 +14387,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14563,10 +14593,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR65">
         <v>1.61</v>
@@ -14691,7 +14721,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14772,7 +14802,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ66">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -14897,7 +14927,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15309,7 +15339,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15515,7 +15545,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15799,7 +15829,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ71">
         <v>1.09</v>
@@ -15927,7 +15957,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16133,7 +16163,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16339,7 +16369,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16417,7 +16447,7 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ74">
         <v>1.45</v>
@@ -16545,7 +16575,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16623,10 +16653,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16832,7 +16862,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ76">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -16957,7 +16987,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17035,10 +17065,10 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17163,7 +17193,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17241,7 +17271,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17369,7 +17399,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17450,7 +17480,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ79">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR79">
         <v>1.11</v>
@@ -17653,7 +17683,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -18399,7 +18429,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18892,7 +18922,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ86">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19095,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
         <v>0.82</v>
@@ -19223,7 +19253,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19301,10 +19331,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19429,7 +19459,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19510,7 +19540,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19635,7 +19665,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19841,7 +19871,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20047,7 +20077,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20125,7 +20155,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ92">
         <v>2.55</v>
@@ -20253,7 +20283,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20331,7 +20361,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ93">
         <v>1.45</v>
@@ -20459,7 +20489,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20540,7 +20570,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ94">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -20743,10 +20773,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ95">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20871,7 +20901,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20949,7 +20979,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -21158,7 +21188,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ97">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR97">
         <v>1.64</v>
@@ -21283,7 +21313,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21570,7 +21600,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ99">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.57</v>
@@ -21695,7 +21725,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21979,7 +22009,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ101">
         <v>1.36</v>
@@ -22188,7 +22218,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ102">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22391,10 +22421,10 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ103">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22597,7 +22627,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ104">
         <v>0.91</v>
@@ -22803,7 +22833,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105">
         <v>1.09</v>
@@ -22931,7 +22961,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23009,10 +23039,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR106">
         <v>1.24</v>
@@ -23137,7 +23167,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="Q107">
         <v>2.5</v>
@@ -23215,7 +23245,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ107">
         <v>0.73</v>
@@ -23424,7 +23454,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ108">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23549,7 +23579,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23627,10 +23657,10 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR109">
         <v>1.28</v>
@@ -23836,7 +23866,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -23961,7 +23991,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24039,7 +24069,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24373,7 +24403,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24785,7 +24815,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24863,7 +24893,7 @@
         <v>2.29</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ115">
         <v>2.55</v>
@@ -24991,7 +25021,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25072,7 +25102,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ116">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25197,7 +25227,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25403,7 +25433,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25484,7 +25514,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ118">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25609,7 +25639,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25687,7 +25717,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ119">
         <v>1.36</v>
@@ -25815,7 +25845,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25896,7 +25926,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ120">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26021,7 +26051,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26099,7 +26129,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ121">
         <v>1.09</v>
@@ -26308,7 +26338,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26433,7 +26463,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26511,10 +26541,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26639,7 +26669,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26720,7 +26750,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ124">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -26845,7 +26875,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26923,10 +26953,10 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27051,7 +27081,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27257,7 +27287,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27338,7 +27368,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ127">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27463,7 +27493,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27541,7 +27571,7 @@
         <v>2.38</v>
       </c>
       <c r="AP128">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ128">
         <v>2.55</v>
@@ -27669,7 +27699,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27747,7 +27777,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
         <v>2</v>
@@ -28574,7 +28604,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ133">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28699,7 +28729,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28777,7 +28807,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ134">
         <v>0.73</v>
@@ -28983,10 +29013,10 @@
         <v>0.57</v>
       </c>
       <c r="AP135">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ135">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29111,7 +29141,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29317,7 +29347,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29398,7 +29428,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ137">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29601,10 +29631,10 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ138">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -30016,7 +30046,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ140">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30141,7 +30171,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30219,7 +30249,7 @@
         <v>1.56</v>
       </c>
       <c r="AP141">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ141">
         <v>1.36</v>
@@ -30347,7 +30377,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30425,7 +30455,7 @@
         <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ142">
         <v>2</v>
@@ -30553,7 +30583,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30634,7 +30664,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ143">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR143">
         <v>1.5</v>
@@ -30759,7 +30789,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30840,7 +30870,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ144">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -31043,7 +31073,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ145">
         <v>1.09</v>
@@ -31377,7 +31407,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31661,10 +31691,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ148">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31789,7 +31819,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31867,7 +31897,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ149">
         <v>0.82</v>
@@ -31995,7 +32025,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32073,7 +32103,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ150">
         <v>0.73</v>
@@ -32282,7 +32312,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR151">
         <v>1.62</v>
@@ -32488,7 +32518,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ152">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR152">
         <v>1.58</v>
@@ -32897,10 +32927,10 @@
         <v>1.89</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ154">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR154">
         <v>1.36</v>
@@ -33025,7 +33055,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33103,7 +33133,7 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AQ155">
         <v>1.09</v>
@@ -33231,7 +33261,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33312,7 +33342,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ156">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33515,10 +33545,10 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ157">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.88</v>
@@ -33721,7 +33751,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ158">
         <v>0.91</v>
@@ -33849,7 +33879,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -33930,7 +33960,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ159">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR159">
         <v>1.59</v>
@@ -34055,7 +34085,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34133,10 +34163,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ160">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34261,7 +34291,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34339,10 +34369,10 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34467,7 +34497,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35497,7 +35527,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35575,7 +35605,7 @@
         <v>1.5</v>
       </c>
       <c r="AP167">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ167">
         <v>1.36</v>
@@ -35703,7 +35733,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36066,6 +36096,1448 @@
       </c>
       <c r="BP169">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>6676114</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45387.54861111111</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H170" t="s">
+        <v>70</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>205</v>
+      </c>
+      <c r="P170" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q170">
+        <v>4.33</v>
+      </c>
+      <c r="R170">
+        <v>2.5</v>
+      </c>
+      <c r="S170">
+        <v>2.1</v>
+      </c>
+      <c r="T170">
+        <v>1.25</v>
+      </c>
+      <c r="U170">
+        <v>3.45</v>
+      </c>
+      <c r="V170">
+        <v>2.25</v>
+      </c>
+      <c r="W170">
+        <v>1.57</v>
+      </c>
+      <c r="X170">
+        <v>5.1</v>
+      </c>
+      <c r="Y170">
+        <v>1.15</v>
+      </c>
+      <c r="Z170">
+        <v>4.75</v>
+      </c>
+      <c r="AA170">
+        <v>4.2</v>
+      </c>
+      <c r="AB170">
+        <v>1.67</v>
+      </c>
+      <c r="AC170">
+        <v>1.03</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.17</v>
+      </c>
+      <c r="AF170">
+        <v>4.75</v>
+      </c>
+      <c r="AG170">
+        <v>1.5</v>
+      </c>
+      <c r="AH170">
+        <v>2.5</v>
+      </c>
+      <c r="AI170">
+        <v>1.53</v>
+      </c>
+      <c r="AJ170">
+        <v>2.38</v>
+      </c>
+      <c r="AK170">
+        <v>2.1</v>
+      </c>
+      <c r="AL170">
+        <v>1.18</v>
+      </c>
+      <c r="AM170">
+        <v>1.2</v>
+      </c>
+      <c r="AN170">
+        <v>1.6</v>
+      </c>
+      <c r="AO170">
+        <v>1.1</v>
+      </c>
+      <c r="AP170">
+        <v>1.45</v>
+      </c>
+      <c r="AQ170">
+        <v>1.27</v>
+      </c>
+      <c r="AR170">
+        <v>1.17</v>
+      </c>
+      <c r="AS170">
+        <v>1.64</v>
+      </c>
+      <c r="AT170">
+        <v>2.81</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>11</v>
+      </c>
+      <c r="AW170">
+        <v>8</v>
+      </c>
+      <c r="AX170">
+        <v>7</v>
+      </c>
+      <c r="AY170">
+        <v>12</v>
+      </c>
+      <c r="AZ170">
+        <v>18</v>
+      </c>
+      <c r="BA170">
+        <v>8</v>
+      </c>
+      <c r="BB170">
+        <v>9</v>
+      </c>
+      <c r="BC170">
+        <v>17</v>
+      </c>
+      <c r="BD170">
+        <v>2.9</v>
+      </c>
+      <c r="BE170">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF170">
+        <v>1.53</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>1.33</v>
+      </c>
+      <c r="BJ170">
+        <v>3.05</v>
+      </c>
+      <c r="BK170">
+        <v>2.2</v>
+      </c>
+      <c r="BL170">
+        <v>2.05</v>
+      </c>
+      <c r="BM170">
+        <v>2.16</v>
+      </c>
+      <c r="BN170">
+        <v>1.66</v>
+      </c>
+      <c r="BO170">
+        <v>2.7</v>
+      </c>
+      <c r="BP170">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6676118</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45387.54861111111</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>84</v>
+      </c>
+      <c r="H171" t="s">
+        <v>78</v>
+      </c>
+      <c r="I171">
+        <v>5</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>7</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>10</v>
+      </c>
+      <c r="O171" t="s">
+        <v>206</v>
+      </c>
+      <c r="P171" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q171">
+        <v>3.4</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>2.75</v>
+      </c>
+      <c r="T171">
+        <v>1.38</v>
+      </c>
+      <c r="U171">
+        <v>2.8</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>6.7</v>
+      </c>
+      <c r="Y171">
+        <v>1.09</v>
+      </c>
+      <c r="Z171">
+        <v>3.2</v>
+      </c>
+      <c r="AA171">
+        <v>3.3</v>
+      </c>
+      <c r="AB171">
+        <v>2.25</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>8.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.28</v>
+      </c>
+      <c r="AF171">
+        <v>3.45</v>
+      </c>
+      <c r="AG171">
+        <v>1.8</v>
+      </c>
+      <c r="AH171">
+        <v>2</v>
+      </c>
+      <c r="AI171">
+        <v>1.67</v>
+      </c>
+      <c r="AJ171">
+        <v>2.1</v>
+      </c>
+      <c r="AK171">
+        <v>1.75</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>1.3</v>
+      </c>
+      <c r="AN171">
+        <v>1.5</v>
+      </c>
+      <c r="AO171">
+        <v>1.7</v>
+      </c>
+      <c r="AP171">
+        <v>1.64</v>
+      </c>
+      <c r="AQ171">
+        <v>1.55</v>
+      </c>
+      <c r="AR171">
+        <v>1.31</v>
+      </c>
+      <c r="AS171">
+        <v>1.57</v>
+      </c>
+      <c r="AT171">
+        <v>2.88</v>
+      </c>
+      <c r="AU171">
+        <v>10</v>
+      </c>
+      <c r="AV171">
+        <v>7</v>
+      </c>
+      <c r="AW171">
+        <v>4</v>
+      </c>
+      <c r="AX171">
+        <v>6</v>
+      </c>
+      <c r="AY171">
+        <v>14</v>
+      </c>
+      <c r="AZ171">
+        <v>13</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>4</v>
+      </c>
+      <c r="BC171">
+        <v>7</v>
+      </c>
+      <c r="BD171">
+        <v>2.2</v>
+      </c>
+      <c r="BE171">
+        <v>9.1</v>
+      </c>
+      <c r="BF171">
+        <v>1.85</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>1.31</v>
+      </c>
+      <c r="BJ171">
+        <v>3.1</v>
+      </c>
+      <c r="BK171">
+        <v>1.54</v>
+      </c>
+      <c r="BL171">
+        <v>2.33</v>
+      </c>
+      <c r="BM171">
+        <v>1.87</v>
+      </c>
+      <c r="BN171">
+        <v>1.83</v>
+      </c>
+      <c r="BO171">
+        <v>2.33</v>
+      </c>
+      <c r="BP171">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6676119</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45387.54861111111</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>85</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>207</v>
+      </c>
+      <c r="P172" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q172">
+        <v>2.88</v>
+      </c>
+      <c r="R172">
+        <v>2.25</v>
+      </c>
+      <c r="S172">
+        <v>3.1</v>
+      </c>
+      <c r="T172">
+        <v>1.31</v>
+      </c>
+      <c r="U172">
+        <v>3.28</v>
+      </c>
+      <c r="V172">
+        <v>2.5</v>
+      </c>
+      <c r="W172">
+        <v>1.51</v>
+      </c>
+      <c r="X172">
+        <v>5.8</v>
+      </c>
+      <c r="Y172">
+        <v>1.12</v>
+      </c>
+      <c r="Z172">
+        <v>2.4</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>2.75</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>10</v>
+      </c>
+      <c r="AE172">
+        <v>1.18</v>
+      </c>
+      <c r="AF172">
+        <v>4.05</v>
+      </c>
+      <c r="AG172">
+        <v>1.67</v>
+      </c>
+      <c r="AH172">
+        <v>2.15</v>
+      </c>
+      <c r="AI172">
+        <v>1.57</v>
+      </c>
+      <c r="AJ172">
+        <v>2.25</v>
+      </c>
+      <c r="AK172">
+        <v>1.33</v>
+      </c>
+      <c r="AL172">
+        <v>1.26</v>
+      </c>
+      <c r="AM172">
+        <v>1.71</v>
+      </c>
+      <c r="AN172">
+        <v>2.1</v>
+      </c>
+      <c r="AO172">
+        <v>1.1</v>
+      </c>
+      <c r="AP172">
+        <v>2.18</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.41</v>
+      </c>
+      <c r="AS172">
+        <v>1.19</v>
+      </c>
+      <c r="AT172">
+        <v>2.6</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>1</v>
+      </c>
+      <c r="AX172">
+        <v>4</v>
+      </c>
+      <c r="AY172">
+        <v>6</v>
+      </c>
+      <c r="AZ172">
+        <v>9</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>8</v>
+      </c>
+      <c r="BC172">
+        <v>11</v>
+      </c>
+      <c r="BD172">
+        <v>1.72</v>
+      </c>
+      <c r="BE172">
+        <v>8.9</v>
+      </c>
+      <c r="BF172">
+        <v>2.43</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>1.32</v>
+      </c>
+      <c r="BJ172">
+        <v>3.1</v>
+      </c>
+      <c r="BK172">
+        <v>2.25</v>
+      </c>
+      <c r="BL172">
+        <v>2.2</v>
+      </c>
+      <c r="BM172">
+        <v>2.05</v>
+      </c>
+      <c r="BN172">
+        <v>1.7</v>
+      </c>
+      <c r="BO172">
+        <v>2.65</v>
+      </c>
+      <c r="BP172">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>6676120</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45387.54861111111</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s">
+        <v>82</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>101</v>
+      </c>
+      <c r="P173" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q173">
+        <v>4.75</v>
+      </c>
+      <c r="R173">
+        <v>2.25</v>
+      </c>
+      <c r="S173">
+        <v>2.2</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>2.99</v>
+      </c>
+      <c r="V173">
+        <v>2.7</v>
+      </c>
+      <c r="W173">
+        <v>1.43</v>
+      </c>
+      <c r="X173">
+        <v>6.6</v>
+      </c>
+      <c r="Y173">
+        <v>1.09</v>
+      </c>
+      <c r="Z173">
+        <v>5.25</v>
+      </c>
+      <c r="AA173">
+        <v>3.75</v>
+      </c>
+      <c r="AB173">
+        <v>1.67</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE173">
+        <v>1.24</v>
+      </c>
+      <c r="AF173">
+        <v>3.48</v>
+      </c>
+      <c r="AG173">
+        <v>1.8</v>
+      </c>
+      <c r="AH173">
+        <v>2</v>
+      </c>
+      <c r="AI173">
+        <v>1.8</v>
+      </c>
+      <c r="AJ173">
+        <v>1.91</v>
+      </c>
+      <c r="AK173">
+        <v>2.32</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.13</v>
+      </c>
+      <c r="AN173">
+        <v>1</v>
+      </c>
+      <c r="AO173">
+        <v>1.2</v>
+      </c>
+      <c r="AP173">
+        <v>0.91</v>
+      </c>
+      <c r="AQ173">
+        <v>1.36</v>
+      </c>
+      <c r="AR173">
+        <v>1.24</v>
+      </c>
+      <c r="AS173">
+        <v>1.55</v>
+      </c>
+      <c r="AT173">
+        <v>2.79</v>
+      </c>
+      <c r="AU173">
+        <v>2</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>2</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>4</v>
+      </c>
+      <c r="AZ173">
+        <v>12</v>
+      </c>
+      <c r="BA173">
+        <v>1</v>
+      </c>
+      <c r="BB173">
+        <v>12</v>
+      </c>
+      <c r="BC173">
+        <v>13</v>
+      </c>
+      <c r="BD173">
+        <v>3.58</v>
+      </c>
+      <c r="BE173">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF173">
+        <v>1.38</v>
+      </c>
+      <c r="BG173">
+        <v>1.21</v>
+      </c>
+      <c r="BH173">
+        <v>3.74</v>
+      </c>
+      <c r="BI173">
+        <v>1.39</v>
+      </c>
+      <c r="BJ173">
+        <v>2.77</v>
+      </c>
+      <c r="BK173">
+        <v>1.73</v>
+      </c>
+      <c r="BL173">
+        <v>1.99</v>
+      </c>
+      <c r="BM173">
+        <v>2.2</v>
+      </c>
+      <c r="BN173">
+        <v>1.6</v>
+      </c>
+      <c r="BO173">
+        <v>2.95</v>
+      </c>
+      <c r="BP173">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6676112</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45388.39583333334</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>208</v>
+      </c>
+      <c r="P174" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q174">
+        <v>2.5</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.32</v>
+      </c>
+      <c r="U174">
+        <v>3.1</v>
+      </c>
+      <c r="V174">
+        <v>2.65</v>
+      </c>
+      <c r="W174">
+        <v>1.42</v>
+      </c>
+      <c r="X174">
+        <v>5.8</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>1.95</v>
+      </c>
+      <c r="AA174">
+        <v>3.6</v>
+      </c>
+      <c r="AB174">
+        <v>3.8</v>
+      </c>
+      <c r="AC174">
+        <v>1.05</v>
+      </c>
+      <c r="AD174">
+        <v>7.8</v>
+      </c>
+      <c r="AE174">
+        <v>1.22</v>
+      </c>
+      <c r="AF174">
+        <v>3.7</v>
+      </c>
+      <c r="AG174">
+        <v>1.95</v>
+      </c>
+      <c r="AH174">
+        <v>1.85</v>
+      </c>
+      <c r="AI174">
+        <v>1.83</v>
+      </c>
+      <c r="AJ174">
+        <v>1.83</v>
+      </c>
+      <c r="AK174">
+        <v>1.15</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.93</v>
+      </c>
+      <c r="AN174">
+        <v>2.3</v>
+      </c>
+      <c r="AO174">
+        <v>1.7</v>
+      </c>
+      <c r="AP174">
+        <v>2.18</v>
+      </c>
+      <c r="AQ174">
+        <v>1.64</v>
+      </c>
+      <c r="AR174">
+        <v>1.88</v>
+      </c>
+      <c r="AS174">
+        <v>1.33</v>
+      </c>
+      <c r="AT174">
+        <v>3.21</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>0</v>
+      </c>
+      <c r="AX174">
+        <v>4</v>
+      </c>
+      <c r="AY174">
+        <v>4</v>
+      </c>
+      <c r="AZ174">
+        <v>6</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>5</v>
+      </c>
+      <c r="BD174">
+        <v>1.79</v>
+      </c>
+      <c r="BE174">
+        <v>8.4</v>
+      </c>
+      <c r="BF174">
+        <v>2.34</v>
+      </c>
+      <c r="BG174">
+        <v>1.33</v>
+      </c>
+      <c r="BH174">
+        <v>2.91</v>
+      </c>
+      <c r="BI174">
+        <v>1.68</v>
+      </c>
+      <c r="BJ174">
+        <v>2.15</v>
+      </c>
+      <c r="BK174">
+        <v>2.1</v>
+      </c>
+      <c r="BL174">
+        <v>1.71</v>
+      </c>
+      <c r="BM174">
+        <v>2.75</v>
+      </c>
+      <c r="BN174">
+        <v>1.37</v>
+      </c>
+      <c r="BO174">
+        <v>3.84</v>
+      </c>
+      <c r="BP174">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6676116</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45388.39583333334</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>83</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>86</v>
+      </c>
+      <c r="P175" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q175">
+        <v>2.5</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>3.6</v>
+      </c>
+      <c r="T175">
+        <v>1.3</v>
+      </c>
+      <c r="U175">
+        <v>3.2</v>
+      </c>
+      <c r="V175">
+        <v>2.5</v>
+      </c>
+      <c r="W175">
+        <v>1.45</v>
+      </c>
+      <c r="X175">
+        <v>5.8</v>
+      </c>
+      <c r="Y175">
+        <v>1.1</v>
+      </c>
+      <c r="Z175">
+        <v>2</v>
+      </c>
+      <c r="AA175">
+        <v>3.75</v>
+      </c>
+      <c r="AB175">
+        <v>3.5</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>8.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.2</v>
+      </c>
+      <c r="AF175">
+        <v>3.9</v>
+      </c>
+      <c r="AG175">
+        <v>1.67</v>
+      </c>
+      <c r="AH175">
+        <v>2.15</v>
+      </c>
+      <c r="AI175">
+        <v>1.62</v>
+      </c>
+      <c r="AJ175">
+        <v>2.2</v>
+      </c>
+      <c r="AK175">
+        <v>1.32</v>
+      </c>
+      <c r="AL175">
+        <v>1.27</v>
+      </c>
+      <c r="AM175">
+        <v>1.6</v>
+      </c>
+      <c r="AN175">
+        <v>0.2</v>
+      </c>
+      <c r="AO175">
+        <v>0.7</v>
+      </c>
+      <c r="AP175">
+        <v>0.18</v>
+      </c>
+      <c r="AQ175">
+        <v>0.91</v>
+      </c>
+      <c r="AR175">
+        <v>1.4</v>
+      </c>
+      <c r="AS175">
+        <v>0.87</v>
+      </c>
+      <c r="AT175">
+        <v>2.27</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>6</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>14</v>
+      </c>
+      <c r="AZ175">
+        <v>6</v>
+      </c>
+      <c r="BA175">
+        <v>10</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>16</v>
+      </c>
+      <c r="BD175">
+        <v>1.58</v>
+      </c>
+      <c r="BE175">
+        <v>9.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.72</v>
+      </c>
+      <c r="BG175">
+        <v>1.17</v>
+      </c>
+      <c r="BH175">
+        <v>4.75</v>
+      </c>
+      <c r="BI175">
+        <v>1.29</v>
+      </c>
+      <c r="BJ175">
+        <v>3.3</v>
+      </c>
+      <c r="BK175">
+        <v>2.1</v>
+      </c>
+      <c r="BL175">
+        <v>2.28</v>
+      </c>
+      <c r="BM175">
+        <v>1.99</v>
+      </c>
+      <c r="BN175">
+        <v>1.81</v>
+      </c>
+      <c r="BO175">
+        <v>2.52</v>
+      </c>
+      <c r="BP175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6676117</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45388.39583333334</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>3</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176" t="s">
+        <v>209</v>
+      </c>
+      <c r="P176" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q176">
+        <v>2.5</v>
+      </c>
+      <c r="R176">
+        <v>2.25</v>
+      </c>
+      <c r="S176">
+        <v>3.6</v>
+      </c>
+      <c r="T176">
+        <v>1.32</v>
+      </c>
+      <c r="U176">
+        <v>3.22</v>
+      </c>
+      <c r="V176">
+        <v>2.51</v>
+      </c>
+      <c r="W176">
+        <v>1.49</v>
+      </c>
+      <c r="X176">
+        <v>5.95</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>2</v>
+      </c>
+      <c r="AA176">
+        <v>3.75</v>
+      </c>
+      <c r="AB176">
+        <v>3.4</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>10</v>
+      </c>
+      <c r="AE176">
+        <v>1.19</v>
+      </c>
+      <c r="AF176">
+        <v>3.92</v>
+      </c>
+      <c r="AG176">
+        <v>1.7</v>
+      </c>
+      <c r="AH176">
+        <v>2.1</v>
+      </c>
+      <c r="AI176">
+        <v>1.62</v>
+      </c>
+      <c r="AJ176">
+        <v>2.2</v>
+      </c>
+      <c r="AK176">
+        <v>1.24</v>
+      </c>
+      <c r="AL176">
+        <v>1.21</v>
+      </c>
+      <c r="AM176">
+        <v>1.72</v>
+      </c>
+      <c r="AN176">
+        <v>1.2</v>
+      </c>
+      <c r="AO176">
+        <v>0.6</v>
+      </c>
+      <c r="AP176">
+        <v>1.18</v>
+      </c>
+      <c r="AQ176">
+        <v>0.64</v>
+      </c>
+      <c r="AR176">
+        <v>1.28</v>
+      </c>
+      <c r="AS176">
+        <v>1.43</v>
+      </c>
+      <c r="AT176">
+        <v>2.71</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
+        <v>10</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>13</v>
+      </c>
+      <c r="AZ176">
+        <v>10</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>8</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>1.7</v>
+      </c>
+      <c r="BE176">
+        <v>9</v>
+      </c>
+      <c r="BF176">
+        <v>2.46</v>
+      </c>
+      <c r="BG176">
+        <v>1.21</v>
+      </c>
+      <c r="BH176">
+        <v>3.74</v>
+      </c>
+      <c r="BI176">
+        <v>1.37</v>
+      </c>
+      <c r="BJ176">
+        <v>2.85</v>
+      </c>
+      <c r="BK176">
+        <v>2.2</v>
+      </c>
+      <c r="BL176">
+        <v>2.04</v>
+      </c>
+      <c r="BM176">
+        <v>2.22</v>
+      </c>
+      <c r="BN176">
+        <v>1.64</v>
+      </c>
+      <c r="BO176">
+        <v>2.88</v>
+      </c>
+      <c r="BP176">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1278,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.91</v>
@@ -3884,7 +3884,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.82</v>
@@ -5944,7 +5944,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -8210,7 +8210,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.73</v>
@@ -10267,7 +10267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.64</v>
@@ -13154,7 +13154,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13769,7 +13769,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.55</v>
@@ -17274,7 +17274,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -18713,7 +18713,7 @@
         <v>2.4</v>
       </c>
       <c r="AP85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>2.55</v>
@@ -19746,7 +19746,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -21597,7 +21597,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -24072,7 +24072,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -25305,7 +25305,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>2</v>
@@ -27162,7 +27162,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -29425,7 +29425,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.36</v>
@@ -31488,7 +31488,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -32515,7 +32515,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
         <v>0.91</v>
@@ -36020,7 +36020,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR169">
         <v>1.51</v>
@@ -37537,6 +37537,212 @@
         <v>2.88</v>
       </c>
       <c r="BP176">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6676113</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45389.22916666666</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s">
+        <v>77</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>86</v>
+      </c>
+      <c r="P177" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>2.1</v>
+      </c>
+      <c r="S177">
+        <v>3.25</v>
+      </c>
+      <c r="T177">
+        <v>1.46</v>
+      </c>
+      <c r="U177">
+        <v>2.6</v>
+      </c>
+      <c r="V177">
+        <v>3.15</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>2.38</v>
+      </c>
+      <c r="AA177">
+        <v>3.25</v>
+      </c>
+      <c r="AB177">
+        <v>2.7</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>8</v>
+      </c>
+      <c r="AE177">
+        <v>1.38</v>
+      </c>
+      <c r="AF177">
+        <v>2.9</v>
+      </c>
+      <c r="AG177">
+        <v>1.91</v>
+      </c>
+      <c r="AH177">
+        <v>1.8</v>
+      </c>
+      <c r="AI177">
+        <v>1.73</v>
+      </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
+      <c r="AK177">
+        <v>1.36</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.43</v>
+      </c>
+      <c r="AN177">
+        <v>2.1</v>
+      </c>
+      <c r="AO177">
+        <v>1.5</v>
+      </c>
+      <c r="AP177">
+        <v>2</v>
+      </c>
+      <c r="AQ177">
+        <v>1.45</v>
+      </c>
+      <c r="AR177">
+        <v>1.52</v>
+      </c>
+      <c r="AS177">
+        <v>1.48</v>
+      </c>
+      <c r="AT177">
+        <v>3</v>
+      </c>
+      <c r="AU177">
+        <v>2</v>
+      </c>
+      <c r="AV177">
+        <v>0</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>6</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>10</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>15</v>
+      </c>
+      <c r="BD177">
+        <v>1.68</v>
+      </c>
+      <c r="BE177">
+        <v>8.9</v>
+      </c>
+      <c r="BF177">
+        <v>2.51</v>
+      </c>
+      <c r="BG177">
+        <v>1.22</v>
+      </c>
+      <c r="BH177">
+        <v>3.65</v>
+      </c>
+      <c r="BI177">
+        <v>1.46</v>
+      </c>
+      <c r="BJ177">
+        <v>2.6</v>
+      </c>
+      <c r="BK177">
+        <v>2</v>
+      </c>
+      <c r="BL177">
+        <v>2</v>
+      </c>
+      <c r="BM177">
+        <v>2.22</v>
+      </c>
+      <c r="BN177">
+        <v>1.62</v>
+      </c>
+      <c r="BO177">
+        <v>3</v>
+      </c>
+      <c r="BP177">
         <v>1.34</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,12 @@
     <t>['68', '89', '90']</t>
   </si>
   <si>
+    <t>['38', '57']</t>
+  </si>
+  <si>
+    <t>['24', '52', '88']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -917,6 +923,9 @@
   </si>
   <si>
     <t>['16', '45+2', '90+4']</t>
+  </si>
+  <si>
+    <t>['45', '67', '80']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ2">
         <v>0.91</v>
@@ -2361,7 +2370,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2648,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2773,7 +2782,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3263,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3391,7 +3400,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3472,7 +3481,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ11">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3597,7 +3606,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3881,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ13">
         <v>1.45</v>
@@ -4009,7 +4018,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4090,7 +4099,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4215,7 +4224,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4421,7 +4430,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4627,7 +4636,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4705,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.27</v>
@@ -5245,7 +5254,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5326,7 +5335,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ20">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5657,7 +5666,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5863,7 +5872,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6353,7 +6362,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6481,7 +6490,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6562,7 +6571,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ26">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -7592,7 +7601,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ31">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>0.9399999999999999</v>
@@ -7717,7 +7726,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7795,7 +7804,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ32">
         <v>1.55</v>
@@ -7923,7 +7932,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8207,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.45</v>
@@ -8335,7 +8344,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8541,7 +8550,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8747,7 +8756,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8953,7 +8962,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9031,7 +9040,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ38">
         <v>1.36</v>
@@ -9159,7 +9168,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9446,7 +9455,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ40">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9571,7 +9580,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9858,7 +9867,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ42">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10189,7 +10198,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10395,7 +10404,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11219,7 +11228,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11297,7 +11306,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ49">
         <v>1.64</v>
@@ -11425,7 +11434,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11506,7 +11515,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ50">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11631,7 +11640,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11709,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.36</v>
@@ -12249,7 +12258,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12327,10 +12336,10 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>1.27</v>
@@ -12455,7 +12464,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12536,7 +12545,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ55">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12661,7 +12670,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13073,7 +13082,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13279,7 +13288,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13485,7 +13494,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13691,7 +13700,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14721,7 +14730,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14799,7 +14808,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ66">
         <v>1.64</v>
@@ -14927,7 +14936,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15008,7 +15017,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15339,7 +15348,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15417,10 +15426,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15545,7 +15554,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15829,10 +15838,10 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.04</v>
@@ -15957,7 +15966,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16163,7 +16172,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16369,7 +16378,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16575,7 +16584,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16987,7 +16996,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17193,7 +17202,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17399,7 +17408,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17889,10 +17898,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ81">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18429,7 +18438,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18510,7 +18519,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ84">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18716,7 +18725,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19253,7 +19262,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19331,7 +19340,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ88">
         <v>0.91</v>
@@ -19459,7 +19468,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19537,7 +19546,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>1.64</v>
@@ -19665,7 +19674,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19871,7 +19880,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19952,7 +19961,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ91">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.52</v>
@@ -20077,7 +20086,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20158,7 +20167,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ92">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR92">
         <v>1.66</v>
@@ -20283,7 +20292,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20489,7 +20498,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20901,7 +20910,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21313,7 +21322,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21725,7 +21734,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21803,7 +21812,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ100">
         <v>0.73</v>
@@ -22009,7 +22018,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ101">
         <v>1.36</v>
@@ -22215,7 +22224,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>0.91</v>
@@ -22630,7 +22639,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ104">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -22836,7 +22845,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.18</v>
@@ -22961,7 +22970,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23579,7 +23588,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23991,7 +24000,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24275,7 +24284,7 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ112">
         <v>1.45</v>
@@ -24403,7 +24412,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24481,7 +24490,7 @@
         <v>0.43</v>
       </c>
       <c r="AP113">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.82</v>
@@ -24690,7 +24699,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ114">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR114">
         <v>1.61</v>
@@ -24815,7 +24824,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24893,10 +24902,10 @@
         <v>2.29</v>
       </c>
       <c r="AP115">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ115">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR115">
         <v>1.03</v>
@@ -25021,7 +25030,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25227,7 +25236,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25433,7 +25442,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25639,7 +25648,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25845,7 +25854,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26051,7 +26060,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26132,7 +26141,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ121">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26335,7 +26344,7 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>0.64</v>
@@ -26463,7 +26472,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26541,7 +26550,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26669,7 +26678,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26875,7 +26884,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27081,7 +27090,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27287,7 +27296,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27493,7 +27502,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27574,7 +27583,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ128">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27699,7 +27708,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27986,7 +27995,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ130">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28395,7 +28404,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ132">
         <v>0.82</v>
@@ -28729,7 +28738,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29141,7 +29150,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29347,7 +29356,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29840,7 +29849,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ139">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30171,7 +30180,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30377,7 +30386,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30455,7 +30464,7 @@
         <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ142">
         <v>2</v>
@@ -30583,7 +30592,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30661,7 +30670,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ143">
         <v>1.55</v>
@@ -30789,7 +30798,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31076,7 +31085,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ145">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.41</v>
@@ -31279,7 +31288,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
         <v>1.45</v>
@@ -31407,7 +31416,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31819,7 +31828,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32025,7 +32034,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32724,7 +32733,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ153">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -33055,7 +33064,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33136,7 +33145,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ155">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.39</v>
@@ -33261,7 +33270,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33754,7 +33763,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ158">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34085,7 +34094,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34163,7 +34172,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ160">
         <v>0.64</v>
@@ -34291,7 +34300,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34497,7 +34506,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34575,7 +34584,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>0.73</v>
@@ -34990,7 +34999,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ164">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35527,7 +35536,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35733,7 +35742,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35814,7 +35823,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ168">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
         <v>1.17</v>
@@ -36017,7 +36026,7 @@
         <v>1.67</v>
       </c>
       <c r="AP169">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ169">
         <v>1.45</v>
@@ -36145,7 +36154,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36351,7 +36360,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36557,7 +36566,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36763,7 +36772,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36841,7 +36850,7 @@
         <v>1.2</v>
       </c>
       <c r="AP173">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ173">
         <v>1.36</v>
@@ -36969,7 +36978,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37175,7 +37184,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37381,7 +37390,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37744,6 +37753,624 @@
       </c>
       <c r="BP177">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6676125</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45394.54861111111</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>210</v>
+      </c>
+      <c r="P178" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q178">
+        <v>3.1</v>
+      </c>
+      <c r="R178">
+        <v>2.3</v>
+      </c>
+      <c r="S178">
+        <v>2.88</v>
+      </c>
+      <c r="T178">
+        <v>1.3</v>
+      </c>
+      <c r="U178">
+        <v>3.25</v>
+      </c>
+      <c r="V178">
+        <v>2.48</v>
+      </c>
+      <c r="W178">
+        <v>1.52</v>
+      </c>
+      <c r="X178">
+        <v>5.45</v>
+      </c>
+      <c r="Y178">
+        <v>1.12</v>
+      </c>
+      <c r="Z178">
+        <v>2.75</v>
+      </c>
+      <c r="AA178">
+        <v>3.6</v>
+      </c>
+      <c r="AB178">
+        <v>2.4</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>10</v>
+      </c>
+      <c r="AE178">
+        <v>1.2</v>
+      </c>
+      <c r="AF178">
+        <v>4</v>
+      </c>
+      <c r="AG178">
+        <v>1.6</v>
+      </c>
+      <c r="AH178">
+        <v>2.3</v>
+      </c>
+      <c r="AI178">
+        <v>1.53</v>
+      </c>
+      <c r="AJ178">
+        <v>2.38</v>
+      </c>
+      <c r="AK178">
+        <v>1.53</v>
+      </c>
+      <c r="AL178">
+        <v>1.29</v>
+      </c>
+      <c r="AM178">
+        <v>1.5</v>
+      </c>
+      <c r="AN178">
+        <v>1.45</v>
+      </c>
+      <c r="AO178">
+        <v>2.55</v>
+      </c>
+      <c r="AP178">
+        <v>1.58</v>
+      </c>
+      <c r="AQ178">
+        <v>2.33</v>
+      </c>
+      <c r="AR178">
+        <v>1.52</v>
+      </c>
+      <c r="AS178">
+        <v>1.51</v>
+      </c>
+      <c r="AT178">
+        <v>3.03</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>12</v>
+      </c>
+      <c r="AZ178">
+        <v>9</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>7</v>
+      </c>
+      <c r="BC178">
+        <v>11</v>
+      </c>
+      <c r="BD178">
+        <v>2</v>
+      </c>
+      <c r="BE178">
+        <v>7.4</v>
+      </c>
+      <c r="BF178">
+        <v>2.13</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>1.34</v>
+      </c>
+      <c r="BJ178">
+        <v>2.88</v>
+      </c>
+      <c r="BK178">
+        <v>2.2</v>
+      </c>
+      <c r="BL178">
+        <v>2.1</v>
+      </c>
+      <c r="BM178">
+        <v>2.04</v>
+      </c>
+      <c r="BN178">
+        <v>1.69</v>
+      </c>
+      <c r="BO178">
+        <v>2.67</v>
+      </c>
+      <c r="BP178">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>6676128</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45394.54861111111</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s">
+        <v>80</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>211</v>
+      </c>
+      <c r="P179" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q179">
+        <v>2.6</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>3.75</v>
+      </c>
+      <c r="T179">
+        <v>1.37</v>
+      </c>
+      <c r="U179">
+        <v>2.85</v>
+      </c>
+      <c r="V179">
+        <v>2.7</v>
+      </c>
+      <c r="W179">
+        <v>1.41</v>
+      </c>
+      <c r="X179">
+        <v>6.45</v>
+      </c>
+      <c r="Y179">
+        <v>1.09</v>
+      </c>
+      <c r="Z179">
+        <v>2.1</v>
+      </c>
+      <c r="AA179">
+        <v>3.5</v>
+      </c>
+      <c r="AB179">
+        <v>3.5</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>9</v>
+      </c>
+      <c r="AE179">
+        <v>1.25</v>
+      </c>
+      <c r="AF179">
+        <v>3.6</v>
+      </c>
+      <c r="AG179">
+        <v>1.85</v>
+      </c>
+      <c r="AH179">
+        <v>1.95</v>
+      </c>
+      <c r="AI179">
+        <v>1.73</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.3</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.72</v>
+      </c>
+      <c r="AN179">
+        <v>0.91</v>
+      </c>
+      <c r="AO179">
+        <v>0.91</v>
+      </c>
+      <c r="AP179">
+        <v>1.08</v>
+      </c>
+      <c r="AQ179">
+        <v>0.83</v>
+      </c>
+      <c r="AR179">
+        <v>1.19</v>
+      </c>
+      <c r="AS179">
+        <v>1.24</v>
+      </c>
+      <c r="AT179">
+        <v>2.43</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
+        <v>12</v>
+      </c>
+      <c r="AZ179">
+        <v>12</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>7</v>
+      </c>
+      <c r="BC179">
+        <v>11</v>
+      </c>
+      <c r="BD179">
+        <v>1.76</v>
+      </c>
+      <c r="BE179">
+        <v>7.4</v>
+      </c>
+      <c r="BF179">
+        <v>2.49</v>
+      </c>
+      <c r="BG179">
+        <v>1.24</v>
+      </c>
+      <c r="BH179">
+        <v>3.48</v>
+      </c>
+      <c r="BI179">
+        <v>1.45</v>
+      </c>
+      <c r="BJ179">
+        <v>2.48</v>
+      </c>
+      <c r="BK179">
+        <v>2.38</v>
+      </c>
+      <c r="BL179">
+        <v>1.89</v>
+      </c>
+      <c r="BM179">
+        <v>2.3</v>
+      </c>
+      <c r="BN179">
+        <v>1.52</v>
+      </c>
+      <c r="BO179">
+        <v>3.14</v>
+      </c>
+      <c r="BP179">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6676122</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45394.54861111111</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>78</v>
+      </c>
+      <c r="H180" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>86</v>
+      </c>
+      <c r="P180" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q180">
+        <v>3.2</v>
+      </c>
+      <c r="R180">
+        <v>2.1</v>
+      </c>
+      <c r="S180">
+        <v>3.1</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.82</v>
+      </c>
+      <c r="V180">
+        <v>2.86</v>
+      </c>
+      <c r="W180">
+        <v>1.39</v>
+      </c>
+      <c r="X180">
+        <v>7.2</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>2.7</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>2.63</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>8.9</v>
+      </c>
+      <c r="AE180">
+        <v>1.28</v>
+      </c>
+      <c r="AF180">
+        <v>3.2</v>
+      </c>
+      <c r="AG180">
+        <v>1.95</v>
+      </c>
+      <c r="AH180">
+        <v>1.85</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.28</v>
+      </c>
+      <c r="AL180">
+        <v>1.28</v>
+      </c>
+      <c r="AM180">
+        <v>1.76</v>
+      </c>
+      <c r="AN180">
+        <v>1.64</v>
+      </c>
+      <c r="AO180">
+        <v>1.09</v>
+      </c>
+      <c r="AP180">
+        <v>1.5</v>
+      </c>
+      <c r="AQ180">
+        <v>1.25</v>
+      </c>
+      <c r="AR180">
+        <v>1.65</v>
+      </c>
+      <c r="AS180">
+        <v>1.51</v>
+      </c>
+      <c r="AT180">
+        <v>3.16</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>4</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>7</v>
+      </c>
+      <c r="AZ180">
+        <v>13</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>12</v>
+      </c>
+      <c r="BD180">
+        <v>1.82</v>
+      </c>
+      <c r="BE180">
+        <v>8.6</v>
+      </c>
+      <c r="BF180">
+        <v>2.3</v>
+      </c>
+      <c r="BG180">
+        <v>1.21</v>
+      </c>
+      <c r="BH180">
+        <v>3.74</v>
+      </c>
+      <c r="BI180">
+        <v>1.41</v>
+      </c>
+      <c r="BJ180">
+        <v>2.6</v>
+      </c>
+      <c r="BK180">
+        <v>2.25</v>
+      </c>
+      <c r="BL180">
+        <v>1.99</v>
+      </c>
+      <c r="BM180">
+        <v>2.15</v>
+      </c>
+      <c r="BN180">
+        <v>1.59</v>
+      </c>
+      <c r="BO180">
+        <v>2.84</v>
+      </c>
+      <c r="BP180">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['24', '52', '88']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -926,6 +929,9 @@
   </si>
   <si>
     <t>['45', '67', '80']</t>
+  </si>
+  <si>
+    <t>['27', '44']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1839,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ3">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2370,7 +2376,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2782,7 +2788,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3066,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1.36</v>
@@ -3400,7 +3406,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3478,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3606,7 +3612,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3687,7 +3693,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ12">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4018,7 +4024,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4224,7 +4230,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4430,7 +4436,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4636,7 +4642,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5254,7 +5260,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5666,7 +5672,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5872,7 +5878,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6490,7 +6496,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6777,7 +6783,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7189,7 +7195,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ29">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>1.62</v>
@@ -7598,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -7726,7 +7732,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7932,7 +7938,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8344,7 +8350,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8425,7 +8431,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ35">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8550,7 +8556,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8756,7 +8762,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8962,7 +8968,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9168,7 +9174,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9246,7 +9252,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9580,7 +9586,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10198,7 +10204,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10404,7 +10410,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10482,7 +10488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1.27</v>
@@ -11228,7 +11234,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11309,7 +11315,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ49">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11434,7 +11440,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11512,7 +11518,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11640,7 +11646,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11721,7 +11727,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11924,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -12258,7 +12264,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12464,7 +12470,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12670,7 +12676,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13082,7 +13088,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13288,7 +13294,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13494,7 +13500,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13700,7 +13706,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14730,7 +14736,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14811,7 +14817,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ66">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -14936,7 +14942,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15014,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>0.83</v>
@@ -15348,7 +15354,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15554,7 +15560,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15632,7 +15638,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
         <v>2</v>
@@ -15966,7 +15972,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16047,7 +16053,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ72">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.55</v>
@@ -16172,7 +16178,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16378,7 +16384,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16584,7 +16590,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16996,7 +17002,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17202,7 +17208,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17408,7 +17414,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17486,7 +17492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>0.64</v>
@@ -18104,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>0.73</v>
@@ -18313,7 +18319,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ83">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18438,7 +18444,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19262,7 +19268,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19468,7 +19474,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19549,7 +19555,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19674,7 +19680,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19752,7 +19758,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.45</v>
@@ -19880,7 +19886,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20086,7 +20092,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20292,7 +20298,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20498,7 +20504,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20910,7 +20916,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21322,7 +21328,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21400,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
         <v>0.82</v>
@@ -21734,7 +21740,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22021,7 +22027,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22433,7 +22439,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ103">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22970,7 +22976,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23588,7 +23594,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -24000,7 +24006,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24412,7 +24418,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24696,7 +24702,7 @@
         <v>1.43</v>
       </c>
       <c r="AP114">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
         <v>0.83</v>
@@ -24824,7 +24830,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25030,7 +25036,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25108,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>1.36</v>
@@ -25236,7 +25242,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25442,7 +25448,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25648,7 +25654,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25729,7 +25735,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25854,7 +25860,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25935,7 +25941,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ120">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26060,7 +26066,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26472,7 +26478,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26678,7 +26684,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26884,7 +26890,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26965,7 +26971,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27090,7 +27096,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27296,7 +27302,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27374,7 +27380,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.27</v>
@@ -27502,7 +27508,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27708,7 +27714,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28198,7 +28204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
         <v>1.45</v>
@@ -28738,7 +28744,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29150,7 +29156,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29231,7 +29237,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29356,7 +29362,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29643,7 +29649,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ138">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -30052,7 +30058,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140">
         <v>0.64</v>
@@ -30180,7 +30186,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30261,7 +30267,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ141">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
         <v>1.9</v>
@@ -30386,7 +30392,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30592,7 +30598,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30798,7 +30804,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30876,7 +30882,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -31416,7 +31422,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31828,7 +31834,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32034,7 +32040,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32939,7 +32945,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ154">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR154">
         <v>1.36</v>
@@ -33064,7 +33070,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33270,7 +33276,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33966,7 +33972,7 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ159">
         <v>1.55</v>
@@ -34094,7 +34100,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34300,7 +34306,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34506,7 +34512,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35202,7 +35208,7 @@
         <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
         <v>0.82</v>
@@ -35536,7 +35542,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35617,7 +35623,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ167">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR167">
         <v>1.18</v>
@@ -35742,7 +35748,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36154,7 +36160,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36360,7 +36366,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36566,7 +36572,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36772,7 +36778,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36978,7 +36984,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37059,7 +37065,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ174">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR174">
         <v>1.88</v>
@@ -37184,7 +37190,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37390,7 +37396,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37898,19 +37904,19 @@
         <v>7</v>
       </c>
       <c r="AV178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW178">
         <v>5</v>
       </c>
       <c r="AX178">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY178">
         <v>12</v>
       </c>
       <c r="AZ178">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA178">
         <v>4</v>
@@ -38008,7 +38014,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38214,7 +38220,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38310,7 +38316,7 @@
         <v>3</v>
       </c>
       <c r="AV180">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW180">
         <v>4</v>
@@ -38322,7 +38328,7 @@
         <v>7</v>
       </c>
       <c r="AZ180">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA180">
         <v>7</v>
@@ -38371,6 +38377,418 @@
       </c>
       <c r="BP180">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6676124</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45394.54861111111</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>84</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>212</v>
+      </c>
+      <c r="P181" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>2.5</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.64</v>
+      </c>
+      <c r="W181">
+        <v>1.46</v>
+      </c>
+      <c r="X181">
+        <v>6.45</v>
+      </c>
+      <c r="Y181">
+        <v>1.09</v>
+      </c>
+      <c r="Z181">
+        <v>3.8</v>
+      </c>
+      <c r="AA181">
+        <v>3.8</v>
+      </c>
+      <c r="AB181">
+        <v>1.91</v>
+      </c>
+      <c r="AC181">
+        <v>1.04</v>
+      </c>
+      <c r="AD181">
+        <v>9</v>
+      </c>
+      <c r="AE181">
+        <v>1.25</v>
+      </c>
+      <c r="AF181">
+        <v>3.75</v>
+      </c>
+      <c r="AG181">
+        <v>1.75</v>
+      </c>
+      <c r="AH181">
+        <v>2.05</v>
+      </c>
+      <c r="AI181">
+        <v>1.67</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>1.78</v>
+      </c>
+      <c r="AL181">
+        <v>1.22</v>
+      </c>
+      <c r="AM181">
+        <v>1.3</v>
+      </c>
+      <c r="AN181">
+        <v>0.82</v>
+      </c>
+      <c r="AO181">
+        <v>1.36</v>
+      </c>
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AQ181">
+        <v>1.25</v>
+      </c>
+      <c r="AR181">
+        <v>1.41</v>
+      </c>
+      <c r="AS181">
+        <v>1.58</v>
+      </c>
+      <c r="AT181">
+        <v>2.99</v>
+      </c>
+      <c r="AU181">
+        <v>3</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>2</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>5</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>7</v>
+      </c>
+      <c r="BB181">
+        <v>7</v>
+      </c>
+      <c r="BC181">
+        <v>14</v>
+      </c>
+      <c r="BD181">
+        <v>2.66</v>
+      </c>
+      <c r="BE181">
+        <v>7.7</v>
+      </c>
+      <c r="BF181">
+        <v>1.67</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>0</v>
+      </c>
+      <c r="BI181">
+        <v>1.28</v>
+      </c>
+      <c r="BJ181">
+        <v>3.2</v>
+      </c>
+      <c r="BK181">
+        <v>1.83</v>
+      </c>
+      <c r="BL181">
+        <v>2.32</v>
+      </c>
+      <c r="BM181">
+        <v>1.87</v>
+      </c>
+      <c r="BN181">
+        <v>1.83</v>
+      </c>
+      <c r="BO181">
+        <v>2.4</v>
+      </c>
+      <c r="BP181">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>6676121</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45394.64583333334</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>77</v>
+      </c>
+      <c r="H182" t="s">
+        <v>74</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>86</v>
+      </c>
+      <c r="P182" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q182">
+        <v>3.5</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>3.25</v>
+      </c>
+      <c r="T182">
+        <v>1.41</v>
+      </c>
+      <c r="U182">
+        <v>2.85</v>
+      </c>
+      <c r="V182">
+        <v>3.06</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>7.7</v>
+      </c>
+      <c r="Y182">
+        <v>1.06</v>
+      </c>
+      <c r="Z182">
+        <v>2.9</v>
+      </c>
+      <c r="AA182">
+        <v>3.1</v>
+      </c>
+      <c r="AB182">
+        <v>2.63</v>
+      </c>
+      <c r="AC182">
+        <v>1.03</v>
+      </c>
+      <c r="AD182">
+        <v>8.4</v>
+      </c>
+      <c r="AE182">
+        <v>1.31</v>
+      </c>
+      <c r="AF182">
+        <v>3.04</v>
+      </c>
+      <c r="AG182">
+        <v>2.35</v>
+      </c>
+      <c r="AH182">
+        <v>1.57</v>
+      </c>
+      <c r="AI182">
+        <v>2</v>
+      </c>
+      <c r="AJ182">
+        <v>1.73</v>
+      </c>
+      <c r="AK182">
+        <v>1.44</v>
+      </c>
+      <c r="AL182">
+        <v>1.31</v>
+      </c>
+      <c r="AM182">
+        <v>1.48</v>
+      </c>
+      <c r="AN182">
+        <v>1.91</v>
+      </c>
+      <c r="AO182">
+        <v>1.64</v>
+      </c>
+      <c r="AP182">
+        <v>1.75</v>
+      </c>
+      <c r="AQ182">
+        <v>1.75</v>
+      </c>
+      <c r="AR182">
+        <v>1.56</v>
+      </c>
+      <c r="AS182">
+        <v>1.31</v>
+      </c>
+      <c r="AT182">
+        <v>2.87</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>8</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
+        <v>6</v>
+      </c>
+      <c r="AY182">
+        <v>5</v>
+      </c>
+      <c r="AZ182">
+        <v>14</v>
+      </c>
+      <c r="BA182">
+        <v>3</v>
+      </c>
+      <c r="BB182">
+        <v>10</v>
+      </c>
+      <c r="BC182">
+        <v>13</v>
+      </c>
+      <c r="BD182">
+        <v>1.93</v>
+      </c>
+      <c r="BE182">
+        <v>8.5</v>
+      </c>
+      <c r="BF182">
+        <v>2.13</v>
+      </c>
+      <c r="BG182">
+        <v>1.27</v>
+      </c>
+      <c r="BH182">
+        <v>3.28</v>
+      </c>
+      <c r="BI182">
+        <v>1.51</v>
+      </c>
+      <c r="BJ182">
+        <v>2.32</v>
+      </c>
+      <c r="BK182">
+        <v>1.89</v>
+      </c>
+      <c r="BL182">
+        <v>1.81</v>
+      </c>
+      <c r="BM182">
+        <v>2.45</v>
+      </c>
+      <c r="BN182">
+        <v>1.46</v>
+      </c>
+      <c r="BO182">
+        <v>3.34</v>
+      </c>
+      <c r="BP182">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,15 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['2', '20', '31', '50', '54']</t>
+  </si>
+  <si>
+    <t>['70', '86']</t>
+  </si>
+  <si>
+    <t>['31', '83']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -932,6 +941,9 @@
   </si>
   <si>
     <t>['27', '44']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2042,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
         <v>1.45</v>
@@ -2251,7 +2263,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ5">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2376,7 +2388,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2457,7 +2469,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ6">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2788,7 +2800,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2866,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>1.55</v>
@@ -3406,7 +3418,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3612,7 +3624,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4024,7 +4036,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4102,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -4230,7 +4242,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4311,7 +4323,7 @@
         <v>0.18</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4436,7 +4448,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4642,7 +4654,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4929,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5260,7 +5272,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5544,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21">
         <v>0.91</v>
@@ -5672,7 +5684,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5878,7 +5890,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5956,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ23">
         <v>1.45</v>
@@ -6165,7 +6177,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ24">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>2.33</v>
@@ -6371,7 +6383,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6496,7 +6508,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7192,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -7732,7 +7744,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7938,7 +7950,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8350,7 +8362,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8556,7 +8568,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8637,7 +8649,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8762,7 +8774,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8843,7 +8855,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8968,7 +8980,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9174,7 +9186,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9255,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR39">
         <v>1.23</v>
@@ -9458,7 +9470,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
         <v>2.33</v>
@@ -9586,7 +9598,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9664,7 +9676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
         <v>1.45</v>
@@ -10204,7 +10216,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10410,7 +10422,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11234,7 +11246,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11440,7 +11452,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11646,7 +11658,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11933,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12136,10 +12148,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.59</v>
@@ -12264,7 +12276,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12470,7 +12482,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12676,7 +12688,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12754,10 +12766,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -12960,7 +12972,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ57">
         <v>1.45</v>
@@ -13088,7 +13100,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13294,7 +13306,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13500,7 +13512,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13706,7 +13718,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14736,7 +14748,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14942,7 +14954,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15226,10 +15238,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15354,7 +15366,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15560,7 +15572,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15641,7 +15653,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR70">
         <v>1.57</v>
@@ -15972,7 +15984,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16050,7 +16062,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16178,7 +16190,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16256,10 +16268,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ73">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR73">
         <v>1.26</v>
@@ -16384,7 +16396,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16590,7 +16602,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17002,7 +17014,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17208,7 +17220,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17414,7 +17426,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17701,7 +17713,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR80">
         <v>2.06</v>
@@ -18113,7 +18125,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR82">
         <v>1.55</v>
@@ -18316,7 +18328,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18444,7 +18456,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18522,7 +18534,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
         <v>0.83</v>
@@ -18934,7 +18946,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
         <v>1.27</v>
@@ -19143,7 +19155,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.39</v>
@@ -19268,7 +19280,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19474,7 +19486,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19680,7 +19692,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19886,7 +19898,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20092,7 +20104,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20298,7 +20310,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20504,7 +20516,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20582,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ94">
         <v>0.64</v>
@@ -20916,7 +20928,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20997,7 +21009,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21200,7 +21212,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ97">
         <v>1.55</v>
@@ -21328,7 +21340,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21409,7 +21421,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21740,7 +21752,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21821,7 +21833,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR100">
         <v>1.36</v>
@@ -22976,7 +22988,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23263,7 +23275,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ107">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23466,7 +23478,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23594,7 +23606,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -24006,7 +24018,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24418,7 +24430,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24499,7 +24511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24830,7 +24842,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25036,7 +25048,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25242,7 +25254,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25323,7 +25335,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25448,7 +25460,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25526,7 +25538,7 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ118">
         <v>1.27</v>
@@ -25654,7 +25666,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25860,7 +25872,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25938,7 +25950,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ120">
         <v>1.75</v>
@@ -26066,7 +26078,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26478,7 +26490,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26684,7 +26696,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26762,7 +26774,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ124">
         <v>1.36</v>
@@ -26890,7 +26902,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27096,7 +27108,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27174,7 +27186,7 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ126">
         <v>1.45</v>
@@ -27302,7 +27314,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27508,7 +27520,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27714,7 +27726,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27795,7 +27807,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28413,7 +28425,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ132">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
         <v>1.53</v>
@@ -28616,7 +28628,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ133">
         <v>1.55</v>
@@ -28744,7 +28756,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28825,7 +28837,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ134">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -29156,7 +29168,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29234,7 +29246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ136">
         <v>1.25</v>
@@ -29362,7 +29374,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29852,7 +29864,7 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ139">
         <v>0.83</v>
@@ -30186,7 +30198,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30392,7 +30404,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30473,7 +30485,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ142">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30598,7 +30610,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30804,7 +30816,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31422,7 +31434,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31500,7 +31512,7 @@
         <v>1.88</v>
       </c>
       <c r="AP147">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ147">
         <v>1.45</v>
@@ -31834,7 +31846,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31915,7 +31927,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR149">
         <v>1.3</v>
@@ -32040,7 +32052,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32121,7 +32133,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ150">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR150">
         <v>1.19</v>
@@ -32736,7 +32748,7 @@
         <v>2.44</v>
       </c>
       <c r="AP153">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ153">
         <v>2.33</v>
@@ -33070,7 +33082,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33276,7 +33288,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33354,7 +33366,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ156">
         <v>1.27</v>
@@ -34100,7 +34112,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34306,7 +34318,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34512,7 +34524,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34593,7 +34605,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>1.67</v>
@@ -35002,7 +35014,7 @@
         <v>2.5</v>
       </c>
       <c r="AP164">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ164">
         <v>2.33</v>
@@ -35211,7 +35223,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR165">
         <v>1.35</v>
@@ -35414,10 +35426,10 @@
         <v>2.2</v>
       </c>
       <c r="AP166">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ166">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35542,7 +35554,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35748,7 +35760,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35826,7 +35838,7 @@
         <v>0.9</v>
       </c>
       <c r="AP168">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ168">
         <v>1.25</v>
@@ -36160,7 +36172,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36366,7 +36378,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36572,7 +36584,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36778,7 +36790,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36984,7 +36996,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37190,7 +37202,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37396,7 +37408,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -38014,7 +38026,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38220,7 +38232,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38632,7 +38644,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -38789,6 +38801,624 @@
       </c>
       <c r="BP182">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>6676129</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>82</v>
+      </c>
+      <c r="H183" t="s">
+        <v>71</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183" t="s">
+        <v>213</v>
+      </c>
+      <c r="P183" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q183">
+        <v>1.73</v>
+      </c>
+      <c r="R183">
+        <v>2.5</v>
+      </c>
+      <c r="S183">
+        <v>7</v>
+      </c>
+      <c r="T183">
+        <v>1.27</v>
+      </c>
+      <c r="U183">
+        <v>3.45</v>
+      </c>
+      <c r="V183">
+        <v>2.31</v>
+      </c>
+      <c r="W183">
+        <v>1.56</v>
+      </c>
+      <c r="X183">
+        <v>5</v>
+      </c>
+      <c r="Y183">
+        <v>1.14</v>
+      </c>
+      <c r="Z183">
+        <v>1.25</v>
+      </c>
+      <c r="AA183">
+        <v>5.3</v>
+      </c>
+      <c r="AB183">
+        <v>8.6</v>
+      </c>
+      <c r="AC183">
+        <v>1.02</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.18</v>
+      </c>
+      <c r="AF183">
+        <v>4.5</v>
+      </c>
+      <c r="AG183">
+        <v>1.57</v>
+      </c>
+      <c r="AH183">
+        <v>2.25</v>
+      </c>
+      <c r="AI183">
+        <v>1.91</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.01</v>
+      </c>
+      <c r="AL183">
+        <v>1.09</v>
+      </c>
+      <c r="AM183">
+        <v>3.6</v>
+      </c>
+      <c r="AN183">
+        <v>2.09</v>
+      </c>
+      <c r="AO183">
+        <v>2</v>
+      </c>
+      <c r="AP183">
+        <v>2.17</v>
+      </c>
+      <c r="AQ183">
+        <v>1.83</v>
+      </c>
+      <c r="AR183">
+        <v>1.72</v>
+      </c>
+      <c r="AS183">
+        <v>1.23</v>
+      </c>
+      <c r="AT183">
+        <v>2.95</v>
+      </c>
+      <c r="AU183">
+        <v>11</v>
+      </c>
+      <c r="AV183">
+        <v>0</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>14</v>
+      </c>
+      <c r="AZ183">
+        <v>3</v>
+      </c>
+      <c r="BA183">
+        <v>10</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>10</v>
+      </c>
+      <c r="BD183">
+        <v>1.17</v>
+      </c>
+      <c r="BE183">
+        <v>11.75</v>
+      </c>
+      <c r="BF183">
+        <v>6.05</v>
+      </c>
+      <c r="BG183">
+        <v>1.25</v>
+      </c>
+      <c r="BH183">
+        <v>3.42</v>
+      </c>
+      <c r="BI183">
+        <v>1.52</v>
+      </c>
+      <c r="BJ183">
+        <v>2.47</v>
+      </c>
+      <c r="BK183">
+        <v>1.88</v>
+      </c>
+      <c r="BL183">
+        <v>1.92</v>
+      </c>
+      <c r="BM183">
+        <v>2.4</v>
+      </c>
+      <c r="BN183">
+        <v>1.55</v>
+      </c>
+      <c r="BO183">
+        <v>3.18</v>
+      </c>
+      <c r="BP183">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>6676126</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45396.22916666666</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" t="s">
+        <v>83</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>214</v>
+      </c>
+      <c r="P184" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q184">
+        <v>2.88</v>
+      </c>
+      <c r="R184">
+        <v>2.25</v>
+      </c>
+      <c r="S184">
+        <v>3.2</v>
+      </c>
+      <c r="T184">
+        <v>1.33</v>
+      </c>
+      <c r="U184">
+        <v>3.25</v>
+      </c>
+      <c r="V184">
+        <v>2.5</v>
+      </c>
+      <c r="W184">
+        <v>1.5</v>
+      </c>
+      <c r="X184">
+        <v>6</v>
+      </c>
+      <c r="Y184">
+        <v>1.11</v>
+      </c>
+      <c r="Z184">
+        <v>2.31</v>
+      </c>
+      <c r="AA184">
+        <v>3.55</v>
+      </c>
+      <c r="AB184">
+        <v>2.75</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>10.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.22</v>
+      </c>
+      <c r="AF184">
+        <v>4</v>
+      </c>
+      <c r="AG184">
+        <v>1.65</v>
+      </c>
+      <c r="AH184">
+        <v>2.1</v>
+      </c>
+      <c r="AI184">
+        <v>1.62</v>
+      </c>
+      <c r="AJ184">
+        <v>2.2</v>
+      </c>
+      <c r="AK184">
+        <v>1.44</v>
+      </c>
+      <c r="AL184">
+        <v>1.22</v>
+      </c>
+      <c r="AM184">
+        <v>1.57</v>
+      </c>
+      <c r="AN184">
+        <v>1.91</v>
+      </c>
+      <c r="AO184">
+        <v>0.73</v>
+      </c>
+      <c r="AP184">
+        <v>1.83</v>
+      </c>
+      <c r="AQ184">
+        <v>0.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.46</v>
+      </c>
+      <c r="AS184">
+        <v>1.19</v>
+      </c>
+      <c r="AT184">
+        <v>2.65</v>
+      </c>
+      <c r="AU184">
+        <v>4</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>3</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>7</v>
+      </c>
+      <c r="AZ184">
+        <v>9</v>
+      </c>
+      <c r="BA184">
+        <v>3</v>
+      </c>
+      <c r="BB184">
+        <v>9</v>
+      </c>
+      <c r="BC184">
+        <v>12</v>
+      </c>
+      <c r="BD184">
+        <v>2.21</v>
+      </c>
+      <c r="BE184">
+        <v>9.1</v>
+      </c>
+      <c r="BF184">
+        <v>1.84</v>
+      </c>
+      <c r="BG184">
+        <v>0</v>
+      </c>
+      <c r="BH184">
+        <v>0</v>
+      </c>
+      <c r="BI184">
+        <v>1.26</v>
+      </c>
+      <c r="BJ184">
+        <v>3.34</v>
+      </c>
+      <c r="BK184">
+        <v>1.91</v>
+      </c>
+      <c r="BL184">
+        <v>2.44</v>
+      </c>
+      <c r="BM184">
+        <v>1.86</v>
+      </c>
+      <c r="BN184">
+        <v>1.93</v>
+      </c>
+      <c r="BO184">
+        <v>2.3</v>
+      </c>
+      <c r="BP184">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>6676127</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45396.22916666666</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>76</v>
+      </c>
+      <c r="H185" t="s">
+        <v>85</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>215</v>
+      </c>
+      <c r="P185" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>3.1</v>
+      </c>
+      <c r="T185">
+        <v>1.3</v>
+      </c>
+      <c r="U185">
+        <v>3.4</v>
+      </c>
+      <c r="V185">
+        <v>2.5</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>5.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.13</v>
+      </c>
+      <c r="Z185">
+        <v>2.75</v>
+      </c>
+      <c r="AA185">
+        <v>3.65</v>
+      </c>
+      <c r="AB185">
+        <v>2.25</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>10</v>
+      </c>
+      <c r="AE185">
+        <v>1.2</v>
+      </c>
+      <c r="AF185">
+        <v>4.2</v>
+      </c>
+      <c r="AG185">
+        <v>1.6</v>
+      </c>
+      <c r="AH185">
+        <v>2.2</v>
+      </c>
+      <c r="AI185">
+        <v>1.62</v>
+      </c>
+      <c r="AJ185">
+        <v>2.2</v>
+      </c>
+      <c r="AK185">
+        <v>1.6</v>
+      </c>
+      <c r="AL185">
+        <v>1.29</v>
+      </c>
+      <c r="AM185">
+        <v>1.44</v>
+      </c>
+      <c r="AN185">
+        <v>0.64</v>
+      </c>
+      <c r="AO185">
+        <v>0.82</v>
+      </c>
+      <c r="AP185">
+        <v>0.83</v>
+      </c>
+      <c r="AQ185">
+        <v>0.75</v>
+      </c>
+      <c r="AR185">
+        <v>1.2</v>
+      </c>
+      <c r="AS185">
+        <v>1.29</v>
+      </c>
+      <c r="AT185">
+        <v>2.49</v>
+      </c>
+      <c r="AU185">
+        <v>6</v>
+      </c>
+      <c r="AV185">
+        <v>6</v>
+      </c>
+      <c r="AW185">
+        <v>7</v>
+      </c>
+      <c r="AX185">
+        <v>7</v>
+      </c>
+      <c r="AY185">
+        <v>13</v>
+      </c>
+      <c r="AZ185">
+        <v>13</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.93</v>
+      </c>
+      <c r="BE185">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF185">
+        <v>2.11</v>
+      </c>
+      <c r="BG185">
+        <v>0</v>
+      </c>
+      <c r="BH185">
+        <v>0</v>
+      </c>
+      <c r="BI185">
+        <v>1.36</v>
+      </c>
+      <c r="BJ185">
+        <v>2.79</v>
+      </c>
+      <c r="BK185">
+        <v>2.2</v>
+      </c>
+      <c r="BL185">
+        <v>2.13</v>
+      </c>
+      <c r="BM185">
+        <v>2.1</v>
+      </c>
+      <c r="BN185">
+        <v>1.71</v>
+      </c>
+      <c r="BO185">
+        <v>2.67</v>
+      </c>
+      <c r="BP185">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,9 @@
     <t>['31', '83']</t>
   </si>
   <si>
+    <t>['10', '33']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -944,6 +947,18 @@
   </si>
   <si>
     <t>['55', '90']</t>
+  </si>
+  <si>
+    <t>['63', '86']</t>
+  </si>
+  <si>
+    <t>['17', '59', '67', '83']</t>
+  </si>
+  <si>
+    <t>['22', '86']</t>
+  </si>
+  <si>
+    <t>['34', '86']</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1848,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -2057,7 +2072,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2388,7 +2403,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2466,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2672,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ7">
         <v>0.83</v>
@@ -2800,7 +2815,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3087,7 +3102,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3293,7 +3308,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3418,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3624,7 +3639,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3911,7 +3926,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4036,7 +4051,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4242,7 +4257,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4320,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ15">
         <v>1.83</v>
@@ -4448,7 +4463,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4526,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4654,7 +4669,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4735,7 +4750,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -4938,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ18">
         <v>0.75</v>
@@ -5147,7 +5162,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.61</v>
@@ -5272,7 +5287,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5350,7 +5365,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>2.33</v>
@@ -5684,7 +5699,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5762,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5890,7 +5905,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5971,7 +5986,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ23">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -6174,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6508,7 +6523,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6586,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ26">
         <v>0.83</v>
@@ -6792,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -7001,7 +7016,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7413,7 +7428,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7744,7 +7759,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7950,7 +7965,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8028,10 +8043,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8237,7 +8252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8362,7 +8377,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8440,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8568,7 +8583,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8646,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ36">
         <v>0.75</v>
@@ -8774,7 +8789,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8980,7 +8995,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9061,7 +9076,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ38">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.36</v>
@@ -9186,7 +9201,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9598,7 +9613,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9679,7 +9694,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.32</v>
@@ -9882,7 +9897,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -10088,7 +10103,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ43">
         <v>1.55</v>
@@ -10216,7 +10231,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10294,10 +10309,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ44">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.46</v>
@@ -10422,7 +10437,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10503,7 +10518,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -10709,7 +10724,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>2.25</v>
@@ -10912,10 +10927,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11118,7 +11133,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.91</v>
@@ -11246,7 +11261,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11452,7 +11467,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11658,7 +11673,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12276,7 +12291,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12482,7 +12497,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12560,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>2.33</v>
@@ -12688,7 +12703,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12975,7 +12990,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ57">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13100,7 +13115,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13178,10 +13193,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13306,7 +13321,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13384,10 +13399,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR59">
         <v>1.3</v>
@@ -13512,7 +13527,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13593,7 +13608,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ60">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13718,7 +13733,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13796,7 +13811,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ61">
         <v>1.55</v>
@@ -14005,7 +14020,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ62">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14208,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>0.91</v>
@@ -14414,10 +14429,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14620,10 +14635,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.61</v>
@@ -14748,7 +14763,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14954,7 +14969,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15366,7 +15381,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15572,7 +15587,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15984,7 +15999,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16190,7 +16205,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16396,7 +16411,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16474,10 +16489,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.68</v>
@@ -16602,7 +16617,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16886,10 +16901,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17014,7 +17029,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17092,10 +17107,10 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ77">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17220,7 +17235,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17298,10 +17313,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17426,7 +17441,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17507,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR79">
         <v>1.11</v>
@@ -18456,7 +18471,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18740,7 +18755,7 @@
         <v>2.4</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ85">
         <v>2.33</v>
@@ -18949,7 +18964,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19152,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19280,7 +19295,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19486,7 +19501,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19692,7 +19707,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19773,7 +19788,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19898,7 +19913,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19976,7 +19991,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -20104,7 +20119,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20182,7 +20197,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>2.33</v>
@@ -20310,7 +20325,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20388,10 +20403,10 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ93">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20516,7 +20531,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20597,7 +20612,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ94">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -20800,10 +20815,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ95">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20928,7 +20943,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21340,7 +21355,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21624,10 +21639,10 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR99">
         <v>1.57</v>
@@ -21752,7 +21767,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22448,7 +22463,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ103">
         <v>1.75</v>
@@ -22860,7 +22875,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -22988,7 +23003,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23069,7 +23084,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
         <v>1.24</v>
@@ -23272,7 +23287,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>0.75</v>
@@ -23481,7 +23496,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23606,7 +23621,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23684,7 +23699,7 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
         <v>1.55</v>
@@ -23890,7 +23905,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
         <v>0.91</v>
@@ -24018,7 +24033,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24099,7 +24114,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ111">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -24305,7 +24320,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ112">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24430,7 +24445,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24842,7 +24857,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25048,7 +25063,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25129,7 +25144,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25254,7 +25269,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25332,7 +25347,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ117">
         <v>1.83</v>
@@ -25460,7 +25475,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25541,7 +25556,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ118">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25666,7 +25681,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25744,7 +25759,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ119">
         <v>1.25</v>
@@ -25872,7 +25887,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26078,7 +26093,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26365,7 +26380,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26490,7 +26505,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26571,7 +26586,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26696,7 +26711,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26777,7 +26792,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ124">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -26902,7 +26917,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26980,7 +26995,7 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>1.75</v>
@@ -27108,7 +27123,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27189,7 +27204,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ126">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -27314,7 +27329,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27395,7 +27410,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27520,7 +27535,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27598,7 +27613,7 @@
         <v>2.38</v>
       </c>
       <c r="AP128">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ128">
         <v>2.33</v>
@@ -27726,7 +27741,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27804,7 +27819,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ129">
         <v>1.83</v>
@@ -28010,7 +28025,7 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130">
         <v>0.83</v>
@@ -28219,7 +28234,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28756,7 +28771,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28834,7 +28849,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ134">
         <v>0.75</v>
@@ -29168,7 +29183,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29374,7 +29389,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29452,10 +29467,10 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ137">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29658,7 +29673,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ138">
         <v>1.75</v>
@@ -30073,7 +30088,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ140">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30198,7 +30213,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30404,7 +30419,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30610,7 +30625,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30816,7 +30831,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30897,7 +30912,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -31100,7 +31115,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
         <v>1.25</v>
@@ -31309,7 +31324,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR146">
         <v>1.54</v>
@@ -31434,7 +31449,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31515,7 +31530,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ147">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31718,10 +31733,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31846,7 +31861,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31924,7 +31939,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ149">
         <v>0.75</v>
@@ -32052,7 +32067,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32336,10 +32351,10 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
         <v>1.62</v>
@@ -32542,7 +32557,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ152">
         <v>0.91</v>
@@ -32954,7 +32969,7 @@
         <v>1.89</v>
       </c>
       <c r="AP154">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154">
         <v>1.75</v>
@@ -33082,7 +33097,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33160,7 +33175,7 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ155">
         <v>1.25</v>
@@ -33288,7 +33303,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33369,7 +33384,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ156">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33575,7 +33590,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR157">
         <v>1.88</v>
@@ -33778,7 +33793,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>0.83</v>
@@ -34112,7 +34127,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34193,7 +34208,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ160">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34318,7 +34333,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34396,7 +34411,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ161">
         <v>0.91</v>
@@ -34524,7 +34539,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34808,10 +34823,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.57</v>
@@ -35554,7 +35569,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35760,7 +35775,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36047,7 +36062,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ169">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR169">
         <v>1.51</v>
@@ -36172,7 +36187,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36253,7 +36268,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ170">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR170">
         <v>1.17</v>
@@ -36378,7 +36393,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36456,7 +36471,7 @@
         <v>1.7</v>
       </c>
       <c r="AP171">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ171">
         <v>1.55</v>
@@ -36584,7 +36599,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36662,10 +36677,10 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR172">
         <v>1.41</v>
@@ -36790,7 +36805,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36871,7 +36886,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ173">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.24</v>
@@ -36996,7 +37011,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37202,7 +37217,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37280,7 +37295,7 @@
         <v>0.7</v>
       </c>
       <c r="AP175">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AQ175">
         <v>0.91</v>
@@ -37408,7 +37423,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37486,10 +37501,10 @@
         <v>0.6</v>
       </c>
       <c r="AP176">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ176">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR176">
         <v>1.28</v>
@@ -37692,10 +37707,10 @@
         <v>1.5</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ177">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR177">
         <v>1.52</v>
@@ -38026,7 +38041,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38232,7 +38247,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38644,7 +38659,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39056,7 +39071,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39419,6 +39434,1242 @@
       </c>
       <c r="BP185">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>6676132</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45401.54861111111</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>74</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>112</v>
+      </c>
+      <c r="P186" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q186">
+        <v>2.75</v>
+      </c>
+      <c r="R186">
+        <v>2.25</v>
+      </c>
+      <c r="S186">
+        <v>3.4</v>
+      </c>
+      <c r="T186">
+        <v>1.32</v>
+      </c>
+      <c r="U186">
+        <v>3.28</v>
+      </c>
+      <c r="V186">
+        <v>2.58</v>
+      </c>
+      <c r="W186">
+        <v>1.48</v>
+      </c>
+      <c r="X186">
+        <v>5.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.11</v>
+      </c>
+      <c r="Z186">
+        <v>2.25</v>
+      </c>
+      <c r="AA186">
+        <v>3.6</v>
+      </c>
+      <c r="AB186">
+        <v>3</v>
+      </c>
+      <c r="AC186">
+        <v>1.02</v>
+      </c>
+      <c r="AD186">
+        <v>10</v>
+      </c>
+      <c r="AE186">
+        <v>1.22</v>
+      </c>
+      <c r="AF186">
+        <v>3.8</v>
+      </c>
+      <c r="AG186">
+        <v>1.7</v>
+      </c>
+      <c r="AH186">
+        <v>2.1</v>
+      </c>
+      <c r="AI186">
+        <v>1.62</v>
+      </c>
+      <c r="AJ186">
+        <v>2.2</v>
+      </c>
+      <c r="AK186">
+        <v>1.33</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.5</v>
+      </c>
+      <c r="AN186">
+        <v>1.82</v>
+      </c>
+      <c r="AO186">
+        <v>1.27</v>
+      </c>
+      <c r="AP186">
+        <v>1.67</v>
+      </c>
+      <c r="AQ186">
+        <v>1.42</v>
+      </c>
+      <c r="AR186">
+        <v>1.54</v>
+      </c>
+      <c r="AS186">
+        <v>1.72</v>
+      </c>
+      <c r="AT186">
+        <v>3.26</v>
+      </c>
+      <c r="AU186">
+        <v>8</v>
+      </c>
+      <c r="AV186">
+        <v>5</v>
+      </c>
+      <c r="AW186">
+        <v>4</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>12</v>
+      </c>
+      <c r="AZ186">
+        <v>8</v>
+      </c>
+      <c r="BA186">
+        <v>8</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>1.6</v>
+      </c>
+      <c r="BE186">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF186">
+        <v>2.73</v>
+      </c>
+      <c r="BG186">
+        <v>1.23</v>
+      </c>
+      <c r="BH186">
+        <v>3.56</v>
+      </c>
+      <c r="BI186">
+        <v>1.44</v>
+      </c>
+      <c r="BJ186">
+        <v>2.51</v>
+      </c>
+      <c r="BK186">
+        <v>1.78</v>
+      </c>
+      <c r="BL186">
+        <v>1.93</v>
+      </c>
+      <c r="BM186">
+        <v>2.25</v>
+      </c>
+      <c r="BN186">
+        <v>1.54</v>
+      </c>
+      <c r="BO186">
+        <v>3.04</v>
+      </c>
+      <c r="BP186">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>6676134</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45401.54861111111</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>203</v>
+      </c>
+      <c r="P187" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q187">
+        <v>2.2</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>5</v>
+      </c>
+      <c r="T187">
+        <v>1.35</v>
+      </c>
+      <c r="U187">
+        <v>3.12</v>
+      </c>
+      <c r="V187">
+        <v>2.77</v>
+      </c>
+      <c r="W187">
+        <v>1.43</v>
+      </c>
+      <c r="X187">
+        <v>6.7</v>
+      </c>
+      <c r="Y187">
+        <v>1.09</v>
+      </c>
+      <c r="Z187">
+        <v>1.65</v>
+      </c>
+      <c r="AA187">
+        <v>4</v>
+      </c>
+      <c r="AB187">
+        <v>5.25</v>
+      </c>
+      <c r="AC187">
+        <v>1.01</v>
+      </c>
+      <c r="AD187">
+        <v>9.6</v>
+      </c>
+      <c r="AE187">
+        <v>1.25</v>
+      </c>
+      <c r="AF187">
+        <v>3.42</v>
+      </c>
+      <c r="AG187">
+        <v>1.85</v>
+      </c>
+      <c r="AH187">
+        <v>1.95</v>
+      </c>
+      <c r="AI187">
+        <v>1.91</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.13</v>
+      </c>
+      <c r="AL187">
+        <v>1.23</v>
+      </c>
+      <c r="AM187">
+        <v>2.28</v>
+      </c>
+      <c r="AN187">
+        <v>2</v>
+      </c>
+      <c r="AO187">
+        <v>1.45</v>
+      </c>
+      <c r="AP187">
+        <v>2.08</v>
+      </c>
+      <c r="AQ187">
+        <v>1.33</v>
+      </c>
+      <c r="AR187">
+        <v>1.48</v>
+      </c>
+      <c r="AS187">
+        <v>1.16</v>
+      </c>
+      <c r="AT187">
+        <v>2.64</v>
+      </c>
+      <c r="AU187">
+        <v>7</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>5</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>9</v>
+      </c>
+      <c r="BD187">
+        <v>1.29</v>
+      </c>
+      <c r="BE187">
+        <v>10.5</v>
+      </c>
+      <c r="BF187">
+        <v>4.25</v>
+      </c>
+      <c r="BG187">
+        <v>1.18</v>
+      </c>
+      <c r="BH187">
+        <v>4.05</v>
+      </c>
+      <c r="BI187">
+        <v>1.36</v>
+      </c>
+      <c r="BJ187">
+        <v>2.78</v>
+      </c>
+      <c r="BK187">
+        <v>2.1</v>
+      </c>
+      <c r="BL187">
+        <v>2.09</v>
+      </c>
+      <c r="BM187">
+        <v>2.07</v>
+      </c>
+      <c r="BN187">
+        <v>1.64</v>
+      </c>
+      <c r="BO187">
+        <v>2.71</v>
+      </c>
+      <c r="BP187">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>6676135</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45401.54861111111</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>83</v>
+      </c>
+      <c r="H188" t="s">
+        <v>76</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>4</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188" t="s">
+        <v>100</v>
+      </c>
+      <c r="P188" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q188">
+        <v>2.5</v>
+      </c>
+      <c r="R188">
+        <v>2.4</v>
+      </c>
+      <c r="S188">
+        <v>3.25</v>
+      </c>
+      <c r="T188">
+        <v>1.28</v>
+      </c>
+      <c r="U188">
+        <v>3.48</v>
+      </c>
+      <c r="V188">
+        <v>2.33</v>
+      </c>
+      <c r="W188">
+        <v>1.58</v>
+      </c>
+      <c r="X188">
+        <v>5.25</v>
+      </c>
+      <c r="Y188">
+        <v>1.14</v>
+      </c>
+      <c r="Z188">
+        <v>2.1</v>
+      </c>
+      <c r="AA188">
+        <v>4</v>
+      </c>
+      <c r="AB188">
+        <v>3.1</v>
+      </c>
+      <c r="AC188">
+        <v>1.02</v>
+      </c>
+      <c r="AD188">
+        <v>10</v>
+      </c>
+      <c r="AE188">
+        <v>1.14</v>
+      </c>
+      <c r="AF188">
+        <v>4.7</v>
+      </c>
+      <c r="AG188">
+        <v>1.5</v>
+      </c>
+      <c r="AH188">
+        <v>2.5</v>
+      </c>
+      <c r="AI188">
+        <v>1.5</v>
+      </c>
+      <c r="AJ188">
+        <v>2.5</v>
+      </c>
+      <c r="AK188">
+        <v>1.22</v>
+      </c>
+      <c r="AL188">
+        <v>1.22</v>
+      </c>
+      <c r="AM188">
+        <v>1.72</v>
+      </c>
+      <c r="AN188">
+        <v>0.18</v>
+      </c>
+      <c r="AO188">
+        <v>0.64</v>
+      </c>
+      <c r="AP188">
+        <v>0.17</v>
+      </c>
+      <c r="AQ188">
+        <v>0.83</v>
+      </c>
+      <c r="AR188">
+        <v>1.47</v>
+      </c>
+      <c r="AS188">
+        <v>1.47</v>
+      </c>
+      <c r="AT188">
+        <v>2.94</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>10</v>
+      </c>
+      <c r="AW188">
+        <v>10</v>
+      </c>
+      <c r="AX188">
+        <v>6</v>
+      </c>
+      <c r="AY188">
+        <v>15</v>
+      </c>
+      <c r="AZ188">
+        <v>16</v>
+      </c>
+      <c r="BA188">
+        <v>10</v>
+      </c>
+      <c r="BB188">
+        <v>7</v>
+      </c>
+      <c r="BC188">
+        <v>17</v>
+      </c>
+      <c r="BD188">
+        <v>1.56</v>
+      </c>
+      <c r="BE188">
+        <v>9.5</v>
+      </c>
+      <c r="BF188">
+        <v>2.78</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>1.26</v>
+      </c>
+      <c r="BJ188">
+        <v>3.34</v>
+      </c>
+      <c r="BK188">
+        <v>1.83</v>
+      </c>
+      <c r="BL188">
+        <v>2.42</v>
+      </c>
+      <c r="BM188">
+        <v>1.81</v>
+      </c>
+      <c r="BN188">
+        <v>1.89</v>
+      </c>
+      <c r="BO188">
+        <v>2.28</v>
+      </c>
+      <c r="BP188">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>6676137</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45401.54861111111</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>84</v>
+      </c>
+      <c r="H189" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>216</v>
+      </c>
+      <c r="P189" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q189">
+        <v>2.63</v>
+      </c>
+      <c r="R189">
+        <v>2.25</v>
+      </c>
+      <c r="S189">
+        <v>3.4</v>
+      </c>
+      <c r="T189">
+        <v>1.33</v>
+      </c>
+      <c r="U189">
+        <v>3.15</v>
+      </c>
+      <c r="V189">
+        <v>2.54</v>
+      </c>
+      <c r="W189">
+        <v>1.5</v>
+      </c>
+      <c r="X189">
+        <v>6</v>
+      </c>
+      <c r="Y189">
+        <v>1.11</v>
+      </c>
+      <c r="Z189">
+        <v>2.1</v>
+      </c>
+      <c r="AA189">
+        <v>3.6</v>
+      </c>
+      <c r="AB189">
+        <v>3.2</v>
+      </c>
+      <c r="AC189">
+        <v>1.04</v>
+      </c>
+      <c r="AD189">
+        <v>10.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.2</v>
+      </c>
+      <c r="AF189">
+        <v>3.9</v>
+      </c>
+      <c r="AG189">
+        <v>1.67</v>
+      </c>
+      <c r="AH189">
+        <v>2.15</v>
+      </c>
+      <c r="AI189">
+        <v>1.62</v>
+      </c>
+      <c r="AJ189">
+        <v>2.2</v>
+      </c>
+      <c r="AK189">
+        <v>1.18</v>
+      </c>
+      <c r="AL189">
+        <v>1.23</v>
+      </c>
+      <c r="AM189">
+        <v>2.1</v>
+      </c>
+      <c r="AN189">
+        <v>1.64</v>
+      </c>
+      <c r="AO189">
+        <v>1</v>
+      </c>
+      <c r="AP189">
+        <v>1.75</v>
+      </c>
+      <c r="AQ189">
+        <v>0.92</v>
+      </c>
+      <c r="AR189">
+        <v>1.36</v>
+      </c>
+      <c r="AS189">
+        <v>1.22</v>
+      </c>
+      <c r="AT189">
+        <v>2.58</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>8</v>
+      </c>
+      <c r="AW189">
+        <v>3</v>
+      </c>
+      <c r="AX189">
+        <v>6</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>14</v>
+      </c>
+      <c r="BA189">
+        <v>3</v>
+      </c>
+      <c r="BB189">
+        <v>7</v>
+      </c>
+      <c r="BC189">
+        <v>10</v>
+      </c>
+      <c r="BD189">
+        <v>1.44</v>
+      </c>
+      <c r="BE189">
+        <v>9.9</v>
+      </c>
+      <c r="BF189">
+        <v>3.22</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
+      </c>
+      <c r="BH189">
+        <v>0</v>
+      </c>
+      <c r="BI189">
+        <v>1.25</v>
+      </c>
+      <c r="BJ189">
+        <v>3.42</v>
+      </c>
+      <c r="BK189">
+        <v>1.48</v>
+      </c>
+      <c r="BL189">
+        <v>2.53</v>
+      </c>
+      <c r="BM189">
+        <v>1.81</v>
+      </c>
+      <c r="BN189">
+        <v>1.98</v>
+      </c>
+      <c r="BO189">
+        <v>2.25</v>
+      </c>
+      <c r="BP189">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>6676139</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45401.54861111111</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>85</v>
+      </c>
+      <c r="H190" t="s">
+        <v>82</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>86</v>
+      </c>
+      <c r="P190" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q190">
+        <v>5.5</v>
+      </c>
+      <c r="R190">
+        <v>2.4</v>
+      </c>
+      <c r="S190">
+        <v>1.91</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.2</v>
+      </c>
+      <c r="V190">
+        <v>2.46</v>
+      </c>
+      <c r="W190">
+        <v>1.53</v>
+      </c>
+      <c r="X190">
+        <v>5.3</v>
+      </c>
+      <c r="Y190">
+        <v>1.12</v>
+      </c>
+      <c r="Z190">
+        <v>6.5</v>
+      </c>
+      <c r="AA190">
+        <v>4.5</v>
+      </c>
+      <c r="AB190">
+        <v>1.45</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>9</v>
+      </c>
+      <c r="AE190">
+        <v>1.15</v>
+      </c>
+      <c r="AF190">
+        <v>4.6</v>
+      </c>
+      <c r="AG190">
+        <v>1.57</v>
+      </c>
+      <c r="AH190">
+        <v>2.35</v>
+      </c>
+      <c r="AI190">
+        <v>1.8</v>
+      </c>
+      <c r="AJ190">
+        <v>1.91</v>
+      </c>
+      <c r="AK190">
+        <v>2</v>
+      </c>
+      <c r="AL190">
+        <v>1.18</v>
+      </c>
+      <c r="AM190">
+        <v>1.14</v>
+      </c>
+      <c r="AN190">
+        <v>2.18</v>
+      </c>
+      <c r="AO190">
+        <v>1.36</v>
+      </c>
+      <c r="AP190">
+        <v>2</v>
+      </c>
+      <c r="AQ190">
+        <v>1.5</v>
+      </c>
+      <c r="AR190">
+        <v>1.37</v>
+      </c>
+      <c r="AS190">
+        <v>1.58</v>
+      </c>
+      <c r="AT190">
+        <v>2.95</v>
+      </c>
+      <c r="AU190">
+        <v>2</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>1</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>3</v>
+      </c>
+      <c r="AZ190">
+        <v>9</v>
+      </c>
+      <c r="BA190">
+        <v>2</v>
+      </c>
+      <c r="BB190">
+        <v>3</v>
+      </c>
+      <c r="BC190">
+        <v>5</v>
+      </c>
+      <c r="BD190">
+        <v>3.85</v>
+      </c>
+      <c r="BE190">
+        <v>9.5</v>
+      </c>
+      <c r="BF190">
+        <v>1.35</v>
+      </c>
+      <c r="BG190">
+        <v>1.24</v>
+      </c>
+      <c r="BH190">
+        <v>3.48</v>
+      </c>
+      <c r="BI190">
+        <v>1.51</v>
+      </c>
+      <c r="BJ190">
+        <v>2.47</v>
+      </c>
+      <c r="BK190">
+        <v>1.84</v>
+      </c>
+      <c r="BL190">
+        <v>1.95</v>
+      </c>
+      <c r="BM190">
+        <v>2.29</v>
+      </c>
+      <c r="BN190">
+        <v>1.59</v>
+      </c>
+      <c r="BO190">
+        <v>3.08</v>
+      </c>
+      <c r="BP190">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>6676130</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45401.64583333334</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>71</v>
+      </c>
+      <c r="H191" t="s">
+        <v>77</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>86</v>
+      </c>
+      <c r="P191" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q191">
+        <v>4</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>2.6</v>
+      </c>
+      <c r="T191">
+        <v>1.41</v>
+      </c>
+      <c r="U191">
+        <v>2.78</v>
+      </c>
+      <c r="V191">
+        <v>2.9</v>
+      </c>
+      <c r="W191">
+        <v>1.38</v>
+      </c>
+      <c r="X191">
+        <v>7.4</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>3.75</v>
+      </c>
+      <c r="AA191">
+        <v>3.6</v>
+      </c>
+      <c r="AB191">
+        <v>2</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>8.6</v>
+      </c>
+      <c r="AE191">
+        <v>1.29</v>
+      </c>
+      <c r="AF191">
+        <v>3.14</v>
+      </c>
+      <c r="AG191">
+        <v>2</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.83</v>
+      </c>
+      <c r="AJ191">
+        <v>1.83</v>
+      </c>
+      <c r="AK191">
+        <v>1.72</v>
+      </c>
+      <c r="AL191">
+        <v>1.29</v>
+      </c>
+      <c r="AM191">
+        <v>1.29</v>
+      </c>
+      <c r="AN191">
+        <v>1.18</v>
+      </c>
+      <c r="AO191">
+        <v>1.45</v>
+      </c>
+      <c r="AP191">
+        <v>1.08</v>
+      </c>
+      <c r="AQ191">
+        <v>1.58</v>
+      </c>
+      <c r="AR191">
+        <v>1.32</v>
+      </c>
+      <c r="AS191">
+        <v>1.37</v>
+      </c>
+      <c r="AT191">
+        <v>2.69</v>
+      </c>
+      <c r="AU191">
+        <v>2</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>1</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>3</v>
+      </c>
+      <c r="AZ191">
+        <v>9</v>
+      </c>
+      <c r="BA191">
+        <v>3</v>
+      </c>
+      <c r="BB191">
+        <v>7</v>
+      </c>
+      <c r="BC191">
+        <v>10</v>
+      </c>
+      <c r="BD191">
+        <v>2.5</v>
+      </c>
+      <c r="BE191">
+        <v>9.1</v>
+      </c>
+      <c r="BF191">
+        <v>1.68</v>
+      </c>
+      <c r="BG191">
+        <v>1.19</v>
+      </c>
+      <c r="BH191">
+        <v>3.95</v>
+      </c>
+      <c r="BI191">
+        <v>1.38</v>
+      </c>
+      <c r="BJ191">
+        <v>2.71</v>
+      </c>
+      <c r="BK191">
+        <v>2.2</v>
+      </c>
+      <c r="BL191">
+        <v>2.07</v>
+      </c>
+      <c r="BM191">
+        <v>2.15</v>
+      </c>
+      <c r="BN191">
+        <v>1.68</v>
+      </c>
+      <c r="BO191">
+        <v>2.79</v>
+      </c>
+      <c r="BP191">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -39579,7 +39579,7 @@
         <v>8</v>
       </c>
       <c r="AV186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW186">
         <v>4</v>
@@ -39591,7 +39591,7 @@
         <v>12</v>
       </c>
       <c r="AZ186">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA186">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['10', '33']</t>
   </si>
   <si>
+    <t>['56', '63']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -959,6 +962,9 @@
   </si>
   <si>
     <t>['34', '86']</t>
+  </si>
+  <si>
+    <t>['11', '85']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1666,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ2">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2403,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2815,7 +2821,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3433,7 +3439,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3639,7 +3645,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -4051,7 +4057,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4257,7 +4263,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4463,7 +4469,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4669,7 +4675,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5159,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5287,7 +5293,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5574,7 +5580,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5699,7 +5705,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5905,7 +5911,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6523,7 +6529,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7759,7 +7765,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7965,7 +7971,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8377,7 +8383,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8583,7 +8589,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8789,7 +8795,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8867,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8995,7 +9001,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9201,7 +9207,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9613,7 +9619,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10231,7 +10237,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10437,7 +10443,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11136,7 +11142,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11261,7 +11267,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11467,7 +11473,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11673,7 +11679,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12291,7 +12297,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12497,7 +12503,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12703,7 +12709,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13115,7 +13121,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13321,7 +13327,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13527,7 +13533,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13605,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13733,7 +13739,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14226,7 +14232,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14763,7 +14769,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14969,7 +14975,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15381,7 +15387,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15587,7 +15593,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15999,7 +16005,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16205,7 +16211,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16411,7 +16417,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16617,7 +16623,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16695,7 +16701,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ75">
         <v>1.55</v>
@@ -17029,7 +17035,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17235,7 +17241,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17441,7 +17447,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18471,7 +18477,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19295,7 +19301,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19376,7 +19382,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ88">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19501,7 +19507,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19707,7 +19713,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19913,7 +19919,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20119,7 +20125,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20325,7 +20331,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20531,7 +20537,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20943,7 +20949,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21021,7 +21027,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ96">
         <v>1.83</v>
@@ -21355,7 +21361,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21767,7 +21773,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22260,7 +22266,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -23003,7 +23009,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23081,7 +23087,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23621,7 +23627,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23908,7 +23914,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ110">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24033,7 +24039,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24445,7 +24451,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24857,7 +24863,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25063,7 +25069,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25269,7 +25275,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25475,7 +25481,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25681,7 +25687,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25887,7 +25893,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26093,7 +26099,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26171,7 +26177,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ121">
         <v>1.25</v>
@@ -26505,7 +26511,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26711,7 +26717,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26917,7 +26923,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27123,7 +27129,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27329,7 +27335,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27535,7 +27541,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27741,7 +27747,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28771,7 +28777,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29058,7 +29064,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ135">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29183,7 +29189,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29389,7 +29395,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30213,7 +30219,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30419,7 +30425,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30625,7 +30631,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30831,7 +30837,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31449,7 +31455,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31861,7 +31867,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32067,7 +32073,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32145,7 +32151,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ150">
         <v>0.75</v>
@@ -32560,7 +32566,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ152">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR152">
         <v>1.58</v>
@@ -33097,7 +33103,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33303,7 +33309,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -34127,7 +34133,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34333,7 +34339,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34414,7 +34420,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ161">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34539,7 +34545,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35569,7 +35575,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35647,7 +35653,7 @@
         <v>1.5</v>
       </c>
       <c r="AP167">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
         <v>1.25</v>
@@ -35775,7 +35781,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36187,7 +36193,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36265,7 +36271,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ170">
         <v>1.42</v>
@@ -36393,7 +36399,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36599,7 +36605,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36805,7 +36811,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -37011,7 +37017,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37217,7 +37223,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37298,7 +37304,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ175">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR175">
         <v>1.4</v>
@@ -37423,7 +37429,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -38041,7 +38047,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38247,7 +38253,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38659,7 +38665,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39071,7 +39077,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39483,7 +39489,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39895,7 +39901,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40307,7 +40313,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40513,7 +40519,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40670,6 +40676,212 @@
       </c>
       <c r="BP191">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>6676133</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45402.39583333334</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>80</v>
+      </c>
+      <c r="H192" t="s">
+        <v>79</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>217</v>
+      </c>
+      <c r="P192" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q192">
+        <v>2.75</v>
+      </c>
+      <c r="R192">
+        <v>2.2</v>
+      </c>
+      <c r="S192">
+        <v>3.4</v>
+      </c>
+      <c r="T192">
+        <v>1.35</v>
+      </c>
+      <c r="U192">
+        <v>2.95</v>
+      </c>
+      <c r="V192">
+        <v>2.6</v>
+      </c>
+      <c r="W192">
+        <v>1.44</v>
+      </c>
+      <c r="X192">
+        <v>6</v>
+      </c>
+      <c r="Y192">
+        <v>1.1</v>
+      </c>
+      <c r="Z192">
+        <v>2.2</v>
+      </c>
+      <c r="AA192">
+        <v>3.3</v>
+      </c>
+      <c r="AB192">
+        <v>3.3</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>10.25</v>
+      </c>
+      <c r="AE192">
+        <v>1.25</v>
+      </c>
+      <c r="AF192">
+        <v>3.75</v>
+      </c>
+      <c r="AG192">
+        <v>1.75</v>
+      </c>
+      <c r="AH192">
+        <v>2.05</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.38</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>1.63</v>
+      </c>
+      <c r="AN192">
+        <v>1.45</v>
+      </c>
+      <c r="AO192">
+        <v>0.91</v>
+      </c>
+      <c r="AP192">
+        <v>1.42</v>
+      </c>
+      <c r="AQ192">
+        <v>0.92</v>
+      </c>
+      <c r="AR192">
+        <v>1.19</v>
+      </c>
+      <c r="AS192">
+        <v>0.89</v>
+      </c>
+      <c r="AT192">
+        <v>2.08</v>
+      </c>
+      <c r="AU192">
+        <v>5</v>
+      </c>
+      <c r="AV192">
+        <v>8</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>10</v>
+      </c>
+      <c r="AZ192">
+        <v>13</v>
+      </c>
+      <c r="BA192">
+        <v>2</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>7</v>
+      </c>
+      <c r="BD192">
+        <v>1.88</v>
+      </c>
+      <c r="BE192">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF192">
+        <v>2.18</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
+      <c r="BH192">
+        <v>0</v>
+      </c>
+      <c r="BI192">
+        <v>1.36</v>
+      </c>
+      <c r="BJ192">
+        <v>2.79</v>
+      </c>
+      <c r="BK192">
+        <v>1.69</v>
+      </c>
+      <c r="BL192">
+        <v>2.11</v>
+      </c>
+      <c r="BM192">
+        <v>2.11</v>
+      </c>
+      <c r="BN192">
+        <v>1.69</v>
+      </c>
+      <c r="BO192">
+        <v>2.67</v>
+      </c>
+      <c r="BP192">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>['56', '63']</t>
+  </si>
+  <si>
+    <t>['20', '77', '88']</t>
   </si>
   <si>
     <t>['14', '37']</t>
@@ -1326,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2281,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2409,7 +2412,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2821,7 +2824,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2902,7 +2905,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ8">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3439,7 +3442,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3645,7 +3648,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4057,7 +4060,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4263,7 +4266,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4469,7 +4472,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4675,7 +4678,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5293,7 +5296,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5705,7 +5708,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5911,7 +5914,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6529,7 +6532,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7431,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0.83</v>
@@ -7765,7 +7768,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7846,7 +7849,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7971,7 +7974,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8383,7 +8386,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8589,7 +8592,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8795,7 +8798,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9001,7 +9004,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9207,7 +9210,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9619,7 +9622,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10112,7 +10115,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ43">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -10237,7 +10240,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10443,7 +10446,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10727,7 +10730,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -11267,7 +11270,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11473,7 +11476,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11679,7 +11682,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12297,7 +12300,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12503,7 +12506,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12709,7 +12712,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13121,7 +13124,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13327,7 +13330,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13533,7 +13536,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13739,7 +13742,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13820,7 +13823,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ61">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -14023,7 +14026,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>1.42</v>
@@ -14769,7 +14772,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14975,7 +14978,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15387,7 +15390,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15593,7 +15596,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -16005,7 +16008,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16211,7 +16214,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16417,7 +16420,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16623,7 +16626,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16704,7 +16707,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ75">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -17035,7 +17038,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17241,7 +17244,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17447,7 +17450,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17731,7 +17734,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ80">
         <v>1.83</v>
@@ -18477,7 +18480,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19301,7 +19304,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19507,7 +19510,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19713,7 +19716,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19919,7 +19922,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20125,7 +20128,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20331,7 +20334,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20537,7 +20540,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20949,7 +20952,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21236,7 +21239,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ97">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR97">
         <v>1.64</v>
@@ -21361,7 +21364,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21773,7 +21776,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22675,7 +22678,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -23009,7 +23012,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23627,7 +23630,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23708,7 +23711,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR109">
         <v>1.28</v>
@@ -24039,7 +24042,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24117,7 +24120,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ111">
         <v>1.58</v>
@@ -24451,7 +24454,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24863,7 +24866,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25069,7 +25072,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25275,7 +25278,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25481,7 +25484,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25687,7 +25690,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25893,7 +25896,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26099,7 +26102,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26511,7 +26514,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26717,7 +26720,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26923,7 +26926,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27129,7 +27132,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27335,7 +27338,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27541,7 +27544,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27747,7 +27750,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28652,7 +28655,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ133">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28777,7 +28780,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29061,7 +29064,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ135">
         <v>0.92</v>
@@ -29189,7 +29192,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29395,7 +29398,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30219,7 +30222,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30297,7 +30300,7 @@
         <v>1.56</v>
       </c>
       <c r="AP141">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ141">
         <v>1.25</v>
@@ -30425,7 +30428,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30631,7 +30634,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30712,7 +30715,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ143">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR143">
         <v>1.5</v>
@@ -30837,7 +30840,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31455,7 +31458,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31867,7 +31870,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32073,7 +32076,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -33103,7 +33106,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33309,7 +33312,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33593,7 +33596,7 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ157">
         <v>0.92</v>
@@ -34008,7 +34011,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ159">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR159">
         <v>1.59</v>
@@ -34133,7 +34136,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34339,7 +34342,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34545,7 +34548,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35575,7 +35578,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35781,7 +35784,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36193,7 +36196,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36399,7 +36402,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36480,7 +36483,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ171">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36605,7 +36608,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36811,7 +36814,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -37017,7 +37020,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37095,7 +37098,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ174">
         <v>1.75</v>
@@ -37223,7 +37226,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37429,7 +37432,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -38047,7 +38050,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38253,7 +38256,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38665,7 +38668,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39077,7 +39080,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39489,7 +39492,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39901,7 +39904,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40313,7 +40316,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40519,7 +40522,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40725,7 +40728,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40881,6 +40884,212 @@
         <v>2.67</v>
       </c>
       <c r="BP192">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>6676136</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45403.22916666666</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s">
+        <v>78</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193" t="s">
+        <v>218</v>
+      </c>
+      <c r="P193" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q193">
+        <v>2.5</v>
+      </c>
+      <c r="R193">
+        <v>2.25</v>
+      </c>
+      <c r="S193">
+        <v>4</v>
+      </c>
+      <c r="T193">
+        <v>1.33</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.5</v>
+      </c>
+      <c r="W193">
+        <v>1.48</v>
+      </c>
+      <c r="X193">
+        <v>5.75</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>1.95</v>
+      </c>
+      <c r="AA193">
+        <v>3.5</v>
+      </c>
+      <c r="AB193">
+        <v>3.3</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>10</v>
+      </c>
+      <c r="AE193">
+        <v>1.25</v>
+      </c>
+      <c r="AF193">
+        <v>3.6</v>
+      </c>
+      <c r="AG193">
+        <v>1.73</v>
+      </c>
+      <c r="AH193">
+        <v>2</v>
+      </c>
+      <c r="AI193">
+        <v>1.67</v>
+      </c>
+      <c r="AJ193">
+        <v>2.1</v>
+      </c>
+      <c r="AK193">
+        <v>1.25</v>
+      </c>
+      <c r="AL193">
+        <v>1.29</v>
+      </c>
+      <c r="AM193">
+        <v>1.8</v>
+      </c>
+      <c r="AN193">
+        <v>2.18</v>
+      </c>
+      <c r="AO193">
+        <v>1.55</v>
+      </c>
+      <c r="AP193">
+        <v>2.25</v>
+      </c>
+      <c r="AQ193">
+        <v>1.42</v>
+      </c>
+      <c r="AR193">
+        <v>1.8</v>
+      </c>
+      <c r="AS193">
+        <v>1.58</v>
+      </c>
+      <c r="AT193">
+        <v>3.38</v>
+      </c>
+      <c r="AU193">
+        <v>6</v>
+      </c>
+      <c r="AV193">
+        <v>6</v>
+      </c>
+      <c r="AW193">
+        <v>5</v>
+      </c>
+      <c r="AX193">
+        <v>2</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>8</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
+        <v>9</v>
+      </c>
+      <c r="BC193">
+        <v>11</v>
+      </c>
+      <c r="BD193">
+        <v>1.75</v>
+      </c>
+      <c r="BE193">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF193">
+        <v>2.38</v>
+      </c>
+      <c r="BG193">
+        <v>1.21</v>
+      </c>
+      <c r="BH193">
+        <v>4.1</v>
+      </c>
+      <c r="BI193">
+        <v>1.35</v>
+      </c>
+      <c r="BJ193">
+        <v>2.84</v>
+      </c>
+      <c r="BK193">
+        <v>2.25</v>
+      </c>
+      <c r="BL193">
+        <v>2.09</v>
+      </c>
+      <c r="BM193">
+        <v>2.04</v>
+      </c>
+      <c r="BN193">
+        <v>1.69</v>
+      </c>
+      <c r="BO193">
+        <v>2.67</v>
+      </c>
+      <c r="BP193">
         <v>1.39</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,15 @@
     <t>['20', '77', '88']</t>
   </si>
   <si>
+    <t>['68', '79']</t>
+  </si>
+  <si>
+    <t>['8', '22', '33']</t>
+  </si>
+  <si>
+    <t>['2', '4']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -968,6 +977,21 @@
   </si>
   <si>
     <t>['11', '85']</t>
+  </si>
+  <si>
+    <t>['5', '22', '34']</t>
+  </si>
+  <si>
+    <t>['35', '38', '84']</t>
+  </si>
+  <si>
+    <t>['31', '44', '89']</t>
+  </si>
+  <si>
+    <t>['54', '78', '86']</t>
+  </si>
+  <si>
+    <t>['36', '49']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1693,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ2">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1872,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2078,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2287,7 +2311,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2412,7 +2436,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2493,7 +2517,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2696,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2824,7 +2848,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2902,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ8">
         <v>1.42</v>
@@ -3108,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3314,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>0.92</v>
@@ -3442,7 +3466,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3523,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3648,7 +3672,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3729,7 +3753,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3932,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.58</v>
@@ -4060,7 +4084,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4138,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -4266,7 +4290,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4472,7 +4496,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4678,7 +4702,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4756,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -4962,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5296,7 +5320,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5377,7 +5401,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5580,10 +5604,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5708,7 +5732,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5786,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5914,7 +5938,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5992,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ23">
         <v>1.58</v>
@@ -6201,7 +6225,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24">
         <v>2.33</v>
@@ -6532,7 +6556,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6613,7 +6637,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6819,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7022,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ28">
         <v>0.92</v>
@@ -7228,10 +7252,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR29">
         <v>1.62</v>
@@ -7768,7 +7792,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7846,7 +7870,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.42</v>
@@ -7974,7 +7998,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8055,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8258,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>1.58</v>
@@ -8386,7 +8410,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8467,7 +8491,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8592,7 +8616,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8670,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8798,7 +8822,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8879,7 +8903,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9004,7 +9028,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9210,7 +9234,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9494,10 +9518,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9622,7 +9646,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9700,7 +9724,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9909,7 +9933,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10240,7 +10264,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10318,7 +10342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10446,7 +10470,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10524,10 +10548,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ45">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -10936,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>0.92</v>
@@ -11145,7 +11169,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11270,7 +11294,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11348,10 +11372,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11476,7 +11500,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11554,7 +11578,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11682,7 +11706,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11760,10 +11784,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11969,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12172,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR53">
         <v>1.59</v>
@@ -12300,7 +12324,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12381,7 +12405,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.27</v>
@@ -12506,7 +12530,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12587,7 +12611,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12712,7 +12736,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12790,7 +12814,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ56">
         <v>1.83</v>
@@ -12996,7 +13020,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -13124,7 +13148,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13330,7 +13354,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13536,7 +13560,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13742,7 +13766,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13820,7 +13844,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.42</v>
@@ -14029,7 +14053,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14235,7 +14259,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14438,7 +14462,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14772,7 +14796,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14853,7 +14877,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -14978,7 +15002,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15059,7 +15083,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15262,10 +15286,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15390,7 +15414,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15468,10 +15492,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15596,7 +15620,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15674,7 +15698,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ70">
         <v>1.83</v>
@@ -15880,7 +15904,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -16008,7 +16032,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16086,10 +16110,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR72">
         <v>1.55</v>
@@ -16214,7 +16238,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16292,10 +16316,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR73">
         <v>1.26</v>
@@ -16420,7 +16444,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16626,7 +16650,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17038,7 +17062,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17244,7 +17268,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17450,7 +17474,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18146,10 +18170,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82">
         <v>1.55</v>
@@ -18352,10 +18376,10 @@
         <v>1.8</v>
       </c>
       <c r="AP83">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18480,7 +18504,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18558,10 +18582,10 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18764,10 +18788,10 @@
         <v>2.4</v>
       </c>
       <c r="AP85">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -18970,10 +18994,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ86">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19176,10 +19200,10 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR87">
         <v>1.39</v>
@@ -19304,7 +19328,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19382,10 +19406,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
         <v>1.08</v>
-      </c>
-      <c r="AQ88">
-        <v>0.92</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19510,7 +19534,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19588,10 +19612,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19716,7 +19740,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19922,7 +19946,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20128,7 +20152,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20209,7 +20233,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR92">
         <v>1.66</v>
@@ -20334,7 +20358,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20540,7 +20564,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20618,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ94">
         <v>0.83</v>
@@ -20827,7 +20851,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ95">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20952,7 +20976,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21236,7 +21260,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ97">
         <v>1.42</v>
@@ -21364,7 +21388,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21442,10 +21466,10 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ98">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21648,7 +21672,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.92</v>
@@ -21776,7 +21800,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21857,7 +21881,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR100">
         <v>1.36</v>
@@ -22060,10 +22084,10 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22266,10 +22290,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22472,10 +22496,10 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22681,7 +22705,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23012,7 +23036,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23299,7 +23323,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23502,7 +23526,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ108">
         <v>0.92</v>
@@ -23630,7 +23654,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23708,7 +23732,7 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1.42</v>
@@ -23917,7 +23941,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ110">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24042,7 +24066,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24454,7 +24478,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24532,10 +24556,10 @@
         <v>0.43</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24738,10 +24762,10 @@
         <v>1.43</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ114">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.61</v>
@@ -24866,7 +24890,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24944,10 +24968,10 @@
         <v>2.29</v>
       </c>
       <c r="AP115">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR115">
         <v>1.03</v>
@@ -25072,7 +25096,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25278,7 +25302,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25356,7 +25380,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.83</v>
@@ -25484,7 +25508,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25562,10 +25586,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ118">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25690,7 +25714,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25771,7 +25795,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25896,7 +25920,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25974,10 +25998,10 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26102,7 +26126,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26386,7 +26410,7 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>0.83</v>
@@ -26514,7 +26538,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26592,7 +26616,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>0.92</v>
@@ -26720,7 +26744,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26798,7 +26822,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -26926,7 +26950,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27007,7 +27031,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27132,7 +27156,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27210,7 +27234,7 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ126">
         <v>1.58</v>
@@ -27338,7 +27362,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27419,7 +27443,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27544,7 +27568,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27625,7 +27649,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ128">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27750,7 +27774,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28037,7 +28061,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ130">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28240,7 +28264,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ131">
         <v>1.33</v>
@@ -28449,7 +28473,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR132">
         <v>1.53</v>
@@ -28652,7 +28676,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
         <v>1.42</v>
@@ -28780,7 +28804,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28858,10 +28882,10 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -29067,7 +29091,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ135">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29192,7 +29216,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29270,10 +29294,10 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29398,7 +29422,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29476,7 +29500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -29685,7 +29709,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29888,10 +29912,10 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ139">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30094,7 +30118,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ140">
         <v>0.83</v>
@@ -30222,7 +30246,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30303,7 +30327,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR141">
         <v>1.9</v>
@@ -30428,7 +30452,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30506,7 +30530,7 @@
         <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
         <v>1.83</v>
@@ -30634,7 +30658,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30840,7 +30864,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31330,7 +31354,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ146">
         <v>1.33</v>
@@ -31458,7 +31482,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31536,7 +31560,7 @@
         <v>1.88</v>
       </c>
       <c r="AP147">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
         <v>1.58</v>
@@ -31742,10 +31766,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31870,7 +31894,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31951,7 +31975,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ149">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR149">
         <v>1.3</v>
@@ -32076,7 +32100,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32157,7 +32181,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ150">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR150">
         <v>1.19</v>
@@ -32566,10 +32590,10 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR152">
         <v>1.58</v>
@@ -32772,10 +32796,10 @@
         <v>2.44</v>
       </c>
       <c r="AP153">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ153">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -32981,7 +33005,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ154">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR154">
         <v>1.36</v>
@@ -33106,7 +33130,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33312,7 +33336,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33390,10 +33414,10 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ156">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33805,7 +33829,7 @@
         <v>2</v>
       </c>
       <c r="AQ158">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34008,7 +34032,7 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ159">
         <v>1.42</v>
@@ -34136,7 +34160,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34214,7 +34238,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
         <v>0.83</v>
@@ -34342,7 +34366,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34420,10 +34444,10 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
         <v>1.08</v>
-      </c>
-      <c r="AQ161">
-        <v>0.92</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34548,7 +34572,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34626,10 +34650,10 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR162">
         <v>1.67</v>
@@ -35038,10 +35062,10 @@
         <v>2.5</v>
       </c>
       <c r="AP164">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ164">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35247,7 +35271,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR165">
         <v>1.35</v>
@@ -35450,7 +35474,7 @@
         <v>2.2</v>
       </c>
       <c r="AP166">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ166">
         <v>1.83</v>
@@ -35578,7 +35602,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35659,7 +35683,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ167">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR167">
         <v>1.18</v>
@@ -35784,7 +35808,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35862,7 +35886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP168">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ168">
         <v>1.25</v>
@@ -36196,7 +36220,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36277,7 +36301,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ170">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR170">
         <v>1.17</v>
@@ -36402,7 +36426,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36608,7 +36632,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36814,7 +36838,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36892,7 +36916,7 @@
         <v>1.2</v>
       </c>
       <c r="AP173">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -37020,7 +37044,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37101,7 +37125,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ174">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR174">
         <v>1.88</v>
@@ -37226,7 +37250,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37307,7 +37331,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ175">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR175">
         <v>1.4</v>
@@ -37432,7 +37456,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37510,7 +37534,7 @@
         <v>0.6</v>
       </c>
       <c r="AP176">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ176">
         <v>0.83</v>
@@ -37716,7 +37740,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ177">
         <v>1.58</v>
@@ -37925,7 +37949,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ178">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR178">
         <v>1.52</v>
@@ -38050,7 +38074,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38128,10 +38152,10 @@
         <v>0.91</v>
       </c>
       <c r="AP179">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ179">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38256,7 +38280,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38334,7 +38358,7 @@
         <v>1.09</v>
       </c>
       <c r="AP180">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>1.25</v>
@@ -38543,7 +38567,7 @@
         <v>1</v>
       </c>
       <c r="AQ181">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -38668,7 +38692,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -38746,10 +38770,10 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ182">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR182">
         <v>1.56</v>
@@ -38952,7 +38976,7 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ183">
         <v>1.83</v>
@@ -39080,7 +39104,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39158,10 +39182,10 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ184">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39364,10 +39388,10 @@
         <v>0.82</v>
       </c>
       <c r="AP185">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ185">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR185">
         <v>1.2</v>
@@ -39492,7 +39516,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39573,7 +39597,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ186">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -39776,7 +39800,7 @@
         <v>1.45</v>
       </c>
       <c r="AP187">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>1.33</v>
@@ -39904,7 +39928,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40316,7 +40340,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40522,7 +40546,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40600,7 +40624,7 @@
         <v>1.45</v>
       </c>
       <c r="AP191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>1.58</v>
@@ -40728,7 +40752,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40809,7 +40833,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ192">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR192">
         <v>1.19</v>
@@ -40934,7 +40958,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41091,6 +41115,1654 @@
       </c>
       <c r="BP193">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>6676140</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45408.54861111111</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>72</v>
+      </c>
+      <c r="H194" t="s">
+        <v>74</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>3</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>5</v>
+      </c>
+      <c r="O194" t="s">
+        <v>219</v>
+      </c>
+      <c r="P194" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q194">
+        <v>4.33</v>
+      </c>
+      <c r="R194">
+        <v>2.2</v>
+      </c>
+      <c r="S194">
+        <v>2.38</v>
+      </c>
+      <c r="T194">
+        <v>1.33</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.6</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>6</v>
+      </c>
+      <c r="Y194">
+        <v>1.09</v>
+      </c>
+      <c r="Z194">
+        <v>4.5</v>
+      </c>
+      <c r="AA194">
+        <v>3.6</v>
+      </c>
+      <c r="AB194">
+        <v>1.83</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>10</v>
+      </c>
+      <c r="AE194">
+        <v>1.25</v>
+      </c>
+      <c r="AF194">
+        <v>3.6</v>
+      </c>
+      <c r="AG194">
+        <v>1.9</v>
+      </c>
+      <c r="AH194">
+        <v>1.9</v>
+      </c>
+      <c r="AI194">
+        <v>1.73</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.76</v>
+      </c>
+      <c r="AL194">
+        <v>1.22</v>
+      </c>
+      <c r="AM194">
+        <v>1.2</v>
+      </c>
+      <c r="AN194">
+        <v>1.83</v>
+      </c>
+      <c r="AO194">
+        <v>1.75</v>
+      </c>
+      <c r="AP194">
+        <v>1.69</v>
+      </c>
+      <c r="AQ194">
+        <v>1.85</v>
+      </c>
+      <c r="AR194">
+        <v>1.42</v>
+      </c>
+      <c r="AS194">
+        <v>1.37</v>
+      </c>
+      <c r="AT194">
+        <v>2.79</v>
+      </c>
+      <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>8</v>
+      </c>
+      <c r="AW194">
+        <v>2</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>7</v>
+      </c>
+      <c r="AZ194">
+        <v>13</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>7</v>
+      </c>
+      <c r="BC194">
+        <v>12</v>
+      </c>
+      <c r="BD194">
+        <v>3.5</v>
+      </c>
+      <c r="BE194">
+        <v>9.5</v>
+      </c>
+      <c r="BF194">
+        <v>1.4</v>
+      </c>
+      <c r="BG194">
+        <v>1.22</v>
+      </c>
+      <c r="BH194">
+        <v>3.78</v>
+      </c>
+      <c r="BI194">
+        <v>1.4</v>
+      </c>
+      <c r="BJ194">
+        <v>2.64</v>
+      </c>
+      <c r="BK194">
+        <v>1.72</v>
+      </c>
+      <c r="BL194">
+        <v>2</v>
+      </c>
+      <c r="BM194">
+        <v>2.15</v>
+      </c>
+      <c r="BN194">
+        <v>1.59</v>
+      </c>
+      <c r="BO194">
+        <v>2.88</v>
+      </c>
+      <c r="BP194">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>6676147</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45408.54861111111</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>3</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>173</v>
+      </c>
+      <c r="P195" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q195">
+        <v>2.88</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>3.4</v>
+      </c>
+      <c r="T195">
+        <v>1.36</v>
+      </c>
+      <c r="U195">
+        <v>2.9</v>
+      </c>
+      <c r="V195">
+        <v>2.62</v>
+      </c>
+      <c r="W195">
+        <v>1.42</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.09</v>
+      </c>
+      <c r="Z195">
+        <v>2.3</v>
+      </c>
+      <c r="AA195">
+        <v>3.4</v>
+      </c>
+      <c r="AB195">
+        <v>3.1</v>
+      </c>
+      <c r="AC195">
+        <v>1.02</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.25</v>
+      </c>
+      <c r="AF195">
+        <v>3.6</v>
+      </c>
+      <c r="AG195">
+        <v>1.85</v>
+      </c>
+      <c r="AH195">
+        <v>1.95</v>
+      </c>
+      <c r="AI195">
+        <v>1.67</v>
+      </c>
+      <c r="AJ195">
+        <v>2.1</v>
+      </c>
+      <c r="AK195">
+        <v>1.36</v>
+      </c>
+      <c r="AL195">
+        <v>1.29</v>
+      </c>
+      <c r="AM195">
+        <v>1.7</v>
+      </c>
+      <c r="AN195">
+        <v>1.08</v>
+      </c>
+      <c r="AO195">
+        <v>0.75</v>
+      </c>
+      <c r="AP195">
+        <v>1</v>
+      </c>
+      <c r="AQ195">
+        <v>0.92</v>
+      </c>
+      <c r="AR195">
+        <v>1.25</v>
+      </c>
+      <c r="AS195">
+        <v>1.33</v>
+      </c>
+      <c r="AT195">
+        <v>2.58</v>
+      </c>
+      <c r="AU195">
+        <v>3</v>
+      </c>
+      <c r="AV195">
+        <v>9</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>6</v>
+      </c>
+      <c r="AZ195">
+        <v>12</v>
+      </c>
+      <c r="BA195">
+        <v>5</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>11</v>
+      </c>
+      <c r="BD195">
+        <v>1.82</v>
+      </c>
+      <c r="BE195">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF195">
+        <v>2.26</v>
+      </c>
+      <c r="BG195">
+        <v>1.24</v>
+      </c>
+      <c r="BH195">
+        <v>3.61</v>
+      </c>
+      <c r="BI195">
+        <v>1.44</v>
+      </c>
+      <c r="BJ195">
+        <v>2.55</v>
+      </c>
+      <c r="BK195">
+        <v>1.74</v>
+      </c>
+      <c r="BL195">
+        <v>1.98</v>
+      </c>
+      <c r="BM195">
+        <v>2.18</v>
+      </c>
+      <c r="BN195">
+        <v>1.61</v>
+      </c>
+      <c r="BO195">
+        <v>2.75</v>
+      </c>
+      <c r="BP195">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>6676146</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45408.54861111111</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>82</v>
+      </c>
+      <c r="H196" t="s">
+        <v>83</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>220</v>
+      </c>
+      <c r="P196" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q196">
+        <v>1.67</v>
+      </c>
+      <c r="R196">
+        <v>2.75</v>
+      </c>
+      <c r="S196">
+        <v>7.5</v>
+      </c>
+      <c r="T196">
+        <v>1.29</v>
+      </c>
+      <c r="U196">
+        <v>3.3</v>
+      </c>
+      <c r="V196">
+        <v>2.3</v>
+      </c>
+      <c r="W196">
+        <v>1.55</v>
+      </c>
+      <c r="X196">
+        <v>5</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>1.25</v>
+      </c>
+      <c r="AA196">
+        <v>6</v>
+      </c>
+      <c r="AB196">
+        <v>9.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>12</v>
+      </c>
+      <c r="AE196">
+        <v>1.18</v>
+      </c>
+      <c r="AF196">
+        <v>4.33</v>
+      </c>
+      <c r="AG196">
+        <v>1.44</v>
+      </c>
+      <c r="AH196">
+        <v>2.63</v>
+      </c>
+      <c r="AI196">
+        <v>1.83</v>
+      </c>
+      <c r="AJ196">
+        <v>1.83</v>
+      </c>
+      <c r="AK196">
+        <v>1.07</v>
+      </c>
+      <c r="AL196">
+        <v>1.12</v>
+      </c>
+      <c r="AM196">
+        <v>2.52</v>
+      </c>
+      <c r="AN196">
+        <v>2.17</v>
+      </c>
+      <c r="AO196">
+        <v>0.75</v>
+      </c>
+      <c r="AP196">
+        <v>2.23</v>
+      </c>
+      <c r="AQ196">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR196">
+        <v>1.78</v>
+      </c>
+      <c r="AS196">
+        <v>1.21</v>
+      </c>
+      <c r="AT196">
+        <v>2.99</v>
+      </c>
+      <c r="AU196">
+        <v>9</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>15</v>
+      </c>
+      <c r="AZ196">
+        <v>6</v>
+      </c>
+      <c r="BA196">
+        <v>7</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>10</v>
+      </c>
+      <c r="BD196">
+        <v>1.22</v>
+      </c>
+      <c r="BE196">
+        <v>11.5</v>
+      </c>
+      <c r="BF196">
+        <v>5.05</v>
+      </c>
+      <c r="BG196">
+        <v>1.21</v>
+      </c>
+      <c r="BH196">
+        <v>3.94</v>
+      </c>
+      <c r="BI196">
+        <v>1.41</v>
+      </c>
+      <c r="BJ196">
+        <v>2.65</v>
+      </c>
+      <c r="BK196">
+        <v>2.38</v>
+      </c>
+      <c r="BL196">
+        <v>2.03</v>
+      </c>
+      <c r="BM196">
+        <v>2.1</v>
+      </c>
+      <c r="BN196">
+        <v>1.65</v>
+      </c>
+      <c r="BO196">
+        <v>2.65</v>
+      </c>
+      <c r="BP196">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>6676143</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45409.38541666666</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>77</v>
+      </c>
+      <c r="H197" t="s">
+        <v>84</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>131</v>
+      </c>
+      <c r="P197" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q197">
+        <v>2.75</v>
+      </c>
+      <c r="R197">
+        <v>2.2</v>
+      </c>
+      <c r="S197">
+        <v>3.4</v>
+      </c>
+      <c r="T197">
+        <v>1.4</v>
+      </c>
+      <c r="U197">
+        <v>2.75</v>
+      </c>
+      <c r="V197">
+        <v>3</v>
+      </c>
+      <c r="W197">
+        <v>1.36</v>
+      </c>
+      <c r="X197">
+        <v>7</v>
+      </c>
+      <c r="Y197">
+        <v>1.08</v>
+      </c>
+      <c r="Z197">
+        <v>2.2</v>
+      </c>
+      <c r="AA197">
+        <v>3.5</v>
+      </c>
+      <c r="AB197">
+        <v>3.25</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>8</v>
+      </c>
+      <c r="AE197">
+        <v>1.3</v>
+      </c>
+      <c r="AF197">
+        <v>3.3</v>
+      </c>
+      <c r="AG197">
+        <v>1.8</v>
+      </c>
+      <c r="AH197">
+        <v>2</v>
+      </c>
+      <c r="AI197">
+        <v>1.67</v>
+      </c>
+      <c r="AJ197">
+        <v>2.1</v>
+      </c>
+      <c r="AK197">
+        <v>1.26</v>
+      </c>
+      <c r="AL197">
+        <v>1.26</v>
+      </c>
+      <c r="AM197">
+        <v>1.58</v>
+      </c>
+      <c r="AN197">
+        <v>1.75</v>
+      </c>
+      <c r="AO197">
+        <v>1.25</v>
+      </c>
+      <c r="AP197">
+        <v>1.85</v>
+      </c>
+      <c r="AQ197">
+        <v>1.15</v>
+      </c>
+      <c r="AR197">
+        <v>1.49</v>
+      </c>
+      <c r="AS197">
+        <v>1.57</v>
+      </c>
+      <c r="AT197">
+        <v>3.06</v>
+      </c>
+      <c r="AU197">
+        <v>4</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>9</v>
+      </c>
+      <c r="AX197">
+        <v>3</v>
+      </c>
+      <c r="AY197">
+        <v>13</v>
+      </c>
+      <c r="AZ197">
+        <v>8</v>
+      </c>
+      <c r="BA197">
+        <v>6</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>9</v>
+      </c>
+      <c r="BD197">
+        <v>1.94</v>
+      </c>
+      <c r="BE197">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF197">
+        <v>2.04</v>
+      </c>
+      <c r="BG197">
+        <v>0</v>
+      </c>
+      <c r="BH197">
+        <v>0</v>
+      </c>
+      <c r="BI197">
+        <v>1.26</v>
+      </c>
+      <c r="BJ197">
+        <v>3.34</v>
+      </c>
+      <c r="BK197">
+        <v>1.48</v>
+      </c>
+      <c r="BL197">
+        <v>2.4</v>
+      </c>
+      <c r="BM197">
+        <v>1.83</v>
+      </c>
+      <c r="BN197">
+        <v>1.87</v>
+      </c>
+      <c r="BO197">
+        <v>2.3</v>
+      </c>
+      <c r="BP197">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>6676144</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>71</v>
+      </c>
+      <c r="H198" t="s">
+        <v>73</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>3</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>86</v>
+      </c>
+      <c r="P198" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q198">
+        <v>5.5</v>
+      </c>
+      <c r="R198">
+        <v>2.38</v>
+      </c>
+      <c r="S198">
+        <v>1.95</v>
+      </c>
+      <c r="T198">
+        <v>1.34</v>
+      </c>
+      <c r="U198">
+        <v>3.1</v>
+      </c>
+      <c r="V198">
+        <v>2.57</v>
+      </c>
+      <c r="W198">
+        <v>1.47</v>
+      </c>
+      <c r="X198">
+        <v>6.2</v>
+      </c>
+      <c r="Y198">
+        <v>1.1</v>
+      </c>
+      <c r="Z198">
+        <v>6.5</v>
+      </c>
+      <c r="AA198">
+        <v>4.33</v>
+      </c>
+      <c r="AB198">
+        <v>1.5</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>10.5</v>
+      </c>
+      <c r="AE198">
+        <v>1.21</v>
+      </c>
+      <c r="AF198">
+        <v>3.74</v>
+      </c>
+      <c r="AG198">
+        <v>1.7</v>
+      </c>
+      <c r="AH198">
+        <v>2.1</v>
+      </c>
+      <c r="AI198">
+        <v>1.83</v>
+      </c>
+      <c r="AJ198">
+        <v>1.83</v>
+      </c>
+      <c r="AK198">
+        <v>2.41</v>
+      </c>
+      <c r="AL198">
+        <v>1.21</v>
+      </c>
+      <c r="AM198">
+        <v>1.12</v>
+      </c>
+      <c r="AN198">
+        <v>1.08</v>
+      </c>
+      <c r="AO198">
+        <v>2.33</v>
+      </c>
+      <c r="AP198">
+        <v>1</v>
+      </c>
+      <c r="AQ198">
+        <v>2.38</v>
+      </c>
+      <c r="AR198">
+        <v>1.27</v>
+      </c>
+      <c r="AS198">
+        <v>1.51</v>
+      </c>
+      <c r="AT198">
+        <v>2.78</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>6</v>
+      </c>
+      <c r="AW198">
+        <v>2</v>
+      </c>
+      <c r="AX198">
+        <v>8</v>
+      </c>
+      <c r="AY198">
+        <v>6</v>
+      </c>
+      <c r="AZ198">
+        <v>14</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>8</v>
+      </c>
+      <c r="BD198">
+        <v>3.66</v>
+      </c>
+      <c r="BE198">
+        <v>9.9</v>
+      </c>
+      <c r="BF198">
+        <v>1.37</v>
+      </c>
+      <c r="BG198">
+        <v>1.21</v>
+      </c>
+      <c r="BH198">
+        <v>3.74</v>
+      </c>
+      <c r="BI198">
+        <v>1.41</v>
+      </c>
+      <c r="BJ198">
+        <v>2.6</v>
+      </c>
+      <c r="BK198">
+        <v>2.38</v>
+      </c>
+      <c r="BL198">
+        <v>1.99</v>
+      </c>
+      <c r="BM198">
+        <v>2.17</v>
+      </c>
+      <c r="BN198">
+        <v>1.58</v>
+      </c>
+      <c r="BO198">
+        <v>2.91</v>
+      </c>
+      <c r="BP198">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>6676142</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>76</v>
+      </c>
+      <c r="H199" t="s">
+        <v>79</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>3</v>
+      </c>
+      <c r="N199">
+        <v>5</v>
+      </c>
+      <c r="O199" t="s">
+        <v>221</v>
+      </c>
+      <c r="P199" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q199">
+        <v>2.88</v>
+      </c>
+      <c r="R199">
+        <v>2.3</v>
+      </c>
+      <c r="S199">
+        <v>3.1</v>
+      </c>
+      <c r="T199">
+        <v>1.33</v>
+      </c>
+      <c r="U199">
+        <v>3.25</v>
+      </c>
+      <c r="V199">
+        <v>2.5</v>
+      </c>
+      <c r="W199">
+        <v>1.5</v>
+      </c>
+      <c r="X199">
+        <v>5.5</v>
+      </c>
+      <c r="Y199">
+        <v>1.13</v>
+      </c>
+      <c r="Z199">
+        <v>2.4</v>
+      </c>
+      <c r="AA199">
+        <v>3.6</v>
+      </c>
+      <c r="AB199">
+        <v>2.75</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>11</v>
+      </c>
+      <c r="AE199">
+        <v>1.18</v>
+      </c>
+      <c r="AF199">
+        <v>4.33</v>
+      </c>
+      <c r="AG199">
+        <v>1.6</v>
+      </c>
+      <c r="AH199">
+        <v>2.3</v>
+      </c>
+      <c r="AI199">
+        <v>1.53</v>
+      </c>
+      <c r="AJ199">
+        <v>2.38</v>
+      </c>
+      <c r="AK199">
+        <v>1.42</v>
+      </c>
+      <c r="AL199">
+        <v>1.29</v>
+      </c>
+      <c r="AM199">
+        <v>1.62</v>
+      </c>
+      <c r="AN199">
+        <v>0.83</v>
+      </c>
+      <c r="AO199">
+        <v>0.92</v>
+      </c>
+      <c r="AP199">
+        <v>0.77</v>
+      </c>
+      <c r="AQ199">
+        <v>1.08</v>
+      </c>
+      <c r="AR199">
+        <v>1.26</v>
+      </c>
+      <c r="AS199">
+        <v>0.96</v>
+      </c>
+      <c r="AT199">
+        <v>2.22</v>
+      </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
+      <c r="AV199">
+        <v>7</v>
+      </c>
+      <c r="AW199">
+        <v>4</v>
+      </c>
+      <c r="AX199">
+        <v>8</v>
+      </c>
+      <c r="AY199">
+        <v>10</v>
+      </c>
+      <c r="AZ199">
+        <v>15</v>
+      </c>
+      <c r="BA199">
+        <v>4</v>
+      </c>
+      <c r="BB199">
+        <v>9</v>
+      </c>
+      <c r="BC199">
+        <v>13</v>
+      </c>
+      <c r="BD199">
+        <v>1.68</v>
+      </c>
+      <c r="BE199">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF199">
+        <v>2.48</v>
+      </c>
+      <c r="BG199">
+        <v>0</v>
+      </c>
+      <c r="BH199">
+        <v>0</v>
+      </c>
+      <c r="BI199">
+        <v>0</v>
+      </c>
+      <c r="BJ199">
+        <v>0</v>
+      </c>
+      <c r="BK199">
+        <v>1.83</v>
+      </c>
+      <c r="BL199">
+        <v>2.38</v>
+      </c>
+      <c r="BM199">
+        <v>1.84</v>
+      </c>
+      <c r="BN199">
+        <v>1.86</v>
+      </c>
+      <c r="BO199">
+        <v>0</v>
+      </c>
+      <c r="BP199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>6676141</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>75</v>
+      </c>
+      <c r="H200" t="s">
+        <v>70</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>86</v>
+      </c>
+      <c r="P200" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q200">
+        <v>2.88</v>
+      </c>
+      <c r="R200">
+        <v>2.25</v>
+      </c>
+      <c r="S200">
+        <v>3.2</v>
+      </c>
+      <c r="T200">
+        <v>1.33</v>
+      </c>
+      <c r="U200">
+        <v>3.25</v>
+      </c>
+      <c r="V200">
+        <v>2.63</v>
+      </c>
+      <c r="W200">
+        <v>1.44</v>
+      </c>
+      <c r="X200">
+        <v>6</v>
+      </c>
+      <c r="Y200">
+        <v>1.11</v>
+      </c>
+      <c r="Z200">
+        <v>2.5</v>
+      </c>
+      <c r="AA200">
+        <v>3.5</v>
+      </c>
+      <c r="AB200">
+        <v>2.7</v>
+      </c>
+      <c r="AC200">
+        <v>1.04</v>
+      </c>
+      <c r="AD200">
+        <v>8.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.18</v>
+      </c>
+      <c r="AF200">
+        <v>4.2</v>
+      </c>
+      <c r="AG200">
+        <v>1.7</v>
+      </c>
+      <c r="AH200">
+        <v>2.1</v>
+      </c>
+      <c r="AI200">
+        <v>1.57</v>
+      </c>
+      <c r="AJ200">
+        <v>2.25</v>
+      </c>
+      <c r="AK200">
+        <v>1.39</v>
+      </c>
+      <c r="AL200">
+        <v>1.27</v>
+      </c>
+      <c r="AM200">
+        <v>1.61</v>
+      </c>
+      <c r="AN200">
+        <v>2.08</v>
+      </c>
+      <c r="AO200">
+        <v>1.42</v>
+      </c>
+      <c r="AP200">
+        <v>2</v>
+      </c>
+      <c r="AQ200">
+        <v>1.38</v>
+      </c>
+      <c r="AR200">
+        <v>1.52</v>
+      </c>
+      <c r="AS200">
+        <v>1.68</v>
+      </c>
+      <c r="AT200">
+        <v>3.2</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>2</v>
+      </c>
+      <c r="AW200">
+        <v>5</v>
+      </c>
+      <c r="AX200">
+        <v>3</v>
+      </c>
+      <c r="AY200">
+        <v>10</v>
+      </c>
+      <c r="AZ200">
+        <v>5</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>3</v>
+      </c>
+      <c r="BC200">
+        <v>8</v>
+      </c>
+      <c r="BD200">
+        <v>1.7</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
+        <v>2.45</v>
+      </c>
+      <c r="BG200">
+        <v>0</v>
+      </c>
+      <c r="BH200">
+        <v>0</v>
+      </c>
+      <c r="BI200">
+        <v>0</v>
+      </c>
+      <c r="BJ200">
+        <v>0</v>
+      </c>
+      <c r="BK200">
+        <v>2.1</v>
+      </c>
+      <c r="BL200">
+        <v>0</v>
+      </c>
+      <c r="BM200">
+        <v>2.03</v>
+      </c>
+      <c r="BN200">
+        <v>1.7</v>
+      </c>
+      <c r="BO200">
+        <v>0</v>
+      </c>
+      <c r="BP200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>6676148</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45410.22916666666</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s">
+        <v>80</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>131</v>
+      </c>
+      <c r="P201" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q201">
+        <v>2</v>
+      </c>
+      <c r="R201">
+        <v>2.4</v>
+      </c>
+      <c r="S201">
+        <v>5</v>
+      </c>
+      <c r="T201">
+        <v>1.3</v>
+      </c>
+      <c r="U201">
+        <v>3.4</v>
+      </c>
+      <c r="V201">
+        <v>2.5</v>
+      </c>
+      <c r="W201">
+        <v>1.5</v>
+      </c>
+      <c r="X201">
+        <v>5.5</v>
+      </c>
+      <c r="Y201">
+        <v>1.13</v>
+      </c>
+      <c r="Z201">
+        <v>1.47</v>
+      </c>
+      <c r="AA201">
+        <v>3.83</v>
+      </c>
+      <c r="AB201">
+        <v>4.84</v>
+      </c>
+      <c r="AC201">
+        <v>1.03</v>
+      </c>
+      <c r="AD201">
+        <v>11</v>
+      </c>
+      <c r="AE201">
+        <v>1.2</v>
+      </c>
+      <c r="AF201">
+        <v>4.33</v>
+      </c>
+      <c r="AG201">
+        <v>1.6</v>
+      </c>
+      <c r="AH201">
+        <v>2.1</v>
+      </c>
+      <c r="AI201">
+        <v>1.67</v>
+      </c>
+      <c r="AJ201">
+        <v>2.1</v>
+      </c>
+      <c r="AK201">
+        <v>1.14</v>
+      </c>
+      <c r="AL201">
+        <v>1.14</v>
+      </c>
+      <c r="AM201">
+        <v>2.45</v>
+      </c>
+      <c r="AN201">
+        <v>1.5</v>
+      </c>
+      <c r="AO201">
+        <v>0.83</v>
+      </c>
+      <c r="AP201">
+        <v>1.38</v>
+      </c>
+      <c r="AQ201">
+        <v>1</v>
+      </c>
+      <c r="AR201">
+        <v>1.6</v>
+      </c>
+      <c r="AS201">
+        <v>1.26</v>
+      </c>
+      <c r="AT201">
+        <v>2.86</v>
+      </c>
+      <c r="AU201">
+        <v>6</v>
+      </c>
+      <c r="AV201">
+        <v>5</v>
+      </c>
+      <c r="AW201">
+        <v>4</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+      <c r="AY201">
+        <v>10</v>
+      </c>
+      <c r="AZ201">
+        <v>7</v>
+      </c>
+      <c r="BA201">
+        <v>10</v>
+      </c>
+      <c r="BB201">
+        <v>1</v>
+      </c>
+      <c r="BC201">
+        <v>11</v>
+      </c>
+      <c r="BD201">
+        <v>1.3</v>
+      </c>
+      <c r="BE201">
+        <v>10.5</v>
+      </c>
+      <c r="BF201">
+        <v>4.15</v>
+      </c>
+      <c r="BG201">
+        <v>0</v>
+      </c>
+      <c r="BH201">
+        <v>0</v>
+      </c>
+      <c r="BI201">
+        <v>1.36</v>
+      </c>
+      <c r="BJ201">
+        <v>2.79</v>
+      </c>
+      <c r="BK201">
+        <v>2.1</v>
+      </c>
+      <c r="BL201">
+        <v>2.07</v>
+      </c>
+      <c r="BM201">
+        <v>2.07</v>
+      </c>
+      <c r="BN201">
+        <v>1.67</v>
+      </c>
+      <c r="BO201">
+        <v>0</v>
+      </c>
+      <c r="BP201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
